--- a/기사데이터/토스/엑셀파일/news(토스, 2022.08.16~2022.08.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.08.16~2022.08.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.08.27.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>‘정부 금융산업 새 판 짜기’ 은행·빅테크·보험업계 전운</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001549132?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>금융규제혁신 놓고 대립금융 당국은 금융회사의 ‘금융 플랫폼’ 성장 발판 마련을 위해 관련 규제를 과감하게 푸는 방안을 추진하고 있다. 사진은 지난 23일 정부서울청사에서 열린 제2차 금융규제혁신회의에서 김주현 금융위원장이 발언하고 있는 모습. 김 위원장은 “규제 개혁의 지향점은 결국 소비자를 위한 혁신”이라고 강조했다. 뉴시스“규제를 혁신해 금융산업에 새 판을 깔겠다. 플랫폼 금융을 활성화해 기존 금융사와 빅테크 간 경쟁을 유도하면 혁신이 일어나 새로운 경쟁의 장이 열릴 것이다.”김주현 금융위원장은 지난 23일 정부서울청사에서 제2차 금융규제혁신회의를 주재하며 이렇게 말했다. 금융에 플랫폼을 접목해 소비자 편의성을 높이고 산업 혁신을 촉진하는 방안을 추진하기 위한 자리였다.규제 혁신은 윤석열정부 금융위가 초기부터 내세운 정책 방향이다. 김 위원장은 지난 6월 후보자로 지명된 직후 기자간담회에서 “규제를 풀어 방탄소년단(BTS) 같은 금융사가 탄생해야 한다. 필요하다면 금산 분리까지도 보완될 수 있어야 한다”고 목소리를 높였다.금융 자본과 산업 자본을 분리해 재벌기업이 은행을 사들여 사(私)금고화하지 못하도록 하는 금산 분리는 오랜 기간 한국 사회에서 일종의 성역처럼 여겨졌다. 특히 2010년대 초·중반 동양그룹이 경영난을 타개하기 위해 일반 투자자들에게 회사채와 기업어음(CP) 등을 팔아 4만여명, 1조7000억원 규모의 피해를 냈던 ‘동양 사태’ 이후 매 정권은 금산 분리를 건드릴 엄두조차 내지 못했다.그러나 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)을 중심으로 한 주요 금융지주사가 수백조원을 굴리는 등 몸집을 키운 뒤에는 금산 분리가 되려 금융사의 사업 다각화를 막는 족쇄처럼 작용했던 것도 사실이다. 예금과 대출 금리 간 차이(예대금리차)에서 발생하는 이자 수익에 절대적으로 의존하는 결과를 낳은 것이다. 금산 분리를 필두로 한 각종 규제 탓에 “한국 금융경쟁력은 우간다보다 못하다”는 말까지 나왔다.이런 상황이 금융위가 정부 출범 초기 규제 혁신에 주력한 배경이다. 지난 6월 은행 보험 증권 등 각 업종 협회·단체에 ‘풀고 싶은 규제를 가감 없이 전달해 달라’고 요청해 230여개 과제를 받은 뒤 이를 36개로 추렸다. 이날 회의 결과가 본격적인 규제 혁신의 첫걸음인 셈이다.구체적인 회의 안건은 ‘빅테크(대형 정보기술(IT) 기업)의 온라인 금융상품 중개 허용’이다. 현재 빅테크는 대출상품에 한해서만 온라인 가격 비교 서비스를 제공할 수 있는데 이 범주를 보험, 예금, P2P(대출 수요자 대 공급자) 금융으로 확대하겠다는 내용이다. 현재 대출만 중개하는 토스, 핀다 등은 더 많은 금융 상품을 고객에게 추천할 수 있게 됐다.대신 금융사에는 ‘플랫폼 업무 활성화’라는 당근을 줬다. 은행은 보험 증권 카드 등 계열사 서비스를 한꺼번에 제공할 수 있는 통합 애플리케이션을 만들 수 있게 된다. 보험사는 헬스케어 자회사를 설립해 개인이나 기업 대상 건강관리 서비스를 제공하거나 관련 상품·소프트웨어를 만들어 팔 수 있다. 요양원 같은 시설도 직접 운영이 가능해진다.오매불망 기다려온 규제 혁신이지만 구체적인 내용이 발표된 뒤 금융권에는 긴장감이 감돈다. 규제 혁신 방향인 ‘금융과 플랫폼의 접목’이 금융사 고객을 빅테크로 옮기는 결과를 낳을 수 있다는 우려 때문이다.이미 보험업계에서는 갈등이 수면 위로 떠오른 상황이다. 한국보험대리점협회(협회)는 “빅테크가 보험상품을 팔 수 있게 되면 독립 보험대리점이 모조리 고사할 것”이라며 회의가 열리기 하루 전인 22일 용산 대통령실 앞에서 결의대회를 열었다. 이들은 불공정 경쟁 등 적지 않은 부작용을 일으킬 수 있는 사안인데도 권한을 가진 금융위가 업계 의견을 단 1회 수렴하고 마는 등 관련 절차를 주먹구구식으로 밟아나가고 있다고 지적했다. 또 보험 판매 시장에서 빅테크 의존도가 높아지면 보험사에 더 많은 수수료를 요구, 결국 소비자 이익이 줄어들 수 있다고 경고했다.게티이미지빅테크 업체들은 “대출상품 가격 비교 서비스는 이미 활발히 이용되고 있는데 보험은 안 된다는 협회 주장은 어불성설”이라고 맞서는 상황이다. 현재 자동차보험 등 8개 범주의 보험 상품 가격을 비교할 수 있는 손해·생명보험협회 ‘보험다모아’ 서비스가 존재하지만 홍보가 부족해 널리 쓰이지 않고 있다. 보험상품 가격 비교·판매 중개 플랫폼이 출시되면 소비자 선택권이 늘어나고 편의성도 개선된다는 것이 빅테크 업체 측 주장이다. 수수료의 경우 “일어나지 않은 가정에 기반해 무리한 주장을 하고 있다”고 일축했다.다른 금융사는 계산기를 두드리며 득실 따지기에 한창이다. 업권별로 다른 혜택이 주어진 만큼 이해관계가 다른 상황이다. 특히 은행권의 경우 파급력이 큰 ‘비금융업 진출 허용’안이 빠져 실망스러운 표정이다. 보험업권에서는 미래 먹거리로 꼽히는 헬스케어 서비스를 출시할 수 있게 됐지만 한편으로는 빅테크의 상품 판매 시장 진출 허용이 부담스럽다.익명을 요구한 은행권 관계자는 “금융사는 빅테크에 비해 IT 역량이 뒤처질 수밖에 없다. 금융의 플랫폼화에 초점을 맞춘 이번 규제 혁신을 마냥 반기기는 어렵다”면서 “이번 규제 혁신은 빅테크 업계 만족도가 클 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[인사이드 스토리]큐텐 업은 티몬, 부활 날개 펼까</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000010093?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>글로벌 직구 플랫폼 큐텐, 티몬 인수최근 부진 지속한 티몬에 반등 기회이커머스 시장 파문 일으킬지 관심장윤석 티몬 대표/그래픽=비즈니스워치왕년의 '소셜커머스 빅 3' 티몬이 또 한 번의 변화를 맞이하게 됐습니다. 글로벌 해외직구 기업 '큐텐'이 티몬을 인수하게 됐다는 소식입니다. 2015년 리빙소셜이 KKR과 앵커에쿼티파트너스 등 사모펀드에 지분을 매각한 지 7년여 만에 주인이 바뀌는 겁니다. 큐텐은 사모펀드들이 보유한 티몬 지분 81.74%와 큐텐의 자회사인 큐익스프레스의 지분을 교환하는 방식으로 티몬의 경영권을 확보합니다. 정확한 규모는 알려지지 않았지만 업계에서는 2000억원대로 추정하고 있습니다. 티몬의 매각은 사실 놀라운 일은 아닙니다. 이미 두 차례나 경영권이 바뀌었던 곳인 데다 몇 년 전부터 꾸준히 매각설이 돌았습니다. 경쟁사였던 쿠팡이나 위메프가 여전히 창업주의 영향력 아래 있는 것과 달리 티몬은 주인이 사모펀드로 바뀐 지 오래기 때문입니다. 2019년에는 롯데온을 론칭하려던 롯데그룹이 인수하려다 막판에 무산되기도 했습니다. 최근까지도 토스페이먼츠가 티몬에 관심을 표하다가 물러섰죠. 매각 시도가 잇따라 불발되면서 티몬은 한 때 기업공개(IPO)로 방향을 전환하기도 했습니다. 롯데와의 협상이 결렬된 뒤인 2019년 12월에는 "내년 월간 흑자를 달성할 것"이라며 "흑자전환 후 2~3년 내 상장할 수 있을 것"이라는 청사진을 내놨죠. 2020년 3월에는 실제로 월 단위 흑자를 내면서 창사 후 첫 흑자전환 기대감을 높이기도 했습니다. 하지만 코로나19가 모든 것을 바꿔놓았습니다. 2020년 봄 코로나19가 전세계를 강타하면서 모든 계획이 어긋났죠. 특히 티몬이 강점으로 삼던 여행·티켓·패션 부문은 매출이 수직 하락했습니다. 쿠팡과 마켓컬리 등 생필품 즉시 배송 서비스를 운영하는 곳들만 반사이익을 봤죠. 그간 온라인몰에 소극적이던 대형마트들이 대대적으로 온라인·즉시배송 서비스를 강화한 것도 티몬에겐 타격이었습니다. / 그래픽=김용민 기자 kym5380@물론 티몬에도 '잘 나가던 시절'은 있었습니다. 이름이 아직 '티켓몬스터'였던 때 티몬은 시장을 선도하는 기업이었습니다. 국내 최초의 소셜커머스라는 타이틀을 앞세워 쿠팡, 위메프와 함께 '빅 3'로 자리매김했습니다. 소셜커머스 시장이 과열되자 빠르게 오픈마켓을 구축, 이커머스 형태로 전환한 것도 좋은 선택이었습니다. 경쟁사인 쿠팡이 '로켓배송'을 선보이며 한 발 앞서가긴 했지만 티몬 역시 자신만의 길을 구축하고 있는 것으로 보였습니다.하지만 2017년 창업주인 신현성 대표가 물러난 후 평균 1년마다 대표이사가 교체되면서 티몬도 흔들리기 시작했습니다. 대표가 바뀔 때마다 방향성과 전략이 바뀌곤 했죠. 신 대표가 물러난 뒤 대표가 된 유한익 대표는 생필품 직매입 사업인 '슈퍼마트'를 강조했습니다. 2015년 핵심사업추진단장 시절 선보인 서비스를 키우겠다는 의중이었습니다. 1년여 만인 2018년에는 이재후 대표가 선임돼 '큐레이션 딜'을 내세웠습니다. TV홈쇼핑 컨셉트의 C2C라이브 사업을 통해 활로를 찾겠다는 계획이었죠. 채 1년도 되지 않은 2019년 6월에는 이진원 대표가 선임됐습니다. 이번에 내놓은 카드는 짧은 시간 동안 특가 상품을 선보이는 '타임 커머스'였습니다. 물론 이 대표도 오래 버티진 못했습니다. 채 2년을 채우지 못하고 전인천 재무부사장(CFO)이 새 대표로 올라섭니다. 하반기 IPO를 위한 행보였습니다. 전 대표는 한 달 만에 사임했습니다. 6월 선임된 장윤석 대표가 14개월째 회사를 이끌고 있습니다. NFT 사업 개발에 나서는 등 블록체인 생태계를 구축한다는 계획도 내놨습니다. 티몬의 계획표에 '타임커머스'가 사라진 것도 당연한 수순이었죠./ 그래픽=김용민 기자 kym5380@해마다 수장과 전략이 바뀌니 실적도 영향을 받았습니다. 코로나19 이전인 2019년 티몬은 매출 1722억원, 영업손실 746억원을 기록했습니다. 2020년엔 매출 1512억원, 영업손실 631억원으로 매출이 200억원이나 줄었습니다. 지난해엔 매출 1291억원, 영업손실 760억원으로 매출은 200억원 넘게 줄고 영업손실은 130억원이나 늘었습니다. 1조원을 웃돌던 몸값도 5분의 1 이하로 떨어졌습니다.큐텐이 이런 티몬에 새 바람을 불러일으킬 수 있을까요. 티몬의 새 주인은 지난 2010년 G마켓을 매각한 뒤 12년 만에 한국 이커머스 시장으로 돌아오는 구영배 대표입니다. 구 대표는 인터파크의 사내 벤처로 시작한 '구스닥'을 국내 최대 온라인 쇼핑몰 'G마켓'으로 키워낸 인물입니다. G마켓을 이베이에 매각한 뒤에는 해외직구몰 큐텐을 세워 일본, 싱가포르, 인도네시아, 중국, 홍콩, 말레이시아 등 6개국에서 성공시켰습니다. 큐텐은 앞서 이베이코리아 인수전에 뛰어들기도 했고 최근에는 인터파크 쇼핑 부문의 유력한 인수 후보로 떠오르기도 했습니다. 미국 나스닥 상장을 준비 중이기도 하죠. 그만큼 '탄탄한' 기업이라는 의미입니다.티몬의 올해 실적도 바닥을 치고 반등할 것으로 보입니다. 티몬의 올해 상반기 거래액은 전년 대비 23% 증가했습니다. 공연전시 '엔데믹' 효과에 거래액이 3000% 이상 뛰었고 여행·숙박과 뷰티 등 사회적 거리두기 영향을 받았던 카테고리도 큰 폭으로 늘었습니다. 아직 수요가 완전히 회복되지 않은 해외여행도 전년 대비 4000% 넘게 급증했습니다. 하반기에는 더 큰 폭의 개선이 이뤄질 전망입니다. 해외직구에 강점이 있는 큐텐과의 시너지 효과도 기대됩니다.다만 최근 2~3년 동안 티몬이 경쟁력을 많이 상실했다는 점, 큐텐이 국내에서는 큰 영향력을 가진 플랫폼이 아니라는 점, 국내 이커머스 시장이 쿠팡과 네이버를 중심으로 완전히 재편됐다는 점 등은 티몬의 반등 가능성에 의문을 갖게 만드는 부분입니다. 국내 이커머스 1세대와 손잡은 1세대 소셜커머스는 과연 '왕년의 영광'을 재현할 수 있을까요. 티몬의 향후 '한 걸음'이 궁금한 이유입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.08.18.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>`카드사 앱`의 진화… 커피 주문·영화예매 문제없어요</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002749707?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>'KB페이'로 주식거래 한번에 OKBC카드 '페이북' 영화예매 서비스신한 마이샵 파트너 건강검진 할인삼성카드, 스타벅스·버거킹 주문농협, 야구장 식음료 픽업 서비스삼성카드 앱 갈무리    카드사들이 자체 앱(애플리케이션)에 각종 비금융 서비스를 포함시키는 등 생활 플랫폼으로 진화하려는 노력을 거듭하고 있다. 앱에서 주식을 거래하거나 커피·햄버거 주문하고 영화 예매를 하는 일도 가능하다. 이용자를 오래 머무르게 하기 위한 전략으로 보인다. 18일 금융권에 따르면 카드사들은 주요 앱에 비금융 서비스를 얹고 있다. KB국민카드가 운영하는 간편결제플랫폼 'KB페이'는 주식계좌 개설과 국내외 주식 거래를 한꺼번에 할 수 있는 'KB증권 주식투자' 서비스를 선보이고 있다. 증권사 앱으로 이동하지 않아도 간편하계 주식을 매매할 수 있다. 높아진 물가에 늘어난 짠테크(짜다+재테크)를 겨냥한 포인트 적립 행사도 진행하는 중이다. 접속하면 매일 최대 100포인트 적립, 결제마다 포인트 추가 적립 기회를 제공해 KB페이 앱의 사용 빈도를 높이고 있다. BC카드는 금융결제 플랫폼 '페이북'에서 영화 예매 서비스를 시작했다. 특정 카드 이용 고객이 페이북에서 할인된 가격의 메가박스 극장 영화를 예매하는 기능이다. 카드 고객이 아니어도 BC카드 페이북 회원이라면 1만원에 영화를 예매할 수 있다. 일요일이나 공휴일에 상영하는 영화 예매 시 티켓·팝콘 세트로 예매할 경우에는 8000원 할인된 가격에 예매할 수 있다.신한카드는 지난 6월부터 소상공인 통합 지원 플랫폼 '마이샵 파트너'에서 스마트 건강관리 서비스를 시작했다. 플랫폼을 이용하는 소상공인은 185개 병원이 제공하는 건강검진 서비스를 20% 할인된 가격에 받을 수 있다. 사업체를 운영해야 하는 소상공인 특성상 건강검진을 받기 어려운데다 단체 할인 혜택을 받기 힘든 현실을 반영한 결과물이다.'O2O'(Online To Offline) 서비스를 제공하는 앱도 있다. 삼성카드는 앱에서 스타벅스와 버거킹 '오더 서비스'를 선보이고 있다. 스타벅스나 버거킹 앱을 설치하지 않아도 삼성카드 앱을 통해 커피와 햄버거를 주문할 수 있다. 농협카드는 간편결제 플랫폼 'NH페이'를 통해 전국 2개 야구장에서 식음료를 주문하고 받아오는 픽업 서비스를 운영한다. 카드사들이 앱 서비스 제공 영역을 확장하는 것은 앱 사용 빈도를 높이고 이용 시간을 더 늘리기 위한 시도로 해석된다. 모바일 앱 경쟁력은 이용자가 얼마나 자주 쓰는지, 머무는 시간은 얼마나 되는지 등의 지표로 나타난다. 카카오페이, 네이버페이, 토스와 간편결제 시장에서 맞붙는 카드사로서는 경쟁에서 밀리지 않기 위해 앱을 활성화할 만한 서비스를 내놓는 것이다. 한 업계 관계자는 "결제시장 경쟁이 치열해지면서 카드 청구서 조회, 결제 기능 제공만으로 성장하기 어려운 환경"이라며 "실제 활용은 저조하더라도 새로운 시도로 고객을 확보하는 일이 카드사 경쟁력을 가늠하는 요소가 될 것"이라고 말했다. NH농협카드 앱 갈무리</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>토뱅, 3천억 유증 다음 날 올 세 번째 '스톡옵션'도 결정</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000300528?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[앵커] 금융권 소식으로 이어가겠습니다. 날로 몸집을 불리고 있는 인터넷전문은행 토스뱅크가 직원들에게 '스톡옵션', 즉 자사주를 일정 가격에 살 수 있는 주식매수선택권을 지급하기로 했습니다. 커진 몸집만큼 직원들도 챙기겠다는 건데요.김성훈 기자, 최근 여러 차례 소식이 들린 것 같은데 토스뱅크 벌써 올해만 몇 번째인가요? [기자] 토스뱅크는 지난 25일 주주총회를 열고, 직원 29명에게 스톡옵션 지급을 결정했습니다. 토스뱅크의 스톡옵션 지급은 지난 2월과 5월에 이어 올 들어 세 번째입니다. 전체 43만4,000주 규모인데요.1주당 행사가 5,000원을 기준으로, 21억7,000만 원어치입니다. 토스뱅크는 "입사 1주년을 맞은 직원들에게 부여했다"며 "전문성을 갖춘 우수 인력을 확보하고 사업 성장의 과실을 나누겠다는 취지"라고 설명했습니다. 이번에 스톡옵션을 받은 직원들은 2년 뒤인 2024년 8월 말부터 2029년 8월 말까지 스톡옵션을 행사할 수 있습니다. [앵커] 얼마 안 있으면 출범 1년인데, 토스뱅크 외형 얼마나 커졌나요? [기자] 토스뱅크는 몸집을 계속 키우고 있는데요.스톡옵션 지급 결정 하루 전인 지난 24일에는 이사회를 열고, 3,000억 원 규모의 유상증자를 결정했습니다. 토스뱅크는 올 들어 다섯 차례 유상증자로 지난해 10월 출범 초기 2,500억 원에 불과했던 자본금을 1조3,500억 원까지 불리게 됐습니다. 자본금 확대 속에 출범 후 1년도 안 돼 수신은 20조 원, 여신은 4조 원 규모까지 증가했습니다. 다만 지난달 가계대출 예대금리차가 인터넷은행 중 가장 높은 5.6%p를 기록하며, '이자장사' 지적을 받기도 했습니다. 담보 대출상품 없이 신용대출만 취급한 영향이기도 한데요.토스뱅크는 올 하반기 전세자금대출을 시작으로 내년에는 주택담보대출도 내놓을 계획입니다. SBS Biz 김성훈입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>은행, 가계대출 금리인하요구 23% 수용…4건 중 1건</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011392534?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>기사내용 요약상반기 은행권 85만건 신청에 20만건 수용, 188억 이자 감면기업대출은 수용률 51.8%로 이자 540억 감면돼 차이5대 시중은행 가계대출 수용률은 신한 29%로 낮고 농협은행 60%대로 높아인터넷은행은 토스뱅크 17.8%로 가장 낮아[서울=뉴시스] 이정필 기자 = 올해 상반기 가계대출 금리인하요구권을 통해 5건 중 1건 정도만 수용된 것으로 나타났다. 5대 시중은행 중에서는 신한은행의 수용률이 가장 낮고, NH농협은행이 가장 높았다.전국은행연합회는 30일 홈페이지 소비자포털에 은행별 금리인하요구권 운영실적을 첫 비교 공시했다. 이번 공시는 금융위원회와 금융감독원, 은행연합회가 지난해 10월 공동 발표한 금리인하요구권 활성화 방안의 후속조치로 시행된 것이다.은행연 공시에 따르면 올 상반기 중 은행권 금리인하요구 신청건수는 총 88만8619건으로 집계됐다. 이 중 22만797건이 수용돼 총 728억2900만원의 이자가 감면됐다.가계대출은 85만236건 신청에 20만910건이 수용됐다. 23.6%의 수용률로 감면된 이자는 187억8200만원이다.기업대출은 3만8383건 신청에 1만9887건이 수용됐다. 51.8%의 절반이 넘는 높은 수용률로 540억4700만원의 이자가 감면됐다.은행별로 가계대출 금리인하요구권 수용률을 보면, 신한은행이 29%로 5대 시중은행 중 가장 낮았다. 이어 하나은행 32.3%, KB국민은행 37.9%, 우리은행 46.1% 순으로 나타났다. 농협은행은 60.5%로 가장 높았다.인터넷전문은행 중에서는 토스뱅크가 17.8%로 가장 낮았다. 이어 카카오뱅크 19%, 케이뱅크 24.6% 순이었다.은행연에 따르면 이번 공시는 은행별 동일한 통계기준에 따라 이뤄진 첫 공시다. 과거와 통계기준이 상이해 정확한 비교분석은 어려우나 수용건수·이자감면액 모두 증가 추세인 것으로 파악됐다.수용건수는 지난해 상반기 8만5720건에서 올해 상반기 22만797건으로 158% 급증했다. 이 기간 588억500만원에서 728억2900만원으로 24% 늘었다.본격적인 금리인상기를 맞아 이자 감면을 요구한 고객이 급증한 영향으로 분석된다. 여기에 예대금리차 공시와 함께 금리인하요구권 비교공시로 차주들의 이자 부담을 낮추려는 금융당국의 압박이 작용한 것으로 풀이된다.금리인하요구권 신청건수는 지난해 상반기 34만1783건에서 올해 상반기 88만8619건으로 두 배 넘게 급증했다. 통계기준이 상이해 단순비교는 불가하지만 비대면 신청 허용, 금리인하요구권 홍보 강화, 통계기준 변경(중복건수 포함) 등으로 크게 증가한 것으로 확인됐다.과거에는 은행별로 중복신청건의 통계 처리(포함 또는 미포함) 방식이 달랐다. 올해부터는 통일적으로 모두 신청건수에 포함해 통계상 신청건수가 증가했다. 일례로 대출 1건에 대해 금리인하요구를 55회 중복해 신청한 경우도 있었다.은행연합회 관계자는 "수용건수나 이자감면액 등을 중심으로 비교하는 것이 실질적인 도움이 될 수 있다"며 "금리상승기에 소비자에게 도움이 될 수 있도록 지속적으로 금리인하요구권 안내와 홍보를 강화할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>만나플러스, 상반기 배달수행완료 건수 전년 대비 41.6% 증가</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006299747?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>만나플러스 제공(서울=뉴스1) 임해중 기자 = 만나코퍼레이션의 배달대행 브랜드 만나플러스는 올해 상반기 배달수행완료 건수 약 9300만 건을 기록해 전년 동기 대비 41.6% 증가했다고 26일 밝혔다.7월 배달수행완료 건수는 약 1430만 건으로 6월 대비 16.3% 증가한 것은 물론, 전년 동월과 비교해도 8.5% 상승했다. 코로나19로 인한 사회적 거리두기가 전면 해제된 이후에도 지속적인 성장세를 이어가고 있다.만나코퍼레이션은 지난해 배달대행 건수가 급속도로 늘어남에 따라 자사 플랫폼을 사용하는 7개 배달대행사를 만나플러스 단일 브랜드로 통합해 시장점유율 확보에 나섰다. 만나그룹의 통합 CI와 BI 선포를 시작으로 가맹점(음식점)과 대리점(지역 배달대행사), 배송원에 대한 다양한 혜택과 지원을 강화함으로써 경쟁력 확보에 힘썼다.하나카드, 토스페이 등 금융권과 제휴를 통해 가맹점의 서비스 비용 결제 수단을 다양화했으며, 대리점과 배송원을 대상으로 소홀하기 쉬운 세무 처리 관리 및 고용·산재보험 신고를 지원하는 등 편의성을 높이기 위해 노력을 기울였다.최근에는 전국 배송원들에게 여름철 건강수칙을 고지하고 숙지를 독려하고자 생수를 지급하고, 고용노동부에서 진행하는 ‘안전 배달 캠페인’에 적극 동참하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅·토뱅, '중저신용자 대출' 목표 달성 코앞으로</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003227170?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   인터넷전문은행 3사    중·저신용자 대출 판매 창구 역할을 해 온 인터넷전문은행 3사(케이뱅크·카카오뱅크·토스뱅크)가 상반기만에 금융당국과 약속된 대출 비중 목표치에 근접한 성적표를 내놨다. 연내에는 무난히 목표치를 달성할 것이라는 목소리가 나온다.     28일 은행연합회 공시에 따르면 지난 6월 말 기준 인터넷은행의 중·저신용자 대상 신용대출 비중(잔액 기준)은 평균 27.5%로 집계됐다. 중·저신용자는 KCB(코리아크레딧뷰로) 기준 신용평점 하위 50%(KCB 850점 이하)의 대출자를 의미한다.     은행별로 살펴보면 토스뱅크가 36.3%로 가장 두드러졌다.    토스뱅크는 상반기에만 1조6322억원의 중금리 대출을 공급했다. 지난해 말 대비 12.4%포인트(p) 증가했고, 1분기 말과 비교해 4.9%p 늘었다. 평균금리는 연 8.5% 수준이었다.     이어 케이뱅크 24.0%로 높았고 카카오뱅크 22.2% 순이었다. 지난 1분기 말과 비교해 케이뱅크는 3.8%p, 카카오뱅크는 2.3%p 각각 늘었다.       올해 연말까지 카카오뱅크·케이뱅크는 25%, 토스뱅크는 42%까지 중·저신용자 대출 비중을 끌어올리겠다고 밝힌 바 있다. 이에 따라 목표까지 케이뱅크는 1.0%p, 카카오뱅크는 2.8%p, 토스뱅크는 5.7%p가 각각 남은 상황이다.       업계는 연이은 기준금리 인상에 대출 금리가 오르면서 공급이 확대되고, 규제 부담이 줄어 대출영업에 활기를 띠게 되면서 중·저신용자 대출 비중 달성이 무난할 것으로 예상한다.       당초 규제 첫해에 인터넷은행들이 무이자 혜택 등 추가 비용을 마다치 않고 대출 확대에 나섰음에도 목표 달성에는 실패했던 건과 시장의 분위기가 다르다는 이유에서다.     지난해에는 정부의 가계부채 안정화 기조에 따라 카카오뱅크는 지난해 10월부터 8개월 동안 고신용자 대출을 중단하기도 했다. 토스뱅크는 출범과 거의 동시에 대출 영업을 멈춘 바 있다.     하지만 올해는 대출을 재개하며 비대면·금리 등을 내세워 영업에 나서고 있다. 가장 최근에는 카카오뱅크는 약 11개월 만인 지난 26일 마이너스 통장 대출 상품의 신규 신청을 재개했다. 카카오뱅크 관계자는 "마이너스 통장 대출 상품을 기다리는 고객들의 재개 요청이 많았다"고 했다.     금융업계 관계자는 "금리 인상기에 올해 상반기와 비슷한 속도라면 연말의 중·저신용자 대출 비중을 맞추는 일은 당연히 가능하다"면서도 "재개하는 고신용 대출 속도를 조절하는 일은 필요할 것"이라고 말했다.    권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>이자 장사 없었다?…공시 직전 '격차 조이기' 나선 은행들</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000310884?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[앵커]이렇게 금리가 또 크게 오를 거라는 전망이 나오고 있는데요. 지금 같은 금리인상 시기에 은행에서 돈을 빌릴 때 내는 이자는 빨리 오르는 데 비해, 돈을 맡길 때 받는 이자는 늦게 오르곤 하지요. 이 차이가 얼마나 되는지 어제(22일)부터 매달 은행들이 공개하기로 했는데 뚜껑을 열어보니 예상보다 차이가 크지 않았습니다.왜 그런지 황예린 기자가 취재했습니다.[기자]은행의 예금과 대출금리의 차이를 보여주는 '예대금리차'는 소비자 입장에선 불만의 대상이었습니다.기준금리가 오르면 대출금리는 빠르게 오르는데 반해 예적금금리는 더디게 오른다는 지적 때문이었습니다.[김주현/서울 상암동 : 예금을 제가 붓고 있는 상황인데 보증금 때문에 대출을 받아야 하는 상황이었잖아요. (예금으로) 받을 수 있는 이자랑 제가 내야 하는 이자랑 그런 부분이 조금 차이가 많이 커가지고 그런 부분이 조금 아쉬웠고…]이러자 정부가 은행들의 예대금리차를 매달 은행연합회 홈페이지에 공시하기로 했습니다.5개 시중은행 가운데 이자 장사를 가장 잘 한 곳은 가계 예대금리차가 1.62%p인 신한은행입니다.이어 우리은행, 농협은행, KB국민은행, 하나은행 순서로 1.40%p부터 1.04%p까지 차이를 보였습니다.그런데 이마저도 최근 공시를 앞두고 은행들이 앞다퉈 폭을 줄인 결과입니다.'예대마진 1위'라는 불명예를 피하기 위해 일부 예금 상품 금리는 올리고 대출 상품 금리는 낮춘 겁니다.올초만 해도 은행들의 가계 예대금리 차이는 2.26%p에 이르렀습니다.전북은행과 토스뱅크 등 시중은행보다 더 큰 예대금리차를 보인 은행들은 저신용자를 위한 높은 금리의 대출을 많이 했기 때문이라고 해명했습니다.[김득의/금융정의연대 대표 : 좀 더 세밀하게 하려면 사실 여기에다가 서민금융을 제외한 대출금리가 비교가 된다든가 가산금리가 몇 프로를 차지한다는 것들을 보여주면 사실상 어느 은행이 이자를 더 받고 있는 것까지 알 수가 있죠.]대출금리가 가파르게 오르는 상황에서 단편적인 눈속임에 그치지 않도록 감독 장치가 필요하단 지적이 나옵니다.(영상디자인 : 강아람 홍빛누리)</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>"열심히 홍보했더니 평판만 나빠져"…은행들 금리인하요구권 공시에 분통</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006306985?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>수용률 중심 공시에 통계 오해 키워…중복접수도 반영"낮은 수용률 설명 위해 금리산정 기준까지 공개할 판"서울시내 한 은행 영업점을 찾은 고객들이 상담을 받고 있다.  2022.1.24/뉴스1 ⓒ News1 유승관 기자(서울=뉴스1) 신병남 기자 = 은행들의 금리인하요구권 운용 성적표가 지난 30일 처음 공개된 가운데, 은행들은 공시에 불만을 나타냈다. 소비자에게 권리를 적극 홍보할수록 수용률이 떨어지는 통계 구조에 나쁜 평만만 쌓인다는 이유에서다. 은행마다 신용평점을 실제 금리에 적용하는 기준이 달라 일관된 비교가 어렵다며 공시가 소비자 오해만 키운다는 목소리도 나온다.31일 금융권에 따르면 신한은행의 올 상반기 금리인하요구 신청건수는 13만1935건으로 집계됐다. 국민·하나·우리·농협은행 등 주요 은행 총 신청 건수의 1.8배다. 이자감면액도 신한은행이 47억원으로 나머지 은행 전체(48억3100만원)와 비슷하다. 반면 수용률(신청건수 대비 수용건수)은 30.4%로 이들 은행 중 가장 낮다.신한은행 관계자는 "2020년부터 개인·기업고객의 금리인하요구권 비대면 프로세스를 구축해 신청건이 크게 불어났다"”며 "올해 5월부터는 매월 고객 통지 서비스를 추가해 금리인하요구권이 더 활성화될 수 있도록 하고 있다"고 토로했다.금리인하요구권 공시는 금융사의 낮은 수용률에 비춰 이들의 책임감을 높이려는 목적으로 시작됐다. 하지만 금리인하요구권은 소비자의 실질적인 신용 상태가 개선돼야 수용된다. 대고객 홍보를 늘릴수록 신용개선 없이 신청하는 고객도 늘어나기에 수용률이 낮아질 가능성이 커지는 구조다.인터넷전문은행들도 불만이다. 현재 중복접수건은 따로 분류하지 않아 한 고객이 비대면으로 여러 번 접수하더라도 통계에 반영된다. 수용률이 떨어지는 것이다. 또 공무원 대출과 같이 금리를 더 깎을 수 없는 특화상품도 일단 금리인하요구권을 받아야 해 통계에 허수가 생길 수 있다.실제 비대면으로만 신청받는 인터넷은행의 신청건수는 카카오뱅크가 45만8890건, 케이뱅크 11만2523건, 토스뱅크 6만6470건으로 시중은행을 크게 웃돈다. 이자감면액도 케이뱅크가 53억5600만원, 카카오뱅크 29억1300만원, 토스뱅크 21억2200만원으로 시중은행보다 더 많다. 그런데도 수용률은 각각 24.6%, 19.0%, 17.9%로 더 낮다. 은행연합회 측은 "제도 활성화를 위해 금리인하요구 신청 사유에 별도의 제한을 두고 있지 않다"며 "2회 이상 신청했더라도 신청 사유가 다를 경우 중복신청으로 보기 어려운 점을 고려해 통계에 포함하기로 한 것"이라고 설명했다.일각에서는 은행마다 자체 신용평가시스템(CSS)과 이에 따른 금리 적용이 다르다며 금리인하요구권 공시가 사실상 유명무실한 제도 아니냐는 불평도 제기된다. 예컨대 A은행의 경우 주택담보대출에서 신용등급 기준 1~5등급까지 같은 금리를 제공하고 있다. 이 은행에서 대출받은 5등급 차주가 2등급까지 신용등급을 개선하더라도 금리인하요구권이 받아들여지지 않는다. 차주 입장에서는 은행에 대해 나쁜 이미지를 갖게 될 수밖에 없다.은행권 한 관계자는 "은행마다 대출 영업 전략이 달라 같은 신용점수의 차주라도 적용하는 금리가 달라지는 것"이라며 "낮은 수용률을 설명하기 위해서는 이런 내부 영업 방침까지 공개해야 할 판"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>잡플래닛, 'SAP코리아 조직문화' 알려준다</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002265875?sid=105</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>오용석 SAP코리아 최고문화전문가, 실제 조직문화 성공 사례 소개잡플래닛(대표 황희승, 윤신근)이 기업 인사담당자를 대상으로 '잡플래닛 HR포럼' 공식 유튜브 채널에서 'SAP코리아의 조직문화'를 주제로 웨비나를 실시한다고 22일 밝혔다.잡플래닛 측은 "이번 웨비나는 조직원이 주도적으로 몰입해서 일하는 SAP코리아의 조직문화에 대해 재조명하고, 조직문화 구축을 위한 SAP의 성공 과정 사례와 함께 인사 담당자들이 궁금해할 만한 실질적인 HR팁을 공유하기 위해 마련했다"고 설명했다.오용석 SAP코리아 최고문화전문가가 연사 및 패널로 나서 강연을 진행하고, 잡플래닛의 공동 창업자인 김지예 이사가 모더레이터를 맡았다. 오용석 최고문화전문가는 웨비나에서 ▲SAP의 수평적 조직문화의 이해 ▲하이브리드 근무 방식과 마인드의 변화 ▲HR담당자를 위한 조직문화 인사이트 ▲조직문화가 좋은 회사를 구별하는 방법 등 실무적 노하우에 대해 자세히 소개할 예정이다.잡플래닛잡플래닛 온라인 HR웨비나는 그동안 쌓아온 기술력과 데이터를 바탕으로 HR과 관련한 수많은 인사이트를 제공하는 것이 특징으로, 이번에 17회차를 맞았다. 그동안 네이버, 토스, 배달의민족, 당근마켓 출신의 유수 기업 HR 리더들이 연사로 참여해 '직원 경험 관리', '포스트 코로나 성과 관리 방법', '위드코로나 이후 조직의 커뮤니케이션' 등을 주제로 강연했다. 1년이 넘는 기간 동안 국내 인사담당자들이 HR 실무 관련 지식을 쌓고 전문성을 높이는 업계 대표적인 행사로 자리매김했다는 평이다.연사의 강연이 끝난 뒤에는 사전 질문 및 실시간 질문을 골라 답변해주는 Q&amp;A 시간도 마련된다. 25일 오후 4시부터 5시 30분까지 유튜브 라이브로 진행되는 이번 웨비나는 이벤터스의 참가신청 페이지에서 사전등록을 통해 참여할 수 있다.잡플래닛 김지예 이사는 "최근 '대퇴사 시대'라고 불릴 만큼 MZ세대를 중심으로 조직을 떠나는 현상이 두드러지고 있는 만큼, 조직원들의 업무 몰입도는 매우 중요해졌다"며 "이번 웨비나를 통해 포스트 코로나 사회에서 조직문화를 담당하는 HR 실무자들에게 다양한 사례를 공유하는 한편, 이들에게 보다 많은 도움을 줄 것으로 기대한다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스, 2300억원 추가 투자 유치…기업가치 '9조원'</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004091883?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>[서울경제] 토스가 2300억 원 규모 투자를 추가로 유치했다.토스 운영사 비바리퍼블리카는 25일 오후 2293억 6100만 규모 제3자 배정 유상증자를 결정했다고 25일 공시했다. 이번 유상증자는 지난달 말 시리즈G 라운드에서 알토스벤처스, KDB산업은행 등으로부터 3000억 원 규모 투자를 받은 데 이어 추가로 투자를 유치한 데 따른 것이다.이로써 토스는 7~8월 두 달에 걸쳐 시리즈G 라운드로 5300억 원의 신규 투자를 유치하는 데 성공했다. 이번 투자에서 토스가 인정 받은 기업가치는 8조 5000억 원으로, 투자 유치 후 기업가치는 9조 1000억 원 수준이다. 지난해 6월 마지막 투자에서 평가 받은 8조 2000억 원을 소폭 상회한다.이번 투자에는 국내 대형 PE, 굿워터 인피니티 II 등이 주요 투자자로 참여했다. 토스 관계자는 “회사 내부 사정을 잘 아는 기존 주주가 대부분 이번 라운드에 참여했다”며 “또, 신규 투자자로 국내 PE가 큰 금액을 투자한 건 회사 성장뿐 아니라 향후 수익성에 대한 부분까지 높은 확신을 보여준 것”이라고 말했다.토스 관계자는 이어 “최근에 전세계 테크 기업들의 가치가 50% 이상씩 하락했던 상황에서 높은 기업가치를 유지하며 프라이빗 투자 유치에 성공한 케이스는 매우 이례적”이라며 “이번 투자 유치를 계기로 토스뱅크·증권 등 주요 금융 계열사의 외연 확대는 물론 여러 신사업의 빠른 성장에 탄력을 받을 것으로 기대된다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>[쫌아는기자들] 크몽 박현호, 실패한 ‘지리산 개발자’가 서울로 끌려온 이유</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003711563?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>크몽 박현호 창업자							@주3회 발행하는 유료 뉴스레터 [스타트업]입니다.유료 가입 https://page.stibee.com/subscriptions/158656무료 가입 https://page.stibee.com/subscriptions/143087“크몽이 제가 했던 사업 아이템 중에 제일 별로라는 말을 자주 했어요. 크몽을 하면서도 수없이 ‘씁, 아이템 잘못 잡았나’라는 말을 자주 했고요.”스타트업의 사업 아이템은 어디서 시작될까요. 정말 큰 시장을 노린, 명확한 페인포인트를 찾아서, 정말 그 가려운 곳을 긁어주는 서비스를 만들어서일까요. 토스의 시작은 앱도, 서비스 이름 조차 없던 시절 이승건 대표가 혼자 페이스북에 올린 만원짜리 광고를 본 6000명에서 시작됐습니다. 그전까지 초기 토스팀은 100개가 넘는 아이템을 보드에 적고, 일부는 프로토타입을 만들고 폐기까지 했다고요. 당시를 기억하는 이 대표는 “어느 정도 변변찮지만 괜찮은 광고 결과가 나와서 클릭률도 좋고 하니까 한번 해보자”에서 토스가 시작됐답니다. 어떤 창업자는 미래와 기술의 발전을 예측하고, 성공에 대한 확고한 믿음으로 창업에 뛰어들지만, 어떤 창업은 아닐 수도 있습니다. 끊임없이 ‘이게 될까’라는 불안, ‘망하면 어쩔 수 없지’라는 마음으로 시작했던 일이 밀물에 떠오르듯 부상하기도 하죠.프리랜서 마켓 플랫폼 ‘크몽’은 경남 산청 지리산 자락의 전원주택에서 시작됐습니다. 97학번(단국대 컴퓨터공학과)으로 대학교 1학년 때 첫 창업을 했던 박현호 대표가 크몽을 만들기 전 창업했던 아이템은 게임 패키지 쇼핑몰, PC 방 관리 프로그램, 전자기기 쇼핑몰, 이종 격투기 구독 스트리밍 사이트, 온라인 아이템 거래 사이트 등 입니다. 마지막 아이템 거래 사이트를 창업하고 나서 그에게 남은 것은 빚뿐이었고, 경남 진주시가 고향인 그는 부모님이 은퇴 후 살던 지리산 전원주택으로 돌아왔습니다. 맛집 정보 커뮤니티 사이트를 운영하던 그는 5000원에 재능을 사고 파는 이스라엘의 파이버(Fiverr·현재는 상장사)의 아이템을 보고 “재밌겠는데?”라며 개발자의 습관을 버리지 못하고 뚝딱 웹사이트를 만들어 런칭했습니다.박 대표는 크몽에 “제가 크몽을 끌고 왔다기보다, 크몽에 제가 끌려왔다”고 합니다. 캐리커처 그려주기, 연애 상담 같은 소소한 재능 거래 사이트에서 웹 배너 제작 의뢰가 거래되고, 트래픽이 조금씩 늘었다고요. 산청의 ‘지리산 개발자’는 진주 창업보육센터에서 지인들과 다시 창업하고, 결국 진주에서 서울로 끌려왔습니다. 현재 크몽은 30만 프리랜서(혹은 프리랜서 법인)이 500여개 영역의 기술을 거래하고, 200만명이 넘는 사용자가 쓰는 플랫폼이 됐습니다. 개인만 쓰는 것이 아니라 카카오·현대차·SK텔레콤·포스코 등 모두가 아는 대기업부터 딜리버리히어로 같은 스타트업도 크몽의 프리랜서들에게 아웃소싱을 맡기고 있습니다. 24년 수없는 창업을 ‘존버’ 했지만, 정작 그는 여러 사업 아이템 중 크몽의 사업 아이템이 ‘가장 별로였다’고 합니다.“그 전에 기준은 ‘어떻게 하면 1년 안에 대박을 낼 수 있을까’였거든요. 그러다 대박이 안 나면 빨리 다른 아이템을 했고요. 크몽은 정말 천천히 사용자가 조금씩 늘었거든요. 프리랜서 마켓 시장이 별로 크지 않을 것 같았어요. 그런데 이제 N잡러, 리모트워크 같은 단어가 일상화됐습니다. 일 하는 방식이 바뀌었고 과거처럼 직업(job)을 구하는 시장이 아니라, 작업(work)를 사고파는 시대가 왔어요. 이젠 정말 크몽이 대박이 날 것 같아요.”크몽의 박현호 대표. 그가 들고 있는 인형은 초기부터 크몽을 대표했던 원숭이 캐릭터 '크몽이'다. /크몽 본질은 연결, 매칭이 아니라 커머스, 전문성을 상품으로 만드는 프로세스 -크몽에 끌려왔다니요“다 정리하고 지리산 집에서 그냥 프리랜서 개발자로 살 생각이었어요. 어차피 원래 개발자였고, 그냥 ‘사람들이 좋아하는 걸 혼자 만들자’라는 생각으로요. 혼자 개발해서는 먹고 살 수 있을 테니까요. 그 전에 잘 됐던 사업도 있었지만 잘 될 만하니 닷컴버블이 터졌고, 잘 될만하면 무리하게 확장했다가 망했고. 한 번도 성공적으로 엑싯을 한 적이 없습니다. 그렇게 다른 스타트업 아이템에 착안해서 크몽을 만들었는데 제가 재밌다고 생각했던 아이템과 다른 아이템들이 거래되더군요. ‘캐리커처ㅏ 5000원에 그려드립니다’가 거래되다가 ‘회사 로고 그려드립니다’가 거래되고, 번역 의뢰 거래까지 점점 영역이 넓어지더군요. 서서히 트래픽이 늘었는데 2014년쯤 크몽과 비슷한 사이트를 찾아보니 60군데가 넘었습니다. ‘어, 이게 되나?’ 반신반의하는 심정으로 진주에서 작게 창업했고요. 그러다 개발자 구하고 투자자 구하기가 너무 힘들어서 서울로 올라왔죠. 그때부터가 본격적인 크몽의 시작입니다.”-그 정도였다면 그 뒤로는 탄탄대로였겠군요“2016년엔 다음달 프리랜서에게 줄 월급조차 없던 시절이 있었습니다. 가족과 친구한테 2000만원을 빌려서 겨우 버텼어요. 과거 크몽엔 지금 아이디어스와 비슷한 ‘핸드메이드’ 카테고리가 있었습니다. 저는 크몽에서 프리랜서들이 만든 물리적인 상품이 잘 되겠다고 생각했거든요. ‘게임 잘하는 법 레슨’, ‘운세 상담’ 같은 좀 더 개인적이고 신기한 서비스들도 재밌었어요. “이런 참신한 것도 거래한다고?”라고 주목도 조금 받았고, 저도 사람들이 “이런 것까지 파네?”라면서 재밌었습니다. 이런 것들에 집중해서 투자하고 개발했고요. 초기 크몽의 아이덴티티는 ‘이런 재밌는 것도 거래되는 곳’이었습니다.그런데 정작 매출은 정반대였어요. 프리랜서 개발자의 ‘앱 개발’, 마케터의 ‘마케팅 대행’, 영상 제작자의 ‘영상 편집’ 같은 비즈니스 거래가 더 활발했는데 말이죠. 제가 재밌다고, 될 것이라 생각했던 것과 달리 고객들이 원했던 것은 정반대였던 것이죠. 그날 이후 전략을 대폭 수정했습니다. 많이 거래되는 제품을 집중적으로 개발했습니다. 우리가 하고 싶은 것 말고 사람들이 찾는 것, 매출이 나오는 것에 집중하자고요. IT개발, 마케팅, 디자인 같은 영역들이 더 탄력을 받고 지금의 크몽과 같은 모습이 됐어요. 그 뒤로는 매년 지표가 2배씩 성장했어요.”-60개나 다른 플랫폼이 있었다면서요. 그런데 왜 사람들은 크몽에 와서 전문성을 팔았을까요“우선 개발에는 자신이 있었어요. 서울 올라오기로 결심했을 때도 ‘대박 나겠다’는 생각이 아니라, “남들보다는 잘 만들 수 있겠다”라는 자신 정도로 왔거든요. 무엇보다 크몽은 커뮤니티로 시작했지만, 거래하는 방식은 커머스입니다. ‘이런 일을 해줄 사람을 찾고 연결해줍니다’보다는 ‘이런 작업을 이렇게 팔고 사세요’에 가깝죠. 예컨대 크몽에서 거래되는 각 카테고리에는 그 카테고리의 작업을 수치화해서 팔기 좋아지도록 만드는 수많은 기능들이 있어요. 예컨대 번역을 예로 들어보면 번역가들은 ‘나는 어떤 언어가 가능하고, 한 페이지에 얼마를 받겠다’를 기본 가격을 설정합니다. A4 한장에 1만원 이런식으로요. 그 다음엔 일상 회화 번역은 1만원, 비즈니스 번역은 장당 2만원, 영한 번역이 아니라 한영 번역을 추가 비용 얼마. 이런 식으로 모든 거래의 과정을 프로세스화 했습니다.만약 크몽이 커뮤니티였다면, 장당 얼마에 해야 할지 협상하고 결과물을 받고 재수정을 따로 협상해야겠죠. 크몽은 ‘재수정 요구시에는 얼마’ 결제 프로세스까지 모두 연결되어 있습니다. 그러니까 일종의 쇼핑몰에서 상품을 살 때 옵션을 고르듯, 조립식PC를 살 때 많은 옵션을 자동화해서 온라인으로 주문하듯요. 현재 500개 정도의 카테고리가 있는데 모두 이런 식으로 상품화 할 수 있는 프로세스, 구매  가능한 프로세스가 연동되어 있고 매니저와 개발자들이 모두 이 프로세스를 관리합니다.”[전문은 유료 가입하고 보세요. 2021년 3년 이후 발행한 모든 레터를 보실 수 있습니다. 아래는 유료 레터에 포함된, 부제목과 그래픽, 사진, 질문과 응답의 일부 발췌입니다.]-Work의 상품화라, 뭔가 사람의 노동력이 상품처럼 팔리는 것 같네요. 프리랜서 입장이라면 기분이 나쁠텐데요“이제 서버도 클라우드로 쓰는 시대, 사람을 뽑는 것이 아니라 사람의 능력을 사용한다면?”</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>은행 예대금리차 비교공시…5대 시중은행 중 농협은행 1위</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011325027?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>은행별 예대금리차, 대출금리와 예금금리의 차이가 앞으로 매달 은행연합회 홈페이지에 공시됩니다. 오늘(22일) 은행연합회 홈페이지 소비자포털(portal.kfb.or.kr)에 공개된 신규취급 기준 7월 대출금리와 예금금리의 예대금리차를 보면 5대 시중은행 중 농협은행이 1.36%p로 가장 높았습니다. 기업대출을 제외하고 산출한 가계예대금리차는 신한은행이 1.62%p로 가장 높았습니다. 지방은행 중에선 전북은행의 예대금리차가 4.59%p로 가장 높았고, 인터넷은행 중 1위는 5.65%p로 공시한 토스뱅크였습니다. 토스뱅크 등 인터넷 은행의 경우 저신용자의 신용대출 위주로 대출상품을 취급해 상대적으로 예대금리차가 커질 수 있는 만큼 소비자들은 역시 은행연합회 소비자포털에서 비교공시하고 있는 신용등급 점수별 대출금리 및 예대금리차도 비교해볼 필요가 있다고 은행권 관계자는 설명했습니다. 은행연합회는 앞으로 매달 20일 은행연합회 홈페이지 소비자포털에 신규취급 기준 전월 예대금리차를 공시할 예정입니다.[사진 출처 : 연합뉴스]</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>삼각김밥이 반값… MZ세대 편의점族 주목!</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003711709?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>편의점 혜택 특화카드 잇단 출시서울 시내의 24시간 밀키트 무인 편의점. /박상훈 기자										MZ세대(1980~2000년대 초 출생)는 편의점 없는 일상을 상상하지 못한다. 간단한 식사를 하고 커피를 사기 위해 편의점을 애용하는 젊은이가 많다. 인플레이션 시대를 맞아 편의점 할인에 특화된 카드를 이용하면 알뜰한 소비가 가능하다. 카드사들은 저마다 편의점에서 할인되는 신용·체크카드를 내놓고 있다.편의점 결제 액수가 많다면 BC카드가 내놓은 ‘시발(始發)카드’를 눈여겨보자. ‘편의점 빅4(CU·GS25·세븐일레븐·이마트24)’에서 한번에 1만8000원 이상 결제하면 1800원을 깎아준다. 1800원 할인은 하루 2번, 한 달 10번까지 가능하다. 롯데카드의 ‘로카 라이킷 샵(LOCA LIKIT Shop)’ 카드로는 전월 이용액이 40만원이 넘을 경우 GS25·CU·세븐일레븐에서 이용액의 60%를 월 1만3000원 한도에서 할인받을 수 있다.신한카드 ‘욜로(YOLO)’ 카드는 할인받을 곳을 CU·GS25·세븐일레븐 중 미리 하나로 정해놓으면 20% 할인이 가능하다. 3개를 모두 지정해도 10% 할인이 된다. 신한카드의 ‘미스터 라이프’ 카드는 한 달에 5번까지 모든 편의점에서 이용액의 10%를 할인해준다. 비슷하게 삼성카드의 ‘탭탭 디지털’ 카드도 월 5차례까지 ‘빅4 편의점’ 및 미니스톱에서 이용액의 10%를 할인해준다. 우리카드의 ‘D4@카드의정석’ 카드는 편의점 결제액의 11%를 1100원 한도로 깎아준다.										현대카드에서는 ‘제로에디션2(할인형)’ 카드가 ‘빅4′ 편의점 사용액의 1.5%를 청구 시 할인해주고, ‘M부스트’ 카드는 1~1.5%를 M포인트로 적립해준다. KB국민카드의 ‘청춘대로 1코노미’ 카드를 쓰면 최대 2만점(2만원 상당) 한도로 결제액의 20%를 포인트로 적립해준다.편의점 할인이 가능한 신용카드는 대체로 연회비가 3만원 이하로 저렴한 편이다. 다만 월 최저 사용액을 충족해야 할인이 가능하거나 월 할인 폭에 한도가 있는 경우도 있으니 발급 전 확인이 필요하다.체크카드도 눈여겨보면 좋다. KB국민카드의 ‘청춘대로 싱글 체크카드’는 월 최대 할인 한도 1만원 이내에서 이용액의 5~10%를 깎아준다. 토스뱅크의 체크카드는 GS25와 CU에서 1만원 이상 결제하면 하루 한 번 500원을 현금으로 돌려준다. 10대를 겨냥한 영하나플러스 체크카드는 편의점 사용액의 5%를 캐시백으로 돌려주고, 올해 말까지 CU에서 삼각김밥과 컵라면을 살 때 50%를 할인해주는 행사를 진행한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>5대 은행 가계예대금리차...신한 1.62%P '최고', 하나 1.04%P '최저'(종합)</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005136132?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>예대금리차 비교공시가 개시된 가운데 19개 은행 중 예대금리차가 가장 큰 곳은 전북은행인 것으로 나타났다.22일 은행연합회 홈페이지에 게시된 7월 예대금리차 공시에 따르면, 전북은행의 가계예대금리차는 6.33%포인트(P)으로 전체 은행권 중 가장 높았다. 토스뱅크(5.60%P), 케이뱅크(2.46%P), 카카오뱅크(2.33%P), 광주은행(3.39%P)이 뒤를 이었다. 반면 예대금리차가 가장 낮은 곳은 부산은행(0.82%P)이었다.KB국민·신한·하나·우리·농협은행 등 5대 은행 가운데에선 신한은행의 가계예대금리차(1.62%P)가 가장 높았다. 우리·농협은행이 1.40%P로 같았고, KB국민은행이 1.38%P, 하나은행이 1.04%P였다.KB국민·신한·하나·우리·NH농협 등 5대 은행의 지난달 예대금리차는 1.21%P, 인터넷은행은 3.48%P였으며 가계예대금리차는 5대 은행 1.37%P, 인터넷은행 3.46%P였다. 인터넷은행의 예대금리차가 큰 것은 전체 대출 중 중금리대출 비중을 25% 이상으로 유지하는 걸 목표로 하고 있기 때문이다. 은행연합회 소비자포털이 예대금리차비교에 들어가면 19개 은행의 대출금리, 기업대출금리, 가계대출금리, 저축성수신금리, 예대금리차, 가계예대금리차가 표시된다. 예대금리차는 대출금리에서 저축성수신금리를 뺀 값이며 가계예대금리차는 가계대출금리에서 저축성수신금리를 뺀 것이다. 가계예대금리차가 가장 높게 나온 전북은행의 경우 가계대출금리는 9.46%였고 저축성수신금리는 3.13%였다. 가계예대금리차는 개인금융을 취급하지 않은 산업은행을 제외한 18개 은행을 대상으로 하는데 이들 은행의 가계예대금리차 단순평균값은 1.98%P였다.은행연합회는 은행별 대출·예금의 포트폴리오에 따라 예대금리차는 확대 및 축소가 가능하다고 설명했다. ▲중·저신용자 대출 비중이 높은 경우 ▲주택담보대출 비중이 낮고 신용대출 비중이 높은 경우 ▲저신용자를 위한 정책성 상품 취급 비중이 높은 경우 ▲예·적금의 기본금리는 낮고 만기시 확정되는 우대금리가 높은 경우에는 예대금리가 확대된다. 반면 ▲금융채 발행 비중이 높은 경우 ▲유동성 관리를 위해 고금리로 예금을 조달한 경우에는 예대금리차가 축소된다. 예대금리차가 가장 큰 것으로 나타난 전북은행은 서민금융진흥원 연계대출인 햇살론뱅크, 햇살론유스 비중이 높아 예대금리차가 확대됐다. 전북은행에 이어 두 번째로 높게 나타난 토스뱅크의 경우에는 담보대출 없이 신용대출만 취급함에 따라 예대금리차 확대됐다는 설명이다. 신한은행 역시햇살론, 새희망홀씨 등 서민지원대출에 대한 적극적인 지원이 예대금리차에 영향을 미쳤다. 은행연합회에 따르면 지난해 신한은행의 서민지원대출은 9751억원으로 4대 은행 중 가장 많았다. 대출금리 비교로 들어가면 대출종류별, 신용점수별 예대금리차를 확인할 수 있다. 분할상환방식 주택담보대출 기준 대출금리 및 예대금리차를 보면 전북이 2.16%P, 카카오뱅크 2.07%P, NH농협 1.94%P, 제주 1.91%P 등이었다. 4대 은행은 국민이 1.15%P, 신한 1.51%P, 우리 1.83%P, 하나 1.09%P였다. 가계예대금리차는 신한이 컸지만 분할상환방식 주담대의 경우에는 우리은행이 가장 컸다.가계대출 기준 예대금리차는 신용점수 구간별로도 확인할 수 있다. 신용평가사(CB) 신용점수(1000점부터 50점 단위, 9개 구간)별로 대출금리와 예대금리차가 함께 공시되기 때문에 구간별 적용되는 대출금리와 예대금리차를 한눈에 확인할 수 있다. 일반 신용대출의 경우에는 신용점수별 예대금리차와 평균금리 외에 서민금융을 제외한 평균금리와 예대금리차가 별도로 제공된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>화성 헬리콥터, 다시 기지개 켰다 [여기는 화성]</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002266133?sid=105</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>인제뉴어티, 낮은 온도·먼지 폭풍 이겨내고 30번째 비행 성공혹독한 화성의 겨울을 맞아 작동을 멈췄던 미국 항공우주국(NASA) 화성탐사 헬리콥터 ‘인제뉴어티’가 최근 30번째 비행에 성공했다고 IT매체 씨넷이 23일(이하 현지시간) 보도했다.NASA는 23일 트위터를 통해 인제뉴어티가 30번째 비행을 성공적으로 마쳤다며, 화성 지표면의 모습과 인제뉴어티의 한 쪽 다리가 나와 있는 사진을 공개했다.지난 20일 촬영된 화성 지표면의 사진. 오른쪽 구석에 인제뉴어티의 다리가 보인다. (사진=NASA/JPL-Caltech)이어 “두 달 간의 중단 후, 헬리콥터는 주말 동안 짧은 도약을 통해 자신의 활력을 확인하고 태양전지판의 먼지를 털어낼 수 있었다"고 밝혔다. 이번 비행은 비교적 짧은 약 2m, 약 33초 간의 비행이었다.화성은 지금 추운 겨울로, 인제뉴어티가 있는 예제로 분화구는 겨울 밤에는 영하 86도까지 떨어진다.사진=NASA또, 최근 화성에 불어 닥친 먼지폭풍으로 인해 태양 전지판이 뽀얀 먼지로 덮이면서 인제뉴어티를 비롯한 화성 탐사 장비들이 기술적 결함이나 센서 고장 등을 일으키며 어려움을 겪었다. 인제뉴어티의 경우 6월 11일에 진행된 29번째 비행 이후 두 달 간 운행하지 못하고 버텨왔다.하지만, 최근 예제로 분화구 상황이 좀 나아지면서 인제뉴어티도 다시 작동을 시작했다.테디 자네토스(Teddy Tzanetos) 인제뉴어티 팀 책임자는 "배터리 충전 상태가 높아지면 비행 시간이 길어지고 인제뉴어티는 밤새 내부 히터에 전력을 공급할 수 있게 되기 때문에 화성 추위에  전자 제품이 얼어붙는 것을 막을 수 있을 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>금융당국 "예대금리차 공시 타업권 확대 고려"…'착시'논란엔 적극 해명</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004741274?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>요구불예금 제외돼 착시 효과 발생서울 시내 한 은행 외벽에 대출 안내 현수막이 걸려있다. 사진=뉴스1금융당국이 은행권에 도입한 예대금리차 공시를 타 업권에 확대할 가능성을 내비쳤다. 아울러 착시 효과 등 부작용을 우려하는 부분에 대해선 적극 해명에 나섰다.25일 금융위원회·금융감독원·은행연합회는 설명자료를 통해 "예대금리차 비교 공시를 처음 시행하는 만큼 이용자 수가 많고 사회적 관심이 높은 은행권을 대상으로 우선 시행했다"며 "다른 업권으로 확대할 지 여부는 업권별 특성 및 영향 등을 고려해 검토하겠다"고 밝혔다.금융당국은 예대금리차 산정 시 요구불예금이 제외돼 착시 효과가 발생할 수 있다"는 지적에 대해서도 해명했다.앞서 공개된 7월 예대금리차 비교 공시에서 토스뱅크의 예대금리차(5.6%포인트)가 1위를 기록했다. 이는 연 2% 금리를 제공하는 요구불예금(수시 입출금 통장)의 금리가 수치에 반영되지 않은 데 따른 결과였다.당국은 "이번 금리정보 공시 개선은 은행 예금 금리가 시장금리 변동을 제대로 반영하지 못한다는 지적에 대응하기 위한 측면이 있다"며 "시장금리 변동에 영향을 받는 저축성 수신상품을 대상으로 하였으며, 요구불예금 등 비저축성상품은 제외한 것"이라고 설명했다.이어 "중저신용자대출을 적극적으로 취급하는 은행의 경우 평균적인 예대금리차가 상대적으로 크게 나타날 수 있다"면서 "점수 구간별 대출금리 및 예대금리차, 평균 신용점수 등을 함께 공시해 충분한 설명이 가능할 것"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>'네·카·토' 만나는 금감원장…간편결제 수수료 공시, '윤곽' 나올까</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000694435?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>핀테크·카드업계 '동일규제' 난색…"지나친 개입 시장 실패로 이어져"앞서 금융 전 업권을 돌며 쓴소리와 경고를 내뱉은 이복현 금융감독원장이 빅테크·핀테크업계 대표들에게는 어떤 메시지를 던질지 귀추가 주목된다. 업계에서는 이날 특히 윤석열 정부의 국정과제이기도 한 '간편결제 수수료 공시제도' 구체화에 시동을 걸며, 소상공인 부담 경감을 주문할 것으로 전망했다.29일 금융권에 따르면 이 원장은 오는 30일 11명의 빅테크·핀테크 대표 등과 간담회를 개최한다. 간담회에는 박상진 네이버파이낸셜 대표, 신원근 카카오페이 대표, 이승건 비바리퍼블리카(토스) 대표, 이근주 한국핀테크산업협회장 등 빅테크·핀테크 업계 주요 인사들이 참여할 예정이다. 핀테크 업계와의 간담회는 이 원장 취임 후 처음이다.이복현 금융감독원장이 오는 30일 빅테크·핀테크업계 대표들과 간담회를 갖는다. 이날 간담회에서는 '간편결제 수수료 공시제도'가 구체화될 전망이다. 사진은 이 원장. [사진=김성진 기자]구체적인 안건이 공개되진 않았지만, 업계에서는 간편결제 수수료 공시제도가 이날부터 본격화할 것으로 본다. 핀테크사의 간편결제 수수료 공시는 카드 업권과의 수수료 규제 차이를 '동일기능·동일규제' 원칙에 따라 개선하겠다는 윤 대통령의 공약에서 출발한 제도다. 이를 통해 궁극적으로는 소상공인들의 간편결제 수수료 부담을 덜어주겠다는 것이다.하지만 공시 제도 도입을 두고 양업권에서는 각자의 이유로 난색을 표하고 있다. 핀테크업계는 제도 도입의 전제인 '동일기능'에 문제가 있다고 지적한다. 핀테크사는 카드사와 동일하지 않은 환경인데 기능만을 보고 동일한 규제를 하는 것은 불합리하다는 입장이다. '카드 의무수납제도'라는 법적 보호망이 있는 카드사와는 달리 핀테크 간편결제는 가맹점이 수납할 의무가 없어서다.핀테크사마다 원가 구조가 다른데 이를 일률적으로 단순 비교 공시하는 건 불합리하다는 의견도 있다. 업체·업종별 수수료 특성을 고려하기보다는 단지 수수료가 높은 업체를 비난할 가능성이 커서다. 실제로 지난 22일 은행권 예대금리차 비교공시가 첫 공개된 후 중저신용자 대출 비중이 상대적으로 높은 은행들이 '과도한 수익장사'를 벌였다며 질타를 받은 바 있다.핀테크업계 관계자는 "업종마다 수수료율 산정방식이 다른데 공시된 후 단지 수수료가 높다는 이유로 비난을 받을까 걱정"이라며 "그렇다고 수수료율 산정방식이나 원가 수수료율을 항목별로 공시하면 영업 비밀을 공개하는 셈이 돼버린다"고 토로했다.카드업계도 핀테크를 카드사 수준으로 동일규제하는 것을 우려한다. 카드업계가 그간 요구한 동일기능 동일규제는 핀테크 수준으로의 규제 완화이기 때문이다. 적격비용재산정과 같은 불합리한 규제를 개선하고 부수·겸영 업무를 확대하는 등 운신의 폭을 넓혀 달라는 것이다.아울러 간편결제 수수료율이 인하되는 것도 카드사로서는 부담이다. 핀테크는 쇼핑몰 등 온라인가맹점으로부터 카드사 몫을 포함해 수수료를 받기 때문이다. 핀테크가 수수료를 낮추면 이를 통해 카드사들이 받는 수수료 역시 줄어들 수 있다.카드업계 관계자는 "핀테크 간편결제 수수료도 적격비용재산정처럼 원가 등 세부 사항을 공개한다고 해서 문제를 해결하는 방안이 될 순 없다"며 "지급결제 시장이 동반성장할 수 있는 환경을 조성할 필요가 있다"고 설명했다.다른 업계 관계자도 "영세 가맹점에 대한 보호를 위해서 정부가 어느 정도 개입하는 것은 동의하나 지나친 개입은 시장 실패로 이어진다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>'IT 개발자' 경력 대신 신입부터 키운다</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003040103?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지뱅크네이버, 토스, 롯데온 등 정보기술(IT) 기업의 개발자 구인난이 지속되자 신입 개발자에 눈길이 몰리고 있다. 그동안 실무에 바로 투입할 수 있는 경력 채용이 중심이었다면 이제는 우수 역량을 보유한 인재를 선점, 핵심 인력으로 기르는 쪽으로 채용 전략이 전환되고 있다.사람인HR IT개발자 채용 플랫폼 점핏은 올해 초 출시한 신입 채용 전용서비스 '더. 루키' 채용공고 비중이 약 47%까지 확대됐다고 밝혔다. 주요 IT 기업 중심으로 인재를 채용 후 인큐베이팅하는 등 신입 개발인력 채용에 나서고 있다.네이버는 올해 총 세 자릿수 규모의 신입 개발자를 대규모 채용한다. 개발자 신입 및 인턴십 공개채용을 이원화해서 운영하는 것이 특징이다. '트랙 인턴십' 전형은 한 가지 기술 분야에 대한 관심이 뚜렷한 예비 개발자 대상으로 조직과 직무를 선택해서 지원할 수 있도록 하는 전형이다. '트랙 공채'는 여러 기술 분야에 관심이 있는 예비 개발자가 입사 후 설명회를 듣고 조직과 직무를 선택할 수 있도록 설계된 전형으로, 신입 지원자가 자신에게 맞는 성장 트랙을 직접 선택할 수 있도록 했다.'토스'를 운영하는 비바리퍼블리카는 지난달 경력 3년 이하의 개발자를 공개 채용하는 '2022 토스 NEXT(넥스트) 개발자 챌린지'를 주최했다. 학력과 전공 무관으로 누구나 지원할 수 있으며, 사전 서류 평가 없이 모든 지원자를 대상으로 온라인 코딩테스트를 진행했다. 개발 역량 및 잠재력 평가에 집중하겠다는 의도다. 롯데온도 '선교육 후채용' 방식의 개발자 채용에 나섰다. 지난 5월 신입 IT 개발인력 '채용연계형 교육생'을 모집했다. 두 자릿수 규모의 인원을 채용했으며, 선발된 인원은 IT 전문 교육기관에서 교육을 마친 후 실무에 투입된다.편혜은 점핏 매니저는 “점핏이 이달 신입 개발자를 위해 진행한 '개발자 취업 콘서트'에는 사전 신청 인원이 2000명에 이를 정도로 관심이 높았다”면서 “안정적인 IT 개발자 인력 수급을 위한 신입 개발자 채용 트렌드는 당분간 지속될 전망”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>10월 가스요금 추가 인상 논의…누적 손실 5조원</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000300519?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>■ 경제와이드 백브리핑 시시각각 '헤드라인'◇ 코스피, 장 초반 2%대 하락…환율 연고점 경신제롬 파월 미 연준 의장의 매파적 발언에 국내 금융시장이 흔들리고 있습니다.코스피는 장 초반부터 2% 넘게 떨어졌고 환율은 올해 최고치를 다시 넘겨 1350원에 바짝 다가섰습니다.◇ 10월 가스요금 추가 인상 논의…누적 손실 5조원정부가 오는 10월 도시가스 요금의 추가 인상을 논의하고 있습니다.가스공사가 원료를 비싸게 사고 저렴하게 공급하면서 떠안은 손실은 5조원을 넘어섰습니다.◇ 현대가 인수한 '지누스', 미국서 집단소송 돌입지난 3월 현대백화점이 인수한 미국의 1위 매트리스 제조업체 지누스가 유해성 논란으로 집단소송에 돌입하게 됐습니다.현대백화점은 집단소송 내용을 사전에 알고 있었지만, 파장이 크지 않을 것으로 전망해 인수를 결정했다고 설명했습니다.◇ 토스뱅크, 올해 3번째 스톡옵션 부여인터넷은행 토스뱅크가 올해 3번째 스톡옵션을 결정했습니다.그만큼 토스뱅크의 외형이 빠르게 성장하고 있는 상황인데, 높은 예대마진은 논란으로 남았습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.08.28.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>금융위가 열어준 금융산업 플랫폼화…은행들 “우선은 환영”</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005138731?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>김주현 금융위원장이 23일 오후 서울 종로구 정부서울청사에서 개최된 제2차 금융규제혁신회의에서 박병원 금융규제혁신회의 의장 및 민간위원 16명 등과 플랫폼 금융서비스 활성화 방안과 규제 샌드박스 내실화 방안을 심의했다정부가 금융산업의 플랫폼화 길을 열어주면서, 주요 은행들은 반색하는 분위기가 짙다. 특히 '디지털 유니버셜 뱅크' 구축을 통해, 그간 중복 집행됐던 플랫폼 투자 비용을 절감할 수 있게 된 점에 주목한다. 다만 자금력이 약한 중소은행의 경우, 이번 규제완화가 경쟁력 약화의 주요 계기가 될 수 있다는 우려도 조심스럽게 나온다. 자금력의 차이가 플랫폼 경쟁력의 차이로 이어져 고객 이탈로 이어질 가능성이 적지는 않다는 것이다. 금융위원회는 지난 23일 금융규제혁신회의를 열고 금융산업의 플랫폼화 계획을 밝혔다. 금융사가 플랫폼 기업이 될 수 있도록 규제를 풀어주는 게 골자다. 그동안은 엄격한 부수업무 규제로 인해, 은행들은 여·수신 등 고유업무와 연관성이 뚜렷한 업무 외에는 다양한 플랫폼 서비스를 제공하기 어려웠다. 금융위는 통합앱 운영을 부수업무로 허용해, 보험·카드·증권 등 계열사 서비스를 하나의 통합앱에서 제공할 수 있도록 지원하기로 했다. 빅테크 기업들 또한 그동안 규제에 막혔던 금융상품 중개가 가능해졌다. 요구불예금을 제외하고, 예적금과 보험 등 금융상품 추천 서비스를 제공할 수 있다.주요 은행들은 이같은 변화에 반색하는 분위기다. 특히 하나의 은행앱에서 보험·카드·증권 등 계열사 서비스를 연결하는 것이 가능해져, 계열사별로 중복 집행했던 앱 투자 비용을 절감할 수 있다는 데 주목한다. 주요 은행 관계자는 “당장은 슈퍼앱을 만들기 시작하면 구축을 위한 비용이 많이 들겠지만 장기적으로는 비용을 아낄 수 있다고 본다”며 “계열사 별로 중복해서 들였던 비용을 줄일 수 있기에, 여러 계열사들이 있는 덩치 큰 은행들 입장에서는 환영”이라고 말했다. 또다른 은행권 관계자도 “은행들은 증권과 은행 서비스를 한번에 제공하는 토스 등에 비해 플랫폼 경쟁력이 약할 수밖에 없었다”며 “은행앱들이 지나치게 많고 복잡하게 엉켜있던 것을 정리하며 경쟁력을 높일 기회로 본다”고 전했다.네이버·카카오·토스 등 빅테크 기업도 얻게 된 ‘규제 완화’ 혜택에 대해서는 아직 “큰 우려는 되지 않는다”는 분위기다. 금융위에 따르면 혁신서비스에 지정되면, 핀테크 기업이든 은행이든 다른 금융사의 정기 예적금, 보험상품 등을 판매하는 것이 가능해진다. 은행권의 관계자는 “이번에 금융위에서 허용한 예적금 상품이 팔리면 은행권의 수수료 이익도 늘어날 수 있다고 생각한다”며 “물론 아주 먼 미래에 대해서까지는 장담할 수 없겠지만, 당장은 크게 우려되는 변화는 아니라고 본다”고 말했다. 오히려 상품 판매에 따른 수수료 이익을 늘릴 수 있는 기회가 될 수도 있다는 시각이다.다만 자금력이 약한 중소형 은행에게는 이같은 규제 환경 변화가, 경쟁력을 상실하는 전환점 이 될 수도 있다는 전망도 조심스럽게 나온다. 은행의 자금력에 따라 지금도 자사 플랫폼에 투자하는 규모가 상이한데, 중소 은행의 경우 이 같은 변화에 빠르게 대응하기 어려울 수 있기 때문이다. 은행권 관계자들은 “지방은행들 가운데에서도 규모가 작고 자금력이 크지 않은 중소형 기업들에게는 우려스러울 수 있다”며 “똑같이 실적의 1%를 투자한다고 결정하더라도, 수백억원대의 차이가 날 수밖에 없다. 규모의 경제가 작동하지 않기 때문에, 경쟁력 차이가 크게 벌어질 수 있다고 본다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.08.17.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[단독] 상반기 ‘인뱅’ 중금리 대출 4조 원 나갔다…‘막내’ 토뱅이 가장 열심히</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000299196?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>인터넷 은행에서 올해 들어 중금리 대출이 크게 늘고 있습니다. 중저신용자가 흔히 찾는 저축은행과 신용카드사보다 금리가 낮을 뿐만 아니라 비대면으로 빠르게 대출을 받을 수 있다는 점이 영향을 미쳤다는 평가입니다.금융감독원이 홍성국 더불어민주당 의원실에 제출한 자료에 따르면 인터넷 은행 3사(카카오·케이·토스뱅크)의 중금리 대출 신규 취급액은 올 상반기만 4조 174억 원으로 집계됐습니다.이는 지난해 전체 인터넷 은행들이 공급한 중금리 대출액 약 2조 5천억 원보다 60% 이상 크게 늘어난 수준입니다. 홍 의원은 "(이번 상반기가) 저신용자의 경우 중금리 시장 대신에 높은 고금리 시장에 갈 수밖에 없는 상황이었다"면서 "신용 스프레드가 올라가면서 금융시장 불안감이 커지고 있기 때문에 중금리 시장이 빠르게 성장하기는 어려운 시대적인 여건이 있는 시장이었다"고 평가했습니다.이어 "인터넷 은행을 중심으로 한 중금리 대출 시장이 늘어난 것은 우리 금융의 회복이라는 측면에서는 좋은 신호이고 앞으로 더 많이 육성해야 할 것"이라고 말했습니다. '막내' 토스뱅크 많이 컸네…중금리 대출 공급액 '1위'특히 지난해 10월 문을 열었지만 가계대출 규제로 올해 들어서야 본격적으로 영업에 나선 토스뱅크의 약진이 눈에 띕니다.인터넷 은행 '막내' 토스뱅크의 상반기 중금리 대출 공급액은 1조 6,322억 원으로 인터넷 은행 3사 중 가장 많았습니다. '맏형' 카카오뱅크가 1조 3,362억 원으로 그 뒤를 이었습니다. 케이뱅크는 1조 490억 원으로 집계됐습니다.금리 수준은 일반 신용대출 기준으로 토스뱅크의 평균 금리가 8.5%로 가장 높았습니다. 다음으로 카카오뱅크가 7.7%, 케이뱅크 7.3% 순이었습니다.이는 토스뱅크가 취급한 중저신용자의 평균 신용점수가 710점대로 다른 인터넷 은행들보다 20점 이상 낮았기 때문입니다. 토스뱅크의 대출 성장세는 가팔라지고 있습니다.중금리 대출을 떠나 가계신용대출만 놓고 보면 지난해 말 5천억 원 수준에 머물던 잔액이 올해 3조 6천억 원까지 7배나 불었습니다.케이뱅크도 가계신용대출 잔액이 약 1조 원 늘었습니다. 실적도 1년 전 적자를 내더니 올해 상반기에는 순이익 457억 원으로 개선됐습니다.반면 카카오뱅크는 시중은행처럼 기준금리 인상에 따라 신용대출이 줄어드는 모습을 보였습니다.2천만명의 고객 수를 바탕으로 여전히 여신 규모는 가장 컸지만 가계신용대출 잔액은 올해 들어 1조 2천억 원 넘게 줄었습니다.중저신용자 대상 '마통 이자' 제일 비싼 곳은 카카오뱅크차주의 신용점수와 비교했을 때 중금리 대출 실질 이자 부담이 가장 큰 곳은 카카오뱅크였습니다.중금리 대출 중 마이너스 통장을 살펴보니 카카오뱅크의 금리가 6.6%로 가장 높았습니다. 다음으로는 케이뱅크가 6.4%, 토스뱅크가 6% 순이었습니다. 카카오뱅크는 평균 신용점수대가 다른 인터넷 은행들보다 더 높았지만 이자는 오히려 더 비싸게 받고 있었던 셈입니다.이에 대해 카카오뱅크는 "중신용 비상금 대출을 제외한 다른 (마이너스 통장) 상품은 올해 신규 판매를 하고 있지 않아 금리가 높게 나온 것"이라고 설명했습니다. 다른 곳보다 이자 수준이 높다보니 현재까지 카카오뱅크의 중금리 대출 실적도 가장 뒤쳐진 모습입니다.카카오뱅크는 올해 전체의 25%까지 중금리 대출 비중을 확대하겠다고 했지만 상반기까지 22.2%에 머물렀습니다.똑같이 25%가 목표인 케이뱅크는 24%까지 채워 이미 목표치에 근접했습니다. 케이뱅크는 올해 목표치 달성을 낙관하고 있습니다.케이뱅크 관계자는 "올해 들어 중저신용자 특화 신용평가모형을 도입했기 때문에 연말까지 목표치를 채울 수 있을 것으로 보인다"고 말했습니다.토스뱅크는 출범 당시부터 42%라는 도전적인 중금리 대출 목표치를 세웠습니다. 현재까지 목표치에는 못 미치는 36.3%를 채웠지만 중금리 대출을 적극적으로 확대해 나갈 계획입니다.토스뱅크 관계자는 "중저신용자 대상 신용평가모형에 타사보다 경쟁력이 있어 절대적 수치로 본 공급액이 많다고 판단한다"면서 "앞으로도 중금리 시장은 사업성이 있다고 보고 연말까지 목표를 달성할 것"이라고 말했습니다.빠른 비대면 대출로 인터넷 은행 여신 부문 성장인터넷 은행의 올해 상반기 전체 대출 잔액은 39조 7,463억 원으로 지난해 말과 비교해 6조 3천억원 늘었습니다.시중은행에서는 기준금리 인상에 따라 가계 신용대출이 큰 폭으로 줄어드는 것과 대조적입니다. 홍 의원은 "인터넷 은행은 어찌 됐건 대출의 용이성이라는 측면에서 누구나 쉽게 이용할 수 있기 때문에 중금리는 어느 정도 자기 신용이 있는 분들"이라며 "이 시장이 더 많이 발전해가서 금융의 허리가 두터워지는 그런 상황이 돼야 한다"고 말했습니다.이처럼 중금리 대출은 금리 인상기에 중저신용자가 고금리 시장으로 빠지지 않도록 하는 효과가 있습니다.2금융권에서는 거의 법정 최고금리에 육박한 두 자릿수 금리가 대부분이다 보니 인터넷 은행에서 상대적으로 싼 금리로 빠르게 대출 숨통을 틔울 수 있기 때문입니다.하반기 중금리 대출 상한선 조정…"금리상승에 대출 위축되지 않도록" 금융당국도 하반기 중금리 시장이 위축되지 않도록 민간중금리 대출 금리요건을 개선하기로 했습니다.중금리로 인정해주는 금리상한을 하반기부터 조정하는데 ▲은행은 6.5%에서 6.79%로 ▲상호금융은 8.5%에서 9.01% ▲카드는 11%에서 11.29% ▲캐피탈은 14%에서 14.45% ▲저축은행은 16%에서 16.3%로 조정됩니다.중금리 대출 실적을 쉽게 인정해주지 않을 거니까 중저신용자 대상 대출을 꾸준히 공급하라는 주문입니다.한국은행은 다음 주 기준금리를 한 차례 더 올릴 것으로 전망됩니다. 지난해 가계대출 규제가 은행권을 괴롭혔다면 올해는 대출이자 부담이 커지며 차주들의 고통이 커지고 있습니다.인터넷 은행 출범 명분이었던 '중금리 대출 활성화'가 이번 금리인상기에 기대를 충족시킬지 지켜봐야겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.08.20.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>[스타트UP] 삼성도 선택한 모두싸인 “PC·스마트폰으로 어디서든 계약”</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000835379?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>‘간편함’이 19만개 기업 공략 비결, 대면 서비스도 출시        “전자계약을 써보기 전까진 막연히 좋겠지 생각하지만 막상 이렇게 해도 계약이 되는 건지 거부감을 느끼는 경우도 많습니다. 하지만 한 번 쓰면 만나서 종이로 계약하는 걸로 못 돌아갑니다. 저희가 고객을 늘릴 수 있는 방법은 경험입니다. 전자계약을 해볼 수 있는 기회는 코로나19로 비대면이 일상화되면서 점점 늘고 있습니다.”부산 해운대구 본사에서 만난 간편 전자계약 서비스 ‘모두싸인’의 이영준 대표는 “계약을 하는 방식이 전자화되고 있다”면서 이렇게 자신했다. 모두싸인은 만나지 않고 언제 어디서나 어떤 상황에서든 계약이 필요할 때 종이 없이도 PC 또는 스마트폰 등 다양한 기기를 통해서 서명할 수 있는 전자계약 서비스다. 전자계약서 양식부터 서명, 보관, 관리까지 종합 서비스를 지향하고 있다.최근 은행 등 금융권을 중심으로 확산하고 있는 대면 방식의 전자계약 서비스도 곧 출시를 앞두고 있다. 현재 나와 있는 서비스보다 저렴하고, 간편하게 쓸 수 있도록 준비 중이라는 게 회사 설명이다.이영준 모두싸인 대표가 조선비즈와의 인터뷰에서 '계약의 표준'이 되겠다는 포부를 밝히고 있다. /부산=곽재순 PD        모두싸인은 7월 1일 기준 19만개 기업·기관 고객, 310만 누적 이용자가 경험했다. 기업 고객은 비바리퍼블리카(토스), 당근마켓, 컬리 등 스타트업과 삼성전자, 네이버, 카카오 같은 대기업까지 다양하다. 지난해까지 총 140억원의 투자금(시리즈B)을 유치했고, 내년에 공격적인 사업 확장을 위해 추가 투자 유치를 계획하고 있다.장기적으로는 ‘계약의 표준’이 돼 모두싸인을 플랫폼화하는 것이 목표다. 이 대표는 “우리나라 기업의 80~90%를 고객사로 끌어안을 수 있다면, 카카오처럼 모두싸인을 플랫폼화해 다양한 사업적 기회를 발굴할 수 있을 것”이라며 “개인 역시 부동산 계약을 했다면 이사나 인테리어 정보 제공·연결 등을 해줄 수 있다”고 말했다. 다음은 이 대표와의 일문일답.-부산대 법대를 나와서 IT 기술 기반으로 창업한 게 인상적이다.“법률 사건 중 70% 정도가 소송액이 3000만원 이하다. 이런 사건은 변호사를 쓰기가 힘들다. 소송액이 500만원인데 변호사 비용 800만원을 쓸 수 없기 때문이다. ‘나 홀로 소송’ 자체를 좀 줄여보면 좋지 않을까 고민했다. 민사사건의 경우엔 이런 소송의 출발이 계약에서 비롯하는 경우가 많다. 계약서를 안 썼거나, 썼는데 분실했거나 잘못 쓴 식이다. 계약서를 쉽게 누구나 만들 수 있도록 하는 ‘모두싸인’이 여기에서 출발했다. 당시 핵심 서비스는 전자계약서 양식이었고, 부가적으로 사인(서명)까지 할 수 있도록 했다. 대학에서 애플리케이션(앱) 개발 동아리를 만들어 활동했었던 것이 법적 문제를 IT 힘으로 풀어내는 데 도움이 됐다.”-유사 서비스가 많지 않았나.“아이디어를 고민하고 있을 때도 이미 LG유플러스, 더존비즈온 같은 큰 기업이 전자계약 서비스를 출시한 상태였다. 그런데 사람들이 많이 안 썼다. 간편하고 효율적일 것이라 기대했는데 막상 접해보니 회원가입을 해야 하고, 공인인증서·프로그램 설치까지 절차가 번거로워 차라리 종이로 돌아가겠다는 사람이 많았던 거다. 우리는 전자계약의 핵심 키워드인 ‘간편함’으로 승부를 보자고 했다. 앱을 설치하거나 회원가입을 하지 않아도, 공인인증서를 쓰지 않고도 브라우저 상에서 바로 서비스가 동작해 간편하게 처리할 수 있는 사용성을 구현해나갔던 게 많은 고객들의 선택을 받은 이유로 보인다.”모두싸인으로 서명하는 모습. /모두싸인 -그래도 ‘계약서는 만나서 써야 한다’는 인식이 아직 있다.“많은 사람들이 전자계약에 대한 거부감이 있는 게 사실이다. 사업 초반에 이미 비대면으로 퀵서비스, 등기 등을 통해 종이 계약서를 주고받던 작은 기업을 타깃으로 했던 것도 이 때문이었다. 이런 계약은 당사자 간의 관계에 이미 신뢰가 형성돼 있거나 계약 내용 자체에 문제 의 소지가 별로 없는 경우다. 이후 간편하게 어디에나 적용할 수 있다는 사용성 때문에 입소문을 타고 대기업까지 고객군이 확장됐지만 여전히 계약은 종이로 많이 이루어지고 있는 게 현실이다.또 비대면으로 충분히 가능한데도 대면을 고집하는 사람이 많다. 이를 위해 대면으로 전자계약을 할 수 있는 서비스도 준비하고 있다. 내가 사인한 계약서가 전자화되면 언제 어디서든 확인할 수 있고, 보관도 간편하다. 현재 나와 있는 대면 전자 형식 계약 서비스는 구축 비용이 많이 들지만 모두싸인은 보다 저렴한 비용으로 개인이든 기업이든 이용할 수 있도록 할 예정이다.”-수많은 경쟁사가 있는데 성장 가능한 시장인가.“글로싸인, 싸인오케이, 위드싸인 등 경쟁사가 약 50곳에 달한다. 한국은 초기 시장이다. (미국 시장점유율 75%로 글로벌 업계 1위인) 도큐사인의 매출·시가총액 등 성장세를 보면 가늠해볼 수 있다. 시간이 얼마나 걸릴 것인가는 업체들이 얼마나 서비스를 잘 하느냐에 달렸다. 고객들이 많이 경험해보는 것도 중요하다. 경험한 사람들이 확실히 많아졌다. 이 사람들이 수많은 계약 상대방에게 계약서를 보내기 시작하면 경험한 사람들은 더 많아질 거다. 경험이 결국 우리가 더 성장할 수 있는 촉진제다.”-앞으로 모두싸인이 나가고자 하는 방향이 궁금하다.“‘계약의 표준’이 되는 것이 우리 꿈이다. 이를 통해 많은 사람들의 시간·비용을 절약해줄 수 있다. 종이 낭비를 막아 환경에도 기여할 수 있다. 나아가 작은 가게부터 대기업, 공공기관에 이르기까지 다양한 기업의 80~90%가 모두싸인을 쓰게 된다면, 카카오가 카카오톡의 많은 이용자를 기반으로 비즈니스를 하는 것처럼 기업들의 문제를 연결하거나 직접 풀 수 있는 솔루션을 제공하는 플랫폼으로 성장할 수 있을 것이다. 개인이 평생 서명하는 개인정보 수집·활용 동의서 등 이력을 관리하는 것도 생각하고 있다. 부동산 계약을 했다면, 이를 제일 먼저 아는 게 모두싸인인 만큼 이사나 인테리어 정보, 구매 등과 연결시킬 수도 있다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>"온투업, 수익성 악화…기관투자 참여 적극 허용해야"</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011389935?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>기사내용 요약이효진 에잇퍼센트 대표 "영미는 60~70%가 기관투자"김대윤 피플펀드 대표 "카카오·토스에서 투자 못 받아"[서울=뉴시스]29일 온라인투자연계금융협회와 국민의힘 윤창현의원실은 국회의원회관에서 '온투법 시행 2년, 온라인투자연계금융의 평가와 발전방향'을 주제로 토론회를 열었다.(사진=온라인투자연계금융협회 제공)2022.08.29 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 온라인투자연계금융업(P2P대출업·온투업)의 건전한 성장을 위해 기관투자자의 참여를 허용해야 한다는 제언이 나왔다.29일 온라인투자연계금융협회와 국민의힘 윤창현의원실은 국회의원회관에서 '온투법 시행 2년, 온라인투자연계금융의 평가와 발전방향'을 주제로 토론회를 열었다.이날 발제자로 나선 서병호 금융연구원 선임연구위원은 "온투업계로의 기관투자자 참여를 적극 허용해야 온투업자의 건전한 성장을 유도할 수 있다"며 "기관투자자의 참여도가 높아지면 시장규율 강화효과까지 기대할 수 있을 것"이라고 말했다. 현재 온투업법 제35조(금융기관 등의 연계투자에 관한 특례)에 따라 온투업자는 금융기관, 법인투자자, 전문투자자 등으로부터 각각 모집금액의 40%(댐보대출의 경우 금융기관으로부턴 20%)까지 조달할 수 있다.그는 "현재 온투업법에선 온투업자의 기관투자자 모집을 허용하고 있지만, 관련 업권법·유권해석·부재 등으로 인해 실제론 기관투자자를 모집하는 것이 극히 어려워 온투업자의 성장성과 수익성이 악화하고 있다"고 지적했다. 특히 특히 여신금융기관과 사모펀드가 연계투자에 제약이 큰 상황이다. 온투업법 제35조에 따라 여신금융기관은 연계투자를 대출로 간주하기 때문에, 온투업자는 여신금융기관의 대출심사를 위해 차입자의 실명정보를 제공해야 한다. 이는 온투업자는 특정 이용자를 우대할 수 없다는 온투업법 제12조8항과 상충된다. 여신금융기관에 실명정보를 주려면 개인투자자에게도 같은 정보를 제공해야 하기 때문이다.  또 지난해 10월 자본시장법시행령 개정에 따라 온투업자는 '대부업자 등'에 추가됐다. 이에 따라 사모펀드가 온투업자의 연계투자에 참여하기 어려워졌다. 서병호 선임연구위원은 "온투업자들은 성장사기 때문에 이들을 대상으로 한 시장규율을 위해선 차입자가 아닌 투자자의 역할이 중요하다"며 "투자자 중에서도 온투업자의 경영에 영향을 줄 수 있는 기관투자자의 역할이 중요하다"고 강조했다. 이어 "이를 위해선 관련법과 시행령의 개정을 통해 여신금융기관과 사모펀드의 연계투자 참여를 제한하는 규제를 완화하는 것이 중요하다"고 덧붙였다.이후 이어진 토론은 정유신 서강대 경영전문대학원 교수가 좌장을 맡았다. 천창민 서울과학기술대 교수와 조윤미 미래소비자행동 상임대표, 김대윤 피플펀드컴퍼니 대표, 이효진 에잇퍼센트 대표, 금융위원회 금융혁신과 담당자 등이 패널로 참석했다.이효진 에잇퍼센트 대표이사는 "기관투자자들의 연계 투자에 대한 규제를 시급하게 풀어주면 좋겠다. 미국의 경우 70% 영국은 60%가 기관투자자들이 투자를 하고 있다"고 말했다. 김대윤 피플펀드 대표이사는 "2015년에 창업을 했는데, 당시 P2P기업(온투업자)들이 많이 나오게 된 것은 기존 대부업 등의 사회적 문제를 해결하기 위해서 나왔다"면서 "2년 전 법이 제정됐지만 등록을 하는데만 1년이 걸렸다. 등록 이후 많은 기관투자자들이 관심을 보였지만, 규제 때문에 현재까지 단 한건도 기관투자로부터 투자를 유치를 못하고 있는 상황"이라고 지적했다.김 대표는 "다른 모든 투자상품에 없는 투자한계가 온투업에만 있다. 월 15조 규모의 대출 수요가 있지만, 200억 정도만 대출을 하고 있다"며 "다른 온라인 플랫폼과 제휴나 투자도 어려워, 카카오나 토스로부터 제휴나 투자를 받지 못하고 있다"고 했다.P2P대출(Peer-to-peer lending·온라인투자금융)은 은행 등 금융기관을 거치지 않고 온라인 플랫폼을 통해 투자자와 차입자가 직접 연결돼 이뤄지는 대출을 뜻한다. 온투업(P2P대출업)자가 플랫폼 이용료 형태로 투자자와 차입자 양쪽에서 수수료를 받아 수익을 내는 형태다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>보험대리점 업계 "빅테크의 보험 진출은 골목상권 침해"</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001779760?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>대형 IT기업, 즉 빅테크가 보험대리점업에 진출하는 건 골목상권 침해라며 보험대리점 업계가 반발하고 나섰습니다.한국보험대리점협회와 보험대리점 업계, 보험영업인노조연대는 오늘 용산 대통령실 앞에서 결의대회를 열고 네이버와 카카오, 토스 등 온라인 플랫폼의 보험대리점업 진출 허용을 결사 반대한다고 밝혔습니다.이들은 최근 금융당국이 이해당사자의 충분한 의견도 듣지 않은 채 혁신금융서비스 지정이라는 수법으로 온라인 플랫폼에 기존 대리점과 동일하게 보험대리점업을 허용하는 방안을 추진하고 있다고 말했습니다.이어 빅테크의 보험대리점업 진출은 우월적 지위를 이용한 영세 보험영업인의 골목상권 침해일뿐 아니라 플랫폼 사용에 수수료가 부과돼 소비자 편익도 오히려 저해될 것이라고 지적했습니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>네·카·토에 "책임 있는 금융혁신" 주문한 금감원장</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000010109?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>소비자 이익 최우선…알고리즘·정보보호 강조 '플랫폼→금융상품 백화점' 도약 지원도'간편결제 수수료 공시 도입' 재확인"빅테크·핀테크는 금융산업 내 영향력을 나날이 키워가고 있으며 타인의 재산을 관리하는 금융업의 특수성을 공유하고 있습니다. 책임 있는 금융혁신이 이뤄질 수 있도록 힘써 주시기 바랍니다."이복현 금융감독원장이 30일 '빅테크·핀테크 최고경영자(CEO) 간담회'에서 한 당부다. 금융·비금융의 경계가 모호해지고 플랫폼 비즈니스가 확대되는 시점에서, 빅테크·핀테크 업계가 소비자 이익을 최우선 과제로 삼고 다양한 이해관계자들이 상생할 수 있도록 노력해달라는 주문이다.빅테크, 핀테크 업계 간담회에서 모두 발언 중인 이복현 금융감독원장/사진=금융감독원이날 이 원장이 '호모 아딕투스(Homo addictus)'라는 신조어를 언급하며 "금융상품 추천의 핵심인 알고리즘에 대한 많은 고민을 해달라"고 말한 것도 같은 맥락이다. 호모 아딕투스는 플랫폼의 알고리즘이 형성한 중독 경제 상황에서 살아가는 신인류를 뜻한다.핀테크가 설계한 알고리즘에 기대 금융상품을 선택하는 시대가 도래할 가능성이 높아진 만큼, 알고리즘을 플랫폼의 이익이 아니라 소비자의 이익이 최우선으로 할 수 있도록 더욱 신경 써 달라는 주문을 에둘러 한 것이다. 정보가 집적된 플랫폼에서 개인 정보보호에 만전을 기해달라는 당부도 나왔다. 그는 "국민의 신뢰를 다시 회복하기 어렵다는 점을 유념해 정보보호, 사이버 보안에 지속적인 관심을 가져달라"며 "소비자 정보 주권을 최우선 가치로 두고 소비자가 원치 않는 경우 앱(App)에서 정보동의 철회권 등도 쉽게 행사할 수 있도록 해달라"고 했다.플랫폼에서 디지털 소외, 차별이 발생하지 않도록 해달라는 부탁도 더했다. 혁신 아이디어와 기술이 고령층 등 디지털 소외계층의 디지털 문해력(Digital literacy)을 높이는 곳에도 기여할 수 있도록 힘써 달라는 얘기다. 그는 "금융당국도 시니어앱 구성 지침을 마련하는 등 고령 금융소비자의 디지털금융 접근성 향상을 위해 함께 노력해 나가겠다"고 말했다.이 원장은 "다양한 이해관계자들이 상생할 수 있도록 금융플랫폼을 공정하고 투명하게 운영해 달라"며 "간편결제 수수료에 대해 업계의 우려를 잘 알고 있고 감독당국도 직접 개입할 의지가 없다"고 했다.다만 "플랫폼이 새롭게 등장하는 과정에서 경쟁 제한적 요소를 내포하고 있는 것은 아닌지, 정보 비대칭적 측면 등 시장 왜곡이 있는 것은 아닌지 우려가 있다"며 "금감원은 간편결제 수수료에 대해 공시방안을 추진 중에 있다"는 기존 입장을 재확인했다.당근도 제시했다. 그는 "핀테크 업계의 혁신이 지속될 수 있도록 금감원이 다각적으로 지원하겠다"며 플랫폼이 '종합금융상품 백화점'으로 도약할 수 있도록 돕겠다고 강조했다. 예금, 보험 등 금융상품을 비교 및 추전할 수 있는 규제 샌드박스(유예제도)를 운영하는 한편, 금감원 핀테크현장자문단이 핀테크지원센터와 공조해 '원스톱 인큐베이팅 서비스'를 제공하겠다는 것이다.마지막으로 이 원장은 "핀테크 업계가 사업을 크게 발전시켜 젊은 세대들에게 양질의 일자리를 제공하는 성공적인 창업 신화의 본보기가 돼 주길 바란다"며 "창의와 기술, 기존 금융회사의 노하우 등 각자의 장점을 활용해 협업하는 디지털금융 생태계를 조성해 달라"고 덧붙였다. 한편 이번 간담회는 디지털금융 혁신 지원 방향을 설명하고 지속가능한 발전방안을 논의하기 위해 마련됐다. 이근주 한국핀테크산업협회 회장, 변영한 한국핀테크지원센터 이사장, 박상진 네이버파이낸셜 대표, 신원근 카카오페이 대표, 이승건 비바리퍼블리카(토스) 대표 등이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>'로우 텐션' 시대 왔다…뉴진스는 어떻게 K팝 판도를 바꿨나</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000061855?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>완벽함 대신 '10대 문화' 겨냥한 아이돌 레드벨벳, 블랙핑크, 에스파 누르고 걸그룹 데뷔 앨범 초동 판매 1위 'BTS 군대리스크' 구원 투수? 데뷔 직후 하이브 주주들 기대 한몸에평균 연령 16세. 긴 생머리에 통 넓은 바지를 입고 등장한 ‘중딩’들이 K팝 시장을 뒤흔들고 있다. 이들은 데뷔 3주 만에 음악 방송 1위를 차지했다. 무려 ‘걸그룹의 바이블’ 소녀시대와 맞붙어 거둔 승리다.데뷔 앨범 초도 판매량(발매 직후부터 1주일간 판매량)은 역대 신인 걸그룹 중 가장 높은 44만 장을 찍었다. 신인 걸그룹 ‘뉴진스(NewJeans)’가 데뷔와 동시에 쓴 기록이다. 유튜브와 인스타그램 등 소셜 미디어와 각종 커뮤니티를 열면 뉴진스 얘기로 떠들썩하다. 특히 타이틀곡 ‘어텐션(Attention)’은 발매 8일 만에 빌보드 차트에 진입하며 세계 무대에도 이름을 알렸다.뉴진스의 소속사 어도어는 BTS 소속사인 하이브 산하 레이블이다. 뉴진스의 활약에 하이브 투자자들 사이에서는 ‘BTS 군대 리스크’를 잠재울 괴물 신인이 등장했다는 기대감이 나온다. 실제 토스나 네이버의 하이브 종목 토론방에서는 뉴진스에 거는 장밋빛 전망이 가득하다. 뉴진스의 첫 뮤직 비디오가 공개된 7월 22일 하이브의 주가는 전날 대비 6.47%(1만원) 상승한 16만7000원을 기록했다. 이후 8월 18일까지 하이브의 주가는 12.6% 올랐다. 뉴진스의 흥행 돌풍은 우연이 아니다. 소녀시대부터 에프엑스·샤이니·레드벨벳 등 K팝 열풍을 주도한 아이돌을 기획해 온 민희진 어도어 대표가 전략적으로 선보인 그룹이다. 또래를 공략하며 얻은 ‘중딩 파워’와 완벽함 대신 ‘편안함’을 내세운 전략은 신인 걸그룹 뉴진스를 단숨에 대세 아이돌로 만들었다. 완벽함 대신 '편안함' 내세운 전략 “튜닝의 끝은 순정이다.”뉴진스 무대 영상에서 가장 많은 추천을 받은 댓글이다.많은 이들이 공감하듯이 뉴진스의 가장 큰 성공 비결은 ‘편안함’이다. 뉴진스 무대에서 화려한 스타일링이나 ‘메타버스’ 같은 색다른 콘셉트는 없다. 노래에서도 보컬 실력을 뽐낼 수 있는 고음 파트나 화려한 랩도 빠졌다. 안무는 K팝 아이돌의 핵심인 ‘칼 군무’ 대신 전체적인 리듬감만 맞춘 자유로운 안무가 핵심이다. 완벽한 보컬이나 독특한 콘셉트는 없지만 편안하게 노래하고 편한 옷을 입고 춤을 추는 모습은 오히려 새로움으로 다가왔다. 이전까지 K팝 걸그룹의 성공 공식은 ‘여전사’나 ‘걸크러시’였다. 힙합을 기반으로 하는 블랙핑크가 전 세계적인 인기를 얻으면서 블랙핑크처럼 화려한 콘셉트는 곧장 K팝 걸그룹의 성공 공식이 됐다. 이런 걸크러시 경쟁 속에서 뉴진스는 10대다운 풋풋함을 내세우며 여성 팬덤을 그러모았다. 강유정 강남대 교수는 뉴진스의 ‘편안함’ 전략이 시대상과 맞아 떨어졌다고 분석한다. 강 교수는 “지난해까지는 ‘기생충’, ‘오징어게임’, ‘지옥’ 등 모든 콘텐츠가 극적으로 흘러가는 ‘과잉’의 시대가 정점을 찍었다면 올해부터는 드라마 ‘이상한 변호사 우영우’나 뉴진스처럼 편안하게 즐길 수 있는 콘텐츠가 각광받는 ‘로우 텐션(낮은 긴장감)’의 시대가 왔다”고 설명했다.  오빠 대신 또래 공략한 ‘중딩 파워’편안함을 내세운 뉴진스는 ‘우상’이 되는 대신 10대다움을 내세우며 ‘새로운 세대의 아이콘’으로 떠올랐다. 뉴진스 이전 걸그룹들이 천편일률적으로 ‘걸크러시’ 콘셉트를 들고나온 데는 이유가 있었다.기존 엔터테인먼트업계에서 소위 ‘돈 되는’ 아티스트는 남성 아이돌이었다. 콘서트를 예매하고 굿즈를 사기 위해 결집하는 팬덤은 주로 여성이었기 때문이다. 하지만 블랙핑크·에스파·(여자)아이들·아이브 등 3~4세대 걸그룹은 남성에게 어필하는 대신 완벽한 무대와 화려한 스타일링으로 무장해 여성 팬덤을 사로잡았다.블랙핑크는 힙합을 기반으로 하는 YG엔터테인먼트 소속 걸그룹답게 탄탄한 보컬과 랩 실력을 자랑한다. 여기에 멤버 모두가 샤넬·디올·불가리·셀린느·입생로랑 등 각종 럭셔리 브랜드의 모델로 활동하고 있다. 뮤직비디오나 무대 역시 대규모 자본이 투입돼 K팝 트렌드를 선도하는 역할을 해왔다. SM엔터테인먼트의 4세대 아이돌 에스파는 ‘메타버스’에서 싸우는 여전사 세계관을 들고나왔다. 멤버들의 외모 역시 ‘인공지능(AI) 아바타보다 더 AI 같다’는 소리를 들을 정도로 화려하다. 또 다른 걸그룹 아이브 역시 ‘우상’에 가까운 완성형 아이돌이다. 엠넷의 아이돌 오디션 프로그램 ‘프로듀스 48’에서 경쟁을 통해 승리한 12인에 속해 ‘아이즈원’으로 데뷔했던 장원영과 안유진이 아이브의 핵심 멤버다. 이들 역시 여성 팬덤이 강력하다는 특징이 있다. 뉴진스 역시 여성 팬덤과 10대들에게 강력한 지지를 받고 있지만 기존 걸그룹과 달리 ‘동질감’을 내세운 걸그룹이다. 평균 연령 16세 소녀들이 긴 생머리를 하고 청바지와 티셔츠를 입고 나와 10대 소녀가 느끼는 풋풋한 사랑을 노래한다. 하재근 평론가는 “뉴진스는 10대 소녀들이 특정 콘셉트에 맞추거나 남성들에게 어필하는 느낌보다 10대의 자연스러운 매력을 있는 그대로 살리는 방법을 택하며 K팝에 새로운 바람을 불러일으켰다”고 말했다. 안무나 노래, 스타일링만 10대스러운 건 아니다. 공식 홈페이지나 앨범에도 10대 문화를 입혔다. 공식 홈페이지는 2000년대 휴대전화 화면에서 유행하는 폰트와 이미지를 입혀 제작됐다. 전용 소통 애플리케이션(앱) ‘포닝’도 2000년대 채팅 앱처럼 디자인했다. CD 앨범은 동그란 모양에 알록달록한 그림을 그린 ‘뉴진스 백’으로 제작해 판매했다.이러한 전략은 기성세대의 문화를 ‘힙하게’ 여기는 10대에게 통했다. 실제 10대 사이에서는 ‘Y2K(2000년대)’ 문화가 유행하고 있다. 10대가 주 소비층인 패션 플랫폼 에이블리에서는 ‘Y2K’ 검색량이 전년 대비 160배 정도 증가했다. 상의는 짧고 하의는 넓은 통이나 펑퍼짐한 와이드 팬츠 스타일이 다시 유행했다. 에이블리에서 ‘와이드 팬츠’ 키워드 검색량은 한 달에 10만 건에 달한다.강유정 교수는 “뉴진스의 가장 큰 무기는 ‘10대 문화’”라며 “기존에는 아이돌이 캐치프레이즈를 선언하면 팬덤이 이를 따라가는 느낌이었다면 뉴진스는 10대에게 우리 또래끼리 우리 문화를 만들어 가자는 콘셉트로 나왔다”고 말했다. 크리에이터 민희진의 ‘정반합’ 뉴진스가 내세운 10대 문화가 전혀 새로운 개념이라고는 할 수 없다. 만 13세 나이로 데뷔한 보아나 1세대 걸그룹인 SES와 핑클 역시 데뷔 초 10대다운 화장기 없는 얼굴로 나와 싱그러움과 청량함을 어필했다. 시대가 돌고 돌아 이 같은 콘셉트가 다시 새로워졌을 뿐이다. 이런 흐름을 읽어낸 건 민희진 어도어 대표다. 민 대표는 SM엔터테인먼트에서 크리에이티브 디렉터로 일하며 소녀시대·샤이니·에프엑스·엑소·레드벨벳 등 K팝 대표 그룹의 앨범 디렉팅을 도맡은 경력이 있다. 특히 음악에 시각적 요소인 ‘콘셉트’와 ‘세계관’을 입혀 K팝의 정체성을 형성한 주역이다. 소녀시대가 ‘지(Gee)’로 활동하며 입었던 컬러 스키니 진, 샤이니가 선보인 ‘콘셉티브’ 개념, 감각적이고 몽환적인 분위기로 당시 파격이라고 불렸던 f(x)의 ‘핑크 테이프’ 앨범 아트, 레드와 벨벳 두 가지의 콘셉트를 오간 레드벨벳 모두 민 대표의 아이디어였다.K팝의 이정표를 세워 온 민 대표는 또 한 번 자신이 만든 정체성을 깼다. 민 대표는 한 방송 프로그램에 출연해 이를 헤겔의 ‘정반합’ 개념에 빗대 설명했다. 주류에 싫증 난 사람들이 다시 비주류를 찾게 되고 비주류가 다시 주류로 올라선다는 의미다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>시중銀 금리인하요구권 수용률 1위 농협…이자감면액 1위 신한</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004093490?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>시중은행 수용률, 농협·우리·국민·하나·신한 순[서울경제] 앞으로 금융소비자가 금리를 낮춰 달라고 요구했을 때 어느 금융기관이 얼마나 수용하는지 한눈에 파악할 수 있게 됐다. 시중은행 중 수용률이 가장 높은 곳은 NH농협은행으로 나타났다.은행연합회는 30일 은행별 금리인하 요구권 운영실적을 비교 공시했다고 밝혔다. 올해 상반기 은행권 전체 금리인하 요구권 신청 건수는 88만8618건으로, 이 중 약 22만797건이 받아들여져 수용률은 24.84%로 집계됐다. 5대 은행에서는 NH농협은행(59.5%), 우리은행(46.5%), KB국민은행(37.9%), 하나은행(33.1%), 신한은행(30.4%) 순으로 올해 상반기 기준 금리인하 요구권 수용률(수용건수/신청건수)이 높았다.신한은행 관계자는 “5대 은행 중 유일하게 가계대출과 기업대출 모두 비대면으로 손쉽게 금리인하 요구권을 행사할 수 있도록 시스템을 갖췄다”며 “이에 따라 신청 건수가 월등히 많기 때문에 수용률은 낮아질 수밖에 없다. 하지만 절대 수용 건수나 이자 감면액은 5대 은행 중 가장 많다”고 설명했다. 실제로 상반기 신한은행의 금리인하 요구권 신청 건수는 13만1935건으로 타 시중은행 대비 월등히 높았고, 수용건수(4만70건)와 이자감면액(47억100만원)도 5대 은행을 통틀어 1위였다.공시에 참여한 19개 은행 전체 중에서는 KDB산업은행의 수용률이 92.6%로 가장 높고, 토스뱅크가 17.9%로 가장 낮았다. 카카오뱅크(19.0%), 케이뱅크(24.6%) 등 인터넷은행들의 수용률이 전반적으로 기존 시중은행들을 크게 밑돌았다. 단 케이뱅크는 가계 이자 감면액이 54억원으로 은행권에서 감면액이 가장 컸다.은행연합회 관계자는 “금리인하요구 수용률을 기준으로 은행 선택 시, 비대면 채널을 통한 금리인하요구가 활성화된 은행은 중복 신청 건이 상당수 포함된 점을 고려할 필요가 있는 만큼, 수용건수 및 이자감면액 등을 중심으로 비교하는 것이 실질적인 도움이 될 수 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.08.16.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>[취재수첩] 알뜰폰, 메기와 미꾸라지 사이</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002130790?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[디지털데일리 백지영기자] 알뜰폰 시장의 성장세가 눈부시다. 젊은 층들 사이에서 알뜰폰을 모르면 '호갱' 소리를 듣는다. 실제 알뜰폰은 지난해 11월, 출범 10년 만에 1000만 가입자를 넘긴 이후 지난 6월 말 기준 1160만3963명을 기록하며 매달 증가세를 보이고 있다. 오는 9월 소프트웨어 기반의 e심이 본격화되면 알뜰폰 성장세는 더 커질 것으로 예상된다.그러나 중소 알뜰폰 사업자들의 고심은 깊어지고 있다. 지난 2019년 금융위원회로부터 알뜰폰 사업을 국내 1호 혁신금융서비스로 지정받은 KB국민은행에 이어 최근 토스가 알뜰폰 업체를 인수하며 시장 출사표를 냈다. 여기에 금산분리 완화 움직임에 따라 금융권의 알뜰폰 시장 진출이 본격화될 것으로 예상되면서 업계의 긴장감은 높아졌다.그동안 중소 알뜰폰 업계의 고민은 갈수록 높아지는 국내 이동통신 자회사의 점유율이었다. 최근까지 이들의 점유율을 제한하는 내용의 논의가 이뤄졌다. 하지만 막강한 자본력을 앞세운 거대 금융권의 공습이 예고되면서 점유율 제한 관련 내용은 어느새 자취를 감췄다.대신 업계는 금융권의 알뜰폰 진출이 현실화될 것을 대비, 공정경쟁체제를 우선 구축해야 한다고 주장하고 있다. 최근 한국알뜰통신사업자협회는 금융위를 방문, “금융사들이 도매대가 이하의 파격적인 요금제를 출시하고 과도한 경품과 사은품을 지급해 다른 사업자들의 가입자를 유인해도 대항할 방법이 없다”며 “제도적 장치를 선구축해 불공정한 행위를 막을 수 있는  추진해야 한다”고 주장했다.KB국민은행의 알뜰폰 브랜드 ‘리브엠’의 경우 주거래 우대, 적금상품 금리 우대 등 금융거래와 연계한 통신비 할인 서비스를 차별화로 내세웠지만 초반엔 고전을 면치 못했다. 그러나 지난해 6월 10만 가입자를 확보했고, 지난 5월엔 가입자 30만을 넘어서며 알뜰폰 시장의 ‘큰손’으로 떠올랐다. 최근 조사에선 높은 고객 만족도를 기록하며 다른 알뜰폰 사업자들을 뛰어넘고 있다. 알뜰폰 업계는 그러나 리브엠이 30만의 가입자를 확보한데에는 거대한 자본력을 바탕으로 도매대가 이하의 파격적인 요금제와 과도한 경품 지급 때문이라고 지적하고 있다. 실제 리브엠은 2019년 서비스를 출시하면서 망 이용대가 3만3000원인 음성·데이터 무제한 요금제를 2년간 최저 2만2000원에 제공했다.가입자 1인당 월 1만1000원, 2년이면 26만원 이상 꼴로 적자지만 KB국민은행 입장에선 고객들에게 다양한 금융 상품을 팔 수 있고, 일정기간 고객을 묶어둘 수 있어 손해 보는 장사는 아니다. 또, 소비자들의 통신 데이터를 확보해 새로운 서비스를 만들 수도 있다.중소 알뜰폰 사업자들은 비슷한 통화·데이터량 기준 약 4만9000원에 서비스하고 있어 요금 자체로는 경쟁이 불가능하다고 호소하고 있다. 현재 알뜰폰을 전업으로 하는 중소 사업자들은 약 70여개에 달하는 것으로 알려진다. 이들은 알뜰폰 사업으로 발생하는 수익으로만 회사를 유지하는 사업자들이다.알뜰폰의 태생이 이통3사를 중심으로 고착화된 시장 경쟁을 활성화 시키는 동시에 저렴한 요금제를 통한 가계통신비 부담 완화라는 점을 감안하면, 오히려 자본력을 갖춘 대형 금융사들의 시장 진출은 환영할 만하다. 고객 입장에서 요금 인하만큼 좋은 장치는 없기 때문이다. 꼭 알뜰폰 사업자가 ‘알뜰’하란 법도 없다.다만 금융사 입장에서 알뜰폰은 통신 자체보단 금융상품을 판매하기 위해 목적이 큰 만큼, 시장을 교란시킬 수 있다는 우려도 제기된다. 금융권의 무분별한 시장 진출은 과도한 출혈 경쟁을 일으키면서 시장을 혼탁하게 만들 수 있고, 금융 소비자 보호와 금융기관 건전성을 더 약화시킬 수 있다는 지적이다.과연 금융사들의 진출이 알뜰폰 시장을 혁신할 ‘메기’가 될지, 시장의 물을 흐리는 ‘미꾸라지’가 될지는 알 수 없다. 분명한 것은 공정한 경쟁환경에서 알뜰폰 정책목표인 요금인하, 경쟁활성화를 달성해야 한다는 점이다. 시장 생태계가 망가진 이후에 이를 복구하는 것은 쉽지 않다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>네카오에서 보험 한눈에 비교하고 가입도 하세요~</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000076839?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>(금융위원회 제공) 앞으로 온라인 플랫폼에서 각 금융사의 보험 상품을 한눈에 비교·추천받을 수 있다. 그간 보험사의 고유 영역이였던 보험 판매에 인터넷 플랫폼을 기반으로 한 기업 진출이 가능해질 전망이다. 구체적으로 빅테크 기업인 네이버와 카카오, 카카오페이·토스·네이버파이낸셜 등 핀테크 기업들이 자사 온라인 플랫폼을 통해 보험 상품 비교, 추천 서비스를 제공할 수 있게 된다. 현재 보험업 라이선스가 없는 기업은 보험 상품을 비교·추천할 수 없다. 지난해 금융당국은 “핀테크 기업의 보험 비교·추천 서비스는 광고가 아니라 판매 중개 업무로 금융소비자법 위반 소지가 있다”고 판단했다. 이에 카카오페이는 지난해 자사 앱을 통한 보험 비교·추천 서비스를 중단하기도 했다. 금융위원회는 그러나 8월 23일 보험 상품에 대해 온라인 금융 상품 판매중개업을 시범 운영하기로 했다고 밝혔다. 구체적으로 ‘온라인 판매 중개업’을 혁신금융 서비스로 지정해 시범운영에 나선다는 방침이다. 기존 보험사만 가능하던 텔레마케팅, 대면 형식의 상품 판매도 가능하다. 다만 종신·변액·외화보험 등 상품 구조가 복잡하거나 보험료가 비싼 상품은 대상에서 제외된다.온라인 판매에는 보험 상품 외에 예·적금 상품 판매도 포함됐다. 이에 시중은행, 저축은행, 신협 등 은행권의 예·적금 상품을 비교, 추천하는 서비스를 내놓을 수 있다. 금융위는 플랫폼사가 받는 수수료를 과도하지 않게 규제하고, 플랫폼사의 상품 추천 기준을 안내할 계획이다. 김주현 금융위원장은 “플랫폼 비즈니스가 가져올 부작용에 대한 보완장치를 마련했다”며 “이번 플랫폼 금융 활성화 방안을 계기로 금융사, 핀테크, 빅테크 간에 공정 경쟁을 통해 지속적인 혁신이 일어날 것으로 기대한다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>'예대금리차 공시'에 은행도 소비자도 열받은 이유</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005008107?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>은행별 평균금리 공시해도신용점수별 대출금리는 달라"1금융권만 예대금리차 공시경쟁 유발 효과 제한적" 지적정부, 신잔액 코픽스 활성화로변동금리 주담대 부담 완화 윤석열 대통령의 주요 대선 공약 중 하나였던 예대금리차 공시 제도가 지난 22일 시행된 후 금융소비자와 업계에서 불만이 쏟아지고 있다. 금융소비자들은 공시에서 신용구간별 평균 대출금리만 제공돼 실제로 적용받는 금리와 큰 차이가 발생하고, 대출금리가 낮게 고시된 은행을 찾아도 오히려 다른 은행보다 더 비싼 대출을 이용할 가능성도 있다며 실효성이 떨어진다고 비판했다. 은행들은 예대금리차 공시 기준의 일관성이 부족해 정확한 정보가 제공되지 않고, 오히려 금융당국이 은행 길들이기에 활용할 수 있다며 불만을 제기했다. 이를 감안해 정부는 변동금리 주택담보대출 산정의 기준이 되는 코픽스(COFIX)가 소비자에게 유리하게 적용되도록 금융권의 설명의무를 강화하겠다고 밝혔다.23일 은행연합회 소비자포털에 따르면 은행연합회는 예대금리차 비교항목에서 대출금리, 기업대출금리, 가계대출금리, 저축성수신금리, 예대금리차, 가계예대금리차 등 총 6개 항목을 공시하고 있다. 이들 수치는 월별 신규 취급액 기준으로 가중평균한 값이다. 저축성수신에는 정기예금·정기적금 등 순수저축성예금과 양도성예금증서·금융채 등 시장형 금융상품이 포함된다.개편된 금리 공시제도는 은행별 대출·수신금리를 공개해 소비자가 자신에게 유리한 은행을 이용할 수 있게 하고, 이를 통해 은행 간 경쟁을 유발해 소비자 편익을 높이는 것을 목표로 한다. 하지만 금리가 단순히 평균치로 공시되는 탓에 소비자가 공시만 믿고 은행을 선택하기에는 변수가 크다는 지적이 이어진다. 현재 은행연합회는 49점 단위로 신용점수 구간을 나눠 대출금리 평균을 제공하는데, 이 사이에서도 금리가 많게는 1.5%포인트 이상 차이가 날 수 있다. 자체 등급으로 공시가 이뤄지던 6월 공시를 살펴보면, 신규 취급액 기준 신한은행 자체 등급 1~2등급의 대출금리 평균은 연 4.67%로 3~4등급 평균 연 6.42%와 1.75%포인트 차이가 난다. 1~2등급의 신용점수(신용평가사 KCB 기준) 평균은 933점, 3~4등급은 885점으로 불과 48점 차이였다. 대출시장의 특성을 감안하면 경쟁 유발 효과도 제한적이다. 강형구 금융소비자연맹 사무처장은 "예대금리차 공시는 1금융권에서만 이뤄지는데, 공시로 인해 기존 1금융권 소비자에게 선택받지 못하는 은행들은 기존 2금융권 소비자를 끌어들여 문제를 해결할 수 있다"며 "예대마진 공시는 1금융권 대출은 수요가 공급을 초과하는 시장이란 것을 감안하지 못한 대책"이라고 비판했다.은행별 특성을 고려하지 않고 계산해 현실을 제대로 반영하지 못한다는 지적도 나온다. 신한은행·토스뱅크·전북은행 등 중저신용자 대출 비중이 상대적으로 높은 은행들이 예대금리차가 크다는 '악명'을 받은 게 대표적이다. 토스뱅크는 예금금리도 실제보다 낮게 측정됐다며 불만을 토로하고 있다. 토스뱅크의 저축성수신 공시 금리는 연 1%로 요구불예금 금리 연 2%보다 1%포인트 낮다. 다른 시중은행의 요구불예금 금리는 0.1% 수준이지만, 토스뱅크 요구불예금 금리는 2%나 되고 사용자도 많기 때문에 이를 제외할 경우 수신금리 평균이 낮아진다는 주장이다.한편 금융감독원은 올해 3분기부터 신잔액 기준 코픽스 대출을 활성화해 금리 인상기 소비자 부담을 완화하겠다고 발표했다. 이를 위해 일선 영업점에서 대출 종류별 특성과 현재 금리 수준을 비교하는 설명의무를 강화하고, 금감원에서 대출 종류별 금리·금액 등을  점검할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>'토스가 할 수 있으면 KB·신한도…' 앱에서 중고차거래까지 한다</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004786269?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>김주현 금융위원장이 23일 오후 서울 종로구 정부서울청사에서 개최된 제2차 금융규제혁신회의에서 박병원 금융규제혁신회의 의장 및 민간위원 16명 등과 플랫폼 금융서비스 활성화 방안과 규제 샌드박스 내실화 방안을 심의했다. /사진제공=금융위원회금융당국이 하나의 애플리케이션(이하 앱)에서 금융은 물론 생활서비스까지 이용할 수 있도록 은행의 업무범위를 넓혀준다. '디지털 유니버설 뱅크'로 도약할 수 있게 길을 열어주겠다는 것이다. 특히 빅테크는 가능했는데 기존 금융사는 할 수 없는 분야는 과감히 개방할 방침이다. 금융위원회는 23일 제2차 금융규제혁신회의를 열고 은행이 다양한 금융·비금융 서비스를 제공할 수 있도록 부수업무 해당여부를 유연하게 해석하고, 통합앱을 통해 보험·카드·증권 등 계열사 서비스를 제공할 수 있도록 법적 불확실성을 해소하겠다고 밝혔다. 김주현 금융위원장은 "하나의 플랫폼(App)을 통해 은행, 보험, 카드, 증권 등 종합금융서비스를 제공할 수 있다"며 "기존 금융회사가 금융플랫폼으로 성장하는 데 걸림돌이 되는 규제를 푸는 방안"이라고 설명했다. 현재 은행은 엄격한 부수업무 규제 때문에 다양한 플랫폼 서비스 제공이 어려웠다. 일부에서 후발주자인 토스뱅크앱보다 국민, 신한은행의 모바일앱이 더 불편하다는 지적이 나올 정도다. 이에 금융당국은 기존 은행이 빅테크나 핀테크에 뒤지지 않는 통합앱을 만들 수 있는 제도적 기반을 마련해준다는 방침이다. /자료=금융위원회유연한 부수업무 유권해석을 통해 앞으로 소비자는 은행앱에서 국민연금 가입내역, 건강보험 납입내역, 세금 및 공과금 고지서 등을 통합 관리할 수 있다. 또 은행은 자체적인 본인확인서비스와 함께 각종 플랫폼 서비스도 앱에서 제공할 수 있다. 예컨대 기업고객을 대상으로 물품구매·계약·발주 등 공급망 관리와 이체·송금·대출 등 금융서비스가 융합된 플랫폼 서비스가 가능해진다. 금융당국은 법령 개정을 통해 업무범위를 지속해서 확대하고 관련 절차를 간소화하는 방안을 추진한다. 이와 함께 은행이 보험·카드·증권 등 계열사 서비스를 하나의 통합앱에서 제공할 수 있게 통합앱 운영을 부수업무로 허용할 계획이다. 금융서비스뿐만 아니라 헬스케어 서비스(보험사), 중고차거래 중개, 렌탈 중개(여전사) 등 비금융서비스도 연결할 수 있게 허용한다. 금융지주사가 통합앱 운영에서 역할을 강화하는 방안도 추진된다. 금융지주 회사는 금융지주회사법상 영리업무를 할 수 없어 통합앱 운영을 할 수 없다. 모회사인 카카오페이와 토스가 직접 통합앱을 운영해 시너지 효과를 내는 것과 비교되는 부분이다. 금융당국은 우선 지주회사가 통합앱을 직접 운영하지 않으나 통합앱 기획·개발, 관리·유지 업무 등을 위탁받아 수행할 수 있도록 허용할 계획이다. 중장기적으로 법령 개정 등을 통해 지주회사가 통합앱을 직접 운영할 수 있도록 허용하는 방안도 검토한다. 이외에도 금융위는 보험사와 카드사가 각각 헬스케어, 생활밀착 금융플랫폼을 운영할 수 있도록 업무법위를 확대할 예정이다. 보험사를 건강관리 노력에 비례한 리워드(상품) 지급한도를 현재 3만원에서 20만원으로 높이고, 카드사는 다른 카드사 상품을 추천할 수 있게 허용한다. 김 위원장은 "금융의 디지털 혁신을 기존 금융회사와 핀테크 회사 간에 균형있게 지원한다는 방향"이라며 "디지털 전환 부문에서 금융회사, 핀테크, 빅테크 간의 건전한 경쟁을 통해 자율적인 혁신이 일어나고 소비자 편익이 크게 증대될 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>[기자수첩] 은행도 소비자도 뿔난 예대금리차 공시, 악마는 디테일에 있다</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000847002?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>"정부 말대로 중·저신용자 대출 확대했건만 '이자 장사'하는 은행 타이틀만 얻게 된 꼴이네"최근 기자가 작성한 기사에 달린 댓글이다. 중·저신용자 대출 확대와 '이자 장사'라는 어울리지 않는 단어가 한 문장 안에 쓰인 건 지난 22일 예대금리차(대출금리에서 수신금리를 뺀 것) 공시가 시행되면서다.예대금리차는 대출금리에서 수신금리를 뺀 값으로 수치가 클수록 수신금리는 낮고 대출금리가 높은 것으로 해석된다. 즉 은행이 이자로 얼마나 배를 불렸는지를 가늠할 수 있는 기준이 된다.신종 코로나바이러스 감염증(코로나19)으로 팍팍해진 서민경제와 달리 대출이 증가하면서 이자 수익이 늘어난 은행권에 대한 비판이 이어지자 금융당국은 예대금리차 공시 도입으로 은행과 금융소비자 간의 정보 불균형을 해소하고 은행의 건강한 '금리 경쟁'을 유도하고자 했다.제도 시행 첫날 성적표를 받아든 은행들의 운명은 극명하게 나뉘었다. 예대금리차가 큰 은행들은 서민의 이자로 배를 불린 은행으로 낙인찍혔고 예대금리차가 적은 은행은 박수받았다. 특히 눈총을 받은 건 인터넷은행과 지방은행으로 이들의 이름 옆에는 곧바로 '이자 장사'라는 꼬리표가 따라붙었다.하지만 이들은 억울하다는 입장이다. 상대적으로 대출 금리가 높은 중·저신용자 등 취약계층을 위한 중금리대출을 확대한 탓에 평균 대출금리가 높아 보이는 착시현상이 일어났다는 설명이다.토스뱅크의 속사정을 들여다보면 일리가 있다. 지난 7월말 기준 토스뱅크 대출 고객 중 중·저신용자 비율은 약 38%로 모든 은행 중 가장 높으며 6월말 공시 기준 타 인터넷전문은행과 비교해도 1.5배 이상 높은 상황이다. 각 은행의 영업 전략 등이 달라 예대금리가 상이하기 때문에 일방적 '줄 세우기'는 한계가 있다는 목소리도 들린다.자칫 중·저신용자의 대출문이 좁아질 수 있다는 비관적인 관측도 제기된다. 예대금리차가 확대되는 현상을 막기 위해 은행들이 상대적으로 대출금리가 높은 중·저신용자 대출을 회피할 수 있다는 이유에서다.여기에 예대금리차 공시가 은행 간 경쟁을 유도해 수신금리 상승을 이끌고 결국 코픽스와 대출금리가 오를 수 있다는 우려의 목소리도 커진다. 코픽스는 8개 은행의 주요 자금조달원 가중평균 금리를 의미하는데 수신금리가 오르면 코픽스도 같이 상승한다.예대금리차 공시의 허점이 수면 위로 떠오르자 금융위는 급하게 해명에 나선 상황이다. 일부 지방은행, 인터넷은행 등 중·저신용자 대출 비중이 높은 은행에서 평균 예대금리차가 높게 나타날 수 있는 것은 사실이라고 인정하면서 은행별 특성이 충분히 설명될 수 있도록 신용점수별 예대금리차, 평균 신용점수 등도 함께 공시하겠다는 계획을 밝혔다.금리 상승기 속 금리 인상 속도가 비교적 완만한 신잔액 코픽스 대출 활성화를 유도하겠단 구상도 내놨다. 신잔액 코픽스는 금리산정 시 요구불예금 등 저원가성 예금이 포함돼 상대적으로 금리가 낮고 변동폭이 작다는 특징이 있다.'악마는 디테일에 있다'는 말처럼 어떤 일이든 밖으로 보이는 것보다 그 안의 세부적인 알맹이가 더 중요하다. 예대금리차 공시를 둘러싼 여진은 결국 각 은행의 상황, 부작용 등을 면밀히 고려하지 못한 데 있다.설익은 제도는 결국 금융 소비자의 혼란만 가중시킬 뿐이다. 서민을 위한다는 도입 취지와 투명한 금리 공시 체계를 구축한다는 목표를 위해선 금융당국의 보완책 마련이 시급하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>가계 예금-대출 금리차 가장 큰 곳은 전북은행… 시중은행선 신한은행</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000835668?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>7월 기준…예대금리차 첫 공시기업대출 포함하면 토스뱅크 1위, 시중은행선 농협        KB국민·신한·우리·하나·NH농협 등 5대 시중은행서 지난달 가계 예대금리차(예금금리와 대출금리 차이)가 가장 큰 곳은 신한은행으로 나타났다.22일 오전 은행연합회 홈페이지 소비자포털에 새로 공개된 은행 예대금리차 공시에 따르면 신한은행의 지난달 가계 예대금리차는 1.62%포인트(p)로 집계됐다. 신한은행의 가계대출금리는 4.57%, 저축성수신금리는 2.95%였다.서울 시내의 시중은행 ATM기기의 모습. /뉴스1        다음으로 우리은행과 NH농협은행이 1.40%포인트로 같았다. 구체적으로 두 은행의 가계대출금리는 각각 4.22%, 3.94%였고 저축성수신금리는 2.82%, 2.54%였다. KB국민은행이 1.38%포인트(가계대출금리 4.36%, 저축성수신금리 2.98%)로 뒤를 이었다. 하나은행은 1.04%포인트(4.12%, 3.08%)로 그 중 가장 낮았다.신한은행 관계자는 “통상적으로 7월은 가계대출 수요가 적고, 햇살론 등 서민지원대출 많이 지원되면서 평균 대출 금리가 올랐다”면서 “또 가계 부채 안정화를 위해 전세자금대출 2년 고정금리물을 비롯해 변동금리보다 상대적으로 금리가 높은 고정금리 대출 비중을 늘리면서 가계대출평균금리가 상승됐다”고 말했다.예대금리차는 직전 달의 신규 취급액 기준으로 평균 대출금리에서 저축성수신금리를 뺀 값으로 산출된다. 즉 예대금리차가 클수록 대출금리는 높고, 수신금리는 낮은 것으로 해석할 수 있다. 이 차이가 클수록 은행은 이자이익이 증가해 수익성이 향상되지만, 금융소비자들은 이자 부담이 늘어나게 되는 셈이다.국내 19개 은행 전체로 보면, 전북은행의 가계 예대금리차가 6.33%포인트로 가장 높았다. 예금금리 평균(3.13%)이 은행권 네 번째로 높았으나, 대출금리 평균이 9.46%에 달했다. 이는 전체 은행 중 예대금리차가 가장 낮은 부산은행(0.82%포인트)의 약 7.71배에 달했다.상대적으로 중·저신용자 대출 비중이 상대적으로 큰 인터넷전문은행의 가계 예대금리차는 2%포인트 이상으로, 전통은행을 웃돌았다. 토스뱅크의 지난달 가계 예대금리차는 5.60%포인트로 집계됐다. 토스뱅크의 가계대출금리는 6.60%, 저축성수신금리는 1.00%였다. 케이뱅크와 카카오뱅크는 각각 2.46%포인트, 2.33%포인트였다.서울 시내 한 은행에서 대출 관련 창구가 운영되고 있다. /뉴스1  기업대출 포함하면 가장 큰 곳은 토스뱅크… 5대은행선 NH농협        기업대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리)를 보면, 주요 시중은행 중에선 NH농협은행이 1.36%포인트(대출금리 3.90%, 저축성수신금리 2.54%)로 예대금리차가 가장 컸다. 이어 ▲우리은행(1.29%포인트) ▲KB국민은행(1.18%포인트) ▲신한은행(1.14%포인트) ▲하나은행(1.10%포인트) 순이었다.전체 은행권으로 보면 토스뱅크가 5.66%포인트로 가장 높았다. 지난달 토스뱅크의 대출금리는 6.65%, 저축성수신금리는 1.00%였다. 토스뱅크 관계자는 “토스뱅크 대출 고객 중 중저신용자 비율은 약 38%로(7월말 기준), 모든 은행 중 가장 높으며, 6월말 공시 기준 타 인터넷전문은행과 비교해도 1.5배 이상 높다”면서 “2% 요구불예금(수시입출금 통장) 중심의 사업적 특성이 수신금리에 미반영됐다”고 말했다.전북은행의 지난달 예대금리차는 4.59%포인트로, 토스뱅크 다음으로 차이가 컸다. 전북은행의 대출금리는 7.72%, 저축성수신금리는 3.13%다. 전북은행은 ▲광주은행(2.50%포인트) ▲제주은행(1.75%포인트) ▲BNK경남은행(1.73%포인트) ▲DGB대구은행(1.62%포인트) ▲BNK부산은행(1.08%포인트) 등 지방은행 중에선 가장 큰 예대금리차를 나타냈다. 대출·예금금리 공시도 비교 쉽게 개선… 과도한 이자 부담 덜어질까        이번 개편은 금융당국이 마련한 ‘금리정보 공시제도 개선방안’에 따른 것이다. 그동안 은행들은 매 분기 사업보고서에서 각각 예대금리차를 알려왔는데, 이를 매달 통합해 공시하게 됐다. 예대금리차 산출 대상도 잔액에서 전월 신규 취급액으로 바뀌면서 지난달 신규 취급한 상품 금리가 공시됐다. 은행별로 금리경쟁을 촉진해 금융소비자의 과도한 이자 부담을 덜어주겠다는 게 금융당국의 취지다.아울러 기존에 각각 공시되던 대출금리와 예·적금 금리도 개편됐다. 대출금리는 은행별 자체 신용등급 기준 5단계에서 신용평가사(CB)의 신용점수를 50점 단위로 나눈 9단계 공시로 세분화됐다. 소비자 개개인의 신용점수 구간에 따른 은행별 평균 대출 금리를 보고 비교할 수 있게 되는 셈이다. 예·적금 공시 항목은 기존의 기본금리와 최고 우대금리에 전월 평균금리(신규 취급 기준)를 추가했다.일러스트=이은현        다만 일각에선 예대금리차 공시 제도가 소비자의 실질적인 금리 부담 완화 효과로 이어지기 위해선 제도의 실효성을 높여야 한다는 의견도 제기됐다. 단순히 상품 가격(금리)을 비교 공시하는 것으로 가격이 자연스레 내려가지는 않기 때문이다.실제로 은행들은 공시제도 개편을 앞두고 예대금리차를 줄이기 위해 잇달아 수신금리 인상에 나섰다. 다만 수신금리 인상 행렬이 결국 대출금리 상승으로 이어져 금융소비자의 이자 부담을 더 키울 수 있다는 우려가 나온다.주택담보대출(주담대)을 비롯한 변동금리 대출 상품은 코픽스(COFIX·자금조달비용지수)를 금리 산정 기준으로 삼는다. 그런데 이 코픽스는 은행의 예·적금, 은행채 등 수신상품 금리를 바탕으로 산정된다. 7월 코픽스가 역대 최대폭으로 뛰면서 주요 시중은행의 변동형 주담대 금리 상단은 연 6%를 넘어섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>네이버, 개인 대출비교 시장 나서나...페이 넘어 금융플랫폼으로 키운다</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002031290?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜, 내년 출시 검토개인 신용대출 판도 바꿀지 주목박상진 네이버파이낸셜 대표사업자대출을 확대해 대출 비교 시장 진출을 예고한 네이버파이낸셜이 개인신용 대출비교 서비스에도 본격 진출한다. 그간 집중했던 결제 기반 페이 서비스를 넘어 통합 금융 플랫폼으로 나아가겠다는 의지로 해석된다.22일 관련 업계에 따르면 네이버파이낸셜은 이르면 내년 개인 대상 대출비교 서비스를 선보인다. 이는 올 10월 출시를 예고한 사업자 대상 대출비교 서비스를 개인 대상으로 확대하는 것이다. 네이버파이낸셜 관계자는 “사업자 대출비교 서비스가 출시된 이후 개인 대상의 대출비교 서비스 출시도 긍정적으로 검토하고 있다”고 말했다.그간 네이버파이낸셜 측은 사업자 대상 대출비교 서비스를 내놓겠다고 밝혔지만 개인 대출비교 시장에는 뚜렷한 계획을 세우지 않았다. 그러나 사업자 대출 비교 서비스 출시가 임박하면서 개인 대상 서비스 역시 밑그림을 그리고 있는 셈이다.네이버파이낸셜이 조만간 출시할 사업자 대출 비교 서비스는 네이버 생태계를 이용하고 있는 사업자들에게 제공되고 있는 대출 서비스의 ‘확장판’으로 알려졌다. 박상진 네이버파이낸셜 대표는 간담회에서 “이번에 나올 사업자 대출 비교 서비스는 전업권의 사업자 대출 상품이 입점할 예정이며 금융사들과 함께 사업자 특성에 맞는 상품개발도 진행할 것”이라고 설명했다.현재도 네이버파이낸셜은 우리은행, 전북은행, 미래에셋캐피탈 등과 특화 상품을 내놓고 네이버 스마트스토어와 스마트플레이스에 입점 또는 등록된 사업자들이 대출을 신청할 때 상품을 비교해주고 있다. 사업자들이 각각의 금리와 한도를 보고 자신에게 유리한 상품을 선택할 수 있는 것이다. 스마트플레이스 대출의 경우 네이버 예약과 네이버 주문 등 네이버 서비스를 이용하는 소상공인에게 우대금리 등을 제공한다. 스마트스토어 사업자 전용 대출도 온라인 사업자를 대상으로 해 호평을 받았다. 특히 스마트스토어 대출의 경우 2020년 말 출시 이후 올 6월 기준 대출 취급액이 1700억원에 달한다.특히, 네이버파이낸셜은 네이버 생태계 안팎의 사업자를 모두 아우르는 금융 플랫폼을 목표로 개인 대상 금융 서비스를 확장하고 있다. 6월 말 출시한 보험 관리 서비스 ‘보험통합조회’는 한달 만에 사용자 30만을 돌파했다. 여기에 개인신용 대출 비교 서비스까지 힘을 보탠다면 대출 시장 전반에서 존재감을 발휘할 수 있을 것으로 보인다.핀테크 업계 관계자는 “네이버가 개인신용대출 비교 시장에 진출할 경우 공고했던 토스, 카카오페이, 핀다 3사 경쟁 구도에 큰 영향을 미칠것”이라고 내다봤다.박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>신한銀, 가계부문 예대금리차 '최대'</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004739850?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>19개 은행 비교해보니지난달, 1.62%P로 가장 높아신한 "금리 높은 서민대출 비중 커"하나銀, 1.04%P로 최저점포 없는 토스·카카오·케이뱅크시중은행보다 2%P 이상 높아"인터넷銀, 이자 장사 몰두" 지적도국내 5대 시중은행 중 지난달 가계 부문 예대금리차(대출금리와 예금금리 차이)가 가장 큰 곳은 신한은행(1.62%포인트)으로 나타났다. 전체 19개 은행 중에선 전북은행의 예대금리차(6.33%포인트)가 가장 컸다. 중·저신용자 대출 비중이 높은 지방은행과 인터넷전문은행의 예대금리차가 시중은행에 비해 높았다. 하지만 은행별 대출 상품 구성과 예금 등 자금 조달 방식에 따라 예대금리차의 변동성이 큰 만큼 단순 비교가 적절한지에 대한 지적도 나온다. 지방·인터넷銀 상위권22일 은행연합회 소비자포털의 ‘예대금리차 비교’ 공시에 따르면 전북은행에 이어 토스뱅크(5.60%포인트) 광주은행(3.39%포인트) 케이뱅크(2.46%포인트) 카카오뱅크(2.33%포인트) 등 지방·인터넷은행이 가계 부문 예대금리차 1~5위를 기록했다.전북은행은 예금금리 평균(연 3.13%)은 4위였지만 대출금리가 평균 연 9.46%에 달했다. 신용점수가 낮은 취약계층에 대한 중금리 대출을 적극적으로 실행했기 때문으로 풀이된다.5대 은행 가운데선 신한은행의 예대금리차가 1.62%포인트로 가장 컸다. 우리은행(1.40%포인트) 농협은행(1.40%포인트) 국민은행(1.38%포인트) 하나은행(1.04%포인트) 순이었다. 신한은행은 햇살론과 새희망홀씨 등 상대적으로 금리가 높은 서민 지원 대출을 확대한 결과라고 설명했다. 신한은행 관계자는 “7월은 가계대출 비수기인 탓에 서민 지원 대출 비중이 상대적으로 높아지면서 전체 대출금리를 끌어올렸다”며 “햇살론을 제외하면 대출금리는 약 0.17%포인트 하락한다”고 했다.예대금리차는 매달 신규 취급한 가계·기업대출 가중 평균 금리에서 예·적금 등 수신 금리를 뺀 값으로 공시된다. 금리를 직관적으로 파악할 수 있지만 실제 대출 때는 은행 자체 신용등급에 따라 금리가 결정돼 공시 내용과 차이가 생길 수 있다. 신용대출 금리 ‘하나’ 낮아이번 공시에서 대출금리는 신용평가사(CB)의 신용점수(1∼1000점) 구간을 50점 단위로 나눠 총 9단계로 발표됐다. 소비자들은 자신의 신용점수 구간에 해당하는 평균 대출금리를 은행마다 비교할 수 있다. CB사 신용점수는 신용평가 제휴 플랫폼에서 확인 가능하다.5대 은행에서 주로 대출을 받는 신용점수 851~1000점, 3개 구간 차입자들의 신용대출 금리가 가장 낮은 곳은 하나은행이었다. 하나은행은 신용점수 851~900점 구간의 신용대출 금리가 연 5.08%로 집계됐다. 이어 우리(연 5.16%) 국민(연 5.28%) 농협(연 5.62%) 신한(연 5.67%) 순이었다. 고신용자로 분류되는 신용점수 951~1000점 구간에서도 하나은행의 신용대출 금리가 연 4.28%로 국민(연 4.41%) 우리(연 4.60%) 농협(연 4.73%) 신한(연 4.94%)에 비해 낮았다. 주택담보대출의 경우 담보(주택) 가치가 중요한 만큼 신용점수 951~1000점 구간 대출금리가 가장 낮은 국민(연 4.13%)과 가장 높은 우리(연 4.62%)의 금리차가 신용대출보다 작았다. 인터넷銀 ‘이자 장사’ 지적오프라인 영업점이 없는 인터넷은행의 예대금리차가 지나치게 높다는 지적도 나온다. 비대면 영업으로 비용을 절감해 소비자들에게 혜택을 주겠다는 설립 취지와 달리 ‘이자 장사’에 몰두한다는 것이다. 카카오·케이·토스뱅크의 지난달 가계 부문 예대금리차는 평균 3.46%포인트에 달했다. 국민 신한 하나 우리 농협 등 5대 시중은행 평균(1.37%포인트)보다 2%포인트 이상 높았다. 신용점수 951~1000점 구간에서도 토스뱅크의 신용대출 금리는 연 4.89%로 신한(연 4.94%)을 제외한 4대 은행보다 높았다. 인터넷은행 측은 “주택담보대출보다 금리가 높은 신용대출을 주로 취급하고 수시입출식 통장이 예금금리 산정에서 빠지면서 예대금리차가 확대된 경향이 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>이복현 금감원장, 빅테크·핀테크에 "종합금융상품 백화점 전폭 지원"</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003040435?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>핀테크 산업 관계자 간담회간편결제 수수료 비교 플랫폼당국 개입 없는 자율 운영 언급기업인 '규제 혁신 방향성' 환영30일 서울 마포 프론트원에서 열린 빅테크 핀테크 업계 간담회에서 이복현 금융감독원장이 모두발언을 하고 있다.이복현 금융감독원장이 빅테크·핀테크 플랫폼이 '종합금융상품 백화점'으로 도약할 수 있도록 보험·예금 등 다양한 금융상품을 비교·추천할 수 있는 규제 샌드박스를 운영할 계획이라고 밝혔다. 간편결제 수수료 비교공시 플랫폼에 대해서는 당국 개입 없이 자율적으로 운영하겠다고 언급했다.빅테크·핀테크 기업들은 이 같은 방안을 환영하면서도 '동일기능 동일규제'가 자칫 핀테크 혁신과 창업 활성화를 저해할 수 있다는 우려를 표했다. 디지털금융 관련 제도 마련 시 빅테크·핀테크와도 더 활발한 사전 협의가 이뤄질 필요가 있다는 제안도 나왔다.이복현 금감원장은 30일 서울 마포프론트원에서 핀테크 산업 관계자들과 간담회를 갖고 이 같은 내용을 포함한 디지털금융 혁신지원 방향을 설명했다.이날 행사에는 박상진 네이버파이낸셜 대표, 신원근 카카오페이 대표, 이승건 비바리퍼블리카(토스) 대표, 정현경 뮤직카우 대표, 김정은 스몰티켓 대표, 김종협 아이콘루프 대표, 임종윤 에임스 대표, 예창완 카사코리아 대표, 김민정 크레파스솔루션 대표, 이근주 한국핀테크산업협회 회장, 변영한 한국핀테크지원센터 이사장이 참석했다.이복현 금감원장은 “디지털금융이 더욱 풍성하게 발전할 수 있도록 예금, 보험, P2P 등 다양한 금융회사 상품을 비교·추천할 수 있는 규제 샌드박스를 운영할 계획”이라며 “이를 기반으로 플랫폼은 소비자 데이터를 분석해 맞춤형 상품을 제공하는 종합금융상품 백화점으로 도약할 수 있을 것”이라고 밝혔다.다만 이 과정에서 책임있는 금융혁신이 이뤄질 수 있도록 금융상품 추천 핵심인 알고리즘과 정보보호 강화에 대해 더 많이 고민해달라고 당부했다. 과도한 플랫폼 수수료 지양도 강조했다.현재 빅테크·핀테크 플랫폼의 일부 상품 비교·추천 알고리즘은 인공지능(AI)과 빅데이터를 활용한 사용자 맞춤형이라기보다는 금융상품 광고에 의한 노출 성격이 강하다는 점이 문제로 지적되고 있다.이 원장은 “알고리즘이 플랫폼 이익이 아닌 소비자 이익을 최우선으로 할 수 있도록 지속적으로 검증하는 등 만전을 기해달라”고 재차 강조했다.간편결제 수수료 공시에 대해서는 당초 계획대로 추진할 의사를 밝혔다. 다만 신용카드 수수료 체계와 간편결제 수수료가 다른 점을 충분히 인지하고 있는 만큼 합리적인 방식으로 제도를 시행하겠다는 점을 강조한 것으로 알려졌다.이 원장은 “국민생활과 밀접한 플랫폼 수수료에 대한 문제가 사회 다방면에서 제기돼 간편결제 수수료 공시 방안을 추진하고 있다”며 “다만 수수료는 시장참여자에 의해 자율적으로 결정될 사안이고 감독당국은 직접 개입할 의사가 없다”고 강조했다.또 “공시방안도 이해관계자 의견을 충분히 수렴해 합리적으로 마련할 계획이며 플랫폼 사업자는 공생을 위해 금융플랫폼을 공정하고 투명하게 운영해달라”고 당부했다.이 날 행사에 참석한 빅테크·핀테크 기업 관계자들은 금융 플랫폼의 사회적 영향력이 커진 점에 공감하면서도 금융당국이 강조하는 '동일기능 동일규제'에 대한 우려를 제기했다. 혁신 아이디어를 바탕으로 한 창업이 자칫 금융사와 동일한 수준의 규제를 적용받아 제대로 꽃을 피우지 못하는 사례가 있을 수 있다는 우려가 조심스럽게 제기됐다.금융당국이 디지털금융 관련 정책을 마련할 때 금융사 외에 빅테크·핀테크 의견도 사전에 충분히 조율해달라는 의견도 제기됐다. 은행, 카드, 보험 등 기존 금융권과 금융당국이 활발히 소통하지만 이에 비해 빅테크·핀테크와의 사전 소통은 상대적으로 부족하다는 것이다.이날 금감원장은 금융사와 빅테크·핀테크가 더 이상 서로를 두려워하는 분위기보다는 협력이 필요하다는 점을 강조했다.이 원장은 “기존 금융사의 금융 노하우와 업력 등 각자 가진 강점을 활용해 다같이 협업하는 생태계로 발전해야 한다”고 말했다. 또 “디지털 환경에 적합하지 않은 감독 관행과 규제를 과감히 개선해나가겠다”고 덧붙였다.(앞줄 왼쪽부터)박상진 네이버파이낸셜 대표, 예창완 카사코리아 대표, 김민정 크레파스솔루션 대표, 이복현 금융감독원장, 김종협 아이콘루프 대표, 정현경 뮤직카우 대표, 이승건 비바리퍼블리카 대표 (뒷줄 왼쪽부터)김병칠 금융감독원 부원장보, 변영한 핀테크지원센터 이사장, 임종윤 에임스 대표, 신원근 카카오페이 대표, 김정은 스몰티켓 대표, 이근주 핀테크산업협회 회장, 김용태 금융감독원 디지털금융혁신국장</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>금리인하 수용률 올라가는데...왜 체감 못할까</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011393142?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>기사내용 요약상반기 은행권 이자감면 수용률 20% 초반 그쳐저축은행, 보험·카드 등 2금융권 30~40%대로 차이 커업계 "고객들 체감하려면 1금융권 전반 수용률 올라가야"[서울=뉴시스] 조수정 기자 = 코로나19 등의 여파로 비대면 거래가 늘면서 지폐의 유통수명이 길어진 것으로 나타났다. 유통수명이 가장 긴 화폐는 5만원권으로 14년 10개월로 조사됐다. 6일 한국은행의 '2021년 은행권 유통수명 추정 결과'에 따르면 지난해 은행권 수명은 1년 전보다 평균 1~4개월 가량 늘어난 것으로 나타났다. 5만원권이 1년 전보다 수명이 4개월 늘어 178개월(14년 10개월)로 가장 길었다. 2020년 코로나19 발생 이후로 계산해 보면 1년 4개월이나 증가했다. 7일 오전 서울 중구 하나은행 위변조대응센터에서 직원이 5만원권을 확인하고 있다. 2022.01.07. chocrystal@newsis.com[서울=뉴시스] 이정필 남정현 기자 = 금융사들의 첫 금리인하요구권 비교공시 결과 시중은행의 수용률이 보험이나 카드 등 2금융권에 비해 현저히 낮은 것으로 확인됐다. 본격적인 고금리 시대를 맞아 정부가 주문한 실질적인 금리인하요구권 활성화가 이뤄지려면, 대다수 고객이 이용하는 1금융권의 수용률이 더 높아져야 한다는 지적이 나온다.31일 금융권 공시에 따르면 올해 상반기 은행권 금리인하요구 신청건수는 총 88만8619건으로 집계됐다. 이 중 22만797건이 수용돼 24.8%의 수용률에 그쳤다.기업대출을 제외한 가계대출은 85만236건 신청에 20만910건이 수용됐다. 수용률이 23.6%로 내려간다. 5건 중 1건 꼴이다.은행별로 가계대출 금리인하요구권 수용률을 보면, 신한은행이 29%로 5대 시중은행 중 가장 낮았다. 인터넷전문은행 중에서는 토스뱅크가 17.8%로 가장 낮았다. 이어 카카오뱅크 19%, 케이뱅크 24.6% 순이다.수용률이 낮은 은행들은 신청건수가 많고 이자감면액이 크다고 설명한다. 실제 인터넷은행 3사와 신한은행은 타사 대비 해당 실적이 높은 것으로 나타났다. 하지만 대다수 시민들이 시중은행과 인터넷뱅크를 이용하는 만큼, 업권의 전반적인 수용률이 더 올라가야 한다는 지적이 나온다.2금융권의 금리인하요구권 수용률은 1금융권을 대폭 상회한다. 상반기 저축은행들의 금리인하요구 신청건수는 3만8568건으로 집계됐다. 이 중 1만3410건이 수용돼 수용률 34.8%를 나타냈다. 3건 중 1건 꼴이다. 여신금융업권 금리인하요구 신청건수는 총 23만5000여 건이다. 이 중 9만2000여 건이 수용돼 평균 수용률은 39.12%를 기록했다. 캐피탈사를 제외한 전체 카드사 평균은 40.33%로 집계됐다.7개 전업카드사는 신한카드(74.03%), 우리카드(62.35), 현대카드(45.81%), 삼성카드(40.35%), 롯데카드(40.15%), KB국민카드(39.65%) 등으로 나타났다.전체 업권 중에 유일하게 수용률이 평균 40%를 기록했는데, 타 업권과 달리 대표적인 장기 상품인 주택담보대출을 포함해 담보대출을 취급하지 않은 영향도 큰 것으로 풀이된다. 보험업권 금리인하요구 신청건수는 약 1만3000건이다. 이 중 약 5000건이 수용돼 평균 수용률 37.9%를 기록했다. 대출 규모가 큰 생명보험사의 평균 수용률도 36.7% 수준을 보였다.전체적으로 카드·보험업계는 2금융권인 만큼 고신용 차주보다 중저신용자 등 취약차주가 대출을 받는 비중이 높다. 그만큼 차주들이 금리인하 요구를 했을 때 금융사들이 인하를 해 줄 여력이 상대적으로 커 수용률이 은행권보다 높다는 분석이다.한 카드업계 관계자는 "중저신용자들은 은행권에 비해 2금융권에 많이 포진돼 있다"며 "고신용 차주보다 신용이 개선될 여지가 큰 만큼 타 업권에 비해 수용률이 높게 나왔을 것"이라고 설명했다.이처럼 은행권은 다른 업권에 비해 상대적으로 수용률이 낮지만 수용건수와 이자감면액은 가장 큰 상황이다. 상반기 수용건수를 보면 은행 22.1만건, 여신전문금융사 9.2만건, 저축은행 1.3만건, 상호저축은행 1.2만건, 보험 0.5만건 등이다.이자감면액은 은행이 728.3억원으로 다른 여전사 42.9억원, 보험 6.3억원, 저축은행 3.2억원, 상호 1.7억원 등을 모두 합해도 압도하는 규모다. 신용도가 금리에 미치는 영향이 적은 담보대출 취급비중도 은행권이 6월 기준 은행 74.5%로 비은행권 27.2%를 대폭 상회한다.금융업계 관계자는 "결국 은행이 대다수 고객이 이용하는 메인이기 때문에 아직까지 금리인하요구권이 활성화됐다고 체감하기 어려운 것"이라며 "정부의 의도대로 개선 흐름을 보이고 있는 만큼, 수용률이 앞으로 더 올라갈 여지는 있지만 차주들의 평균 신용도가 높아 드라마틱하게 상승하기는 어려울 것"이라고 내다봤다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.08.19.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>조아제약 상반기 영업손실 전년比 52% 감소, 흑자기대감 높여</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004885503?sid=103</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>매출은 상승하고 영업손실 크게 줄어 흑자 기대감  [파이낸셜뉴스] 조아제약은 연결기분 상반기 매출이 전년 동기 대비 18.9% 증가한 330억5800만원을 기록했고 영업손실은 52.1% 감소해 19억4700만원을 기록했다고 19일 밝혔다. 2·4분기 매출액은 1·4분기 대비 11.4% 증가한 174억3400만원을 기록했고, 영업손실은 29.7% 감소한 8억원을 기록했다.   조아제약 관계자는 "점차 매출이 상승하고 적자 폭은 줄어들면서 올해 흑자전환을 달성할 것으로 보인다"면서 "지난 4월 사회적 거리두기 해제 이후 외부 활동이 증가한 데다 면역력 증진 등 건강에 대한 관심이 높아지면서 실적 회복의 전환점을 마련했다"고 설명했다.   늘어난 회식 자리에 간장약을 찾는 사람이 많아지면서 조아제약 간장 활성화제 '헤파토스시럽'은 1분기 대비 40% 이상 매출이 늘었다. 자녀의 성장과 면역력 증진에 대한 관심도 높아져 조아제약 대표 어린이 제품 '잘크톤군'의 매출도 16% 상승했다.   조아제약 건강기능식품이 대형 업체들과 전략적 제휴를 통해 홈쇼핑과 온라인 시장에 진출, 가시적인 성과를 거둔 만큼 사업을 다각화 방안도 적극 추진되고 있다. 기존의 유통 채널 강화는 물론 새로운 성장시장 개척과 신규 고객의 창출이 중장기적으로 약국매출 증대로 연결될 수 있기 때문이다.   조아제약은 올 하반기 3~4개 제품의 홈쇼핑 론칭 준비를 완료했으며, 이를 통해 약 50억원의 매출을 올릴 것으로 기대하고 있다.   또 아이들에게 친숙한 캐릭터 '포켓몬스터'를 적용한 어린이 음료의 출시도 앞두고 있고, '잘크톤 시리즈' 등이 어린이 건강 관련 제품 시장에서 스테디셀러로 확고히 자리매김을 한 만큼 어린이 제품군을 강화해 실적 개선에 나선다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>[기획] 뱅크몰, 금리비교 플랫폼 제공</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/037/0000031391?sid=102</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2022 한국브랜드만족지수 1위뱅크몰이 ‘2022 한국브랜드만족지수 1위’ 온라인서비스(금리비교) 부문을 수상했다. 해당 브랜드대상은 지속적인 혁신과 서비스 질의 향상을 통해 소비자에게 만족감을 선사하고 있는 기업의 노고를 치하하고, 브랜드 가치를 높이고자 제정됐다.   뱅크몰은 법인 설립 10년차 기업으로, 금리비교를 통한 소비자의 알권리 보장을 추구하고 금융상품의 투명성에 기여하고 있다. 올해부터 금융소비자보호법에 발맞춰 플랫폼 사업으로 전환하며 한 단계 도약했고, 8개월 만에 누적 대출 비교금액 90조8135억 원, 누적 방문자 수 134만 명을 넘어섰다.현재 주택담보대출 전문 플랫폼 가운데 가장 많은 39개 금융사와 업무제휴를 맺었으며, 최근 공시된 SC제일은행의 1, 2분기 실적발표에도 담보대출 부문에서 가장 많은 금액인 791억 1600만 원을 취급했다. 이어 비바리퍼블리카(토스), 베스트핀 순으로 취급액이 많으며, 뱅크몰의 정확한 알고리즘은 고객의 실제 진행률도 높다는 설명이다.뱅크몰 조경성 대표는 “정밀한 알고리즘과 업계 최다 업무제휴는 고객에게 더 많은, 더 정확한 정보를 제공할 수 있는 핵심 요소”라며 “‘한국브랜드만족지수 1위’라는 타이틀에 걸맞게 알고리즘의 발전과 적극적인 업무제휴를 통해 뱅크몰을 찾는 고객에게 감동을 느낄 수 있는 최고의 서비스를 제공하도록 노력하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.08.28.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>“3배 레버리지 위험하다고요? ‘시한폭탄’ 국장보단 낫습니다” [선데이 머니카페]</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004092440?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>올해 서학개미 순매수 1위 종목 TQQQ자식도 부모도 푹 빠진 美 3배 레버리지 상품“거버넌스 문제→주가 폭락 韓 시장 더 위험”LG엔솔·동원산업·DB하이텍 덮친 불공정 논란“기업가치 보고 투자하면 성공하는 시장되길”[서울경제] “3배 레버리지보다 하루가 멀다 하고 지배구조 리스크, 불법 공매도 문제가 터지는 국내 증시가 더 위험하지 않나요”미국 주식에 투자하는 서학개미들 사이에서는 3배 레버리지 상품의 인기가 높습니다. 올 한해 서학개미들의 순매수 상위 10개 종목 중 3개가 3배 레버리지 상품일 정도로요. 이에 금융감독원은 레버리지 상장지수펀드(ETF)의 위험성을 충분히 인지하지 않은 채 단기 수익만 기대하는 투자는 위험하다고 경고했습니다. 하지만 서학개미들은 쉽게 납득하지 못하는 모양새입니다. 지배구조 문제가 시한폭탄처럼 터질 수 있는 국내 증시와 위험 부담은 같지만, 3배 레버리지 ETF는 더욱 큰 수익을 가져다 줄 가능성도 같다는 이유에서입니다.━남녀노소 가리지 않는 3배 ETF 인기국내 투자자들에게 3배 레버리지 ETF 인기는 상당합니다. 이달 24일까지 서학개미들의 순매수 규모 순위만 봐도 알 수 있습니다. 상위 10개 종목 중 3개가 3배 레버리지 ETF입니다. 나스닥100지수의 하루 등락폭의 3배씩 따라가도록 설계된 프로셰어즈 울트라프로 QQQ(TQQQ)의 순매수 규모는 19억 8000만 달러로 1위를 차지했습니다. 미국 주식하면 떠오르는 테슬라, 엔비디아, 애플보다 순매수 규모가 더욱 큽니다. 필라델피아반도체지수의 하루 변동폭을 3배만큼 추종하는 디렉시온 데일리 세미컨덕터 불 3X(SOXL)의 순매수 규모는 13억 달러에 이릅니다. TQQQ, 테슬라에 이어 3위입니다. TQQQ와는 반대로 나스닥100지수의 반대방향으로 3배 추종하는 프로셰어즈 울트라프로 숏 QQQ(SQQQ)의 순매수 규모는 3억 달러로 8위를 차지했습니다. 나스닥의 상승과 하락에 베팅하는 3배 레버리지 상품 모두 상위권에 위치하는 점은 레버리지 상품의 인기가 얼마나 큰지를 보여줍니다.통상 나이가 젊을수록 3배 레버리지 ETF에 많이 투자할 것이라 생각합니다. 과연 그럴까요. 데이터는 그렇지 않았습니다. 토스증권이 해외주식 서비스를 시작한 뒤 6개월간 거래량이 가장 많았던 5월 데이터를 받아봤는데요, 모든 연령대의 투자자들이 3배 ETF에 큰 관심을 드러냈습니다. 거래대금을 기준으로 봤을 때 20~50대 투자자들은 SQQQ, TQQQ, SOXL 순서로 큰 관심을 가지고 열심히 거래에 참여했습니다. 60대 이상 투자자들의 최애 종목은 테슬라였지만, 그 뒤로는 마찬가지로 SQQQ, TQQQ, SOXL, 디렉시온 세미컨덕터 베어 3X(SOXS)가 차지했습니다. SOXS는 SOXL과 반대로 필라델피아반도체지수의 하락에 베팅하는 레버리지 상품인데요, 남녀노소 가리지 않고, 또 하락과 상승을 가리지 않고 투자하고 있던 셈입니다.━시한폭탄 안고 가는 한국 시장3배 레버리지 상품이 위험한 것은 맞습니다. 순식간에 주가의 방향성이 정해지는데 5~6%씩 순식간에 오르락내리락하기도 합니다. 그럼에도 투자자들은 국내 주식 시장이 더욱 위험하다고 소리 높여 말합니다. 과연 사실일까요?맞습니다. 한국 기업은 지배구조 문제가 복잡해 언제든지 합병·분할하면서 주주들의 가치가 희석될 위험이 있습니다. 가장 대표적인 선례는 LG에너지솔루션(373220)입니다. LG화학(051910)에서 핵심 사업부인 배터리 사업부를 물적분할해 상장한다는 것이 밝혀지면서 기존 LG화학 주주들의 큰 원성을 들었습니다. 100만 원을 넘었던 주가는 꾸준히 내리막길을 걸었습니다.국내 기업들이 지배구조 개편을 위해 소액주주들을 희생시키는 행위가 암묵적이라는 점은 동원산업(006040) 사례에서도 잘 드러납니다. 동원그룹은 지난 봄 지배구조 개편을 위해 상장사인 동원산업과 비상장사인 동원엔터프라이즈의 합병을 추진한다고 밝혔습니다. 하지만 상장사인 동원산업의 자산가치가 아닌 주가를 기준으로 합병비율을 산정하려고 하자 소액주주들은 크게 반발했습니다. 소액주주들의 지분은 줄어드는 반면 대주주의 지분만 늘어난다는 이유에서요. 26만 원을 웃돌던 주가는 하루 만에 22만 원대로 추락했습니다. 동원산업 사례에서 주목할 점은 불공정 합병이라고 반발하고 나선 이들조차도 동원산업에 악의적인 의도가 없었다고 말했다는 점입니다. 그저 관습대로 해왔을 뿐이라는 의견이 대다수였습니다. 그만큼 국내 기업들이 지배구조 개편을 위해 대주주에게만 유리한 방법을 택하는 것은 국내 기업들에게는 암묵적인 ‘룰’이었던 것입니다.한국 시장의 시한폭탄은 여전히 째깍째깍 돌아갑니다. 얼마 전 DB하이텍(000990)이 물적분할을 추진한다는 소식이 전해지자 소액주주들은 다시 한 번 무기력해질 수밖에 없었습니다. 하루 만에 15% 넘게 폭락한 주가는 좀처럼 돌아올 기미를 보이지 않고 있습니다. 물적분할을 막기 위해 소액주주연대가 만들어졌지만 그마저도 활동이 어렵습니다. 회사 측은 주주명부를 전자식으로 제공해달라는 소액주주연대의 요구에 흔쾌히 응했지만, 정해진 시한이 지나도록 명부를 주지 않아 주주연대는 결국 가처분 신청에 나섰습니다.━“실적만 보면 투자에 성공하는 미국 시장처럼”최근 미국 증시를 오랫동안 들여다본 증시 전문가들과 이야기를 나눌 기회가 있었습니다. ‘미국 주식의 장점이 무엇이냐’고 묻자 이들은 모두 실적만 보고 투자하면 성공한다는 점이 미국 주식의 가장 큰 매력이라고 했습니다. 어찌 보면 당연한 말입니다. 기업의 가치와 실적을 보고 투자하면 성공한다는 것은 투자의 기본 원칙과 마찬가지니까요. 3배 레버리지에 푹 빠진 국내 투자자들의 주장도 일리 있습니다. 적어도 레버리지 상품에는 거버넌스 문제가 없으니까요. 그저 지수가 오르면 덩달아 오르고 내리면 덩달아 내리는 솔직한 상품에 더 관심이 가는 것이 한편으로는 합리적일 수 있습니다.실적을 보고 투자하면 실패할 일이 없다는 말이 더욱 특별하게 다가온 것은 국내 투자자들의 마음속 한 구석을 쓰리게 하는 건 분명한 것 같습니다. 하이 리스크 로우 리턴이라는 지적마저 나오는 한국 시장에 조금이나마 긍정적인 쪽으로 변화하는 중이기를 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.08.18.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>[특징주] 카카오페이, '간편송금 금지 검토' 보도에 6%대 급락</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013384000?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>카카오페이[서울IR 제공]    (서울=연합뉴스) 김아람 기자 = 카카오페이가 법적으로 간편 송금을 금지하는 방안을 당국이 검토한다는 보도에 18일 큰 폭으로 내렸다.    이날 유가증권시장에서 카카오페이는 전 거래일보다 6.56% 내린 6만8천400원에 거래를 마쳤다.    기관과 외국인이 각각 144억원, 138억원을 순매도해 주가를 끌어내렸다.    카카오페이 모회사 카카오(-1.12%)와 계열사 네이버파이낸셜을 통해 간편 송금 서비스를 하는 네이버(-3.10%)도 하락했다.    최근 금융위원회가 마련한 전자금융거래법(전금법) 개정안에 선불 충전 기반의 간편 송금을 금지하는 방안이 담겼다고 이날 전자신문이 보도했다.    현재 카카오페이, 네이버파이낸셜, 토스 등이 거래 상대방의 은행 계좌를 몰라도 송금할 수 있는 간편 송금 서비스를 제공하고 있다.    rice@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>예대금리차 첫 공시…인터넷은행이 시중은행 대비 최대 5배</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001049767?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>은행별 예대금리차 공시 첫 시행인터넷은행, 시중은행 대비 최대 5배 이상 커"중저신용자 대출 비중 고려해달라"시중은행의 첫 예대금리차 공시가 시행된 가운데 인터넷은행의 예대금리차가 시중은행에 비해 최대 5배 이상 큰 것으로 파악됐다.이날 발표된 은행연합회의 '예대금리차 비교' 공시에 따르면 지난 7월 5대 시중은행 가운데 가장 예대금리차가 큰 은행은 신한은행(1.62%포인트)인 것으로 나타났다.이어 시중은행 가운데 우리은행(1.40%포인트)과 NH농협은행(1.40%포인트), KB국민은행(1.38%포인트), 하나은행(1.04%포인트) 순으로 예대금리차가 컸다.예대금리차란 은행의 대출 금리와 예금 금리의 차이를 나타내는 지표로, 일반적으로 예대금리차가 클 수록 은행의 수익성도 커진다.한편 인터넷은행의 경우 시중은행에 비해 예대금리차가 최대 5배가량 큰 것으로 나타났다.인터넷은행 가운데 예대금리차가 가장 작은 카카오뱅크는 2.33%포인트를 기록했고, 케이뱅크는 2.46%포인트, 토스뱅크는 5.60%포인트를 기록했다.인터넷은행들은 이처럼 높은 예대금리차에 대해 중저신용자를 대상으로 하는 대출의 높은 비중이 반영된 수치라고 설명했다.지난 3월말 기준 토스뱅크의 중저신용자 대출 신용대출 비중은 전체의 31.4%였으며 카카오뱅크는 20.2%, 케이뱅크는 19.9%였다.앞서 금융위원회가 은행별 예대금리차를 공시하겠다고 발표했을 당시에도 중저신용자 대상 대출 비중이 높은 인터넷은행은 예대금리차가 높을 수 밖에 없다며 실효성 논란이 제기된 바 있다.토스뱅크 관계자는 "7월말 기준 토스뱅크 대출 고객 중 중저신용자 비율은 약 38%로 모든 은행 중 가장 높다"며 "앞으로도 중저신용자를 포용하고, 수요자의 관점에서 체감할 수 있는 변화와 혜택을 제공하기 위해 계속 정진하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>13년여만에 원·달러 환율 1340원 돌파…재정사업 미흡 땐 예산 삭감 제도화 [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003727539?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>원·달러 환율이 2009년 글로벌 금융위기 이후 13년 4개월 만에 장중 1340원을 돌파하며 최고치를 경신했다. 22일 은행별 예대금리차(예금금리와 대출금리 차이)의 월별 공시가 처음으로 시행됐다. 은행연합회가 홈페이지 소비자포털에 공개한 ‘예대금리차 비교’ 통계에 따르면 지난달 KB국민·신한·하나·우리·NH농협은행의 가계 예대금리차는 1.37%포인트, 인터넷전문은행 카카오·케이·토스뱅크는 3.46%포인트로 집계됐다. 정부 예산이 투입되는 재정사업 평가 결과 ‘미흡’이 나오는 사업은 예산을 삭감하고 내용을 재설계하거나 폐지하는 방안을 제도화한다. 또 부처별 성과지표를 현재의 절반 이하로 축소해 과도한 행정 부담을 줄이기로 했다.     원/달러 환율이 13년 4개월 만에 장중 1,340원선 까지 넘어선 22일 서울 중구 하나은행 딜링룸에서 직원이 전광판 앞을 지나고 있다. 연합뉴스    ◆글로벌 금융위기 이후 13년여만에 원·달러 환율 장중 1340원 돌파    22일 서울 외환시장에서 원·달러 환율은 전 거래일 대비 13.9원이나 급등한 1339.8원에 마감됐다. 환율은 10원 가까이 오른 1335.5원에 거래를 시작한 뒤 계속 상승했다. 오후 장에서는 한때 1340.2원을 기록했다. 환율이 1340원을 넘어선 것은 2009년 4월29일(고가 기준 1357.5원) 이후 처음이다.   제롬 파월 미국 연방준비제도(Fed·연준) 의장의 잭슨홀 미팅 연설을 앞둔 경계감과 러시아의 유럽 가스 공급 중단 이슈가 겹친 데다 중국 기준금리 인하로 위안화도 약세를 보이자 안전자산인 달러화 가치가 급등했다. 주요 6개국 통화 대비 달러 가치를 나타내는 달러 인덱스는 108.45를 기록, 전일 대비 0.25% 올랐다.    전문가들은 달러화 초강세가 당분간 지속될 것으로 보고 있다. 일부 전문가들은 올해 안에 1400원까지 오를 수 있을 것이라고 관측한다.   환율 상승에 따른 원화 가치 하락으로 무역적자 상황도 갈수록 악화할 것으로 관측된다.    이미 무역수지는 14년여 만에 5개월 연속 적자가 우려되는 상황이다. 관세청에 따르면 이달 1∼20일 수출액(통관 기준 잠정치)은 334억2400만달러로 전년 동기 대비 3.9% 증가했다. 이 기간 조업일수는 15.5일로 지난해 같은 기간(15일)보다 0.5일 더 많았으며, 조업일수 고려 시 일평균 수출액은 0.5% 증가했다. 같은 기간 수입액은 1년 전보다 22.1% 증가한 436억4100만달러로, 이 기간 무역수지는 102억1700만달러 적자를 기록했다. 지난해 같은 기간(35억7900만달러 적자)은 물론, 이달 1∼10일 적자 규모(76억7700만달러)보다 커졌다.   최근 무역수지는 지난 4월을 시작으로 7월까지 넉 달 연속 무역적자였다. 이번 달까지 무역적자가 이어지면 2007년 12월∼2008년 4월 이후 14년여 만에 다섯 달 연속 무역적자를 기록하게 된다. 올해 들어 이달 20일까지 누적 무역적자는 254억7000만달러에 달한다. 이미 연간 최대 기록을 넘어섰다.      은행이 과도환 '이자 장사'를 막기 위한 예대금리 차(예금금리와 대출금리 차이) 공시가 시작된 22일 서울 시내 한 은행에 예금 금리 안내문이 붙어있다. 연합뉴스    ◆뚜껑 열린 은행별 예대금리차 살펴보니   22일 은행별 예대금리차(예금금리와 대출금리 차이)의 월별 공시가 처음으로 시행됐다.    이날 은행연합회가 홈페이지 소비자포털에 공개한 ‘예대금리차 비교’ 통계에 따르면 지난달 KB국민·신한·하나·우리·NH농협은행의 가계 예대금리차는 1.37%포인트, 인터넷전문은행 카카오·케이·토스뱅크는 3.46%포인트로 집계됐다. 예대금리차는 매달 신규 취급액 기준 가계·기업 대출 가중평균금리에서 예적금 등 수신금리를 뺀 값으로 공시된다.   가계 예대금리차는 5대 은행 중 신한은행이 1.62%포인트로 가장 컸고, 이어 △우리·농협은행(1.40%포인트) △국민은행(1.38%포인트) △하나은행(1.04%포인트) 순이었다. 신한은행 관계자는 “이번 예대금리차 산출 시 가계대출 금리에 고금리인 서민지원대출이 포함됐고, 또 금리 변동성 리스크를 줄이고자 고정금리 대출 활성화를 위해 노력하면서 가계대출 금리가 올라간 결과 예대금리차가 확대됐다”고 말했다.   중·저신용자에 대한 중·고금리 대출 비중이 높은 인터넷은행은 가계 예대금리차가 시중은행보다 컸다. 특히 토스뱅크는 5.6%포인트로 다른 인터넷은행(케이뱅크 2.46%포인트·카카오뱅크 2.33%포인트)보다 2배 이상 높았다. 이에 대해 토스뱅크 관계자는 “중·저신용자 대출 비중이 38%로 은행 중 가장 크고, 요구불예금 금리가 반영되지 않아 2% 수시입출금통장이 수신금리에서 빠졌기 때문”이라고 설명했다.   기업대출을 합친 평균 예대금리차는 5대 은행 1.21%포인트, 인터넷은행 3.48%포인트로 나타났다. 5대 은행 중에서는 농협은행이 1.36%포인트로, 인터넷은행에서는 토스뱅크가 5.65%포인트로 가장 높았다. 예대금리차가 가장 작았던 곳은 5대 은행 중 하나은행(1.1%포인트), 인터넷은행 중에는 카카오뱅크(2.33%포인트)였다.   예대금리차는 은행별 대출과 예금 포트폴리오에 따라 확대나 축소될 수 있다. 은행연합회는 △중·저신용자 대출 비중이 높은 경우 △주택담보대출(주담대) 비중이 작고 신용대출 비중이 높은 경우 △저신용자를 위한 정책성 상품 취급 비중이 높은 경우 △예적금 기본금리가 낮고 만기 시 확정되는 우대금리가 높은 경우 예대금리차가 확대될 수 있다고 설명했다.   1개월 단위 예대금리차 공시는 은행의 과도한 ‘이자 장사’를 막겠다는 취지로 도입됐다. 금리 상승기 대출금리는 빠르게 올리고, 예적금 금리 인상에는 소극적이었던 은행들에 금리 경쟁을 하도록 해 금융소비자 권익을 보호하겠다는 것이다. 다만 수신금리 인상이 오히려 이자 부담을 키울 수 있다는 지적도 나온다. 주담대 등 변동금리 대출 상품은 코픽스(COFIX·자금조달비용지수)를 금리 산정 기준으로 삼는데, 코픽스가 은행의 예적금, 은행채 등 수신 상품 금리를 바탕으로 산정되기 때문이다.     추경호 경제부총리 겸 기획재정부 장관. 연합뉴스    ◆재정사업 미흡 땐 예산 삭감 제도화   기획재정부는 ‘2022∼2026년 재정사업 성과관리 기본계획’을 22일 국무회의에 보고했다.   현재 정부는 재정사업 성과에 따라 예산을 편성하기 위해 기재부를 비롯한 6개 부처에서 11개 사업성과 평가 제도를 운영하고 있다. 하지만 대부분 평가에 예산을 반영할 수 있는 구속력이 없어 평가 결과를 활용하기 어렵다는 지적이 있었다. 이에 정부는 11개 평가 제도에 대해 평가 결과에 따라 평가 대상 예산의 일정 비율을 구조 조정하는 원칙을 일괄적으로 도입하기로 했다.   이 같은 원칙이 도입되면 성과 평가 결과 ‘미흡’을 받은 사업은 예산이 일부 삭감된다. 삭감 비율은 최소 1% 수준으로 논의되고 있다. ‘미흡’ 사업 중 예산 삭감이 곤란한 사업은 제도 개선 계획 제출을 의무화한다. 2년 연속 ‘미흡’을 받은 사업은 사업 재설계를 진행하고, 3년 연속 ‘미흡’ 사업은 폐지를 원칙으로 한다.    선택과 집중에 따라 정부의 핵심 과제이거나 국민 체감도가 높은 사업 10여개는 핵심 사업으로 따로 관리한다. 핵심 사업은 관련 부처, 국민, 전문가 의견을 수렴해 선정한다.   정부는 핵심 사업에 대해 기재부와 관련 부처, 전문가로 이뤄진 전담 성과관리팀을 구성해 수시 현장 점검·집행 관리·성과 평가를 진행할 계획이다. 핵심 사업 평가 결과는 그래픽 정보로 국민에 공개한다.   정부는 평가받는 기관의 행정 부담을 덜기 위한 방안도 제시했다. 우선 6개 부처의 11개 평가를 중복해 받는 사업이 있는 점을 고려해 ‘1사업 1평가’를 원칙으로 한다. 실익이 적은 평가는 중장기적으로 통폐합하고, 평가 제도를 신설할 때 일몰제를 도입하는 방안도 검토한다.   형식적인 보고서 작성을 줄이기 위해 현재 1000여개에 달하는 성과목표관리제도 전 부처 성과지표는 500개 이하로 줄인다. 프로그램당 2∼3개, 부처별 평균 18개인 성과지표를 프로그램당 1개, 부처별 8∼9개로 축소하는 셈이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>뷰티셀렉션, 알토스벤처스 외 110억 규모 시리즈A 투자 유치</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005010189?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>지난 20년 2월 설립, 인플루언서 협업 통한 제품 피드백 적극 반영, 자체 브랜드 운영“소비자 신뢰받는 인플루언서 커머스 시장 열겠다” 인플루언서 커머스 스타트업 뷰티셀렉션(대표 박재빈)이 총 110억원 규모의 시리즈A 투자를 유치했다고 29일 밝혔다.이번 투자는 알토스벤처스의 주도하에 레드배지퍼시픽 등 국내외 유수의 투자사가 함께했다. 알토스벤처스는 우아한형제들, 크래프톤, 쏘카, 토스 등의 초기 투자를 이끌어 ‘유니콘 제조기’로 불리는 한국계 미국 벤처캐피탈이다. 레드배지퍼시픽은 뉴욕, 싱가포르 등 주요 도시에 지사를 둔 글로벌 크로스보더 투자사로 국내외 기업 연결을 주도하고 있다.뷰티셀렉션은 박재빈 대표가 지난 2020년 2월 설립한 라이프스타일 커머스 브랜드사다. 인플루언서와의 협업을 통해 소비자와의 쌍방향 소통을 기반으로 활동하며 자체적인 뷰티,건강기능식품,패션 브랜드를 갖췄다. 동시에 하이엔드 브랜드를 인수해 성장시키는 브랜드 애그리게이터(Aggregator)로도 활동하고 있다.작년 국내 총 광고비 14조원 중 절반인 7조원 가량이 디지털 광고 시장을 차지할 만큼, 최근 국내 커머스 시장의 화두는 SNS 및 디지털 광고 마케팅 경쟁이다. 문제는 과도한 디지털 마케팅 비용 지출이 결국 제품의 가격과 원료 함량 조절에 악영향을 미치며 소비자 역시 광고의 피로감 대비 만족스러운 제품 품질을 얻지 못하고 있는 실정이다.뷰티셀렉션은 이러한 기존 시장의 구조적 한계 극복을 위해 SNS의 순기능인 양방향 소통과 상호성을 적극 활용했다. 인플루언서와 팔로워 간 유대감을 기반으로 인플루언서들에게 제품 광고가 아닌 소비자들의 아쉬움을 가장 가까이서 듣고 이야기하는 역할을 부여한다. 원하는 제품과 효능, 기존 제품들의 아쉬움 등 유입되는 소비자의 니즈는 자체 브랜드와 인수사를 통해 적극적으로 제품에 녹아든다. 공급자로부터 소비자에게 전달되던 기존 유통 방식을 뒤집어 소비자로부터 시작돼 소비자에게 전달되는 방식을 구축한 것이다.이 같은 방식은 소비자들의 호응을 얻었다. 2020년 부터 현재까지 평균 객단가 10만원에 평균 재구매율 80%, 반품율 0.2%라는 커머스 업계 내 이례적인 고객 지표를 보여주고 있고, 이로 인해 지난 21년 인플루언서 커머스사 중에서 가장 큰 매출 규모인 연매출 300억 수준을 기록하였다. 해외에서도 인플루언서 중심의 관계 기반 커머스가 유의미한 성공사례를 보여준 바 있다. 미국의 Glossier는 파워블로거 출신의 창업자가 소비자들과 다양한 인사이트를 공유한 경험을 기반으로 2014년 런칭해 현재 약 2조원의 기업가치를 인정받은 뷰티 브랜드이다. 중국의 핀둬둬는 지인 소개 중심의 공동구매를 진행하는 플랫폼을 기반으로 나스닥 상장에 성공, 지난 4분기에는 5조원이 넘는 매출을 거두었다.뷰티셀렉션 박재빈 대표는 “기존 인플루언서 커머스의 문제점은 부족한 제품력임에도 개인의 유명세에 의존해 판매를 강행한 것이었다”며 “소비자들과 소통하고, 개인화의 흐름에 맞춰 성장할 수 있는 인플루언서 커머스의 장점에 주목해 문제만 걷어내기로 했다” 밝혔다. 이어 "이번 투자금액 중 100억원 이상을 인재 영입과 브랜드사 인수에 사용하고자 하며, 본격적인 소비자 중심의 새로운 커머스 패러다임 실현에 집중할 계획"이라고 말했다. 이번 투자를 주도한 알토스벤처스 송경찬 파트너는 "SNS와 디지털 광고의 다각화로 고객은 더 이상 오프라인 매장이나 유명 브랜드가 아닌 인플루언서에 대한 신뢰로 제품을 구매하는 새로운 커머스 시장에 주목하고 있다”며 "뷰티셀렉션은 독점적인 인플루언서 네트워크와의 긴밀한 협력을 통해 고객 피드백을 빠르게 수용하고, 제품의 품질을 향상시키는 선순환을 만들어 상대적으로 평가절하되었던 인플루언서 커머스 시장을 '신뢰 가능한 구조'로 만들어 나가고 있다고 생각해 이번 투자를 결정했다"고 말했다. 매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>은행, 10명 중 2.5명만 금리인하 해줬다</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005305555?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>88만9천건 중 22만1천건 수용...수용률 24.86%신한 30.4%로 가장 낮지만, 감면액 47억...규모 가장 커비대면 채널 활성화된 은행은 중복신청 상당수"수용건수 및 이자감면액 중심 비교가 실질적 도움"[이데일리 정두리 기자] 은행들의 올 상반기 평균 금리인하요구 수용률은 약 25%로 집계됐다. 차주가 신용 상태가 개선됐을 때 금융사에 금리 인하를 요구하면 4번 중 1번 꼴로 은행들이 허가해줬다는 의미다. 이를 통한 이자 감면액은 728억원에 달한다. 사진=연합뉴스은행연합회는 30일 홈페이지를 통해 올 상반기 금리인하요구권 운영 실적을 공시했다. 실적 항목에는 △금리인하요구 신청건수 △수용건수 △신청건수 대비 수용건수를 나타내는 수용률 △이자 감면액 등이 포함됐다. 금리인하요구권은 대출자가 취업이나 승진, 재산 증가 등으로 신용 상태가 개선되면 금융사에 금리를 내려달라고 요구할 수 있는 권리다. 개인뿐 아니라 법인, 개인사업자도 금리인하요구권을 신청할 수 있다. 이번 공시는 금융당국이 2021년 10월 발표한 ‘금리인하요구권 활성화 방안’의 후속조치다. 은행권의 올 상반기 금리인하요구 신청건수는 약 88만9000건으로 이 중 약 22만1000건이 수용됐다. 수용률은 24.86% 수준으로, 총 728억원의 이자가 감면됐다. 은행별 동일한 통계기준에 따라 이뤄지는 첫 공시로서 과거와 통계기준이 상이해 정확한 비교분석은 어려우나 수용건수·이자감면액 모두 증가 추세다. 지난해 상반기와 비교하면 수용건수는 8만5720건에서 올 상반기 22만797건으로 158% 증가했다. 같은 기간 이자감면액은 588억500만원에서 728억2900만원으로 24% 늘었다.신청건수도 비대면 신청 허용을 비롯해 홍보 강화, 통계기준 변경(중복건수 포함) 등으로 크게 증가한 것으로 나타났다. 지난해 상반기 34만1783건에서 올해 상반기 88만8619건으로 늘었다. 과거에는 은행별로 중복신청건의 통계 처리(포함 또는 미포함) 방식이 달랐으나, 올해부터 통일적으로 모두 신청건수에 포함돼 통계상 신청건수가 증가했다.시중은행의 금리인하요구권 수용률을 살펴보면 신한은행이 30.4%로 가장 낮았다. 하나은행은 33.1%, KB국민은행은 37.9%, 우리은행은 46.5%, NH농협은행은 59.5%였다. 다만 신한은행은 금리인하요구권을 통해 가계대출과 기업대출 고객들의 이자를 총 47억원 감면해줘 규모로 따지면 시중은행 중 가장 크다지방은행에서는 제주은행의 수용률이 6.7%에 불과했다. 이어  대구은행 37.4%, 경남은행 38.2%, 광주은행 38.7%, 전북은행 39%, 부산은행 42.8% 등이었다.인터넷은행 중에서는 토스뱅크의 금리인하요구권 수용률이 17.9%로 가장 낮았다. 이어 카카오뱅크는 19%, 케이뱅크는 24.6%로 나타났다. 은행연합회는 “이번 공시를 통해 소비자들이 은행별 금리인하요구권 운영 현황을 확인하고 거래은행을 선택하는데 도움이 될 것으로 기대된다”면서도 “다만 금리인하요구 수용률을 기준으로 은행 선택 시, 비대면 채널을 통한 금리인하요구가 활성화된 은행은 중복 신청 건이 상당수 포함된 점을 고려할 필요가 있는 만큼, 수용건수 및 이자감면액 등을 중심으로 비교하는 것이 실질적인 도움이 될 수 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>보험대리점업계, 빅테크 보험영업 허용 반대 결의대회</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001685149?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>한국보험대리점협회와 보험대리점 업계, 보험영업인노조연대는 22일 용산 대통령실 앞에서 결의대회를 열고 "네이버, 카카오, 토스 등 온라인 플랫폼의 보험대리점업 진출 허용을 결사반대한다"고 밝혔습니다.  협회에 따르면 금융위원회는 23일 예정된 금융규제혁신회의 2차 회의에서 혁신금융서비스 지정을 통해 온라인 플랫폼에 보험대리점업을 허용하는 방안을 검토 중입니다.  협회는 "온라인 플랫폼의 보험대리점 허용은 우월적 지위를 이용한 영세 보험영업인의 골목상권 침해와 보험시장 잠식을 초래할 것"이라며 '대통령께 드리는 호소문'을 채택했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>인터넷은행 대어 '카뱅' 군침도는데…'1사1은행'룰에 거래소들 눈치싸움</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006302249?sid=105</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>카카오뱅크 시장진입 타진에도…'1사1은행'룰에 발목잡힌 거래소 업계금융당국 "'1사 n은행' 자금세탁 소지 커진다" 우려금융위원회가 가상자산특별위원회 설립을 추진하는 것으로 알려진 19일 서울 시내의 한 가상화폐 거래소 모습. ‘루나 사태’ 등으로 투자자 보호와 가상자산 시장 규제 도입에 대한 목소리가 이어지고 있는 것에 대한 조처로 이르면 이번 달에 출범할 예정이다. 2022.7.19/뉴스1 ⓒ News1 조태형 기자(서울=뉴스1) 박소은 기자 = 국내 인터넷전문은행 1위 사업자인 카카오뱅크의 가상자산 사업 진출 의사 타진에 거래소 간 눈치싸움이 가열되고 있다. 인터넷전문은행은 계좌 개설이 쉬워서 거래소 입장에서는 신규 투자자 유치가 용이한 장점이 있다. 업비트도 케이뱅크와 손잡으면서 급성장했다. 하지만 금융당국은 '1거래소 1은행' 원칙을 고수하고 있어 거래소의 셈법도 복잡해지고 있다. 29일 업계에 따르면 카카오뱅크는 다양한 가상자산 거래소를 대상으로 실명계좌 연동 계약을 타진 중이다. 기존에는 코인원과 자금세탁방지(AML) 관련 스터디·실사 등을 진행해왔다면, 최근 여타 거래소와도 협상이 가능하다는 방향으로 노선을 확대했다. 카카오뱅크로선 NH농협은행처럼 여러 거래소에 실명계좌를 발급, 가상자산 시장에서의 영향력을 높일 수 있다는 판단 하에 사업 진출을 긍정적으로 검토 중인 것으로 알려졌다. 업계 전문가는 "최근 글로벌 트레이딩사를 비롯해 개인 등이 가상자산 거래소에 인수 의사를 타진한 바 있다"라며 "카카오뱅크 측도 서비스 다변화를 위해 다양한 거래소와 실명계좌 협상 쪽으로 눈을 돌리는 것"이라고 말했다. 특히 신규 투자자 유치가 시중은행보다 손쉬운 인터넷전문은행의 특성을 고려, 카카오뱅크의 행보에 거래소 업계가 촉각을 곤두세우고 있다. 케이뱅크는 현재 업비트와 실명계좌 계약을 맺고 있고, 토스뱅크는 가상자산 시장에 진출할 의사가 아직 없다고 선을 그은 만큼 카카오뱅크의 선택에 이목이 쏠리고 있다. 특히 카카오의 경우 메신저 서비스를 비롯해 각 계열사에서 가상자산 커스터디 서비스, 메인넷 네트워크, NFT 플랫폼 등을 운영하고 있어 다각도의 협업이 가능할 것이란 계산이다.다만 현재 5대 거래소(업비트·빗썸·코인원·코빗·고팍스)는 각각 케이뱅크·NH농협은행·신한은행·전북은행과 실명계좌 계약을 맺고 있다는 점이 난관으로 꼽혔다. 초기에 가상자산 시장의 혹한기에 각 거래소들은 은행과 6개월 단위로 끊어 실명계좌 계약을 해왔다면, 안정기에 접어든 최근에야 1년 단위 계약을 맺었다. 짧게는 연말, 길게는 내년 3월까지 계약 기간이 남아있다. 금융당국이 '1거래소 1은행' 원칙을 누차 강조해온 만큼 새로운 은행과 실명계좌 계약을 맺기 위해서는 기존 은행과의 계약을 파기해야하는 위험부담까지 떠안아야하는 상황이다. 이에 거래소 내부에서는 '1거래소 n은행' 실명계좌 제휴가 필요하다는 목소리가 높아지고 있다. 현재 5대 거래소가 모여 자율 개선방안을 마련 중인 '디지털자산 거래소 공동협의체(DAXA)'에서 관련 논의가 일부 진행된 것으로 알려졌다. 금융당국과 정치권의 입장을 확인하고 시장 생태계 확대를 위해 규제를 완화해야 한다는 입장을 타진 중이다. 하지만 금융당국은 여전히 '1거래소 1은행' 원칙을 강력하게 주문하고 있다. 당국은 1개 이상의 은행과 제휴하면 은행-거래소-은행으로 자금 및 가상자산이 오가며 자금세탁 위험성이 높아진다고 간주하고 있어서다. A 은행에서 원화를 입금하고 거래소를 거쳐 B 은행에서 출금이 이뤄지면 이를 추적하기 어렵다는 것이다. 금융당국 관계자는 "가상자산 업계에서 자금세탁 문제가 수차례 불거지는 만큼 원칙을 수정하기 어렵지 않겠나"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>여신협회장 최종 후보 3인…남병호·박지우·정완규</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004090626?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>9월 6일 2차 회추위서 최종후보자 1인 선출남병호 전 KT캐피탈 대표박지우 전 KB캐피탈 대표정완규 전 한국증권금융 사장[서울경제] 여신금융협회가 회장 최종 후보로 남병호 전 KT캐피탈 대표와 박지우 전 KB캐피탈 대표, 정완규 전 한국증권금융 사장 등 3인을 선정했다고 23일 밝혔다.여신협회는 이날 1차 회장후보추천위원회를 개최하고 면접 후보군 3인을 공개했다. 여신협회는 6일 2차 회추위에서 면접 및 투표를 진행한다.남 전 대표와 정 전 사장은 관료 출신이다. 남 전 대표는 제37회 행정고시 출신으로 대통령 자문 정책기획위원회 과장, 서울특별시 금융도시담당관, 금융위원회 국제협력팀 팀장 등을 지냈다. 한국자금중개 전무, KB캐피탈 경영관리본부장 전무를 거쳐 KT캐피탈 대표를 역임했다. 정 전 사장은 제34회 행정고시 출신으로 금융위에서 시장감독과장·자본시장과장·중소서민금융정책관·금융정보분석원장(FIU) 등을 지냈다. 2018년부터 지난해까지 한국증권금융 사장을 맡았다. 현재 토스뱅크 사외이사로 근무 중이다.민간 출신인 박 전 대표는 KB캐피탈 대표이사를 세 차례 연임했으며 중고차 매매 플랫폼 ‘KB차차차’를 성공적으로 안착시켰다는 평가를 받는다. KB국민카드 부사장, KB국민은행 이사부행장, 은행장 직무대행 등을 지냈고 현재 고려신용정보 사외이사를 맡고 있다.여신금융협회장은 2010년 상근직으로 전환된 후 KB국민카드 대표이사를 지낸 김덕수 전 협회장을 제외하고는 모두 관료 출신이 맡았다. 임기는 3년이며 연봉은 4억 원 정도로 알려졌다. 업계 관계자는 “아무래도 관 출신이 당국에 의견을 효과적으로 전달할 수 있다는 장점이 있어 전반적으로 관 출신을 선호하는 분위기가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>토스증권, 동·서학개미 러브콜에 '조용한 성장'</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000010018?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>브로커리지 수익 17배 증가…'반토막' 타사와 대조MZ세대 공략 강화, 해외주식 승부수토스증권이 조용한 성장을 이어가고 있다. 긴축과 인플레이션 파고에 증시 거래대금이 감소하면서 국내 증권사들의 위탁매매(브로커리지) 수익이 급감했지만 유독 토스증권에 대해서는 동·서학개미의 러브콜이 늘어난 덕분이다. 올해가 출범 2년차인 만큼 아직 수익 규모 자체는 주요 증권사들에 한참 못 미치는 수준이다. 다만 그 증가폭이 매우 가팔라 향후 움직임에 이목이 쏠린다. /그래픽=비즈니스워치거래대금 감소에도 수익 급증26일 금융투자업계에 따르면 토스증권의 올해 2분기 브로커리지 수수료 수익은 119억원으로 전년 동기보다 무려 17배 이상 폭증했다. 작년 2분기 시작점이 출범 한달째였단 점을 감안해, 올해 1분기 54억원과 비교하더라도 이번 수익은 2배 넘게 급증한 규모다.지난해 말 시작한 해외주식 서비스 부문에서도 실적 개선이 두드러졌다. 올해 1분기 36억원 수준이던 외화증권 수탁수수료가 2분기 100억원가량으로 껑충 뛴 것이다. 토스증권의 이같은 성장은 주목할 만하다. 연초부터 긴축과 인플레이션, 러시아의 우크라이나 침공 등에 커진 대내외 불확실성으로 증시 거래대금이 감소하면서 주요 증권사들의 브로커리지 수익은 일제히 쪼그라들었기 때문이다. 실제 1분기 국내 증시 일평균 거래대금은 19조8000억원으로 지난해 같은 기간보다 40% 이상 감소했다. 2분기는 1분기보다도 13% 줄어 17조2000억원을 기록했다. 이에 올해 상반기 기준 브로커리지 수수료 수익 상위 5개 증권사(키움·미래에셋·KB·NH투자·삼성증권)의 전년 동기 대비 이 부문 수익 평균 감소폭은 39%가 넘었다. 특히 삼성증권의 경우 상반기 브로커리지 수익이 같은 기간 반토막(-49%) 났다.토스증권 관계자는 "올해 들어 글로벌 불확실성이 커지면서 투자심리가 잔뜩 위축됐지만 자사 거래대금만큼은 꾸준히 증가했다"며 "특히 해외주식은 론칭 반년 만에 월활성이용자수(MAU)가 110만명까지 늘어났고, 시장점유율 또한 빠르게 확대되고 있다"고 설명했다. MZ세대 타깃해 해외주식 승부수물론 신생 증권사인 까닭에 전체 수익 규모는 아직 다른 증권사와 비교하기 어렵다. 다만 앞서 보듯 브로커리지 부문에서의 빠른 성장세는 시장의 기대감을 키운다. 토스와의 연계성이나 단순하고 편한 사용자인터페이스(UI) 또한 강점으로 꼽힌다.이경은 KB증권 연구원은 "별도의 앱 없이 기존 토스에서 거래가 가능하다는 가장 큰 장점"이라며 "금융상품 라인업은 아직 타사 대비 제한적이지만, 기존에 없던 틈새 상품과 데이터를 통해 전략적으로 사업을 확대할 것"이라고 분석했다.디지털 채널에 대한 금융소비자의 의존도가 높아진 가운데 MZ세대(밀레니얼+Z세대)의 해외주식 투자가 계속 늘고 있는 점도 토스증권에는 기회가 될 수 있다.올해 4월 국내 증권사 최초로 해외주식 소수점 거래 서비스를 시작하는가 하면 MTS에 인공지능(AI) 번역, 자동 환전 기능을 넣는 등 해외주식 서비스에 사활을 걸고 있기 때문이다. 금융감독원에 따르면 국내 해외주식 계좌는 지난해 말 기준 총 491만좌로 전년보다 2배, 2019년 대비로는 6배 급증했는데 MZ세대에 해당하는 20~30대 계좌가 절반에 달했다. 20대가 114만좌, 30대가 140만좌로 불과 2년 만에 각각 8.7배, 7.3배 확대된 것이다. 전배승 이베스트투자증권 연구원은 "토스증권은 처음부터 MZ세대를 겨냥한 플랫폼을 내세웠다"며 "브로커리지 중개수수료율은 한계수준으로 낮아졌고 금융상품간 차별성은 약화된 상황에서 플랫폼 경쟁력을 갖춘 토스증권은 리테일 경쟁구도 전반을 재편할 가능성이 있다"고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.08.17.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>토스뱅크, 한국투자증권 발행어음 2000억 돌파</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004884231?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>-‘내게 맞는 금융상품 찾기’ 통해 최대 연 4.5% 한국투자증권 발행어음 인기-출시 4일 만에 2000억원 특판 한도 소진-6개월 연 4%와 1년 연 4.2%의 이자 제공 [파이낸셜뉴스] 토스뱅크가 ‘내게 맞는 금융상품 찾기’ 서비스를 통해 소개한 한국투자증권의 발행어음 판매 금액이 2000억원을 돌파했다고 17일 밝혔다.   한국투자증권의 발행어음은 토스뱅크가 ‘내게 맞는 금융상품 찾기’ 서비스를 출시하며 처음 소개한 투자상품이다. 토스뱅크를 통해서만 가입이 가능한 특판용 상품으로, 최대 연 4.5%의 이자를 제공한다.   특판 한도인 2000억원이 출시 4일 만에 모두 소진되면서 현재 소개 중인 발행어음은 6개월 연 4.0%와 1년 연 4.2%의 수익률을 제공한다.   투자 한도는 개인당 100만원부터 5000만원까지 가입할 수 있고, 본인의 투자 계획에 맞춰 6개월과 1년으로 거치 기간을 설정할 수 있다.   발행어음 가입자의 연령대별 비중은 40대가 28%로 가장 높았고, 50대 비중도 27%로 높았다. 가입자의 평균 연령은 44세로 금융주도층의 관심이 높았던 것으로 나타났다고 한국투자증권은 설명했다.   토스뱅크 관계자는 “업계 최고 수준의 경쟁력을 가진 상품들만 선별해 고객들에게 소개하기 때문에 토스뱅크 상품을 비롯해 모바일로 편리하게 찾아볼 수 있다”고 말하며 “앞으로도 고객 중심의 상품과 서비스를 제공하기 위한 노력을 계속할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.08.20.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>[주간money]7000만·4억·3% 기억하세요</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004885890?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>■안심전환대출 9월 15일 열립니다  한국주택금융공사(HF)는 국민·기업·농협·신한·우리·하나은행 등 6대 은행 홈페이지를 통해 변동금리 주택담보대출을 고정금리로 전환해주는 '안심전환대출' 사전안내를 시작했다. 신청은 오는 9월 15일부터다.   안심전환대출 금리는 연 3.8%(10년)에서 4.0%(30년), 저소득 청년층은 연 3.7%(10년)에서 3.9%(30년)가 적용된다.   안심전환대출은 제1.2금융권에서 받은 변동금리 또는 혼합형금리 주담대를 HF공사의 장기·고정금리로 대환하는 상품으로, 올해 우대형 25조원을 공급한다. 만기까지 금리가 고정되어 있는 금융기관 주택담보대출 또는 정책모기지(보금자리론, 적격대출, 디딤돌대출) 이용자는 신청할 수 없다.   부부합산 소득 7000만원 이하, 주택가격 4억원 이하인 1주택자가 신청할 수 있으며, 기존대출 잔액 범위 내에서 최대 2억5000만원까지 대출 가능하다.   또 기존 주담대 이용자가 추가적인 금융비용 부담 없이 안심전환대출로 쉽게 갈아탈 수 있도록 기존대출에 대한 중도상환수수료를 면제한다.   ■0원으로 호우 피해 수재민 응원하기  지난주 집중호우로 피해를 입은 수재민들을 지원하는 데 은행권도 팔을 걷어붙였다. 피해이웃 지원 및 피해 복구 사업에 앞다퉈 억대 지원금을 투척하고는 고객이 클릭하면 은행이 기부하는 고객참여형 기부 캠페인도 진행한다.   케이뱅크는 오는 31일까지 고객의 참여로 기부금을 쌓는 기부 캠페인을 진행한다. 케이뱅크 앱 내 혜택존의 기부캠페인 페이지에서 '응원할게요' 버튼을 클릭하면 케이뱅크가 1000원을 기부하는 방식이다. 모인 기부금은 희망브리지 전국재해구호협회에 전달해 지난 수해로 어려움을 겪는 피해주민을 위해 사용한다.   신한은행은 오는 26일까지 비슷한 캠페인을 진행한다. 신한 쏠(SOL) 앱 내 기부캠페인 페이지에서 '참여' 버튼을 누르면 신한은행이 집중호우 피해주민을 위해 건당 1000원씩 기부한다. 기존 신한 쏠 고객은 물론이고, 신한은행 거래가 없는 고객도 신한 쏠에서 간단하게 회원가입이 가능해 만14세 이상 모든 국민은 기부캠페인에 참여 가능하다.   우리은행도 오는 31일까지 '우리 WON 클릭 기부함'을 운영한다. 이를 통해 고객은 간편하게 지난 호우 피해복구를 도울 수 있다. 다만 이는 다른 캠페인과 달리 고객이 직접 수해복구 성금을 내는 방식이다.   ■인터넷은행, 뭘 쓰지?  인터넷은행 간 경쟁이 치열하다. 인터넷은행 3사의 앱 이용 현황을 분석해본 결과 제각기 장점을 가지고 다투고 있었다. 앱 설치수와 실행횟수 면에서는 토스가 가장 앞섰지만 활성사용자는 카카오뱅크가 가장 많았고 연령분포는 케이뱅크가 가장 고르게 나타났다.   데이터 전문기업 티디아이(TDI)의 분석 보고서에 따르면 지난 7월 기준 기기 설치 수는 토스가 1953만2000대로 가장 많았다. 다만 이는 '원앱'이라는 특성상 토스뱅크가 아닌 토스를 기준으로 파악한 결과다.   카카오뱅크(1708만6000대)와 케이뱅크(982만2000대)가 그 뒤를 이었다. 또한 1월 대비 7월 증가량은 78만6000대로 토스가 제일 많았으며, 증가폭도 4.2%로 제일 높았다. 카카오뱅크와 케이뱅크는 각각 3.4%, 1.7% 올랐다. 기기 한 대당 일평균 실행횟수는 토스 3.6회 ,카카오뱅크 2.4회 케이뱅크 2.3회 순이었다.   연령별 이용자 비율은 케이뱅크가 가장 고르게 분포했다. 50대 이상 이용자가 26%로 제일 많고 20·30·40대도 각각 20%대 초반 점유율을 보였다. 카카오뱅크는 30대, 토스는 20대가 제일 많이 사용했다. 10대 이용자 비율은 토스가 9%로 가장 높았으며, 카카오뱅크가 1%로 가장 낮았다.   기기설치수 대비 활성사용자(MAU)는 카카오뱅크가 평균 63.4%로 가장 높게 나왔다. 케이뱅크는 평균 15.1%로 다소 저조했다. 1월 대비 7월 수치가 높아진 앱은 토스(3.8%)뿐이었다. 다른 두 앱은 감소했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.08.28.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>인터넷銀 파킹 통장, 묻지도 따지지도 않고 年 2% 금리</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004742617?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크케이뱅크 '플러스박스'최대 납입한도 3억원토스뱅크 파킹통장일복리 이자 지급카뱅은 접근성 좋아사상 처음으로 한국은행 기준금리가 네 번 연속 오르면서 갈 곳 잃은 투자 자금이 ‘파킹통장’으로 쏠리고 있다. 금융회사들도 이 같은 추세에 맞춰 앞다퉈 고금리 파킹통장을 내놓고 있다. 최고 금리를 받기 위해 맞춰야 하는 까다로운 조건이 부담스럽다면 인터넷전문은행들이 제공하는 상품이 해답이 될 수 있다.카카오뱅크·케이뱅크·토스뱅크 등 국내 인터넷전문은행 3사는 모두 연 2%대 파킹통장 상품을 운용하고 있다. 모두 납입 한도를 제외하고 최고 금리를 받기 위한 별도의 조건이 없다는 장점이 있다. 케이뱅크는 지난달 파킹통장 상품인 ‘플러스박스’의 금리를 0.8%포인트 인상했다. 현재 금리는 연 2.1%로 세 은행 가운데 가장 높다. 최대 납입한도 역시 3억원으로 가장 높다.카카오뱅크와 토스뱅크는 각각 ‘세이프박스’와 ‘토스뱅크통장’이라는 이름의 파킹통장 상품을 판매하고 있다. 금리는 모두 최고 연 2.0%다. 최고 금리를 받을 수 있는 한도 역시 1억원으로 같다. 두 은행의 파킹통장 상품은 최고 금리와 한도 모두 동일하지만 운용 방식은 다소 다르다. 토스뱅크통장의 경우 1억원까지만 최고 금리인 연 2.0%를 제공한다. 물론 이를 초과한 금액을 파킹통장에 넣어두는 것은 가능하다. 다만 초과분에 대해서는 금리가 연 0.1%로 낮아진다. 카카오뱅크는 애초 세이프박스에 1억원까지만 돈을 넣을 수 있다. 같은 계좌로 이자가 지급되는 토스뱅크와 달리 카카오뱅크는 세이프박스를 개설하기 앞서 만드는 ‘입출금통장’으로 이자가 들어온다.이자 계산 방식에도 차이가 있다. 카카오뱅크는 케이뱅크와 마찬가지로 이자가 월복리로 계산된다. 하지만 토스뱅크는 일복리로 이자를 지급한다. 매일 토스 앱에서 ‘지금 이자받기’ 버튼만 누르면 매일 이자를 받을 수 있다. 카카오뱅크는 토스뱅크와 금리, 최대 납입한도가 동일하지만 월복리로 이자가 지급되기 때문에 다소 불리하다. 그럼에도 1년간 유지한다면 이자의 총합은 큰 차이가 없다. 게다가 토스뱅크는 매일 이자를 받을 때 1원 미만 금액은 절사된다.세 은행의 체크카드 상품도 비교해보자. 모두 연회비는 없지만 캐시백 혜택을 제공한다. 케이뱅크는 모든 가맹점에서 결제액의 0.3%를 캐시백해준다. 전월 실적이 30만원 이상일 경우 △온라인 쇼핑 △온라인동영상서비스(OTT) △배달 앱 △엔터테인먼트 등 업종에서 결제액의 3%를 최대 월 2만원 한도 내에서 캐시백해준다. 카카오뱅크는 기본적으로 모든 가맹점에서 결제액의 0.2%를 캐시백해준다. 주말과 공휴일엔 캐시백 규모가 0.4%로 늘어난다. 또 내년 1월까지는 △온라인쇼핑 △뷰티 △배달 △커피 △주유 등 업종에서 일정 금액 이상 결제 시 일부 할인 혜택도 제공한다. 토스뱅크 카드는 △편의점 △카페 △패스트푸드 △영화관 △디저트 △대중교통 △택시 등 7개 영역에서 하루 1회에 한해 1만원 이상 결제 시 500원, 1만원 미만 결제 시 100원을 캐시백해준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>토스뱅크 3000억원 규모 유상증자 결의</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003039368?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 지난 24일 이사회를 열고 3000억원 규모의 유상증자를 추진하기로 결의했다. 지난해 10월 토스뱅크 출범 이후 지금까지 총 다섯 차례의 유상증자를 진행했으며, 이번 증자를 마치면 총 자본금은 1조3500억원으로 늘어난다.이번 증자를 통해 총 6000만주가 신규 발행되며 주당 발행가는 5000원이다. 6000만주 가운데 보통주는 4500만주, 전환주는 1500만주로 발행된다. 증자 납입일은 이달 30일이며, 증자를 마치면 토스뱅크는 출범 자본금 2500억원에서 총 1조1000억원의 자본금을 추가로 확보하게 된다.토스뱅크는 출범 당시 5년간 1조원의 추가 증자 계획을 밝혔으나, 11개월 만에 당초 계획을 넘는 1조1000억원의 자본금을 추가 확보하게 됐다.토스뱅크 관계자는 “중저신용고객 포용과 사용자 관점에서 최고의 은행 서비스를 선보이기 위해 집중한 결과 고객들의 많은 선택과 응원을 받아 빠르게 성장하고 있다”며 “토스뱅크의 비즈니스 비전과 성장세에 적극적인 지원을 보내주는 주주사들에 감사하며, 더욱 혁신적인 서비스로 은행에 대한 고객 경험을 바꾸어나가는데 앞장서겠다”고 말했다.한편 토스뱅크의 중저신용자 대출 비중(잔액기준)은 38%(7월 말 기준)를 넘어서며 인터넷은행 중 중 저신용고객 포용에 가장 앞서있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>대출이자 많이 깎아준 은행은 제주·씨티</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004744220?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>금리인하요구권 수용 1건당 이자감면액 살펴보니지방銀, 총 이자감면액은 적지만 신청건수 적어 1인당 평균 높아시중銀선 30만원대 하나銀 '1위'케이·토스뱅크는 10만원 웃돌아수용률 낮았지만 감면폭은 높아"수용률로 인하 수준 비교 역부족수용 건수·감면액 중심 비교해야"올해 상반기 금융권의 금리인하요구권 운영 실적이 지난 30일 공시된 가운데 수용 한 건당 이자감면액이 가장 많은 곳은 제주은행으로 나타났다. 지방은행의 경우 전체 이자감면액 규모는 작았지만 신청 건수도 적어 평균 감면액이 많았다. 시중은행 중에선 하나은행의 평균 이자감면액이 30만원대로 최대였다. 지방은행 이자감면액 상위권31일 은행연합회 금리인하요구권 공시에 따르면 가계 대출금리 인하 요구 수용 건당 평균 이자감면액(이자감면액/수용 건수)은 제주은행이 60만8697원으로 가장 많았다. 이어 한국씨티은행(38만5341원), 수협은행(31만3934원), 하나은행(30만9246원), 광주은행(26만3917원) 순이었다.제주은행의 총 이자감면액은 1400만원으로 은행권 최저를 기록했지만 수용 건수도 23건으로 가장 적어 건당 이자 감액 정도가 컸다. 수협은행도 총 이자감면액 규모가 8300만원으로 1억원을 넘기지 못한 반면 수용 건수가 264건으로 다른 은행 대비 적어 1인당 감면액이 많았다. 지방은행도 시중은행보다 한 건당 평균 이자감면액이 많았다. 광주(26만3917원), 부산(18만9474원), 전북(15만9061원), 경남(14만4736원), 대구(14만8438원) 등 모든 지방은행의 평균 이자감면액이 10만~20만원대를 웃돌았다.이 같은 현상은 신용평가 시스템에 따른 등급별 금리 혜택 차이가 컸기 때문이란 분석이다. 은행별 신용등급에 따른 금리 할인 폭을 높이면 평균 감면액도 크게 잡힌다는 것이다. 은행연합회가 공시한 8월 가계 신용대출 금리 현황에서 경남 광주 부산 전북 대구 등 지방은행은 신용평가사(CB) 신용점수별 평균 금리 차도 0.264~2.715%포인트로, 같은 기간 평균 0.114~2.15%포인트인 시중은행보다 높았다. 은행권 관계자는 “은행 금리 전략에 따라 신용등급별로 책정한 금리 할인 편차를 키우기도 한다”고 설명했다.5대 시중은행 가운데에선 하나은행이 감면액 30만원대를 넘기며 선두에 섰다. 이어 농협(10만1405원), 우리은행(9만2951원) 등이었다. “수용률보다 감면액 봐야”인터넷은행 중에서도 이자 감면 폭이 시중은행보다 높은 10만원을 넘긴 곳이 적지 않았다. 케이뱅크는 수용 건당 이자감면액 19만3630원, 토스뱅크는 17만6837원을 기록했다. 가계대출 금리인하요구권 수용률은 각각 14위, 16위로 낮았지만 감면 폭은 상대적으로 컸다. 전체 이자감면액 규모는 케이뱅크가 53억5600만원으로 가장 많았고, 카카오뱅크가 29억1300만원이었다. 시중은행 중에서는 신한은행이 27억8800만원으로 최다였다.일각에선 금리인하요구권 실적 공시 지표에서 단순 수용률이 신용평가에 따른 실질적인 수용 규모와 혜택 등을 반영하지 못한다는 지적이 나온다. 비대면 신청시스템 도입으로 중복신청 건수도 자동으로 집계되는 등 변수가 많아 절대 수용률은 낮게 나올 수 있어서다.은행들의 금리인하요구 수용률은 낮았지만 수용 건수 및 총 이자감면액 규모는 각각 22만1000건, 728억3000만원으로 금융권 중 가장 많았다. 단순히 수용률 줄 세우기가 아니라 총 이자감면액 규모나 신청 건수당 평균 이자감면액을 분석해야 실질적인 혜택을 알 수 있다는 목소리도 나온다. 은행연합회 관계자는 “금리인하요구권 비대면 신청이 늘어날수록 수용률은 떨어질 가능성이 크다”며 “수용 건수와 이자감면액을 중심으로 금리인하 수준을 비교하는 게 적절하다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>‘포스트 김주현’ 여신금융협회장…정완규·남병호·박지우 ‘3파전’(종합)</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005299409?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>9월6일 면접·투표…최종후보 1인 선출정완규·남병호 등 관료 출신에 ‘무게’차기 여신금융협회장 후보로 선정된 정완규(왼쪽부터) 전 한국증권금융 사장과 남병호 전 KT캐피탈 대표, 박지우 전 KB캐피탈 대표. (사진=여신금융협회)[이데일리 정두리 기자] 차기 여신금융협회장 후보가 정완규 전 한국증권금융 사장과 남병호 전 KT캐피탈 대표, 박지우 전 KB캐피탈 대표 등 3명으로 압축됐다. 23일 여신금융협회는 회장후보추천위원회(이하 회추위)를 열고 차기 회장 후보 6명 가운데 이같이 3명의 숏리스트(압축 후보군)를 선정했다고 밝혔다.회추위에는 8개 카드사(롯데카드·BC카드·삼성카드·신한카드·우리카드·현대카드·KB국민카드·하나카드)의 대표와 7개 캐피탈사(롯데캐피탈·산은캐피탈·신한캐피탈·하나캐피탈·현대캐피탈·IBK캐피탈·KB캐피탈)의 대표로 구성돼 있다.이 중 정완규 전 사장과 남병호 전 대표는 관료 출신이다. 정 전 사장은 1963년생으로 고려대 행정학 학사, 제34회 행정고시 출신으로 금융위원회에서 공직을 시작해 시장감독과장, 자본시장과장, 기획조정관, 중소서민금융정책관, 금융정보분석원장(FIU) 등을 역임했다. 새누리당 수석전문위원으로 일한 경력도 있다. 지난 2018년부터 지난해까지 한국금융증권 사장을 맡았다. 현재는 토스뱅크 사외이사로 근무 중이다.남 전 대표는 1967년생으로 서울대 법학 학사, 제37회 행정고시 출신으로 금융위원회에서 근무한 뒤 대통령자문 정책기획위원회 과장, 서울시 금융도시담당관, 금융위원회 국제협력팀 팀장 등을 지냈다. 2011년부터는 KT코퍼레이트센터 경쟁력강화담당 상무, KT 시너지경영실 시너개발 1담당 상무를, 2013년부터는 KT캐피탈 대표를 거쳤다. 이후 2020년 나이스평가정보 사외이사로 근무한 뒤 현재 농협금융지주 사외이사로 재직 중이다.박지우 전 대표는 1957년생으로 서강대 외교학과를 졸업한 후 1983년 KB국민은행 입행을 시작으로 금융권에 첫 발을 들였다. KB국민은행 신용카드사업그룹 부행장과 마케팅본부 본부장, 고객만족본부 본부장, 영업그룹 본부장 등을 역임했다. 2015년 KB캐피탈 대표에 선임돼 3연임에 성공했던 인물이다.이로써 관료 출신 2명과 민간 출신 1명이 출마하면서 민·관 대결 구조가 만들어졌다. 김주현 전 협회장이 금융위원장 자리에 오르면서 현재 여신금융협회장 위상도 한층 올라갔다는 평가다. 여전업계 내에선 협회장 선출이 가까워질수록 금융당국과의 소통 등을 이유로 관료 출신에 대한 우세를 점치는 분위기다. 여신금융협회장은 상근직으로 바뀐 지난 2010년 이후 4번의 선거에서 11대 김덕수 회장을 제외하고는 모두 관료 출신이 뽑혔다.카드업계 한 관계자는 “내부에선 관에 무게를 두는 분위기지만, 어떤 인물이 회장이 되든 현재 여신업계가 당면한 대외영업 악화를 타개해 나갈 적임자가 뽑혔으면 한다”고 했다. 협회는 9월 6일 개최되는 2차 회추위에서 숏리스트를 대상으로 개별 면접을 실시하고 단독 후보 1명을 가리게 된다. 이후 9월 중순 경 회원사 총회 찬반 투표를 거쳐 차기 협회장을 최종 선출할 계획이다. 여신협회장의 임기는 3년으로, 최종 당선자는 오는 2025년까지 근무하게 된다. 연봉은 4억원 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>토스, 신용카드업 나설까…롯데카드 인수전에 쏠리는 눈</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003226704?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   오전 서울 중구 롯데카드 본사    지난해 10월 토스뱅크의 출범과 동시에 신용카드업 진출에 뜻을 밝혀온 토스가 '롯데카드 인수전'에 참여할지 주목된다. 금융업계에서는 매각설이 난무하던 롯데카드를 금융 빅테크가 인수할 가능성을 높게 보고 있는데, 토스에 무게를 두고 있는 분위기다. 하지만 토스는 "고려하고 있지 않다"는 입장을 내놓고 있다.     24일 금융업계에 따르면 롯데카드 최대주주인 사모펀드 운용사 MBK파트너스는 매각 주관사인 JP모간을 통해 매각 작업을 진행하고 있다. MBK파트너스는 2019년 롯데카드의 지분 59.8%를 인수한 바 있다.    금융감독원 금융통계정보시스템에 따르면 올해 1분기 카드 업계 점유율 순위는 신한카드(21.0%)가 1위이고, 이어 삼성카드(18.9%), KB국민카드(17.7%), 현대카드(16.7%), 롯데카드(9.6%) 순이다.       하지만 올해 상반기 실적에서는 롯데카드가 현대카드를 제치고 카드업계 4위에 올랐다.     롯데카드는 올해 상반기 당기순이익 1772억원을 기록했다. 이는 전년 동기(1086억원) 대비 63.2% 증가한 수준이다.     이 기간 현대카드는 1557억원의 당기순이익을 냈다. 그동안 순익 기준 업계 4위였던 현대카드는 전년 동기 대비 순익이 14.6% 줄면서 롯데카드에 자리를 내줬다.      -     이렇게 실적 성장 흐름을 탄 롯데카드를 인수할 후보로는 당초 우리금융지주와 BC카드를 보유 중인 KT 등이 유력하게 거론됐다.       하지만 증권사 인수를 최우선으로 보고 있는 우리금융지주가 인수 포기 의사를 전하고, KT는 유보적인 분위기를 내비치면서 시선은 카카오뱅크와 토스로 돌아선 상황이다.       지난해 토스는 토스뱅크를 통해 신용카드업 진출 의사를 밝힌 바 있고, 카카오뱅크도 상반기 실적 발표 컨퍼런스콜에서 신용카드 시장에 진출하겠다고 발표했기 때문이다. 현재 카카오뱅크와 토스뱅크는 자사 체크카드 사업 대행을 각각 KB국민카드와 하나카드에 맡기고 있다.     카드업계에서는 두 인터넷전문은행이 직접 신용카드업 라이선스를 취득해 진출하기가 쉽지 않을 것이라고 입을 모은다.       직접 라이선스 취득으로 신용카드업에 진출하려면 준비 기간과 인허가 기간 등을 고려해 최소 2년의 시간이 필요할 것으로 전망한다. MBK파트너스가 롯데지주로부터 롯데카드를 인수하는 데 총 1년이 걸렸던 점을 미루어보아 카드사 인수 방식으로는 절반가량 시간을 줄일 수 있다.     카드사 관계자는 "이미 전업 신용카드사만 8곳이고, 시장은 출혈 경쟁에 포화상태"라며 "오히려 인수하는 방법이 라이선스를 취득하지 않고도 사업에 진출할 수 있는 방법일 것"이라고 말했다.       토스 본사    이에 이달 초 신용카드업 라이선스 취득을 선언한 카카오뱅크보다는 오랜 준비 기간을 가져온 토스의 행보에 업계는 주목한다.      토스가 롯데카드를 인수해 신용카드 시장에 진출하면 토스뱅크 여신 포트폴리오를 강화할 수 있게 된다. 은행 영업과 동시에 신용카드업 허가를 받아 직접 신용카드 발급·관리 등 여신 업무에 시너지를 낼 수 있다. 토스는 꾸준한 성장세를 이어가고 있다. 매출은 2019년 1187억원, 2020년 3898억원, 2021년 7808억원을 기록해 최근 3개년간 누적성장률이 연 142%에 달한다. 지난해만 놓고 보면 영업수익이 100% 올랐다. 하지만 영업손실 역시 147% 확대됐다.     최근 토스뱅크는 유상증자를 통해 자본금을 1조2000억원까지 늘리기도 했다.       이에 대해 토스 관계자는 "구체적으로 검토하고 있지 않다"고 말했다.     롯데카드 매각의 성공 여부는 가격이 변수가 될 전망이다. 롯데카드의 희망 매각가는 3조원대로 알려졌는데, 일부에서는 "매각가가 너무 높다"는 지적이 나온다.     업계 관계자는 "기업이 이 문제에 대해서는 직접 언급하기 어려울 것"이라면서도 "시장의 호응이 없다는 건 매물이 매력적이지 않다는 얘기일 수도 있다"고 말했다.    권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>KBW로 본 암호화폐 시장 5가지 키워드[비트코인 A to Z]</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000061833?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2018년과 유사한 ‘크립토 윈터’…세대교체와 대기업 진입, 멀티체인 다양화는 달라진 점 이더리움 창시자 비탈릭 부테린이 8일 열린 코리아 블록체인 위크에서 기조연설을 하고 있다. [연합뉴스]코리아 블록체인 위크(KBW)가 8월 14일 성황리에 막을 내렸다. 한국에서는 코로나19 사태 이후 처음 열리는 대규모 블록체인 행사여서 의미가 있었다. 가상 자산 시장이 전반적으로 약세임에도 불구하고 수많은 국내외 빌더·투자사·스타트업·대기업·규제 당국·글로벌 관계자들이 자리를 빛냈다. 필자는 행사에 참여하면서 처음 블록체인업계에 진입했던 2018년이 떠오르며 몇 년 사이에 정말 많은 것이 변했다는 생각이 들었다. 상전벽해를 목도하는 심정으로 이번 칼럼을 통해 몇 가지 느낀 점을 공유한다. 1.2022년은 2018년과 유사한 베어장2022년은 2018년과 아주 닮았다. 예를 들어 2018년은 암호화폐 공개(ICO) 버블이 터진 후 가상 자산 가격이 폭락한 ‘크립토 윈터’가 본격화하는 시기였다. 행사장을 가면 축제 막바지에 남은 미온한 열기는 느껴지지만 전반적으로 시장이 끝물이라는 점을 느낄 수 있었다. 시간이 지나면서 점점 행사와 참가자가 줄어들고 심지어 ‘탈블(탈블록체인의 준말로 블록체인업계를 떠나는 것을 지칭)’하는 사람들이 많아지면서 남아 있던 사람들이 외로움을 느끼던 시기다. 마찬가지로 2022년 역시 금리 인상, 러시아·우크라이나 전쟁, 중국·대만 갈등 등 매크로 악재와 테라 붕괴 사태로 인해 베어장을 겪고 있는 시기다. 행사에 참여한 사람들은 돈을 잃고 가난해졌다는 농담을 하거나 ‘존버’를 해야 한다는 이야기를 종종 하곤 했다. 어디까지나 개인적인 생각인데, 필자는 아직 베어장의 초기라고 생각한다. 왜냐하면 진정한 베어장의 시작은 인재가 업계를 떠날 때부터라고 보기 때문이다. 불확실한 미래에 대한 믿음을 잃고 시장에 대한 확신이 없어질 때 사람들은 ‘탈블’하기 시작한다. 하지만 필자가 관찰한 바에 따르면 아직 탈블은 본격적으로 일어나지 않았다.2.난립하는 투자사들, 3년 내 정리된다 2022년이 2018년과 닮았다고 생각하는 또 다른 이유 중 하나는 투자사가 너무 많다는 점이다. 미트업(meet up)에서 새로운 사람을 만나면 보통 ‘XX캐피털’, ‘XX인베스트먼트’ 등 투자사인 경우가 많았다. 아마도 2020~2021년 불장 때 한몫 챙긴 사람들이 세운 투자사일 것이다.필자는 3년 내에 현존하는 다수의 블록체인 전문 투자사들이 없어질 것이라고 본다. 살아남을 투자사를 꼽아 보자면 우선 큰 규모의 펀드를 운용하며 운용 수수료로 충분히 비용을 감당할 수 있는 투자사들이다. a16z·패러다임·판테라·해시드 등이 이에 해당한다. 둘째, 거래소가 운영하는 투자사다. 바이낸스랩스·FTX벤처스·코인베이스벤처스 등이다. 셋째, 트레이딩과 투자를 병행하는 투자사다. 점프·윈터뮤트·알파논스 등이 여기에 해당한다. 넷째, 특정한 섹터와 지역의 전문성을 보유한 투자사다. 대체 불가능한 토큰(NFT)에 특화된 스퍼미온·NFT뱅크벤처스와 아시아에 강점이 있는 롱해시 등이 여기에 해당한다.3.눈에 띄는 세대교체이번 행사에서 인상적이었던 것 중 하나는 세대교체가 꽤 진행됐다는 점이다. 포괄적으로 세대의 빈티지를 구분하면 크게 2015년 이전, 2015~2016년, 2017~2018년, 2020~2022년 진입자로 구분해 볼 수 있다. 특히 2017년 이전에 진입한 사람들은 이미 상당한 부를 축적해 더 이상 업계에서 일하지 않는 이들도 상당하다. 또한 2017~2018년에 진입한 사람들은 이제 기업의 중역이 됐거나, 탈중앙화 조직(DAO) 형태로 자유롭게 일하거나, 시장에서 입지를 쌓아 각종 행사 스피커 VIP로 대접받는 이들이 많다.필자가 관찰한 바에 따르면 2020~2022년 업계에 진입한 사람들은 크게 이제 막 학교를 졸업한 (혹은 졸업 예정인) 똑똑한 청년 세대 그리고 웹2와 금융 산업에서 일하다 넘어온 엘리트들인 이들이 많다. 특정 산업의 유망함을 가늠하는 데는 자본의 유입과 함께 인재의 유입이 중요한 요소로 작용한다. 최근의 세대교체를 바라보면 블록체인 시장에 더더욱 낙관적인 태도를 가질 수밖에 없다. 4.‘그들만의 리그’ 깨졌다 과거의 블록체인 산업은 ‘그들만의 리그’였다. 시장 참여자는 대체로 소수의 괴짜, 개발자, 영민한 사업가, 투자자 그리고 사기꾼들이었다. 그런데 이번 행사에서 수많은 대기업이 블록체인 비즈니스에 관심을 보인다는 것을 확인할 수 있었다. 특히 과거에는 ‘(프라이빗) 블록체인은 좋고 코인은 나쁘다’는 이분법이 대기업의 지배적인 인식이었다면 이제는 퍼블릭 블록체인에 기반한 코인도 대기업의 사업 검토 영역에 포함된다는 것이 고무적이었다. 또 규제 당국 역시 글로벌 규제 동향을 모니터링하며 현장의 목소리를 듣고 합리적인 규제 방안을 모색하는 양상이었다. 규제 불확실성이 완화되면 대기업의 시장 참여 역시 가속화될 것이다. 5.멀티체인이 미래과거에는 애플리케이션(앱)이 활발하게 작동하는 스마트 콘트랙트 플랫폼은 이더리움이 전부였다. 하지만 이제는 폴리곤·솔라나·클레이튼·니어·아발란체·BNB·앱토스 등 레이어 1·2들이 등장하며 유망한 앱들을 유치하려는 양상이다. 이더리리움을 비롯한 레이어 2가 당분간 지배적인 스마트 콘트랙트 플랫폼으로 작용할 가능성이 높지만 다른 체인들 역시 독자적인 커뮤니티와 문화를 구축하며 멀티체인 생태계를 구성하는 데 한몫할 가능성이 높아 보인다.비유하자면 이더리움과 레이어 2가 현재는 서울과 경기도이고 다른 레이어 1은 수도권을 제외한 광역시와 특색 있는 지방 도시들의 기능을 수행하고 있는 것이다. 행사장에 참여한 수많은 레이어 1·2 재단과 빌더들을 지켜보며 멀티체인의 미래에 대해 좀 더 확신을 갖게 됐다.실로 수많은 사람들이 코리아 블록체인 위크 주간을 맞아 행사장을 찾았다. 블록체인의 저변이 확대됨에 따라 시장 참여자의 수준이 향상되고 있다는 것을 분명히 느낄 수 있다. 특히 똑똑하고 진정성 있는 청년 세대의 활약이 기대된다. 그들이 앞으로 2~3년 후 시장의 슈퍼스타로 자리매김할 것이라고 확신할 수 있다.  한중섭 ‘비트코인 제국주의’, ‘넥스트 파이낸스’, ‘친절한 독재자, 디지털 빅브라더가 온다’ 저자</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.08.28.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>“예대금리차 낮추려 서민 대출 줄이나” 공시제 부작용 우려</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003169439?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>1위 전북은행 ‘서민 대출상품’ 주력 상위권 신한·인터넷은행도 비중 높아 수신금리 오르면 대출금리도 상승 ‘현금부자’ 이득…차주는 불리해져지난 22일부터 시행된 ‘예대금리차 비교 공시 제도’가 소비자편익으로 이어질 수 있을지에 대한 논란이 계속되고 있다. 은행마다 대출 주력 상품이 다른 상황에서 예대금리차만으로 비교하는 것은 불합리하다는 것이다.28일 은행권에 따르면 은행연합회 소비자포털 홈페이지에 예대금리차가 공시된 19개 은행 중 가계대출 예대금리차 1위는 전북은행(6.33%포인트)이다.KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행 중에서는 신한은행(1.62%포인트)이 가계대출 예대금리차가 가장 컸다. 전북은행과 신한은행의 공통점은 서민을 위한 금융상품인 ‘햇살론’ 등을 취급한 비중이 다른 은행에 비해 높다는 것이다.전북은행은 서민 대출 상품을 주력으로 취급하고 있다. 신한은행은 지난해 말 기준으로 9751억원의 서민 대출을 취급했다. 5대 시중은행 중 가장 많다. 서민 상품인 ‘햇살론15’의 경우 금리가 연 15%를 웃돈다.은행연합회도 “저신용자를 위한 정책성 상품의 취급 비중이 높으면 예대금리차가 확대된다”며 “예를 들어 전북은행은 서민금융진흥원 연계대출인 ‘햇살론뱅크’ ‘햇살론 유스’ 비중이 높아 예대금리차가 크다”고 설명했다.이 때문에 일률적인 예대금리차 비교공시로 ‘은행 간 금리 경쟁을 유도한다’는 정책 목표를 달성할 수 있을지 의문이라는 지적이 나오고 있다. 예대금리차를 좁히려면 은행이 서민 상품의 취급 비중을 축소해야 한다는 얘기나 다름없기 때문이다.중·저신용자 위주로 신용대출을 판매해 온 인터넷전문은행도 불만이 크다. 카카오·케이·토스뱅크 중 가계대출 예대금리차가 가장 컸던 토스뱅크(5.60%포인트)는 “우리 대출 고객 가운데 중·저신용자 비율은 지난달 말 기준 약 38%로 모든 은행 중에서 가장 높다”고 말했다. 일반적으로 중·저신용자의 대출금리는 고신용자보다 높다.카카오·케이뱅크도 가계 신용대출의 20% 이상을 중·저신용자에게 내줘 예대금리차가 2%포인트를 웃돌았다.은행들이 일반 가계대출 상품의 금리를 내리기보다 예·적금 상품의 금리를 올리는 방식으로 예대금리차 좁히기에 나서는 모양도 관측된다. 한국은행이 지난 25일 기준금리를 0.25%포인트 인상하자, 5대 시중은행은 이를 예·적금 금리에 즉각 반영했다. 일부 상품에 대해선 기준금리 인상폭 이상으로 수신금리를 올렸다.그러나 수신금리 인상은 대출금리 상승으로 이어진다. 국내 8개 은행의 수신금리를 가중평균한 코픽스(COFIX·자금조달비용지수)가 대출금리 산정의 기준으로 활용되고 있어서다. 예·적금 금리가 올라 코픽스가 오르면 주택담보대출 및 전세자금 대출 금리가 오르는 구조다.수신금리가 오르면 예·적금에 넣어둘 현금이 많은 자산가는 이득을 본다. 그러나 갚아야 할 빚이 더 많은 차주는 대출 금리가 올라 오히려 불리해진다. 예대금리차 공시가 결과적으로 차주에게 불리한 상황을 야기하는 셈이다.대출을 새로 받으려는 차주에게 예대금리차 공시가 실제 편익을 줄 수 있는지도 확실하지 않다는 지적도 있다. 개별 차주에게 적용되는 대출 한도와 금리는 은행에서 직접 상담받기 전에는 알 수 없기 때문이다.금융당국은 이 같은 논란에도 불구하고 예대금리차 공시가 은행 간 경쟁을 유발해 결과적으로 대출금리 상승을 억제하는 쪽으로 작용할 것이라 기대하고 있다. 금융위원회는 “예대금리차 공시를 통해 은행의 자율경쟁이 촉진된다면 금융소비자 편익이 향상될 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>광주은행, 예대금리차 전국 `최고 수준'…열악한 지역인데 왜?</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011377956?sid=102</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>기사내용 요약가계예금금리차 3.39%p, 19곳 중 3위"중·저신용자 중금리대출·서민금융상품 비중 높아 착시" 억울[광주=뉴시스] 구길용 기자 = 광주은행은 23일 전남 광양시 제2금고에 선정됐다고 밝혔다. (사진=광주은행 제공). 2022.05.23. kykoo1@newsis.com *재판매 및 DB 금지 [광주=뉴시스] 배상현 기자 = 은행들의 예대금리차(대출금리-예금금리) 공시 결과 광주은행은 은행권 최고 수준을 기록한 것으로 나타났다. 23일 전국은행연합회 소비자포털의 '예대금리차 비교' 공시에 따르면 지난 7월 현재 광주은행 대출금리는 5.35%(기업대출 4.99%·가계대출 6.24%), 저축성 수신금리는 2.85%로 예대금리차는 2.50%p로 나타났다. 특히 가계예금금리차(가계대출금리-저축성수신금리)는 3.39%p로  전북은행 6.33%p, 토스뱅크 5.60%p에 이어 3위를 기록했다.6개 지방은행 중에는  전북은행과 광주은행에 이어 대구은행(1.58%p), 제주은행(1.54%p), 경남(0.93%p), 부산은행(0.82%p)순으로 나타났다.5대 시중은행 중에서는 신한은행이 1.62%p로 가장 높았고 우리은행(1.40%p) NH농협은행(1.40%p) KB국민은행(1.38%p) 하나은행(1.04%p)순으로 높았다.가계예대금리차는 가계대출금리에서 저축성수신금리를 뺀 것으로, 예대금리차가 크면 일반적으로 은행이 이른바 '이자 장사'를 한 것으로 평가된다. 하지만 광주은행은 지나친 `이자장사'라는 지적에 좀 억울하다는 입장이다. 중·저신용자를 위한 비대면 중금리대출과 서민금융 정책성 상품의 취급 비중이 높아 예대금리차가 크게 나타나는 착시현상이 있다는 것이다. 광주은행 관계자는 "중금리대출, 서민금융, 특별요인 등을 제거하면 광주은행은 지방은행 평균보다 양호하다"면서 "열악한 지역경제 여건 등을 감안할때  신용도나 신용점수가 저조한 고객과 지역민에 대한 대출을 지원한 포용금융 결과다"고 말했다. 한편 은행연합회는 앞으로 매달 20일 은행연합회 홈페이지 소비자포털에 신규취급 기준 전월 예대금리차를 공시할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.08.19.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>카톡 '송금하기'가 안 된다고?…전금법 개정안 논란 재점화</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011371786?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>기사내용 요약'전금법 개정안' 통과 급물살 타나간편송금 기능 제한될까 전전긍긍"범죄 노출 가능성…리스크 관리↑"vs "취약계층이 금융 불편 겪을 것"[서울=뉴시스] 박은비 기자 = 전자금융거래법(전금법) 개정안을 두고 금융위원회와 한국은행의 갈등이 일단락되자 관련 업계는 조만간 법안이 통과될까 초미의 관심사다. 기존의 간편송금 기능이 일부 제한될 가능성이 높은데 업계에서는 이럴 줄 몰랐다는 분위기다.19일 금융권에 따르면 선불전자지급수단업자들은 전금법 개정안이 통과되면 50만원 한도로 무기명식 송금이 가능했던 게 사실상 불가능해질 것으로 보고 있다. 가장 대표적인 간편송금인 카카오톡 송금하기 서비스가 아예 금지되는 것으로 알려졌지만 사실은 아니다. 기명식 송금은 자금이체업 등록이나 마이페이먼트 인가를 받으면 기존처럼 가능하다.의안정보시스템에서 전금법 개정안으로 검색되는 법안 21건 중 현재 언급되는 법안을 살펴보면 지난 2020년 11월 말, 당시 국회 정무위원장이었던 윤관석 더불어민주당 의원 등 12명이 발의한 안건으로 현재 정무위 심사 단계에 있다. 이 법안 제 36조의3 2항 4호에 보면 대금결제업자가 선불전자지급수단의 발행·양도, 환급 기능을 결합해 전자자금이체와 동일한 목적을 달성할 수 있게 하는 행위를 해서는 안 된다고 돼있다. 현행 전금법에 따라 선불업으로 등록한 곳은 59개사인데, 이 법안이 통과되면 기존 선불업자라도 간편송금을 하는 자금이체업(11개사 예상), 상품·서비스 대가를 결제하는 대금결제업(65개사 예상)으로 나눠 등록하는 과정을 거쳐야 할 것으로 예상된다. 그 배경에는 간편송금 거래 규모가 커지면서 보이스피싱·자금세탁 등에 노출될 위험성이 높고, 리스크 관리 능력이 요구된다는 지적이 제기된 데 있다.[서울=뉴시스] '전자금융거래법 개정안(윤관석 의원 대표발의안)' 정무위원회 검토보고서 중 일부.  2022.08.19. photo@newsis.com *재판매 및 DB 금지이 법안이 통과되면 카카오페이, 네이버파이낸셜, 토스(비바리퍼블리카) 등 주요 간편송금 사업자가 타격이 클 것으로 전망된다.업계에서 아쉬워하는 부분은 50만원 미만 무기명 송금이 불가능해지는 부분이다. 한 업계 관계자는 "미성년자나 계좌 압류 등 개인 사정으로 은행 계좌를 이용하기 어려운 금융취약계층의 경우 사실상 서비스 이용이 불가능해지는 것으로 보인다"며 "기존과 다른 금융 서비스로 사용자 편의를 제공하려던 핀테크 입장에서는 우려되는 부분"이라고 말했다.다른 관계자도 "현재도 상대방에게 실명 정보가 노출되지 않을 뿐 실명 정보가 다 남는 등 기존 금융회사와 동일한 수준으로 고객을 확인하고 의심거래 보고 등 자금세탁방지 의무를 다하고 있다"며 "은행 계좌에 연결되지 않는다는 이유로 무기명 송금 자체를 원천 금지하는 건 처음 법 취지에도 맞나 싶은 생각이 든다"고 언급했다.금융위는 자금이체업 관련 내용을 포함해 국회에 계류 중인 해당 개정안의 보완 필요성 등에 대해 다각도로 검토 중에 있다는 입장이다. 향후 국회 논의 과정에 반영될 수 있도록 업계와 충분히 협의하겠다는 구상이다.금융위 관계자는 "이체업과 선불업은 비즈니스 성격이 다르다. 이체업을 하려면 계좌가 있어야 하고 계좌를 개설하려면 실명 확인과 여러 부수적인 규제가 있는데 선불업은 물건 구매 용도로 실명을 확인할 필요가 없어 차이가 있다"며 "기존처럼 선불업으로 이체가 가능하면 실명 확인이 안 된 돈이 돌아다니게 되는 것"이라고 지적했다.그러면서 "이 법 그대로 시행된다고 하더라도 유예기간이 있고 선불업을 통해 사실상 이체업을 하던 사업자는 자금이체업으로 등록하고 서비스를 제공하면 된다"며 "외국에서는 선불업을 통한 이체업은 법에서 엄격하게 금지되는데 기존 전금법에서는 금지 규정이 없었던 것"이라고 설명했다.한편 그동안 전금법 개정안 쟁점 중 종합지급결제업(종지업) 도입을 두고 한은과 첨예한 입장차를 보였던 금융위는 지난달 27일 한은 실무진과 만나 전금법 개정안 수정 방향을 논의한 결과 ▲금융결제원 청산기관 지정 문제 ▲종합지급결제사업자 도입 ▲빅테크(대형기술기업) 외부 청산 등 큰 틀에서 합의를 마쳤다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사, 2분기 중·저신용 대출 비중 약 2~5%P 증가</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003169142?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>(위부터) 카카오뱅크, 케이뱅크, 토스뱅크.  각 사 제공카카오·케이·토스뱅크 등 인터넷전문은행의 2분기 가계 신용대출 가운데 중·저신용자 대출 비중이 지난 1분기 대비 확대됐다.26일 은행연합회 공시에 따르면 지난 6월 말 이들 3대 은행의 ‘중·저신용자 대상 신용대출 비중(잔액 기준)’은 카카오뱅크 22.2%, 케이뱅크 24.0%, 토스뱅크 36.3%로 집계됐다. 중·저신용자는 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(KCB 850점 이하) 차주(대출받은 사람)를 말한다.중·저신용 대출 비중을 지난 1분기와 비교하면 카카오뱅크는 2.3%포인트, 케이뱅크는 3.8%포인트, 토스뱅크는 4.9%포인트 각각 늘었다.카카오뱅크는 지난달 말 기준으로는 중·저신용자 대출 비중이 23%라며, 2분기 공시보다 더욱 증가했다고 밝혔다. 카카오뱅크가 지난 5년간 중·저신용 차주에게 공급한 무보증 신용대출 규모는 6조402억원이다.케이뱅크는 올해 2분기 6256억원의 중·저신용 대출을 새로 공급해 증가세를 이어갔다고 밝혔다.케이뱅크 관계자는 “연말 중·저신용 대출 비중 목표(25%)를 달성하기 위해 대안 정보를 활용한 신용평가모형(CSS)을 더욱 고도화하고, 심사전략을 세분화할 예정”이라고 말했다.금융당국은 지난해 5월 ‘인터넷은행이 중·저신용자에 대한 대출 공급을 확대하겠다는 당초 설립 취지와 달리 고신용자 위주로 보수적인 대출 영업을 한다’고 지적하며 중·저신용자 대출 비중을 확대하라고 요구한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>"이자 낮춰달라" 아우성에도…은행, 4명중 1명만 수용</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005011192?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>상반기 은행권 금리인하 요구88만건 달했지만 25%만 수용농협 수용률 60%로 전체 1위신한, 3만건으로 가장 많아인하요구권 신청 증가세에도받아들이는 경우는 많지 않아 지난 6월 직장인 김 모씨(38)는 2억원짜리 주택담보대출 금리가 연 5%대로 올랐다는 문자를 받고 화들짝 놀라 비대면으로 금리인하요구권을 신청했다. 2년 전 3%대로 받았던 대출 금리를 낮추고자 김씨는 올해 소득 증가와 신용대출 상환을 이유로 은행에 요구권을 신청한 것이다. 금리인하요구권은 김씨와 같은 금융소비자가 취직, 승진, 소득 증가 등을 근거로 금리를 낮춰달라고 은행 등 금융사에 요구하는 권리다. 하지만 김씨가 은행으로부터 받은 문자는 '귀하의 대출상품 금리를 인하할 정도로 당행 내부 신용등급이 개선되지 않아 금리가 유지된다'는 내용이었다. 김씨처럼 금리인하요구권을 신청했다가 거절당한 사례는 다반사인 것으로 드러났다.30일 은행연합회 통계에 따르면 올 상반기 은행권 전체 금리인하요구권 신청 건수는 88만8618건이다. 이 가운데 약 22만797건이 받아들여져 수용률은 24.8%였고, 이를 통한 이자 감면 금액은 728억원이다. 요구권 신청 10건 중 8건은 은행들이 자체 신용등급 산정 시스템에 따라 금리 인하를 거부했다는 뜻이다. 금융당국은 올해 들어 기준금리 인상으로 대출 금리가 급등하며 이자 부담이 커지고 있는 가운데 은행 등 금융사들이 소비자의 정당한 권리인 금리인하요구권 거절 관행이 이어지자 이날부터 금리인하요구권 운영 실적을 비교 공시하도록 의무화했다. 올 상반기 은행권 금리인하요구권 수용 건수를 전체 신청 건수로 나눈 요구권 수용률(가계대출 기준)에선 NH농협은행이 60.5%에 달해 가장 높았다. 그 뒤로 우리은행(46.1%), KB국민은행(37.9%), 하나은행(32.3%), 신한은행(29%) 순으로 나왔다. 비율이 아닌 절대적인 수용 건수로 보면 신한은행이 가장 많았다. 신한은행의 요구권 수용 건수는 3만2218건에 달해 농협(4980건)에 비해 6배가 넘었다. 금리인하요구권을 수용해 이자를 감면해준 금액도 신한은행이 5대 시중은행 중 가장 많았다. 신한은행 관계자는 "비대면 신청이 가능한 것은 물론 수용 여부를 판단하는 과정을 전산화해 고객이 신청한 즉시 결과를 확인할 수 있도록 만들었다"며 "일부 고객이 수십 번 신청을 반복하는 현상 등으로 수용률이 낮아지는 부작용이 있었지만, 실제 금리 인하가 이뤄진 건수·액수 등을 크게 향상시킬 수 있었다"고 설명했다. 지방은행 중에선 전북은행(38.7%), BNK경남은행(37.9%), DGB대구은행(37.2%) 등이 수용률이 높은 은행 '톱3'였다. 인터넷은행 중에서는 토스뱅크가 금리인하요구권 수용률 17.9%로 가장 낮았고 카카오뱅크는 19%, 케이뱅크는 24.6%로 나타났다.여신금융협회에 따르면 카드사들의 평균 금리인하요구권 수용률은 40.3%로, 은행보다 나았다. 카드사 중 금리인하요구권을 가장 많이 수용한 회사는 신한카드로 나타났다. 신한카드는 접수된 6542건 중 대출 4705건에 대한 금리를 인하했다. 수용률은 71.92%다. 우리카드(62.16%) 역시 신청 건수의 절반 이상을 수용했다. 수용률이 가장 낮은 카드사는 BC카드(11.92%)였다. 보험사들 역시 올 상반기 금리 인하 신청 건수 중 37.9%를 수용했다. 이를 통해 깎아준 이자 금액은 6억3000만원이다. 삼성화재가 수용률 71.8%에 달해 보험사 중 톱이었다. 미래에셋생명(56.74%)이 절반 이상의 신청을 받아들였고 흥국화재(49.20%), 한화손해보험(48.10%), 삼성생명(46.38%), 현대해상(45.80%), KB손해보험(45.80%) 등도 40% 이상을 수용했다. 다만 업계에선 금리인하 수용률을 기준으로 금융사를 선택할 때는 주의가 필요하다고 당부했다. 금융권 관계자는 "이미 낮은 금리를 적용하고 있거나 과도한 신청이 몰리는 대형 금융사는 수용률이 낮아질 수밖에 없으니 수용 건수와 이자 감면액을 종합적으로 봐야 한다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>티맵, KB와 2000억 동맹 ‘IT·금융’ 짝꿍 또 나왔다</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003218414?sid=105</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>티맵, KB 동맹            “천군만마를 얻었다.”      이종호 티맵모빌리티(이하 티맵) 대표는 22일 KB금융그룹(이하 KB)의 2000억원 투자 소식을 전하며 이렇게 말했다. SK스퀘어 자회사인 티맵과 KB의 동맹 선언이다. 티맵과 KB는 플랫폼 종사자를 위한 맞춤형 보험·대출 등 금융 혜택을 마련하는 한편, KB금융그룹 주요 계열사들과 전방위적 협업으로 시너지 효과를 키울 계획이다.      이종호 티맵 대표           이종호 티맵 대표는 이날 서울 중구 SKT 타워에서 기자 간담회를 열고 “국내 1위 금융사 KB로부터 2000억원 규모의 신규 투자를 유치했다”고 이같이 밝혔다. 이번 투자로 KB는 티맵의 4대 주주(지분 8.3%)가 됐다. 또 2020년 12월 분사 당시 1조원이던 티맵의 기업가치는 1년 8개월 만에 총 2조2000억원으로 두 배 이상 상승했다.      국내 4대 금융그룹이 비금융 정보기술(IT) 기업에 1000억원이 훌쩍 넘는 대규모 투자는 이례적이다. 앞서 KT·신한은행, SK텔레콤·하나금융그룹이 각각 총 4000억원대 지분을 맞바꾸는 혈맹을 맺은 적은 있다.      산업·업종의 경계가 허물어지는 이른바 ‘빅블러(big blur)’ 시대다. 네이버·카카오·토스 등 빅테크 기업들은 플랫폼을 무기로 금융업에 빠르게 침투 중이고, 금융권도 질 새라 금융·비금융 영역을 연계하는 방식으로 대항하고 있다. 이재근 KB 행장은 올 초 취임사를 통해 “빅테크 기업들과의 경쟁에서 확실히 승기를 잡겠다”고 강조했다. 이번 투자도 그 일환이다.      이날 티맵-KB 발표는 최근 국내 모빌리티 업계에 먹구름이 잔뜩 낀 가운데 나왔다. 쏘카는 공모가를 낮추며 이날 유가증권시장 상장했지만, 수요예측이나 청약 신청 성과가 썩 좋지 않았다. 업계 1위 카카오모빌리티도 모회사인 카카오의 매각 시도로 내홍을 겪었다. 티맵의 이 대표는 이날 “어려운 시장 환경 속에서 회사의 가치를 인정받아 매우 고무적으로 생각한다. 매출 면에서도 올해 2배 이상의 외형 성장을 기대 중”이라고 말했다.      그래픽=김현서 kim.hyeonseo12@joongang.co.kr           사실 금융과 모빌리티는 궁합이 꽤 좋은 편이다. 실제 국내·외에서 다양한 협업 사례가 확산 중이다. 동남아시아의 그랩(Grab)이 대표적인 사례다. 2012년 택시호출 서비스로 시작해 보험·대출·자산관리 등 금융업으로 영역을 확장했다. 운전자·배달기사의 소득과 운전 데이터에 기반해 소득·신용 리스크를 평가하고 개인 맞춤형 보험·대출 상품을 제공하면서 업역을 넓혔다. 국내에선 금융 플랫폼 토스(운영사 비바리퍼블리카)가 지난해 10월 그랩의 사례를 참고해 모빌리티 스타트업 ‘타다’를 인수한 바 있다.      KB·티맵 동맹도 그랩을 롤모델 삼았다. 대리운전·화물·발렛 기사 등 언더뱅크드(under banked·금융소외계층)에 속하는 플랫폼 종사자 등 특정 고객군을 겨냥한 금융 상품을 선보일 계획이다. 우선 올해 안에 대리·발렛·탁송 통합 보험을 출시한다. 또 플랫폼 종사자의 근무 일수와 업무활동, 고객 평가 등 티맵 내 활동 이력 데이터를 활용한 대안 신용평가 모델을 만들고, 이를 바탕으로 소액대출 상품을 출시할 예정이다. 여기에 전국 KB 지점 900여곳의 주차장을 티맵의 주차·발렛·전기차(EV) 충전 거점으로 활용한다. 이외에 중고차 사업 등 다양한 영역에서도 ‘윈윈’하겠다는 구상이다. 이재환 티맵 성장전략그룹장은 “티맵 사용자 1360만명, KB국민은행 모바일 앱 사용자 950만명 중에서 57.7％는 전혀 중복되지 않는다”면서 “서로 신규 고객을 유치하는 데도 도움이 될 것”이라고 말했다.      하지만, 플랫폼 사업을 하는 대기업 계열사 티맵엔 숙제가 있다. 종사자들과의 갈등 문제가 대표적이다. 최근 티맵이 콜 점유율 80%에 달하는 대리운전 중개 프로그램사(로지소프트)를 인수하자 대리운전업계는 대기업의 골목상권 침해라며 반발하고 있다. 오는 23일부터는 규탄 대회도 벌일 예정이다. 이와 관련 양성우 티맵모빌리티 CBO는 “플랫폼 종사자 대상 금융상품도 상생을 위한 노력 중 하나”라며 “기존 산업의 이해관계자들과 상생할 수 있는 방안을 찾아 나가겠다”고 말했다.      참고로, 티맵 모회사인 SK스퀘어는 올해 SK쉴더스·원스토어 등 자회사들의 상장을 추진했다가 철회한 전력이 있다. 티맵의 기업공개(IPO) 시기도 현재로선 미정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>KB·신한, 대출금리 내렸다…은행권 '금리 경쟁' 본격화(종합)</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004786733?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>[신한은행, 예대금리차 비교공시 이틀만에 최대 0.5%p 인하국민은행, 주담대 혼합형 0.2%P↓, 케이뱅크 적금 0.8%p↓은행장들 "대출금리 더 오른다, 예대금리차 축소 적극 동참 "]신한은행 본점국내 은행의 대출·예금 금리 차이를 견줘볼 수 있는 예대금리차 비교 공시 시행 이후 주요 은행들이 대출금리를 내리고 예·적금 금리를 상향하는 조치를 잇따라 내놓고 있다. 과도한 '이자장사'를 한다는 비판 여론을 의식해 은행들이 본격적인 금리 경쟁에 나서는 게 아니냐는 관측이 나온다.  신한은행은 24일부터 주택담보대출과 전세자금대출, 신용대출 등 가계대출 금리를 최대 0.5%포인트(p) 인하했다. 직장인 신용대출 등 일부 개인 신용대출 금리를 최대 0.5%p 낮췄고, 생활안정자금 용도의 주택담보대출도 고정금리와 변동금리 상품을 각각 0.2%p, 0.1%p씩 인하했다. 전세대출 역시 주택금융공사와 주택도시보증, 서울보증보험 3종 상품의 고정금리, 변동금리를 0.2%p씩 내렸다. 신한은행은 "시장 상황을 지속적으로 모니터링해 금리상승기 차주 부담 완화를 위해 주담대 및 전세대출 취급 시 고정금리 활성화 정책을 유지할 계획"이라며 "햇살론, 새희망홀씨 대출 등 서민지원대출도 확대 지원할 것"이라고 밝혔다.  신한은행은 앞서 지난 달 초 신규 취급 주담대와 전세대출 금리를 최대 0.35%p, 0.30%p씩 인하했다. 이와 함께 지난 6월 말 기준으로 연 5%를 넘는 고금리 주담대 차주의 금리를 1년간 연 5%로 일괄 감면하는 취약차주 지원 프로그램을 내놨다. 신한은행이 두 달도 안 돼 추가 대출금리 인하에 나선 건 금리 상승기 차주 지원 목적과 함께 예대금리차를 줄이려는 의도도 있어 보인다. 은행연합회 소비자포털에 지난 22일 비교 공시된 19개 국내은행 예대금리차를 보면, 지난 달 신한은행의 가계 예대금리차는 1.62%p로 경쟁 은행인 KB국민은행(1.38%p), 우리은행(1.40%p), NH농협은행(1.40%p), 하나은행(1.04%p)을 웃돌았다. 예대금리차 비교 공시는 은행들이 금리 상승기 과도한 이자 장사에 나서고 있다는 비판 여론을 고려한 조치로 윤석열 대통령의 대표적인 금융 공약이다. KB국민은행도  25일부터 고정형(혼합형) 주택담보대출 금리를 0.2%p 인하한다. 국민은행 관계자는 "금리상승기 금융 소비자의 이자부담을 완화하고 고객에게 보다 유리한 혼합금리형(고정금리형) 상품의 이용 활성화를 위해 한시적으로 혼합금리형 주택담보대출의 금리를 인하한다"고 설명했다.케이뱅크는 이날 '코드K 자유적금', '주거래우대 자유적금', 자동 목돈 모으기 서비스 '챌린지박스' 등  수신상품 3종의 금리를 최대 0.8%p 인상한다고 밝혔다. '코드K 자유적금'(1년제 기준)은 연 2.90%에서 연 3.70%로,  '주거래우대 자유적금' 금리는 연 3.20%에서 3.90%로 올랐다.  '챌린지박스'는 최대 연 3.5%가 적용된다. 케이뱅크 관계자는 "(한국은행의 추가) 기준금리 인상에 앞서 고객에게 더 높은 예금금리를 드리기 위한 것"이라고 했다. 케이뱅크의 지난달 신규 취급액 기준 예대금리차는 2.45%p로 경쟁사인 토스뱅크(5.65%p)보다는 낮았으나 카카오뱅크(2.33%p)보다는 높았다. NH농협은행은 오는 26일부터 새희망홀씨 등 서민대출에 최대 0.50%p의 우대금리를 신설하고 청년 전월세 상품에 우대금리를 확대한다. 예대금리차를 줄여 금융 소비자를 지원하는 은행들의 금리 정책은 당분간 이어질 가능성이 커 보인다. 금리 상승기 취약차주 지원을 위한 금융 민생안정 대책을 발표한 금융당국이 은행들의 적극적인 협조를 당부하고 있어서다. 특히 비교 공시 이후 예대금리차가 상대적으로 높은 은행들을 중심으로 비판 여론을 눅이기 위한 조치가 나올 것으로 예상된다.    이날 금융권 공동채용 박람회에 참석한 은행장들도 금융 소비자 부담 완화를 위해 정부 정책에 적극 호응하겠다고 입을 모았다. 진옥동 신한은행장은 "(한은) 기준금리 인상이 연말쯤 끝나더라도 (은행) 대출금리는 내년 6월까지 올라갈 가능성이 있다"며 "(취약차주 지원을 위한) 일련의 계획대로 대책을 내놓겠다"고 했다. 이원덕 우리은행장도 "시장 상황이 어렵다"며 "(은행들이 대출금리 인하에) 동참하지 않을까 한다"고 했다. 일부 은행장은 서민대출 등 상대적으로 금리가 높은 정책금융을 많이 취급할 수록 예대금리차가 커지는 왜곡 현상을 언급하고 비교 공시 제도의 보완 필요성을 강조하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>온라인 플랫폼서 예적금·보험 한 눈에 비교한다</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002603492?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>금융위 규제 완화로 기존 금융사-빅테크 경쟁 촉진은행앱에서 건강보험·공과금 관리클립아트코리아앞으로 온라인 플랫폼에서 각 금융사 예·적금과 보험 상품을 한 눈에 비교하는 것이 가능해진다. 또 은행 앱에서 건강보험 납입, 세금 고지서 등을 관리할 수 있다. 정부가 규제 완화로 기존 금융사와 빅테크 간 경쟁을 촉진하는 모양새다. 금융위원회는 23일 제2차 금융규제혁신회의에서 이 같은 방안을 발표했다. 지난달 금융위는 금융산업 발전을 위해 금융자본의 산업자본 소유에 한정해 금산분리 규제를 풀겠다고 밝힌 바 있다. 은행들의 부수업무 범위가 넓어진다. 현재는 은행업무와 연관성이 있는 것만 가능하다. 금융위는 부수업무 해당 여부를 유연하게 해석해 전자문서중계, 본인확인서비스 등 각종 플랫폼 서비스를 허용하기로 했다. 향후 소비자들은 은행 앱에서 국민연금 가입내용, 건강보험 납입내용, 세금 및 공과금 고지서 등을 통합 관리할 수 있을 전망이다. 또 일일이 앱을 다운 받을 필요 없이 통합앱 하나로 은행, 보험, 카드, 증권 서비스를 모두 이용할 수 있는 길도 열린다. 소비자의 금융 상품 선택권도 확대된다. 금융위는 정기 예·적금, 보험, 온라인투자연계금융(P2P) 상품의 온라인 판매중개업을 시범 운영하기로 했다. 온라인 플랫폼에서 해당 상품에 대해 금융사별로 비교해 볼 수 있으며, 추천도 받을 수 있다는 얘기다. 지금은 대출 상품에 대해서만 온라인 중개가 이뤄지고 있다.규제가 풀리면 카카오페이·토스·네이버파이낸셜 등 금융 플랫폼에서 소비자들은 다양한 예·적금 및 보험 상품 등을 비교해 보고, 자신에게 유리한 곳을 고를 수 있다. 또 반대로 은행, 보험사 등 기존 금융사에게도 온라인 중개업이 허용되기 때문에 상품 비교 시장의 경쟁이 치열해질 것으로 예상된다. 금융위는 기존 금융사와 빅테크 경쟁 속에서 소비자 편익이 증진되는 것을 기대하고 있다.다만 규제 완화에 따른 부작용도 있다. 온라인 플랫폼에 소비자가 종속될 수 있다는 우려다. 온라인 플랫폼이 불공정한 알고리즘으로 금융상품을 비교·추천해줄 경우 소비자 피해가 발생할 수 있다. 또 플랫폼이 우월적 지위를 바탕으로 과도한 중개 수수료를 요구할 가능성도 존재한다. 이에 금융위는 일단 취급할 수 있는 예금상품을 정기 예·적금으로 한정하고, 보험상품에서도 소비자 피해 우려가 큰 종신, 변액, 외화보험 등은 허용 범위에서 제외하기로 했다. 아울러 플랫폼 알고리즘의 경우 공정성을 검증할 계획이며, 중개 수수료는 상한을 제한하거나 공시 의무를 부과하기로 했다.기존 금융사와 빅테크는 규제 완화를 환영하면서도 물밑에서 치열한 영역 다툼을 벌이는 모습이다. 빅테크 업계 관계자는 “플랫폼 기업에 허용되지 않던 예금과 보험 비교·추천 서비스를 열어주는 것은 환영할 일”이라면서도 “금융상품의 비교·추천뿐만 아니라 판매도 허용하고, 예금의 경우 수시입출금 상품도 허용했어야 소비자 편익을 늘린다는 명분에 부합했을 것”이라고 말했다.은행권 관계자는 “예금 상품 온라인 중개업의 경우 빅테크 중심이 되면 문제가 생길 것이라는 은행권 반발에 기존 금융사도 진출을 허용한 것 같다”며 “그러나 네이버 등 빅테크가 이미 광범위한 플랫폼을 가지고 있으므로 개별 은행들이 경쟁하기는 쉽지 않을 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>신한銀, 가계 예대금리 차 1.62%P… 5대 은행중 가장 커</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003446844?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>우리-농협 1.40%P… 국민 1.38%P은행聯 매달 공시해 ‘이자장사’ 제동신규 주담대 금리 케이뱅크 ‘최저’고신용자 신용대출 하나은행 ‘유리’모든 은행의 예대금리 차(대출 금리와 예금 금리의 차이)가 22일 처음으로 공시된 가운데 5대 시중은행 중 신한은행의 가계 예대금리 차가 1.62%포인트로 가장 큰 것으로 나타났다. 모든 은행을 통틀어 신규 주택담보대출 금리는 케이뱅크가 가장 낮았고 신용대출은 하나은행에서 받는 것이 유리했다.  전국은행연합회는 22일 소비자포털(portal.kfb.or.kr)을 통해 은행들이 지난달 신규 취급한 대출 및 예금의 평균 금리를 비롯해 예대금리 차를 공시했다.  이에 따르면 지난달 가계 예대금리 차가 가장 큰 은행은 전북은행이었다. 전북은행은 가계대출 금리가 9.46%, 저축성 수신 금리가 3.13%로 가계 예대금리 차는 6.33%포인트였다. 저신용자를 대상으로 하는 정책 대출 상품인 햇살론 등을 많이 취급한 영향으로 풀이된다. 5대 시중은행 중에는 신한은행(1.62%포인트)의 가계 예대금리 차가 가장 크게 벌어졌다. 이어 우리은행 및 NH농협은행(1.40%포인트), KB국민은행(1.38%포인트), 하나은행(1.04%포인트) 순이었다. 인터넷전문은행들은 시중은행이나 지방은행에 비해 예대금리 차가 더 컸다. 케이뱅크가 2.46%포인트, 카카오뱅크가 2.33%포인트였고 토스뱅크는 5.60%포인트나 됐다. 금리가 상대적으로 높은 중·저신용자에 대한 대출이 많기 때문이다. 7월 신규 취급액 기준 인터넷은행의 중·저신용 대출 비중은 평균 31.1%로 5대 은행보다 16.8%포인트 높다.  은행연합회는 앞으로 매달 20일 소비자포털에 예대금리 차를 공시할 방침이다. 소비자들이 월별 변동 추이를 알 수 있도록 신규 취급액 기준으로 공개한다. 이에 따라 그동안 대출 금리는 빠르게 올리고 예·적금 금리는 비교적 더디게 올렸던 은행권의 ‘이자 장사’에 제동이 걸릴 것이라는 예상이 나온다. 아울러 이날 대출 금리도 개인 신용점수(0∼1000점)를 9단계로 나눠 구간별로 공개됐다. 지난달 분할 상환식 주택담보대출의 평균 금리는 전북은행이 연 5.29%로 가장 높았다. 평균 금리가 가장 낮은 곳은 케이뱅크(4.09%)였다. 5대 은행 중에서는 우리은행 평균 금리가 4.65%로 가장 높았고 국민은행(4.13%)이 가장 낮았다. 일반 신용대출(서민금융 제외) 평균 금리도 전북은행이 9.34%로 가장 높았다. 가장 낮은 곳은 하나은행(4.34%)이었다. 다만 신용점수에 따라 금리가 낮은 은행은 달라졌다. 신용점수 951∼1000점인 고신용자의 주택담보대출 금리는 SC제일은행(4.03%)이, 신용대출 금리는 하나은행(4.28%)이 가장 낮았다. 반면 신용점수 801∼850점인 중·저신용자의 경우 주담대 금리는 BNK경남은행(4.03%)이, 신용대출은 KB국민은행(5.68%)에서 받아야 유리했다. 지난달 예·적금 평균 금리는 한국씨티은행(3.74%), 제주은행(3.32%) 등의 순으로 높았다. 소매금융 철수를 결정한 씨티은행은 예·적금 연장이 신규 취급으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>QR코드로 전자증명서 발급·제출 더 쉽게…스티커 배포</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011389299?sid=100</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>기사내용 요약행안부, 전자증명서 발급·제출용 스티커 배포  [세종=뉴시스] 모바일 전자증명서 발급·제출용 QR코드 스티커 예시. (자료= 행정안전부 제공) [세종=뉴시스] 변해정 기자 = 모바일 전자증명서 이용이 더 간편해진다.  행정안전부는 모바일 전자증명서 발급·제출용 QR코드 스티커를 제작해 행정·공공기관과 시중은행 등에 배포한다고 29일 밝혔다.  모바일 전자증명서는 가족관계 확인, 금융·통신상품 가입,국내선 항공기 탑승시 신분확인 등 국민 생활과 밀접한 업무 처리 시 종이증명서를 대신 활용되고 있다. 각급 기관 민원창구 등에 비치된 QR코드 스티커를 스마트폰 카메라로 촬영하면 행정서비스통합포털인 정부24(www.gov.kr) 또는 네이버앱, 카카오톡, 토스, KB국민은행 스타뱅킹앱 등 20개 민간 모바일 앱으로 바로 연결된다. 해당 앱에서 필요한 전자증명서를 발급 신청하면 된다. 전자증명서를 제출할 때에도 QR코드 스티커를 스마트폰 카메라로 촬영하면 기관의 전자문서지갑이 자동 인식돼 제출 버튼만 누르면 된다. 제출 시 담당 직원에게는 6자리의 열람코드만 공유하면 된다. 황규철 행안부 공공지능정책관은 "모바일 전자증명서 QR코드를 통해 전자증명서 활용이 보다 확대되고 국민생활이 더 편리해지기를 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.08.17.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>4대 은행 ATM 6개월 새 6000대 사라졌다… “현금 대신 간편결제”</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000834678?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>은행 현금자동입출금기(ATM)가 점차 사라지고 있다. KB국민·신한·우리·하나 등 4대 시중은행이 전국 곳곳에 배치 운영 중인 자동화기기(ATM)는 6개월 새 약 6000대가 줄었다. 현금 수요는 줄고, 결제와 입·출금 등 각종 금융 거래를 온라인으로 하는 경향이 짙어진 영향이다.17일 4대 금융지주가 각각 공시한 반기 보고서에 따르면, 4대 은행의 지난 6월 말 ATM 수는 작년 12월 말(1만8457대)보다 5887대(약 32%) 줄어든 총 1만2570대로 집계됐다. 2020년 말 4대 은행 전국 ATM 수는 1만9539대였다.그래픽=손민균  전국서 사라지는 ATM… 영업지점도 꾸준히 줄어        4대 은행 모두 ATM을 줄이는 추세다. 6월말 기준 현재 KB국민은행의 ATM 수는 4984대로, 전년 말보다 331대 줄었다. 신한은행 ATM은 전년 말보다 268대 줄어든 4966대다. 우리은행은 전년 말보다 273대 줄여 4070대를, 하나은행은 전년 말보다 31대 줄인 3534대를 각각 운영 중이다.은행들은 ATM을 찾는 발길이 줄어들고 있기 때문이라고 말한다. 현금 대신 스마트폰 은행 앱과 간편결제 서비스, 신용카드 등을 이용하는 사람들이 늘어나는 등 금융 거래의 중심축이 현금·오프라인에서 디지털·온라인으로 옮겨가는 영향이 크다.업계에 따르면, ATM 한 대 당 구입·설치 비용 1000만원 안팎이다. 반면 은행이 받는 ATM 수수료는 건당 700원~1600원대(영업시간외 포함)다. 은행 입장에선 수요는 줄어든 반면 유지·보수 비용이 발생하다 보니 ATM이 수익에는 큰 도움이 안 되는 것이다.이러한 현상은 은행들이 영업지점 수를 줄이는 통·폐합을 이어가는 이유이기도 하다. 4대 은행 점포 수는 작년 3303개 지점에서 6월 말 기준 2754개 지점으로 줄어든 것으로 집계됐다. 간편결제 경쟁 격화… 시장 규모 지난해 35% 성장        은행과 카드, 보험사를 거느린 주요 금융그룹들은 급성장하는 간편결제 시장을 잡기 위한 디지털 경쟁력 강화에 열을 올리고 있다. 간편결제란 은행 계좌나 신용카드를 스마트폰 애플리케이션 등에 등록해 지문인식이나 비밀번호 입력만으로 비용을 지불하는 서비스를 말한다.한국은행이 올해 초 낸 ‘2021년 전자지급서비스 이용 현황 데이터’를 토대로 추정한 작년 간편결제 서비스 총 이용 금액은 약 221조원으로 전년 동기 대비 35% 늘었다.삼성의 스마트폰 결제 시스템 '삼성페이' 시연 모습        현재 4대 은행은 간편결제 시장에서 금융업계 후발주자보다 뒤처져 있다는 평가를 받는다. 삼성, 카카오, 네이버, 토스 등은 ‘페이(PAY·간편결제)’ 서비스를 기반으로 금융시장에서의 고객과 점유율을 확대하며 급성장했다. 최근에는 국내 유통가에서도 자체 결제 시스템 구축 움직임이 활발하다.이런 시장 환경 변화는 기존 금융업계에는 위협적 상황이기도 하다. 금융 소비자의 이용 경향이 단순히 간편 결제와 송금 서비스에서 그치지 않고 선불·계좌 연동·여수신 등으로 이어지기 때문이다.한 업계 관계자는 “간편 송금, 정산 등으로 플랫폼에 처음 유입된 사용자들이 대출·투자·보험 등 금융서비스를 교차 사용하면서 실질적인 매출 증가에 기여하는 현상이 두드러지고 있다”면서 “이 때문에 은행을 비롯한 금융사들이 간편결제 서비스를 강화하며 고객 확보 경쟁을 벌이고 있는 것”이라고 설명했다.우리금융그룹은 이달 우리은행과 우리카드가 함께 ‘통합결제 플랫폼’을 내놨다. 우리은행 계좌나 우리카드를 보유하고 있지 않은 개인고객도 우리은행 우리WON뱅킹이나 우리카드 애플리케이션에서 그룹 통합결제 플랫폼을 간편결제 수단으로 이용할 수 있도록 개방한 데 초점을 뒀다.KB국민은행은 Z세대를 겨냥한 앱 ‘리브 Next’ 내에 페이(Pay) 기능을 탑재하고, 리브포켓에서 이용할 수 있는 결제수단과 결제채널을 확대했다. 카카오페이는 지난달 애플워치에서도 결제가 가능한 카카오페이앱 최신 버전을 선보였다. 네이버페이는 오프라인 현장 결제를 늘리기 위해 오프라인 가맹점을 늘리고, 포인트를 주는 혜택도 마련했다.간편결제 시장을 두고 벌이는 경쟁은 더욱 치열해질 전망이다. 조아해 삼성증권 금융팀 애널리스트는 “간편결제 서비스 시장에 뛰어든 결제사들은 최근 국내 온·오프라인을 넘어 해외 영역까지 결제 환경을 다변화하고 있고, 디지털 화폐 기반 결제 시스템도 구축해 나가고 있다”면서 “결제 외에도 대출중개, MTS 등 다양한 금융서비스를 제공하는 금융 플랫폼으로 진화하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.08.17.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>보험대리점업계 "토스 등 플랫폼 내 보험 비교서비스 반대"</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004737951?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>보험대리점협회, 금융당국 플랫폼 규제 완화 움직임에 거센 반발"빅테크의 우월적 지위로 독과점 및 골목상권 침해 등 우려""45만여 보험설계사 생존권도 위협…정책 철회 위해 적극 대응"사진=한경DB보험대리점업계가 카카오 토스 등 플랫폼 내 보험 비교서비스를 허용하려는 금융당국의 규제 완화 움직임에 대해 강하게 반발하고 있다. 보험대리점협회는 17일 당국에서 빅테크의 보험 판매업을 허용하는 취지의 혁신금융서비스(금융규제 샌드박스) 지정이 추진되고 있는 데 대해 독과점 및 골목상권 침해 등 우려가 크다며 반대 의사를 밝혔다. 금융위는 지난해 9월 카카오 토스 등 플랫폼 내에서 이뤄지던 보험상품 비교 추천 서비스를 금융소비자보호법상 광고가 아닌 중개 행위로 해석해 이를 사실상 금지했다. 그러자 비슷한 서비스를 개발 운영해왔던 핀테크 스타트업들이 '개점 휴업' 상태에 돌입하면서 고사 위기에 놓였고 금융위도 고심 끝에 규제를 한시적으로 풀어주는 금융규제 샌드박스를 활용해 이들의 활로를 열어주는 방안을 검토해 왔다. 금융규제 샌드박스는 2018년 관련법 제정을 통해 소비자 편익 증대나 관련 일자리 창출 등을 목적으로 신규 혁신 서비스에 기존 금융규제를 최장 4년간 유예하는 제도다. 이처럼 규제가 한시적으로 풀리게 되면 다양한 핀테크 서비스가 활성화될 것이라는 게 당국의 판단이다. 그러나 보험대리점 업계는 빅테크의 보험대리점 허용은 차별성 없는 혁신에 불과하며 우월적 지위 남용에 따른 골목상권 침해 우려가 크다고 맞서고 있다. 보험대리점협회 관계자는 "막대한 자금력과 수천만 고객정보(DB)를 보유한 거대 플랫폼이 보험대리점 시장에 진입하면 중소형 보험사 등에 과다한 수수료를 요구하는 등 불공정 거래가 발생할 소지가 크다"고 내다봤다. 이 관계자는 또 "45만여 보험대리점 설계사의 생존권을 위협하고 고용 불안을 초래할 빅테크의 보험대리점 진출을 막기 위해 앞으로 적극적인 대응 활동을 펼쳐 나갈 것"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>네·카·토 대표 만난 금감원장 "금융플랫폼 공정·투명하게 운영해달라"</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006305181?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>"플랫폼, 금융산업 내 영향력↑…'책임있는 금융혁신' 당부"이복현 금융감독원 원장. 2022.7.15/뉴스1 ⓒ News1 조태형 기자(서울=뉴스1) 한유주 기자 = 이복현 금융감독원장이 네이버파이낸셜·카카오페이·토스 등 빅테크 업계 대표들과 만나 "다양한 이해관계자들이 공생할 수 있도록 금융플랫폼을 공정하고 투명하게 운영해달라"고 당부했다.이 원장은 30일 서울 마포구 프론트원에서 열린 빅테크·핀테크 CEO 간담회 모두발언에서 빅테크·핀테크 기업의 '책임있는 금융혁신'을 당부하며 이같이 말했다.이 원장은 "국민 생활과 밀접한 플랫폼 수수료는 그간 국회 등 사회 다방면에서 문제 제기가 있었다"며 "금융감독원은 간편결제 수수료에 대해 공시방안을 추진하고 있다"고 말했다. 그간 빅테크의 간편결제 수수료가 카드사보다 높아 소상공인에게 부담이 된다는 지적이 있었고, 이에 금감원은 간편결제 수수료 공시를 통해 '자율경쟁'을 붙이는 방안을 추진 중이다. 하지만 플랫폼 업계는 수수료 책정 기준이 회사 별로 제각각인데다 사실상 '원가 공개'나 다름없다며 난색을 보이고 있다.이를 의식한 듯 이 원장은 "수수료는 시장참여자에 의해 자율적으로 결정될 사안으로 감독당국은 이에 직접 개입할 의사가 없으며, 공시방안도 이해관계자들의 의견을 충분히 수렴해 마련하겠다"고 말했다.이 원장은 또 "가까운 미래에는 국민 대다수가 핀테크가 설계한 알고리즘에 기대 금융상품을 선택하는 시대가 도래할 수도 있다"면서 "알고리즘이 플랫폼의 이익이 아니라 소비자의 이익을 최우선시 할 수 있도록 지속적으로 검증해달라"고 당부했다.고객 정보 보호, 사이버보안의 중요성도 강조했다. 그는 "소비자 정보주권을 최우선가치로 고객정보를 수집·활용해달라"며 "소비자가 원치 않는 경우 플랫폼의 앱 화면 등에서 정보동의 철회권도 쉽게 행사할 수 있도록 노력해달라"고 말했다.이 원장은 "빅테크·핀테크의 창의와 기술, 기존 금융회사의 금융 노하우와 업력 등 각자의 장점을 활용해 다같이 협업하는 생태계로 발전시켜 나가야 한다"면서 "금감원도 디지털 환경에 적합하지 않은 감독 관행과 규제를 과감히 개선해 나가겠다"고 말했다. 그는 간담회 시작 프론트원에 위치한 DT(Digital Testbed)존과 일자리 창출존을 방문해 예비 스타트업과 디지털금융의 혁신을 지원하겠다는 의지를 밝히기도 했다. 그는 "금감원은 금융중심지지원센터를 통해 해외 IR을 개최해 국내 유망 핀테크사가 신규 시장을 개척하고 투자 유치도 원활히 할 수 있도록 지원할 예정"이라며 "금감원 직원 11명으로 구성된 핀테크 현장자문단은 핀테크지원센터와의 공조를 통해 원스톱 인큐베이팅 서비스를 실시할 예정"이라고 말했다.한편 이날 간담회에는 이근주 한국핀테크산업협회 회장과 변영한 한국핀테크지원센터 이사장을 포함한 빅테크·핀테크 업계 관계자 11명이 자리했다. 박상진 네이버파이낸셜 대표, 신원근 카카오페이 대표, 이승건 비바리퍼블리카(토스) 대표를 비롯해, 뮤직카우·스몰티켓·아이콘루프·에임스·카사코리아·크레파스솔루션 등 빅테크·핀테크 기업 대표들도 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.08.17.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>롯데카드, 현대카드 제치고 순이익 4위로… 매각 작업 탄력받나</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000834784?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>롯데카드, 2013년 이후 처음으로 순이익 규모 현대카드 제쳐  “신용판매 확대·금융사업 확대로 실적 개선”  대주주 MBK파트너스, 롯데카드 공개 매각 전환        카드업계에서 ‘만년 5위’로 꼽혀온 롯데카드가 현대카드를 제치고 올 상반기 순이익 4위로 올라섰다. 업계에서는 이번 실적 개선을 발판으로 최근 지지부진한 매각 작업이 탄력을 받을 수 있을지 지켜보는 분위기다.서울 광화문에 위치한 롯데카드 신사옥 전경.        17일 카드업계에 따르면 롯데카드는 올 상반기에 전년 동기 대비 63.2% 늘어난 1772억원의 당기순이익을 기록, 1557억원에 그친 현대카드를 제쳤다. 이는 신한카드, 삼성카드, KB국민카드에 이어 국내 카드사 중 네 번째로 많은 순이익이다. 롯데카드가 현대카드보다 많은 순이익을 기록한 것은 지난 2013년 이후 처음이다.현대카드 측은 롯데카드에 4위 자리를 내준 데 대해 기준금리 상승 영향으로 이자 비용이 증가한 데다, 디지털 인력을 늘리며 영업 비용도 늘었기 때문이라고 설명했다.반면 롯데카드는 전략 상품인 ‘로카시리즈’에 대한 마케팅 강화로 누적 회원 수가 200만명을 넘어서는 등 고객층이 두터워지면서 신용판매 사업의 수익성이 개선돼 순이익이 급증했다.롯데카드 관계자는 이와 함께 “리스크 관리 강화 전략에 기반한 자산 건전성 개선, 금융 사업 확대를 통한 수익 확대, 로카모빌리티 등 자회사들의 실적이 개선됐다”고 설명했다.KT 광화문 사옥(왼쪽), 우리금융그룹 사옥 전경        롯데카드는 상반기 실적 개선으로 회사 매각 작업에 속도가 붙을 것으로 기대하고 있다. 현재 MBK파트너스는 JP모건을 매각 주관사로 선정해 롯데카드 매각을 진행하고 있다. MBK파트너스는 롯데카드 지분 59.83%를 보유한 대주주다.최근 MBK파트너스의 롯데카드 매각 작업은 지지부진한 상황이다. 앞서 인수 유력 후보로 꼽혔던 우리금융지주와 KT 모두 인수를 고사하는 상황인 것으로 전해졌다. MBK파트너스는 지난 2019년 롯데카드를 1조3810억원에 인수했는데, 현재 매각 희망가격은 3조원 안팎에 달해 인수 후보자들이 발을 빼는 형국이다.그러나 일각에서는 롯데카드의 최근 실적 성장세를 볼 때 3조원이 높은 가격은 아니라는 주장도 나오고 있다. 롯데카드의 당기순이익은 2019년 571억, 2020년 1307억원, 2021년 2414억원으로 매년 증가세다.특히 MBK파트너스는 롯데카드의 강점으로 선불교통카드 시장에서의 과점력을 내세우고 있다. 현재 교통카드 시장에서 1위 사업자인 한국스마트카드(티머니)를 제외하고 ‘캐시비’ 등 모든 국내 사업자들이 롯데카드의 자회사다.MBK파트너스는 그동안 물 밑에서 진행해오던 롯데카드 매각을 이달부터 공개 매각으로 전환했다. 기존 유력 인수 후보자로 분류되는 우리금융, 하나금융, KT뿐 아니라 카카오, 토스 등 빅테크 기업에도 투자안내서를 보내 매각 의사를 전한 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.08.16.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>"다이어트 성공하려면 생존 스위치 활성화 막아야"</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013378654?sid=103</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>'자연은 우리가 살찌기를 바란다' 출간 저자 사진[시프 제공. 재판매 및 DB금지]    (서울=연합뉴스) 송광호 기자 = 다이어트를 하고, 운동을 해도 그때뿐이다. 한번 찌기 시작한 살은 다시 줄어들었다가 어느 정도 시간이 지나면 다시 원상태로 되돌아가는 경우가 다반사다. 왜 그런 걸까?    미국 콜로라도대 의학과 교수이자 임상과학자인 리처드 J. 존슨은 진화 과정에서 우리 몸에 생성된 "생존 스위치가 작동하기 때문"이라고 말한다. 최근 번역돼 출간된 '자연은 우리가 살찌기를 바란다'(시프)를 통해서다.    저자에 따르면 생존 스위치란 자연에 사는 동물이 먹이를 구할 수 없을 때 자신을 보호할 수 있도록 행동뿐 아니라 신체적 변화, 대사활동과 관련한 다양한 변화를 불러일으키는 체내 시스템을 말한다.     이런 생존 스위치는 주로 당류의 일종인 프럭토스를 통해 활성화된다. 프럭토스의 주요 특징은 동물이 지방을 저장하도록 돕는 것이다. 먹이를 구할 수 없을 때 동물들은 지방을 분해해서 에너지를 공급받는다.    문제는 빙하기 등 식량을 구하기 어려운 시기 산물인 이 생존 스위치가 하루 세끼를 규칙적으로 먹을 수 있는 현재까지도 켜져 있다는 데 있다. 저자는 이 생존 스위치를 살이 찌는 주범으로 본다.    생존 스위치를 활성화하는 프럭토스는 비만과 관련해 또 다른 문제를 일으킨다. 렙틴 저항성을 부추긴다는 것이다.    렙틴은 뇌의 시상하부를 자극해 '그만 먹으라'는 신호를 몸에 보내는 호르몬인데, 프럭토스는 지방을 쌓이게 하는 것도 모자라 렙틴 저항성을 늘려 음식에 대한 갈망을 키운다.    더구나 인류의 주식인 쌀밥이나 빵에 많이 들어있는 글루코스(포도당)가 체내로 들어가서 프럭토스로 전환되고, 이는 생존 스위치를 활성화한다. 이런 음식에 풍미를 더하는 염분이나 인공감미료는 프럭토스의 섭취를 부추긴다.코로나 2년 '아이들이 살쪘다'…학생 비만율 상승(CG)[연합뉴스TV 제공]    그렇다면 생존 스위치의 활성화를 어떻게 하면 막을 수 있을까. 딱히 묘약은 없어 보인다. 저자는 빵이나 백미 등 혈당지수가 높은 탄수화물 대신 혈당지수가 낮은 탄수화물을 택하고, 프럭토스의 섭취를 부추기는 염분과 인공감미료의 섭취를 줄이며 물을 많이 마시라고 권고한다. 간헐적 단식도 도움이 된다고 제안한다.    아울러 우리 몸의 에너지(ATP)를 만드는 '미토콘드리아 공장'을 활성화해야 한다고 주문한다. 저자에 따르면 프럭토스를 섭취하면 요산이 생성되며, 요산은 미토콘드리아에 산화 스트레스를 가한다. 이 산화 스트레스 때문에 ATP 생성이 감소하고 칼로리가 지방으로 전환된다.    저자는 미토콘드리아를 활성화하기 위해서는 웨이트 등 근육운동보다는 걷기, 러닝머신, 수영, 사이클링 등 지구력 운동을 최소 1시간 이상, 주 3~4회 지속해서 하는 게 도움이 된다고 설명한다.     저자는 "노화의 발생 원인도 미토콘드리아에 대한 산화 스트레스의 만성적 영향으로 추정된다"며 "미토콘드리아의 성장을 촉진하면 해독제를 제공하는 역할을 할 수 있다"고 말한다.    최경은 옮김. 424쪽. 2만5천 원. 책 표지 이미지[시프 제공. 재판매 및 DB금지]    buff27@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>카페24, 인터넷전문은행 대출 서비스 연동</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002266261?sid=105</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>‘토스뱅크 사장님 대출’·‘웰컴쇼핑몰판매자론’ 앱 자사 스토어에 출시온라인 사업자들이 사업 자금 확보를 위한 더 다양한 금융서비스를 이용할 수 있게 됐다.카페24(대표 이재석)는 온라인 사업자를 위한 비대면 금융 서비스 '토스뱅크 사장님 대출'과 '웰컴저축은행 쇼핑몰판매자론' 앱 2종이 자사 스토어에 출시됐다고 25일 밝혔다.카페24는 지난해 제1금융권 은행인 KB국민은행과 손잡고 자사 플랫폼 기반 온라인 사업자를 위한 무담보 금융 서비스 '매출더하기론'을 선보인 바 있다. 이번에는 인터넷전문은행과 제2금융권과의 협력을 더해 온라인 사업자를 위한 금융 상품을 확대해 선보인다.카페24, 금융서비스 지원 확대…누구나 손쉽게 사업 자금 확보하는 환경 조성토스뱅크 사장님 대출은 무보증·무담보 개인사업자 대출 서비스다. 기존 은행 대출보다 훨씬 간편해 운영하는 쇼핑몰 규모 등에 관계없이 누구나 손쉽게 접근할 수 있는 것이 특징이다. '4無(무서류, 무방문, 무담보, 무보증)'를 내세워 대출 절차를 대폭 간소화했으며, 온라인 사업자는 대출 신청부터 실행 단계까지 전부 비대면으로 진행할 수 있다. 보증기관의 보증서나 고객 부동산 담보 등을 확인하는 대신 개인 신용에 따라 최대 1억원까지 대출받을 수 있다. 카페24 고객은 최대 0.5%p 추가 금리혜택도 받을 수 있다.웰컴저축은행 쇼핑몰판매자론은 온라인 매출 정산 금액을 기반으로 사업자의 상환능력을 평가해 최대 5천만원까지 대출 한도를 부여한다. 최대 신용등급 7등급에 해당하는 저신용자도 이용할 수 있어 특히 초기 창업자나 신파일러(Thin Filer, 금융 이력이 부족한 사람)가 많은 도움을 받을 것으로 보인다.이번 금융 서비스 확대로 사업 자금을 한층 쉽게 조달할 수 있게 돼, 초기 온라인 창업자가 창업 기반을 강화하는 데 도움이 될 것으로 기대된다. 또 기존 사업자는 비즈니스 확장의 토대를 마련할 수 있을 것으로 예상된다.카페24 플랫폼을 이용하는 온라인 사업자 누구나 '카페24 스토어'나 카페24 금융정보 페이지에서 앱을 내려받아 클릭 몇 번만으로 간편하게 사업 자금을 확보할 수 있다.이재석 카페24 대표는 "온라인 사업을 성장시키기 위해서는 적절히 자금을 투입하고 운용하는 것이 필수"라며 "앞으로도 다양한 파트너와 제휴하는 '초연결' 바탕으로 사업자의 금융 장벽을 해소해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.08.27.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>[VC’s Pick] 상장 앞두고 막판 스퍼트…토스·기가비스 투자 유치</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005303007?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[이데일리 김연지 기자] 이번 주(8월 22일~26일)에는 인공지능(AI)과 반도체, 농축수산물 무역, 스포츠 예측 게임 등 다양한 분야의 스타트업이 벤처캐피털(VC)과 액셀러레이터(AC)로부터 투자를 유치했다. 특히 기업공개(IPO)를 앞둔 기업들이 시리즈D를 비롯한 후기 단계 투자를 속속 유치했다.(사진=이미지투데이) 반도체 패키지용 회로검사 ‘기가비스’코스닥 상장을 추진 중인 반도체 패키지용 회로검사 기업 기가비스는 페블즈자산운용과 타임폴리오자산운용, 스틱벤처스 등으로부터 400억원 규모의 프리IPO 투자를 유치했다. 기가비스는 지난 2004년 설립된 반도체 패키지용 회로검사 기업이다. FC-BGA 등 고사양 반도체 패키지용 기판 AOI(자동광학검사기) 장비분야에서 글로벌 시장점유율 1위를 기록하고 있다.투자사들은 기가비스가 FC-BGA 제조업체의 AOI 장비를 과점하고 있다는 점과 AOR 등 매출 포트폴리오 다변화가 성공적으로 진행되고 있는 점, FC-BGA 시장의 성장성 등을 높게 평가했다. 기가비스는 이번 투자로 기술 고도화에 나서 반도체 패키지용 회로검사 글로벌 선도기업으로 나아가겠다는 계획이다. 기업가치 8조5000억…비바리퍼블리카(토스)비바리퍼블리카는 는 굿워터캐피털과 하베스트그로쓰캐피털, 페블스 등으로부터 2300억원 규모의 투자를 추가로 유치했다. 지난달말 3000억원의 투자를 유치한 데 이어 시리즈G 라운드를 통해 총 5300억원의 신규 투자를 유치한 것이다. 기업가치는 8조5000억원으로 평가받았다. 투자사들은 회사의 성장성과 수익성에 큰 점수를 줬다. 회사 측은 이번에 마련한 자금을 토스증권·토스뱅크의 자본확충, 토스페이먼츠·토스플레이스의 신사업 확장에 투입할 예정이다.  농축수산물 무역 플랫폼 ‘트릿지’트릿지는 DS자산운용으로부터  500억원 규모 시리즈D 투자를 유치했다. 이번 투자로 트릿지는 3조6000억원 수준의 기업가치를 인정받으며 국내 농식품 분야 스타트업 중에서는 최초로 유니콘(기업가치 1조원 이상 비상장사) 반열에 올랐다. 지난 2015년 설립된 트릿지는 농산물 무역 플랫폼 스타트업이다. 자체 구축한 농산물 데이터 플랫폼과 풀필먼트 서비스를 통해 농산물 시장의 정보 비대칭과 비효율을 줄이는 것을 목표로 한다. 델몬트와 월마트, 까르푸 등 도소매 기업 뿐만 아니라 호주 농림부, 싱가포르 식품청, 맥킨지 등 국내외 기관을 고객으로 확보했다.투자사는 트릿지의 성장성을 높이 평가했다. 실제 회사는 지난해 하반기 포레스트파트너스로부터 700억원을 투자받으며 6000억원 수준의 기업가치를 인정받았는데 1년도 채 되지 않아 6배가 넘는 기업가치 성장세를 기록했다. 트릿지는 이번 투자금으로 서비스 고도화와 해외 법인 설립 및 확장, 신규 서비스 출시, 해외 네트워크 강화 등에 힘쓴다는 계획이다.  AI 실시간 모션 인식 버추얼 캐릭터 렌더링 ‘플룸디’플룸디는 퓨처플레이로부터 시드 투자를 유치했다. 투자 규모는 비공개다.플룸디는 3명의 한국과학기술원(KAIST) 재학생들이 지난 6월 창업한 기업으로, 자체 개발한 AI 알고리즘을 활용해 사용자의 행동과 표정을 실시간으로 따라하는 버추얼 휴먼(가상 인간)을 렌더링하는 기술을 개발한다. 회사는 통상 모션 캡처에 소요되는 막대한 비용을 줄이는 것을 목표로 한다. 퓨처플레이는 플룸디의 기술력을 높이 평가했다. 실제 플룸디가 개발한 ‘마커리스 모션 캡처’ 기술과 이를 기반으로 버추얼 휴먼을 렌더링하는 기술은 기존 기술의 한계를 극복해 가상 인간 및 아바타 생성 비용을 13배 이상 절감했다.  스포츠 선수 예측 게임 ‘라인업’글로벌 스포츠 선수를 실시간으로 주식처럼 거래할 수 있는 스포츠 선수 예측 게임 플랫폼 ‘라인업’은 패스트벤처스로부터 시드 투자를 유치했다. 투자 금액은 미공개다.라인업은 글로벌 시장을 타깃으로 한 스포츠 선수 예측 게임 플랫폼이다. 공정한 경쟁으로 스포츠 예측 게임 시장을 재탄생시킨다는 목표로 설립됐다. 경기 결과를 예측해 베팅하는 기존 스포츠 예측 플랫폼들과는 달리 스포츠 선수 개개인에게 장기적 투자를 할 수 있는 게 특징이다. 패스트벤처스는 라인업 팀의 실행력과 성장성을 높이 평가했다. 라인업 팀의 빠른 실행력을 바탕으로 시장에 파급력 있는 훌륭한 서비스를 만들어나갈 것이라는 평가다. 라인업은 이번 투자 유치를 계기로 내달 미국 프로 풋볼(NFL) 시즌 개막에 맞춰 오픈 베타(beta) 서비스를 미국에서 선보일 예정이다.  비행체 안전진단 솔루션 ‘위플로’AI와 빅데이터 분석을 통해 비행체 안전진단·케어 솔루션을 제공하는 ‘위플로’는 카카오벤처스와 롯데벤처스, 베이스인베이스트먼트 등으로부터 시드 투자를 유치했다. 투자 금액은 비공개다.위플로는 자체 개발한 비접촉식 센서와 AI, 빅데이터 기반의 드론 자동 점검 솔루션 ‘버티핏(Verti-pit)’을 운영 중이다. 버티핏은 드론의 임무수행 전후 안전진단 서비스를 통해 사고를 방지하고 효율적으로 비행체를 운용할 수 있도록 도와주는 서비스다. 기존에는 드론이 일정 시간 이상 비행하게 되면 부품상태에 상관없이 교체하거나, 사고가 발생한 이후에 문제를 감지하는 경우가 많았다. 버티핏을 이용하면 지금 방식보다 드론을 안전하고 오랫동안 사용할 수 있게 된다는 게 회사 측 설명이다.투자사들은 위플로의 기술력과 팀워크를 높이 평가했다. 실제 위플로는 다년간 비행체 관련 분야에서 연구 경험을 쌓은 구성원들이 센서 설계부터 비행체 역학분석, 물리량 분석 등의 기반 기술에 AI를 얹어 견고한 지능형 솔루션을 완성했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.08.17.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>[전문가기고]인슈어테크가 보험산업 변화 이끈다</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003037560?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>최근 우리 생활에서 가장 큰 변화의 하나는 디지털 혁명이다. 이 가운데에서도 핀테크 발전은 변화 속도를 따라가기 어려울 정도다. 불과 10여년 사이 증권과 은행권은 급격히 디지털로 전환, 산업 전체가 변화했다. 증권사 객장에서 업무를 보는 이들은 거의 사라졌고, 은행도 점포를 방문해서 통장을 개설하거나 자금을 이체하는 등 대면 업무가 급감하는 추세다.비대면 디지털 금융이 이제는 우리의 금융생활에 깊숙히 자리 잡고 있다 해도 과언이 아니다.그런데 같은 금융 영역에서도 보험만은 예외다. 보험의 디지털전환은 지지부진하다. 이유가 뭘까. 이는 기술 문제보다 보험산업의 특이한 구조에서 원인을 찾을 수 있다.보험을 대표하는 판매 채널은 크게 세 가지로 분류된다. 첫째 전통 영업방식인 보험설계사를 통해 판매가 이뤄지는 오프라인 판매 채널, 둘째 사이버 마케팅(CM)으로 대표되는 온라인 전용 판매채널, 셋째 인슈어테크 기반의 온라인과 대면 조직인 오프라인이 결합된 하이브리드 판매채널이다.파이낸셜 컨설턴트(FC) 또는 파이낸셜 플래너(FP)가 중심이 되는 오프라인 채널의 경우 고객과 대면을 기반으로 연령·직업·성별에 부합하는 다양한 상품 라인업을 제공하는 한편 커뮤니케이션이 원활한 반면에 가망고객(보험에 가입할 것으로 예상되는 사람) 확보의 어려움과 수수료 편취(일명 '먹튀')나 영입비용 부담 등 경영상 리스크가 단점으로 지적되고 있다.CM, 텔레마케팅(TM) 등 온라인 채널은 소비자에게 저렴한 보험료와 가입의 편의성 제공이라는 장점이 있는 반면 상품 라인업이 빈약하다는 단점이 있다. 싼 보험료로 유혹해야 가입하기 때문에 미니보험 형태 상품이 주로 진열대에 올라 있다. 즉 포괄적인 보험 보장을 받기에는 적합하지 않다.이는 카카오·네이버·토스와 같은 빅테크 기업이 인슈어테크 시장 진출에 적지 않은 어려움을 겪고 있으며, 국내 대형 금융회사가 설립한 디지털보험사 또한 적자와 경영의 어려움에 직면한 원인 가운데 하나로 꼽힌다.이 같은 관점에서 볼 때 전통 오프라인 채널과 온라인 채널의 보완을 위해 앞으로의 보험 판매는 하이브리드 체계로 개편돼 갈 것이라는 게 일반적인 견해다. 하이브리드형 판매채널은 빅데이터·인공지능(AI) 등 기술이 소비자를 위한 최적의 보장 분석과 상품 추천에 반영되고, 이를 기반으로 보험 전문가와의 상담을 통해 최종 가입이 이뤄지는 상호보완적 판매 형태다.현재 인슈어테크 기술력은 빅데이터를 활용한 AI가 챗봇을 통한 보험 추천, 건강정보를 기반으로 한 헬스케어 연계 서비스, 운전습관을 반영한 자동차보험료 연동, 위치 기반의 간편손해보험 가입까지 진화했다. 여기에 AI 보험설계사도 출현했다. 하지만 이와 연관된 전용 보험상품 개발은 부진한 상황으로, 디지털 기술을 활용한 소비자 맞춤형 판매 단계까지는 도달하지 못하고 있는 실정이다. 앞으로 보험시장 활성화를 위해서는 기존 인슈어테크 기술력이 보험상품 개발로 확대되고 최종적으로는 소비자 요구를 반영한 온디맨드 보험상품으로 판매되는 맞춤형 하이브리드 보험 채널의 성장이 필요한 시점이다.이 같은 움직임이 시장에서 조금씩 나타나고 있다. 최근 금융시장에 새롭게 진출한 핀테크 업체들은 기술 기반 디지털 마케팅을 기반으로 대면 영업 조직을 구축하는 추세다. 반대로 대면 영업 중심이던 전통 법인보험대리점(GA)은 디지털 역량 강화를 통한 고객 데이터 확보에 집중하고 있다. 이러한 상호보완적 발전을 통해 국내 인슈어테크 시장은 점진적으로 성장하고 진화할 것으로 예측된다. 그 과정에서 소비자 만족도 극대화가 뒤따르게 될 것이다.서민 인슈로보 대표 suhmin@insurobo.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>토스뱅크, 3000억원 규모 유상증자…“자본금 1조3500억원 확보”</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002033043?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>지금까지 총 다섯 차례 유상증자 진행출범 11개월 만에 1조1000억원 자본금 추가 확보토스뱅크가 3000억원 규모의 유상증자를 추진 결의했다고 25일 밝혔다.[토스뱅크 제공][헤럴드경제=김광우 기자] 토스뱅크가 지난 24일 이사회를 열고 3000억원 규모의 유상증자를 추진 결의했다고 25일 밝혔다.토스뱅크는 지난해 10월 출범해 지금까지 총 다섯 차례의 유상증자를 진행했다. 이번 증자를 통해 총 자본금은 1조3500억원으로 늘어날 예정이다.유상증자를 통해 6000만주가 신규 발행되며 주당 발행가는 5000원이다. 보통주는 4500만주, 전환주는 1500만주가 발행된다. 증자 납입일은 이달 30일이다.토스뱅크는 출범 당시 5년간 1조원의 추가 증자 계획을 밝힌 후 11개월만에 당초 계획을 넘어선 1조1000억원의 자본금을 추가 확보하게 됐다.토스뱅크 관계자는 “성장세에 적극적인 지원을 보내주는 주주사들에 감사하다”며 “더욱 혁신적인 서비스로 은행에 대한 고객 경험을 바꿔나가는 데 앞장서겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>BNPL 힘 못 쓰는 한국…한 온투업체가 파고든 비결은 [긱스]</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004740581?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>사업 잘될수록 자금 더 필요한 사업자BNPL로 자금 부족 해결금융권에서 놓친 씬파일러플랫폼 데이터로 대출 한도 산정이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.BNPL(Buy Now Pay Later, 선구매후결제)은 빅테크의 전유물로 알려져있다. 아마존과 애플, 페이팔이 작년 잇따라 BNPL 진출을 선언했다. BNPL은 카드론이나 현금서비스 없는 신용카드랑 똑같다. 단지 신용카드사가 아니라 테크에 기반을 둔 기업이 신용결제서비스를 제공하는 게 다른 점이다.BNPL은 이미 미국에서만 거래규모가 65조원까지 늘어났다. 단순히 신용정보만으로는 신용결제 한도도 나오지 않는 사람이 많다. 다른 비금융 데이터를 활용해 신용결제를 할 수 있도록 해주는 BNPL이 효과적인 이유다. 카드번호를 일일이 입력할 필요 없이 버튼 하나만 누르면 결제가 가능할 정도로 편의성도 우수하다.국내에서도 네이버와 카카오, 토스가 미래를 보고 금융위의 규제 샌드박스를 통해 BNPL에 진출했다. '네이버페이 후불결제'가 대표적이다. 토스에서는 후불결제에 동의하면 잔고에 돈이 없을 경우 자동으로 후불결제가 이뤄진다. 카카오페이에서도 대중교통을 탈 때 교통카드처럼 후불결제를 이용할 수 있다. 하지만 3개 빅테크 모두 아직까지는 크게 성공을 거두진 못한 상황이다.BNPL을 조금 다른 시각에서 접근하는 업체도 있다. B2C가 아니라 B2B로 한다는 점이다. 가령 개인이 뭔가를 사면서 BNPL을 쓰면 결제사가 먼저 지급하고 나중에 청구하는 것처럼, 사업자나 긱워커가 사업을 하려고 어떤 물건을 사면 업체가 먼저 결제하고 나중에 상환받는 식이다. 미국에서는 파운더패스나 밸런스, 플레이터와 같은 업체들이 시도하면서 이제 막 태동한 단계다. 국내에서는 처음으로 온라인투자연계금융사인 윙크스톤파트너스가 B2B BNPL서비스인 '윙킷'을 최근 내놨다. B2B BNPL이 무엇이고, 국내에서 BNPL이 성공을 거둘 수 있는 이유가 뭔지 권오형 윙크스톤파트너스 대표와 얘기를 나눠봤다. 쏟아지는 데이터, 금융의 지평선을 열다회계사 출신으로 PwC에서 일한 권오형 윙크스톤파트너스 대표는 2008년 서브프라임 모기지 사태 당시 부실화된 모기지 채권을 정리하는 역할을 했다.  /윙크스톤파트너스 제공▶B2B BNPL을 비롯한 씬파일러(금융이력부족자) 금융에 도전하게 된 계기가 있나요.제가 미국 PwC에서 일할 기회가 있었는데 2008년 서브프라임 모기지 사태로 부실화된 지방은행과 지역 신협의 대출채권과 모기지채권을 검사하고 재증권화하는 일을 했어요. 그러면서 대출채권이랑 신용평가모형을 들여다봤는데 미국 금융기관들은 현금흐름을 평가해서 소상공인이나 씬파일러에게 대출을 많이 내주더라고요. 담보보다는 이런 신용대출 비중이 높았거든요. 미국 금융기관들이 무너진 건 담보 때문이었고요. 한국은 담보대출 비중이 훨씬 높죠. 한국은 왜 그런 신용대출이 안 되는지 궁금했어요.그런데 한국에 와서 보니 데이터가 너무 부족해서 안됐구나 싶었습니다. 몇년 지나니까 데이터가 쏟아지기 시작했어요. 온라인은 원래 많고 오프라인도 배달의민족 같은 오프라인 플랫폼들이 많아졌죠. 그럼 이제 해볼 수 있겠구나 싶었습니다. 한국은 아직 그런 분야에 대한 금융서비스가 없었으니까요. ▶B2B BNPL과 B2C BNPL이 다른 점은 뭔가요.B2C BNPL은 비싼 물건 살 때 무이자할부 제공해주는 서비스에요. B2B BNPL은 사업자들이 장사를 하려고 재고를 사거나 광고비를 더 써야하거나 그럴 때 매입자금이 필요한데 그걸 저희가 대신 결제하는 거죠. 매출을 더 내고 싶어서 부자재나 재고를 살 때 신용카드 결제하듯 저희가 내는 겁니다. 사실 B2C BNPL은 한국에선 어렵다고 봤어요. 워낙 신용카드나 간편결제가 잘 돼 있어서요.▶B2B BNPL이 왜 필요한가요.사업자들이 개인과 다른 점은 사업이 잘될수록 자금이 필요하다는 거거든요. 개인은 소비하려고 BNPL을 이용하지만 사업자는 성장하려고 BNPL을 이용하죠. 식자재, 물류, 화훼 같은 업종은 미리 돈을 내서 사들이고 나중에 팔아서 이익을 내는 모델이잖아요. 고객들의 주문량이 늘수록 재고매입량도 늘어나는 구조에요. 미리 부자재 같은 걸 사고, 나중에 매출채권을 회수하는 시차가 있어서 사업이 잘될 수록 자금 수요가 커진다는 거에요. 오히려 의욕있는 사업자한테 광고집행비나 사업장 확장 자금을 빨리 내주면 미래 현금흐름은 더 늘 수 있어요. 더 안정적인 사업자가 되는 선순환이 생길 수 있다는 겁니다. ▶실제로 사례가 있을까요.가령 온라인 셀러들이 동대문에서 사입을 하거든요. 그게 한 해 15조원정도 됩니다. 사입하는 걸 예전에는 사입삼촌(의류 도매상과 소매상을 이어주는 역할)이라고 개인들이 많이 했는데, 지금은 앱으로 다 바뀌었어요. 앱 상에서 사입한 걸 바로 결제할 수 있게 도와드리는 거죠. 동대문에서 사입할 때 드는 매입자금은 사실상 신용대출이기 때문에 소매상들에게 대출을 내주는 금융기관은 전혀 없어요.1년 안된 프랜차이즈, 근태 우수한 알바도 금융혜택 누린다권오형 윙크스톤파트너스 대표가 BNPL에 대해 설명하고 있다. / 윙크스톤파트너스 제공▶기존 금융기관과 어떤 차이가 있는 건가요.온라인을 통해 물건을 파는 매출데이터는 주문수집플랫폼을 통해서 사업자들이 보통 관리를 합니다. 이 플랫폼에서 각종 사업자 데이터를 다 끌어올 수 있으니까 마진이나 이익을 다 알 수 있어요. 온라인 셀러들이 물건을 한 플랫폼에서만 팔지는 않죠. 쿠팡이나 네이버 같은 여러 플랫폼에서 파는데 그걸 관리하려면 일일이 배송하고 반품처리도 다 플랫폼에서 온 주문마다 처리해야하거든요. 그런 일을 한 번에 관리할 수 있도록 하는 게 사방넷이나 플레이오토 같은 플랫폼들이에요. 그래서 사업자들이 이 플랫폼을 거의 다 씁니다. 한 번에 그동안 신용평가에 반영되지 못한 데이터를 끌어와서 신용을 평가할 수 있는 거죠. 은행이 놓치는 사례를 하나 더 들자면 1년 생존율이에요. 프랜차이즈 가맹점은 1년 생존율이 일반 사업자보다 훨씬 높습니다. 그리고 어느 정도 예측도 가능해요. 프랜차이즈 본점이 마케팅이나 물류, 운영지원까지 해주니까요. 자기 힘 만으로 창업하는 게 아닌 거죠. 그러면 프랜차이즈 가맹점의 경우에는 리스크를 더 잘 예측할 수 있겠다 싶었습니다. 그런데 이런 창업자는 은행이 대출을 못하더라고요. 이력이 없으니까요. ▶빅테크에 대해 지닐 수 있는 강점이 있을까요.사실 대출 라이센스라는 게 중요해요. 신용평가모형을 샘플로 테스트하는 것만으로는 한계가 있어요. 직접 대출을 내봐야한다는 거에요. 계속 대출을 하면서 실전 테스트를 거쳐야 모형의 성능을 계속 끌어올릴 수 있어요. 미국에 있을 때부터 현금흐름 추정이 제 분야입니다. 현금흐름 추정 모델이 있고, 신용평가시스템이랑 비금융데이터가중치 모델이 따로 있어요. 비금융데이터 가중치 모델은 예를 들면 오프라인 사업자는 어느 업종으로 어느 상권에서 하느냐가 중요하거든요. 폐업률을 예측하는 모델을 개발했어요. 온라인 사업자는 계절성이나 반품률이 중요하고요. ▶앞으로 BNPL 서비스 출시 계획이 궁금합니다.긱워커나 아르바이트가 대상인 BNPL도 준비하고 있습니다. 미리 월급을 앞당겨서 지출하고 나중에 갚는 거죠. 그러면 그 긱워커나 아르바이트의 뭘 보고 한도를 내줄 수 있는지가 중요한데 알바 근태관리 플랫폼이 있어요. 편의점 등이랑 제휴를 맺고 근태 데이터를 모아놓은 플랫폼이에요. 지난 알바하면서 한 달 중에 며칠이나 나왔나, 정해진 시간에 출근했는지 확인할 수 있는 데이터들이죠. 어떤 아르바이트에 대해서 한국신용정보원에서 받은 개인 신용정보에다가 근태관리 데이터를 합해서 신용을 평가합니다. 씬파일러나 특정 소상공인에게 특화된 신용평가는 하나하나의 가치가 크다고 봐요. 올해는 그런 신용평가모델이 완전히 자리잡는 해고, 내년부터 경쟁이 본격적으로 이뤄지지 않을까 싶습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>'네카토'서 보험 비교·추천 가능…혁신 VS 수수료장사, 의견 엇갈려</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000693694?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>금융위, 혁신금융서비스로 시범 운영…보험업계선 우려 표명네이버파이낸셜·카카오페이·토스 등 온라인 플랫폼에서 다양한 보험사의 상품을 비교·추천하는 서비스가 가능해진다. 금융당국이 소비자 선택권 확대 차원에서 혁신금융 서비스로 허용한 덕분이다.다만 일각에선 온라인 플랫폼의 보험 수수료 가져가기에 그칠 것이란 지적도 나온다. 플랫폼 광고수수료로 인해 보험상품 가격이 올라갈 경우, 소비자 편익 감소로 이어질 수 있단 우려도 있다.25일 금융권에 따르면 금융위원회는 지난 23일 '제2차 금융규제혁신회의'를 개최하고, 마이데이터사업자와 전자금융업자가 보험 비교 서비스 등 금융 상품 중개업을 할 수 있도록 허용했다. 금융위는 온라인 플랫폼의 영향력 등을 고려해 오는 10월 혁신금융서비스(금융규제 샌드박스)로 시범 운영하다가 제도화할 방침이다.네이버파이낸셜과 카카오페이 등 온라인 플랫폼 사업자들이 다양한 보험사의 상품을 비교·추천하는 서비스가 가능해진다. 사진은 네이버파이낸셜과 카카오페이 로고. [사진=아이뉴스24 DB]현재 보험 비교 서비스는 금융 상품 중개에 해당돼 등록하거나 인허가를 받아야 한다. 그러나 대출 상품 외에는 온라인 플랫폼의 특성을 고려한 등록 제도 등이 마련이 안돼 서비스가 어려웠다.실제로 지난해 카카오페이는 보험 비교 서비스를 시행하다가, 중개업 라이선스가 없어 서비스가 불가하다는 당국의 제동에 중단한 바 있다.이번에 당국이 보험 비교 서비스 취급을 허용하면서 대면·전화 판매(TM)·온라인 판매(CM) 등 모든 채널에서 가능토록 했다. 다만 취급 상품에는 제한을 뒀다. 종신보험과 변액보험, 외화보험 등 상품 구조가 복잡하거나 고액계약 등 불완전판매 우려가 있는 상품은 불가능하다.보험업계에서는 이번 당국의 플랫폼 중개업 관련 규제 완화에 대해 보험 가입 과정에서 수수료가 발생해 결국 보험 소비자의 보험료 부담으로 되돌아올 것이란 점을 꼬집고 있다.보험업계 관계자는 "카카오나 네이버가 본격적으로 플랫폼 내 상품 비교 서비스를 시작할 경우 이용자들의 유입 속도가 빨라질 것으로 본다"면서 "광고 수수료를 10% 이상 책정하게 될 경우 이용자들의 보험료 부담으로 전가될 것"이라고 지적했다.보험대리점협회와 보험영업인노동조합연대 등이 지난 22일 서울 용산 대통령실 앞에서 '온라인 플랫폼 보험대리점 진출 저지' 등을 위한 결의대회를 진행하고 있다. [사진=보험대리점협회]특히 보험대리점업계와 설계사 등은 온라인 플랫폼 사업자의 보험 서비스 진입을 강력하게 저지하고 있다. 앞서 지난 22일 보험대리점협회와 보험영업인노동조합연대 등은 서울 용산 대통령실 앞에서 '온라인 플랫폼 보험대리점 진출 저지' 등을 위한 결의대회를 진행했다.이들은 온라인 플랫폼을 통해 보험 가입을 하면 플랫폼 사용 관련 사업비(수수료)가 부과돼 소피자 편익이 저해된다고 주장했다.협회 측은 "국민 대다수가 노출된 온라인 플랫폼이라는 형태를 통해 보험가입을 하게 되면 플랫폼 사용을 위한 수수료가 부과된다"면서 "기존 다이렉트 채널보다 오히려 소비자 부담이 늘어날 수 있다"고 목소리 높였다.또 "온라인 플랫폼에서 화면 버튼 클릭과 서명만으로 보험 가입 편의성을 앞세운다면 보험 수수료 수익사업에 내몰리게 될 것"이라며 "계약 체결 이후 소비자의 질병과 상해, 사고, 사망 등 보상 관련 문제에서 소비자 피해와 민원이 발생할 소지가 매우 높다"고 주장했다.이에 대해 금융위는 온라인 비대면 영업의 특성 상 기존 채널 대비 중개 비용이 낮아질 것으로 판단했다.온라인 플랫폼 사업자가 우월적 지위를 통해 과도한 수수료를 요구할 수 있다는 우려에 대해서는 상품별 특성을 고려해 수수료 상한을 제한하거나, 수수료 공시 의무를 부과하는 등 보완 방안을 마련하겠다는 입장이다.이형주 금융위 금융산업국장은 "보험업계의 우려와 소비자들의 편익 등을 종합적으로 고려해 비교·추천 서비스만 우선 허용한 것"이라며 "보험대리점과 설계사 등의 피해를 최소화하기 위해 보험 상품 판매 등은 제한했다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.08.19.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>[책&amp;생각] ‘물만 마셔도 살찐다’는 거짓말에 다이어트 비법이 있다</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002602991?sid=103</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>‘비만 원인=프럭토스’ 18년 연구 망라비만은 계획된 생존반응·진화 결과원리 이해없어 틀린 상식·대응 많아통상 비만이 만성질환의 주요 원인이라고 간주되지만, 비만과 대사질환의 원인이 따로 있다는 게 이 책의 요점이다. &lt;한겨레&gt; 자료사진자연은 우리가 살찌기를 바란다생존 스위치, 비만과 질병에 숨겨진 놀라운 과학리처드 J. 존슨 지음, 최경은 옮김 l 시프 l 2만5000원 꽤 난해하고 정보도 방대한 의학서적이다. 동시에 알려진 건강 식단들의 임상 실험값을 비교분석하며 나름의 권장 식단까지 제시하는 다이어트 실용서다. 흡사 미국 플로리다대학 미식축구 선수들의 경기 중 탈수·체중감소 문제를 해결하기 위해 혈당(글루코스) 등이 함유된 스포츠 음료를 이 대학 의대 교수(로버트 케이드)가 처음 개발하기까지의 접근법 같다. 다이어트. 우리가 섭렵해온 상식부터 추려보자.많이 먹고 적게 움직여 살이 찐다. 물만 마셔도 찐다. 비만의 관건은 칼로리다, 당류는 중요하지 않다. 술이 아니라 안주가 문제다. 허기를 방치하면 더 큰 스트레스에 노출된다…. 과연? 저자의 연구 결과와 주장대로라면 모두 오답에 가깝다. 동물사회는 “적자(適者)생존이 아니라 비자(肥者)생존”-살찔 肥, 비만의 비다-이라 할 만큼, 비만은 자연계 생존반응이다. 생물학적으로 비만을 진행시킨 핵심 요인이 음식의 과당(프럭토스)이다. 우리 몸이 스스로 만들기도 한다. 지방 축적을 미리 해두지 않을 경우, 먹이나 물이 부족한 야생의 위협을 감당할 수 없기 때문이다. 때문에 프럭토스는 우리가 가령 충분히 먹어도 ‘거짓 공복감’을 지속시킨다. 2004년부터 프럭토스를 연구해온 저자(미국 콜로라도대 의대 교수)는 이 상태를 체내 “생존 스위치”의 작동이라 말한다.그렇다면 거개 동물이 비만이나 고혈압, 당뇨, 심장질환 따위 대사증후군을 앓아야 한다. 벌새가 입이 있다면 웃을 거다. 벌새는 사실상의 설탕물인 ‘넥타’광이다. 이 꽃 저 꽃 하루 새 제 무게의 네배를 섭취한다. 저녁쯤 체중의 40%가 지방으로 늘고 간이 진주처럼 허옇게 번들거린다. 사람이라면 병원에 실려갈 수준의 고혈당 상태로 치솟는데 대사증후군 같은 건 없다. 분당 호흡수 250회, 심박 수가 1200회에 이를 만큼 대사활동이 왕성해 밤새 지방과 혈액 속 당을 연소하기 때문이고, 이 정도 지방이 비축되어야 다음 날 먹이 활동을 할 때까지 버틸 수 있다. 수컷 황제펭귄은 영하 40도 이하 환경에서 두 달 동안 무엇도 하지도 먹지도 않은 채 알만 품는다. 앞서 두배로 불려놓은 몸집 덕분이다. 늦가을 간과 체내 지방을 쌓고선 때로 알래스카에서 뉴질랜드까지 여드레간 쉼 없이 이동하는 큰뒷부리도요도 ‘생존 스위치’를 증명한다.설탕은 그 자체로 중독성이 있다. 저자는 설탕을 “술기운이 없는” 알코올로 이른다. 게티이미지뱅크게다 지방은 에너지로 분해될 때 수분을 내놓는다. 낙타의 혹에 물이 들어 있다는 잘못된 사실은 절반의 진실이 되는데, 혹 내 가득한 지방으로 에너지와 물을 보충하기 때문이다. 이는 탈수나 혈중 염분 농도가 높은 상태도 곧 프럭토스를 유발하는 원리와 맞닿아 있다. “비만은 탈수상태”라 이르는 이유다. 에너지를 절약해야 하는 위기상황에도 뇌로만은 충분히 공급되게 프럭토스는 인슐린 저항성을 높인다. 근육과 간으로 음식 에너지가 들어가려면 인슐린이 필요한데 이 대사를 부러 방해하는 거다.음식이 즉시 사용 가능한 에너지(ATP) 대신 후일을 위한 저장 에너지(지방 등)로 전환할 때 산소를 사용하며 몸은 산화 스트레스에 필시 노출된다. 장기적으로 노화를 가져온다. 그럼에도 동면, 번식, 이동 등과 맞물린 목전의 위기 환경에서 개별의 장수가 아닌 종족보존을 위한 동물의 선택은 자명하다. 저자의 설명인바, 영장류 조상 역시 두 차례 대멸종의 위기를 거치며 진화한 결과가 생존 스위치다. 고대 인류 조각상이 빙하기에 근접할수록 살쪄 있고, 멀어질 때 날씬해 있다는 연구결과는 그럴싸하다.동물과의 차이라면 위기 앞 사재기는 해도 지방을 두툼두툼 축적해둘 만큼 척박한 생존조건이 더는 드물고, 더더욱 19세기말 설탕, 이어 청량음료·고염식 등의 대중화와 같은 급변적 환경이 오랜 진화의 기제와 충돌하는 지경에 이르렀단 것이다.이 원리만 보아도, 과당을 피하고 물을 충분히 마시며 산화 스트레스와 다투는 비타민C를 복용하는 게 생존 스위치의 오작동 제어에 도움이 되리란 유추가 가능하다. 더 많은 대응의 실효 역시 프럭토스가 결정한다 해도 과언이 아니다. 맥주도 경계 대상인데 또다른 이유가 추가돼서다. 아, 차마 더 못 읽겠다.저자는 흔히 말하는 건강식단들의 이점과 위험요인을 비교 분석했다. 시프 제공천연과일이라고 해서 모두 좋은 것은 아니다. 저자는 프럭토스 성분을 기준으로 분류했다. 시프 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>토스뱅크, 3000억 원 규모 유상증자…총 자본금 1조3500억 원 확보</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000168904?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>"혁신적인 서비스로 은행에 대한 고객 경험을 바꿔 나갈 것"토스뱅크가 3000억 원 규모의 유상증자를 단행하기로 했다. 이번 증자를 마치면 토스뱅크의 총 자본금은 1조3500억 원으로 늘어난다. /토스뱅크 제공토스뱅크가 3000억 원 규모의 유상증자를 단행한다.토스뱅크는 24일 이사회를 열고 3000억 원 규모의 유상증자를 추진하기로 결의했다고 밝혔다. 지난해 10월 토스뱅크 출범 이후 지금까지 총 다섯 차례의 유상증자를 진행했으며, 이번 증자를 마치면 총 자본금은 1조3500억 원으로 늘어난다.이번 증자를 통해 총 6000만 주가 신규 발행되며 주당 발행가는 5000원이다. 6000만주 가운데 보통주는 4500만 주, 전환주는 1500만 주로 발행된다. 증자 납입일은 이달 30일이며, 증자를 마치면 토스뱅크는 출범 자본금 2500억 원에서 총 1조1000억 원의 자본금을 추가로 확보하게 된다.이에 따라 토스뱅크는 출범 당시 밝혔던 증자 계획을 11개월 만에 달성했다. 토스뱅크는 출범 당시 5년간 1조 원의 추가 증자 계획을 밝혔다.토스뱅크 관계자는 "중저신용고객 포용과 사용자 관점에서 최고의 은행 서비스를 선보이기 위해 집중한 결과 고객들의 많은 선택과 응원을 받아 빠르게 성장하고 있다"며, "토스뱅크의 비즈니스 비전과 성장세에 적극적인 지원을 보내주는 주주사들에 감사하며, 더욱 혁신적인 서비스로 은행에 대한 고객 경험을 바꿔 나가는데 앞장서겠다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>'핀테크계 BTS' 육성한다...이복현 "수수료 결정엔 개입 안해"</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005305238?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>금감원장, 빅테크·핀테크 간담회해외IR 개최 등 네트워크 구축 지원"최우선 가치에 소비자 정보주권" 주문[이데일리 서대웅 기자] 이복현 금융감독원장이 30일 ‘핀테크계 BTS’를 육성하겠다는 계획을 밝혔다. 플랫폼 수수료 결정엔 개입할 의사가 없다고 강조했다.이복현 금융감독원장이 지난달 28일 서울 여의도 국회에서 열린 정무위원회 전체회의에서 의원들의 질의에 답하고 있다.(사진=뉴시스)이 원장은 이날 서울 마포 프론트원에서 빅테크·핀테크 업계 간담회를 계최하고 이같은 뜻을 밝혔다. 이날 간담회는 디지털금융 지원 방향을 설명하고 발전 방안을 논의하기 위해 마련됐다. 네이버파이낸셜 박상진 대표, 카카오페이 신원근 대표, 비바리퍼블리카(토스) 이승건 대표, 뮤직카우 정현경 대표 등이 참석했다.이 원장은 핀테크의 해외 진출을 적극 지원하겠다고 밝혔다. 그는 “금감원의 금융중심지지원센터를 통해 해외 IR을 개최해 국내 유망 핀테크사가 신규 시장을 개척하고, 투자 유치도 원활히 할 수 있도록 지원할 예정”이라며 “해외 핀테크산업 관계자를 국내에 초청해 국내 핀테크사의 해외 네트워크 구축을 지원하겠다”고 말했다.이어 “금감원 핀테크 현장자문단은 핀테크지원센터와 공조해 원스톱 인큐베이팅 서비스에 나설 예정”이라고 했다. 금융규제에 대한 자문뿐 아니라 핀테크 유니콘으로 도약할 수 있는 노하우도 전수하는 등 비즈니스 전반에 대한 종합 컨설팅 기능을 강화한다는 방침이다.이 원장은 금융산업 내에서 빅테크와 핀테크 업계 영향력이 커지고 있는 만큼 “책임 있는 금융혁신”을 주문했다. 그는 “단 한번의 정보유출 사고로도 국민 신뢰는 멀어질 것이고, 회복하기 어렵다는 점을 유념해달라”고 당부했다. 또 “소비자 정보주권을 최우선 가치로 삼아 고객정보를 수집·활용해야 한다”고 강조했다.금융플랫폼 수수료 문제와 관련해선 “그간 국회 등 사회 다방면에서 문제 제기가 있었다”며 “금감원은 간편결제 수수료에 대해 공시 방안을 추진 중”이라고 했다. 다만 “수수료는 시장참여자에 의해 자율적으로 결정될 사안으로, 당국은 이에 직접 개입할 의사가 없다”고 했다. 공시 방안에 대해선 “이해관계자들의 의견을 충분히 수렴해 합리적으로 마련하겠다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>개인 신용따라 차이 커…자금이동 많지 않을듯</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004090318?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>[베일 벗은 예대금리차]시중·지방銀 비교 애당초 무리당국 기대 달리 효과 미미할듯은행들 수신금리 경쟁 심화땐대출금리 인상으로 이어질수도지방·인터넷銀선 상품개편 조짐[서울경제] 은행권의 거센 반발에도 윤석열 대통령의 대선 공약인 예대금리차공시제가 22일 첫발을 뗐다. 예상대로 금융 소비자들은 은행들이 드러낸 이자 장사의 민낯에 곱지 않은 시선을 보내고 있다. 김주현 금융위원장은 이날 국회 정무위원회에 출석해 “(예대금리차 공시는) 시장의 힘으로 과도한 대출금리 인상을 통제할 수 있는 방법 중 하나”라고 밝혔다.하지만 정책을 도입한 목적이 은행들 망신 주기로 변질돼 ‘예금금리 인상, 대출금리 인하’ 압박이 더 거세질 것으로 우려된다. 특히 포용적 금융에 힘써온 일부 지방은행과 인터넷전문은행이 ‘공공의 적’으로 낙인찍힌 뒤 예대금리차를 줄이기 위해 ‘울며 겨자 먹기’식으로 상품 개편에 나설 것이라는 우려의 목소리가 높다.22일 은행연합회에 따르면 지난달 전북은행은 가계대출 금리가 9.46%에 달해 비교적 높은 저축성 수신금리(3.13%)에도 가계예대금리차가 6.33%포인트로 나타났다. 토스뱅크 역시 가계대출 금리가 6.60%로 저축성 수신금리(1.00%)보다 월등히 높아 5.60%포인트의 가계예대금리차를 기록했다. 이들 은행 외에도 지방은행과 인터넷전문은행이 대부분 상위권을 차지했다. 반면 5대 시중은행은 예대금리차가 모두 1%대에 머물렀다. 이 같은 결과는 일찌감치 예견됐다. 수도권에 사는 고신용자를 대상으로 하는 시중은행과 지방은행을 똑같은 기준으로 비교하는 것은 애당초 무리였기 때문이다. 더군다나 인터넷전문은행은 전통 은행과 완전히 다른 문법에서 출발했다. 예컨대 토스뱅크는 전통적인 예적금이 아니라 ‘파킹통장’으로 불리는 연 2% 금리의 수시 입출금 통장을 주력으로 내세우고 있다. 토스뱅크 관계자는 “신생 은행으로서 현재 전세자금대출이나 주택담보대출과 같은 담보대출보다 금리가 높은 신용대출로 구성된 여신 상품 포트폴리오를 보유한 상황도 평균 대출금리에 영향을 미쳤다”고 설명했다.KB국민·신한·하나·우리·NH농협 등 5대 은행 사이에서도 희비는 엇갈렸다. 가계예대금리차가 1.04%포인트에 불과한 하나은행은 “금융 소비자의 부담 완화를 위한 지원 정책을 적극적으로 이행한 결과”라고 자축한 반면 신한은행은 “고금리인 햇살론·새희망홀씨 등 서민 지원 대출을 가장 적극적으로 지원하고 있다 보니 예대금리차가 많이 나 보인 것 같다”고 해명했다. 이 같은 줄 세우기가 행여나 중저신용자에 대한 대출 공급을 줄이고 고신용자만 가려 받는 영업 행태를 부추길 수 있다는 지적이 나오는 이유다.특히 금융권에서는 예대금리차 공시가 소비자들에게 대출 상품의 선택을 도와주는 역할을 하기는 어려울 것이라는 지적도 나온다. 예상보다 은행별 예대금리차가 크지 않은 데다 개별 소비자들에게 적용되는 금리는 개인 상황이나 은행의 신용등급 평가에 따라 충분히 달라질 수 있기 때문이다. 한 시중은행 관계자는 “지금도 여러 은행의 대출 상품을 비교해보고 결정하는 소비자들에게 (공시는) 특정 은행에 대한 부정적 인상만 줄 뿐 금융 당국의 기대처럼 예금과 대출의 이동은 많지 않을 것”이라고 말했다. 아울러 수신금리 인상 경쟁이 여신금리 인상으로 되돌아오는 부작용도 낳을 수 있다는 우려도 제기된다. 실제 지난달 신규 취급액 기준 자금조달비용지수(COFIX·코픽스)는 통계 작성 이래 최대 폭으로 올랐는데 은행들이 예적금 금리 인상을 종용한 당정의 주문에 등 떠밀린 탓도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>금융 당국 "예대금리차 공시 논란은 오해… 타 업권 확대 검토"</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004091511?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>[서울경제] 은행권의 예대금리차 공시가 은행권의 서민·중저신용자에 대한 대출 확대 노력을 무시한다는 비판이 연일 제기되면서 금융 당국이 거듭 해명에 나섰다. 신용점수 구간별 대출금리를 함께 고려하면 된다는 것이다. 금융 당국은 추후 예대금리차 비교 공시를 타 업권으로 확대할 수 있다는 가능성도 시사했다.금융위원회·금융감독원은 25일 설명자료를 내고 여러 논란에 대해 설명했다. 먼저 금융 당국은 예대금리차 산정 시 요구불예금이 제외돼 착시효과가 발생한다는 지적에 대해 시장금리 변동에 영향을 받는 저축성 수신상품을 대상으로 한 데 따른 조치라고 설명했다. 예대금리차 비교 공시 제도가 은행 예금금리가 시장금리 변동을 제대로 반영하지 못한다는 지적에서 비롯된 만큼 요구불예금 등 비저축성 상품은 제외했다는 것이다.예대금리차 공시로 중저신용자 대출, 서민 대출의 비중이 높은 인터넷전문은행, 지방은행의 예대금리차가 높게 나와 소비자에게 혼란을 줄 수 있다는 주장을 두고는 “신용점수 구간별 대출금리 및 예대금리차를 함께 공시하도록 했다”며 “평균 신용점수도 함께 공시했다”고 설명했다.아울러 금융 당국은 “예대금리차 비교 공시를 처음 시행하는 만큼 이용자 수가 많고 사회적 관심이 높은 은행권을 대상으로 우선 시행했다”며 “추후 다른 업무 권역으로 확대할지는 예대금리차 비교공시에 따른 영향 및 업권별 특성 등을 고려해 검토할 계획”이라고 밝혔다.앞서 공개된 7월 예대금리차 비교 공시에서 은행권 통틀어 가장 예대금리차가 큰 곳은 전북은행(6.33%포인트)이었다. 5대 시중은행 중에서는 신한은행이 1.62%포인트, 인터넷전문은행 중에서는 토스뱅크가 5.6%포인트로 집계됐다. 중저신용자와 외국인 등 금융소외계층에 대출을 적극 취급한 결과 예대금리차가 높게 나왔다는 게 이들 은행 측 주장이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>`채권 못지 않네`...4% 발행어음에 6조원 몰렸다</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001050776?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;미국 중앙은행과 한국은행이 금리인상에 속도를 내면서 주식시장에 머물던 자금들이 보다 안전한 상품을 찾아 대거 이동하고 있습니다.증권사에서 이들 자금을 붙잡기 위해 자기 신용을 담보로 연 4%대 상품을 판매하고 있는데, 여기에 올해에만 6조 원 넘는 자금이 몰린 것으로 나타났습니다.김종학 기자의 보도입니다.&lt;기자&gt;지난주 한국투자증권이 토스뱅크를 통해 내놓은 연 4.5% 금리의 발행어음은 입소문을 타고 한도 2천억 원을 나흘 만에 소진했습니다.발행어음은 자기자본 4조 원 이상인 대형 증권사가 개인이나 기관의 투자금을 빌려 6개월이나 1년 뒤 수익을 나눠주는 방식으로 판매합니다.기업이 발행한 우량 회사채와 만기 이자는 비슷하면서 투자 기간은 더 짧고, 1년 거치 기준 투자 가능 금액이 100만 원 이상으로 목돈을 맡기기에 유리한 구조입니다.현재(26일 기준) 증권사 모바일 앱을 통해 매매할 수 있는 발행어음의 월 적립식 기준금리는 최고 연 4.5%, 1년 만기 약정은 연 4.15%에 달합니다.올해들어 이들 상품을 취급한 증권사 4곳의 발행어음 잔고는 상반기 기준 23조 3천억 원으로 반년 만에 6조 6천억 원 증가했고, 이 가운데 CMA를 통해 유입된 개인 자금만 4조원에 달합니다.주식시장 주변 자금인 투자자 예탁금은 긴 하락장에 올해 16조 원 줄었는데, 이 자금의 절반 가량이 발행어음으로 유입된 겁니다.다음 달 미국 연방준비제도의 빅스텝, 연내 한국은행의 추가 금리인상으로 증권사를 통해 매매하는 발행어음 금리도 높아질 전망입니다.초대형 증권사 핵심사업인 발행어음이 자리를 잡으면서 신한, 하나 등 나머지 증권사들도 자기자본 규모를 키워 시장 진출을 서두르고 있습니다.발행어음 시장이 이처럼 달아오르고 있지만, 투자위험이 전혀 없는 것은 아닙니다.발행어음은 정기예금과 유사해보이지만 예금자 보호대상에서 제외되어 있기 때문에 손실 위험에 대비해야 합니다.인가를 받은 대형 증권사에서 매매하더라도 과거 동양그룹의 사기성 기업어음 판매처럼 투자 원금을 돌려받지 못할 가능성이 있기 때문입니다.또 약정한 기간보다 미리 해지하는 경우 거치식 상품은 약정한 수익률의 절반, 적립식은 1%만 돌려받아 사실상 손해입니다.이와 관련해 금융당국은 발행어음 매매 과정에서 증권사가 투자한 부문에 부실 위험이 발생할 수 있다고 보고 해 수시로 점검해 나갈 예정입니다.한국경제TV 김종학입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>'보험대리점 vs 핀테크' 플랫폼 밥그릇 싸움 '격화'</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002632863?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>온라인서 상품 비교·추천 가능해져양측 모두 생존 문제…대립 불가피한국보험대리점협회와 보험대리점 업계, 보험영업인노조연대 관계자들이 22일 용산 대통령실 앞에서 결의대회를 열고 있다. ⓒ한국보험대리점협회[데일리안 = 김효숙 기자] 금융당국이 온라인 플랫폼을 통한 보험 비교·추천 서비스를 조건부 허용하기로 하면서, 설계사들을 중심으로 한 보험대리점업계와 핀테크 간 갈등이 격화되고 있다. 금융당국의 이번 결정이 양측 모두에게 생존이 달린 밥그릇 문제인 만큼, 당분간 합의점을 찾지 못한 채 팽팽한 줄다리기가 계속될 것으로 보인다.24일 금융권에 따르면 금융당국은 전날 오후 제2차 금융규제혁신회의를 열고 마이데이터사업자와 전자금융업자의 보험 상품 비교·추천을 혁신금융서비스로 지정해 시범 운영하기로 결정했다. 혁신금융서비스는 새로운 금융서비스가 기존 규제로 실현되기 어려울 경우 한시적으로 이를 완화해주는 규제 샌드박스 제도다.금융위는 지난해 9월 금융소비자보호법 해석을 통해 보험 비교·추천 서비스를 '중개' 행위로 규정하고 보험중개업 등 라이선스를 취득해야 서비스를 할 수 있다고 제한했다. 사실상 라이선스가 없는 핀테크사의 보험비교추천 서비스를 금지했는데, 이를 부분적으로 풀어준 것이다.이로써 온라인 플랫폼을 운영하는 핀테크사 등은 대면과 텔레마케팅, 온라인 채널에서 판매되는 보험 상품을 고객 맞춤형으로 비교·추천할 수 있게 됐다. 다만 소비자 보호를 위해 종신·변액·외화보험 등 복잡하거나 고액계약 등 불완전판매가 우려되는 상품은 취급할 수 없다.보험대리점업계가 이에 강력반발하고 나섰다. 전국 법인보험대리점·설계사들로 구성된 한국보험대리점협회 소속 200여명은 지난 22일 서울 용산구 대통령실 앞에서 '온라인플랫폼 보험대리점 진출저지 결의대회'를 열고 "네이버·카카오·토스 등 온라인 플랫폼의 보험대리점 진입 허용을 결사 반대한다"고 주장했다.협회는 ▲혁신금융을 표방한 거대자본의 수익사업으로 인한 소비자 피해 우려 ▲차별성 없는 혁신으로 기존 모집채널과의 갈등 야기 ▲45만 대리점·설계사의 생존 위협과 고용감소 유발 ▲우월적 지위를 통한 독과점 염려와 골목상권 침해, 불공정경쟁 우려 등을 빅테크의 보험대리점업 진출 반대 이유로 꼽았다.이들은 "온라인 플랫폼을 통해 보험을 가입하면 수수료가 부과되는데, 기존 보험사 온라인·모바일 채널을 통해 가입하는 것이 훨씬 저렴해 소비자 편익이 저해된다"며 "플랫폼의 우월적 지위를 이용해 45만명의 영세한 보험설계사의 소득을 감소시키는 등 골목상권을 침해할 우려가 있다"고 강조했다.협회는 보험대리점업계·설계사들의 생존권 사수를 위해 적극적 단체 행동에 나설 계획이다. 협회 관계자는 "국회나 해당 빅테크 사 앞에 찾아가서 요구사항을 전달하는 등 여러 방안을 고민 중"이라고 말했다.한국보험대리점협회와 보험대리점 업계, 보험영업인노조연대는 22일 용산 대통령실 앞에서 결의대회를 열고 있다. ⓒ한국보험대리점협회반면 핀테크 업계는 이번 규제 완화가 절실했다는 입장이다. 핀테크 업계 관계자는 "빅테크는 몰라도 중소기업은 금소법 시행으로 핵심 서비스가 중단돼 수익이 끊겨 어려운 상황"이라며 "혁신금융서비스만 기다리며 버텨왔다"고 말했다.이에 대해 금융위는 "생·손해보험업계, 보험대리점업계, 핀테크업계 모두 이해가 첨예하게 대립하는 상황이라 금융소비자의 편익 증진을 우선적으로 고려하여 판단할 필요가 있다"고 말했다.이어 "플랫폼은 빅데이터 분석기술 등을 활용하여 비교·추천만 할 수 있으며, 기존 모집채널은 설계사의 전문적인 설명 등을 통한 상품 판매 역할을 지속 수행할 수 있다"며 "플랫폼 수수료를 절반 수준으로 제한하고 업무범위를 제한하는 등 보완장치를 마련했다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>금리인하요구권 실적, 5대 은행 중 ‘감면액’은 신한·‘수용률’은 농협이 1위</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002284553?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>◆…자료=은행연합회 제공지난 상반기 중 은행권에 접수된 금리인하요구 신청은 88만8619건이고 이 중 22만797건이 수용돼 728억2900만원의 이자가 감면된 것으로 파악됐다. 은행별 금리인하요구 수용률은 KDB산업은행이 92.6%로 가장 높고, 토스뱅크가 17.9%로 가장 낮았다.   30일 은행연합회가 홈페이지에 공시한 ‘은행별 금리인하요구권 운영실적’에 따르면 5대 은행의 금리인하요구 수용률은 NH농협은행(59.5%), 우리은행(46.5%), KB국민은행(37.9%), 하나은행(33.1%), 신한은행(30.4%) 순이었다. 카카오뱅크(19%), 케이뱅크(24.6%) 등 인터넷 은행들의 수용률은 기존 은행들보다 크게 낮았다.   대출 유형별로는 가계대출의 경우 85만236건 신청에 20만910건이 수용돼 187억8200만원의 이자가 감면됐다. 기업대출은 3만8383건 신청에 1만9887건이 수용돼 540억4700만원의 이자 감면이 이뤄졌다.   은행연합회의 이번 공시는 은행별 동일기준에 의한 첫 공시로 과거 통계와 정확한 비교는 어렵지만 수용건수나 이자감면액이 모두 증가 추세인 것으로 파악됐다. 수용 건수의 경우 작년 상반기의 85720건에 비해 158% 증가했고 이자감면액은 작년 상반기의 588억500만원보다 24% 늘어났다. 신청건수도 작년 상반기의 34만1783건에 비해 두 배 이상으로 증가했는데 이는 비대면 신청 허용, 금리인하요구권 홍보 강화, 통계기준 변경 등의 요인에 의한 것으로 분석됐다.   은행연합화는 이번 공시를 통해 소비자들이 거래은행을 선택하는데 도움이 될 것이라고 밝혔다. 다만 모 은행의 경우 한 명의 소비자가 단일 대출에 금리인하를 55차례 반복 신청하는 등 중복신청 사례가 상당수 있었다고 소개하고 금리인하요구 수용률을 단순비교하기보다는 수용건수 및 이자감면액 등을 비교하는 것이 실질적인 도움이 될 것이라고 덧붙였다.   이와 관련 신한은행 관계자는 "5대 은행 중 유일하게 가계대출과 기업대출 모두 비대면으로 금리인하요구를 접수하는 시스템을 갖춰 신청 건수가 월등히 많고 수용률도 낮아졌다“며 "수용건수와 이자감면액은 5대 은행 중 1위"라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>대출금리-예금금리 차이, 시중은행 중 신한은행 가장 커</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003226473?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   신한은행    금융당국이 은행의 과도한 '이자 장사'에 제동을 걸기 위해 22일부터 은행별 예대금리차(대출금리-예금금리)를 공개했는데, 5대 시중은행 가운데 가계 대출·예금 금리 격차가 가장 큰 곳은 신한은행인 것으로 나타났다.  하지만 전체로 놓고 봤을 때 전통 은행보다 중·저신용자에 높은 금리로 많이 대출해준 인터넷전문은행의 경우가 예대금리차가 뚜렷하게 커 최대 5%포인트(p)에 이르는 것으로 조사됐다.     23일 은행연합회 소비자포털의 '예대금리차 비교' 통계에 따르면 7월 현재 신한은행의 가계 예대금리차는 1.62%p로 집계됐다.     이어 우리은행(1.40%p), NH농협은행(1.40%p), KB국민은행(1.38%p), 하나은행(1.04%p) 순으로 가계 예대금리차가 컸다.     예대금리차가 작은 하나은행 관계자는 "코로나19 재확산 및 소비자 물가 상승과 기준금리 인상 등으로 이자 부담이 가중되고 있는 상황에서 금융소비자의 부담 완화를 위한 지원 정책을 적극적으로 이행한 결과"라고 설명했다.     중·저신용자에 대한 중·고금리 대출을 많이 해준 인터넷은행의 가계 예대금리차는 2%p 이상으로, 시중은행보다 많게는 4.56%p나 차이가 났다.     케이뱅크가 2.46%p, 카카오뱅크가 2.33%p 수준이었고, 토스뱅크는 무려 5.60%p를 기록했다.     토스뱅크는 중·저신용자 대출 비중이 38%로 은행 중 가장 크고, 2% 금리의 수시입출금 통장이 주력 상품인데 이런 요구불예금 금리는 반영되지 않았기 때문이라는 분석이다.     또 1년이 채 되지 않은 은행으로 현재 전세자금대출이나 주택담보대출과 같은 담보대출보다 비교적 금리가 높은 신용대출로 주로 구성된 여신상품 포트폴리오를 보유하고 있다.     19개 은행 가운데서는 전북은행이 가계대출 예대금리차가 6.33%p로 가장 컸다. 전북은행은 서민금융진흥원 연계대출인 햇살론뱅크, 햇살론유스 비중이 높아 예대금리차가 확대됐다는 분석이다.     기업대출까지 포함한 전체 은행의 예대금리차를 보면, 5대 은행 가운데 NH농협은행이 1.36%p로 가장 컸다.     우리은행(1.29%p), KB국민은행(1.18%p), 신한은행(1.14%p), 하나은행(1.10%p)이 뒤를 이었다.     이번 예대금리차 공시 개편은 금리 관련 정보를 소비자에게 정확하고 충분하게 제공해 금리 상승기에 소비자의 부담을 완화하고자 추진됐다.     은행연합회 관계자는 "이번 공시 개선을 통해 정확하고 충분한 금리정보를 제공해 금융소비자의 정보 접근성이 크게 제고될 것으로 기대한다"며 "내년 상반기 중 이번 공시체계 개선이 은행권 여·수신 금리와 소비자 부담에 미치는 영향 등을 모니터링할 것"이라고 말했다.    권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>정보 투명성 갈길 먼 인터넷은행[김효숙의 쑥덕쑥덕]</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002632491?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>여·수신 자료 제공 소극적위상 맞는 책임감 가져야케이뱅크, 카카오뱅크, 토스뱅크 ⓒ각 사[데일리안 = 김효숙 기자] '역대 최대 실적.' 인터넷전문은행들이 상반기 실적자료를 공개하며 내건 수식어다. 카카오뱅크의 상반기 당기순이익은 전년 동기보다 6.8% 많아진 1238억원을, 같은 기간 케이뱅크의 당기순이익은 103% 증가한 457억원을 기록했다. 모두 출범 이후 상반기 최대이익이다.두 은행은 최근 무섭게 성장 페달을 밟고 있다. 카카오뱅크에 이어 케이뱅크가 기업공개에 나섰고, 주택담보대출과 개인사업자대출 등 영역에서 사업을 키우고 있다. 지난해 출범한 토스뱅크는 고객 수가 360만명을 넘었고, 지난 5월 예대사업에서 첫 흑자를 기록했다고 밝혔다. 곧 공개할 상반기 실적에서도 수익성이 개선되리라는 게 업계의 전반적인 전망이다.1금융권으로서 커진 덩치를 뽐내고 싶어 하면서도, 부담스러울 때는 막내를 자처한다. 정보 투명성 측면이 대표적이다. 5대 은행은 언론에 월말 기준 수신과 여신의 상세 내역을 공개한다. 수신에서 요구불예금·MMDA·정기예금 등을, 여신에서는 주담대·신용대출·기업대출·전세자금대출 등 수치를 보고 매달 비교할 수 있다.반면 케이뱅크·카카오뱅크는 수신과 여신 총합만 공개한다. 토스뱅크는 그 마저도 알리지 않는다. 물론 이는 공시 의무사항이 아니지만, 그렇다고 정보를 주지 않을 별다른 이유가 있는 것도 아니다. 대개는 아직은 여·수신 수치 비교가 부담스럽다는 입장이다. 인터넷은행 관계자들은 "내부지침이 그렇다"며 "아직은 시중은행과 같은 기준으로 평가 받긴 부담스럽다"고 설명했다.이런 수치 공개가 중요한 이유는 금융소비자들이 정확한 시장 정보를 얻을 수 있기 때문이다. 은행별 비교를 통해 시중 자금이 어디로 흘렀는지, 금융권 분위기는 어떤지, 어느 상품이 수신과 여신의 수익성 지표에 영향을 줬는지 월 단위로 분석할 수 있다. 매달 관련 기사가 나올 수 있는 것도 금융소비자들의 관심이 그만큼 높다는 방증이다.인터넷은행 3곳의 수신규모는 66조원, 여신규모는 40조원을 넘는다. 어엿한 1금융권으로서 자리잡은 인터넷은행이 덩치값에 소극적인 것은 안타까운 대목이다. 이들은 올해 초 정부의 청년희망적금 사업에서도 빠져 빈축을 샀다. 평균 대출 금리보다 높은 이자를 주는 탓에 은행이 손해를 감수해야하는 구조였는데, 시스템을 이유로 빠지면서 정책 부담은 회피한다는 비판이 일었다.은행은 필연적으로 공적 기능을 갖는다. 은행은 애초 고객 돈을 받아 굴려 이익을 내는 산업인데다, 필요할 시 공적 자금에 기대기도 한다. 진입규제가 높은 탓에 경쟁이 제한돼 일정 부분 독과점 이익을 얻는 측면도 있다. 사기업임에도 투명성과 윤리 등 여러 사회적 가치에서 높은 책임을 부여받는 이유다.하물며 인터넷은행은 은산분리 예외라는 특혜까지 받으면서, 사회적 가치 제고를 위해 태어났다. 이제 커진 덩치에 맞는 모습을 보여줄 때다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>베일 벗은 예대금리차…5대 은행 1.21%·토스뱅크 5.65%</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011375945?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>기사내용 요약대출 예대금리차 토스뱅크 5.65%로 1위가계 기준으로는 전북은행 6.33%로 최고5대 은행선 농협 1.36%·신한 1.62%이 높아[서울=뉴시스]이주혜 기자 = 금리 인상 기조 속에 과도한 '이자 장사'로 비판받은 은행권의 예금과 대출금리 차이를 보여주는 예대금리차가 22일 공개됐다. 19개 은행 중 토스뱅크의 대출 예대금리차가 5.65%로 가장 컸으며 가계 예대금리차는 전북은행이 6.33%로 가장 큰 것으로 나타났다. 22일 은행연합회는 홈페이지를 통해 예대금리차를 비교 공시하고 대출·예금금리 공시를 개선했다고 밝혔다. 이날부터 19개 전체 은행의 예대금리차가 매월 공시될 예정이다. 예대금리차는 월별 변동 추이를 확인할 수 있도록 신규 취급액 기준으로 산출된다. 대출평균 기준과 가계대출 기준 예대금리차를 모두 공시한다. 예대금리차는 평균 대출금리에서 저축성수신금리를 뺀 것으로 한국은행의 '금융기관 가중평균금리' 기준과 동일하다.은행연에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 은행의 지난달 대출평균 예대금리차는 1.21%로, 인터넷은행은 3.48%로 나타났다. 가계대출 예대금리차는 5대 은행 1.37%, 인터넷은행 3.46%다. 토스뱅크의 대출평균 예대금리차는 5.65%로 19개 은행 중 가장 큰 것으로 나타났다. 5대 은행 중에서는 농협은행이 1.36%로 가장 컸다. 이어 ▲우리은행 1.29% ▲국민은행 1.18% ▲신한은행 1.14% ▲하나은행 1.10%로 집계됐다. 인터넷은행 케이뱅크는 2.45%, 카카오뱅크는 2.33%다. 예대금리차는 은행별 대출과 예금 포트폴리오에 따라 확대 또는 축소될 수 있다. 은행연 관계자는 "중·저신용자 대출 비중이 높은 은행의 경우 평균 예대금리차가 확대되는 현상이 나타날 수 있다"며 "신용점수 구간별 예대금리차를 공시해 오해를 해소했다"고 말했다. 토스뱅크 관계자는 "상대적으로 중·저신용자의 비중이 높아 평균 대출금리가 다른 은행보다 높을 수밖에 없다"며 "2%대 금리의 요구불예금(수시입출금 통장) 중심의 사업적 특성이 수신금리에 반영되지 않아 수신금리가 고객이 실제 체감하는 금리보다 낮게 공시됐다"고 설명했다. 토스뱅크의 대출 고객 중 중저신용자 비율은 7월 말 기준 약 38%다. 가계대출 예대금리차는 19개 은행 중 전북은행이 6.33%로 가장 컸다. 은행연 관계자는 "전북은행은 서민금융진흥원 연계대출인 햇살론뱅크, 햇살론유스 비중이 높아 예대금리차가 확대됐다"고 설명했다.5대 은행 중에서는 신한은행의 가계대출 예대금리차가 가장 컸다. 은행별로 ▲신한은행 1.62% ▲우리은행·농협은행 1.40% ▲국민은행 1.38% ▲하나은행 1.04% 순이다. 신한은행 관계자는 "이번 가계대출 예대금리차 산출 시 고금리인 서민금융의 비중이 올라가면서 대출 금리가 올라갔다"며 "금리변동성 리스크를 줄이기 위해 고정금리대출 활성화 정책을 취하면서 가계대출금리가 올라가는 효과가 발생했다"고 말했다.인터넷은행에서는 ▲토스뱅크 5.60% ▲케이뱅크 2.46% ▲카카오뱅크 2.33%로 나타났다.이번 예대금리차 공시 개편은 금리 관련 정보를 소비자에게 정확하고 충분하게 제공해 금리상승기에 소비자의 부담을 완화하고자 추진됐다. 또 대출금리 공시기준을 7월 신규 취급액부터 '은행 자체 신용등급 기준(5단계)'에서 '신용평가사(CB) 신용점수(9단계, 50점 단위)'로 변경해 공시한다. 은행이 판매 중인 주요 예금상품의 금리정보(기본금리, 최고우대금리)에 전월 평균금리(신규취급)도 추가 공시했다.은행연 관계자는 "이번 공시 개선을 통해 정확하고 충분한 금리정보를 제공함으로써 금융소비자의 정보 접근성이 크게 제고될 것으로 기대한다"며 "내년 상반기 중 이번 공시체계 개선이 은행권 여·수신 금리과 소비자 부담에 미치는 영향 등을 모니터링할 것"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>'빈수레가 요란했나' 예대금리차 공시, 뚜껑 열어보니</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000009931?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>은행별 예대금리차 차이 미미…금리인하 효과에 물음표중·저 신용자에 대출 문턱 낮춘 전북·광주·인뱅 등 된서리윤석열 대통령의 핵심 공약이었던 은행별 예대금리차 공시가 22일 부로 시작됐다. 애초 윤석열 대통령은 이를 통해 금융소비자의 선택 폭을 넓히고 은행간 대출금리 인하 경쟁이 시작될 것이라고 내다봤다. 하지만 정작 뚜껑을 열어보니 이같은 효과를 기대하기 힘들 것이란 분석이 나온다. 주요 은행간의 예대금리차이는 크지 않아 굳이 은행들이 경쟁에 나설 필요가 없다는 이유에서다.나아가 지나치게 '단편적'인 정보를 공시한다는 지적도 제기된다. 일례로 중·저신용자에게 대출의 문턱을 넓혀줬던 일부 은행들의 경우에는 예대금리차이가 크게 벌어져 자칫 이자장사를 한다는 오명만 뒤집어쓰게 됐다는 불만도 나온다./그래픽=유상연 기자 prtsy201@예대금리차 뚜껑 열어보니…대출금리 낮아질까 '물음표'22일 은행연합회에 따르면 지난달 16개 시중은행(KDB산업은행, 씨티은행 제외)의 평균 예대금리차이는 1.97%로 집계됐다. 쉽게 설명해서 은행에게 100만원의 예금이 들어와 이를 대출로 내어주고 이에 따른 각종 비용들을 모두 제외했을 때 은행들이 1만9700원을 벌었다는 이야기다. 가장 여수신 취급액 비중이 높은 5대 시중은행의 경우 △농협은행 1.36% △우리은행 1.29% △국민은행 1.18% △신한은행 1.14% △하나은행 1.10%의 순으로 집계됐다. 평균보다 더 낮았다./그래픽=유상연 기자 prtsy201@이 공약의 핵심이 가계의 이자 부담 절감이라는 측면에 따라 가계 대출만을 따져봐도 차이는 크지 않다. 이들 은행의 가계 예대금리차는 2.08%로 전체 예대금리차이보다 0.11%포인트가량 높았다. 5대 시중은행의 평균은 1.37% 였다. 은행 관계자는 "은행 예대금리차가 2%라는 것은 일반 기업으로 따지면 하나의 재화를 팔아 벌어들이는 남는 돈이 2% 수준이라는 이야기"라며 "글로벌 은행과 비교할 경우 국내 은행들의 예대마진은 적정 예대마진을 하회한다고 볼 수 있다"고 설명했다. 이와 관련 글로벌 은행들의 예대금리차는 3%이상이라는 게 이 관계자의 설명이다. 이같은 상황에서 예대금리차를 매달 공시하는게 이 공약의 핵심이었던 대출금리 인하로는 이어질 가능성도 적다고 봤다. 다른 은행 관계자는 "은행들이 자금을 조달하고 운용하는 시장은 사실상 다 같은 시장이다. 은행간 예대마진의 차이가 크게 벌어질 수 없는 상황이었다"라며 "이를 분기별로 공시하던 걸 매달 공시한다고 해서 대출금리가 인하되는 효과가 있을 것이라고 보진 않는다"고 설명했다.이어 "이번 금리공시로 바뀔 것이 있다면 금융당국의 주문에 은행들이 여력이 있는가를 판단할 수 있는 가늠자 역할 정도를 할 수 있을 것 같다"라며 "대출금리 인하와 수신금리 인상 압박에 은행들이 어느정도 가능한 수준에서 상품을 운용할 수 있을지 예상하는 지표 그 이상으로도 이하로도 활용하긴 힘들 것"이라고 짚었다.'수박 겉핥기 공시'에 난감한 은행들이번 공시를 두고 일부 은행권에서는 보여지는 숫자로만 산출하는 예대금리차 공시의 특성에 부정적인 이미지를 피할 수 없게 됐다고 토로한다. 전북은행, 광주은행 등 JB금융지주 계열 지방은행 두 곳과 케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷 전문은행 3곳이다.전북은행과 광주은행의 경우 전라도라는 거점지역의 지역특성상 기업대출 등을 적극 취급하기 힘들어 사실상 가계대출에 대한 의존도가 크다. 가계대출중 핵심인 주택담보대출을 통해 기대할 수 있는 이익규모도 크지 않다. 이 지역의 경우 주택가격 역시 전국적으로도 낮은 지역이라 주택담보대출 1건을 취급한다하더라도 이를 통해 기대할 수 있는 순익이 많지 않다.이를 타파하기 위해 두 은행이 집중한 곳은 중·저신용자 대출이다. 이 둘 은행은 일찌감치 전국적으로 영업망을 넓힘과 동시에 그동안 은행의 문턱을 넘기 어려웠던 신용점수 800점 이하(과거 5등급 이하)에게도 적극 대출을 내줬다. 중·저신용자 등에게 대출의 문턱을 내어준 만큼 금리는 다른 은행에 비해 높았다.이번 예대금리공시에서 이들의 노력은 허사가 된 모습이다. 두 은행의 예대금리차는 전북은행 4.59%, 광주은행 2.50%로 은행권 최고 수준을 기록했다. 중·저신용자에게 대출의 문턱을 낮춰준 것이 오히려 이자장사를 한다는 지적의 근거가 된 셈이다. 인터넷전문은행 3사도 상황은 비슷하다. 카카오뱅크, 케이뱅크, 토스뱅크의 예대금리차는 각각 2.45%, 2.33%, 5.65%로 기록됐다. 은행권의 평균을 큰 폭 상회했다.이들 은행에게도 변명의 거리는 있다. 이들은 가계대출중 일부는 중·저신용자에게 내줘야 한다는 주문을 금융당국으로 부터 받은 상황이다. 게다가 기업대출의 경우 코로나19(코로나19 바이러스 감염증)으로 어려움을 겪고 있는 소상공인들에게만 내줬다. 부실 가능성이 큰 차주들에게 대출을 내준 만큼 금리가 높을 수 밖에 없었고 예대금리차도 그만큼 클 수밖에 없는 상황인 셈이다.특히 전 은행권을 통틀어 가장 높은 예대금리차를 기록한 토스뱅크의 경우 억울함이 더 크다. 토스뱅크는 출범 직후부터 수시입출금식 예금에 2%금리를 주는 파격적인 금융상품을 내놓았다. 토스뱅크의 수신 22조원중 절대다수가 이 예금에 들어가 있다. 문제는 이 상품은 요구불예금에 해당한다는 점이다. 요구불예금은 예대금리차이를 계산할 때 반영되지 않는다. 요구불예금이 언제나 인출이 가능하며 일반 시중은행의 경우 금리가 현저하게 낮기 때문에 저축성 상품으로 보기 힘들다는 이유에서다. 이에 토스뱅크의 수신금리는 1.00%로 공시됐다. 토스뱅크의 예대금리차가 지나치게 높은 이유로 꼽힌다.토스뱅크 관계자는 "예대금리차 공시에서 요구불예금의 금리는 반영되지 않아 고객이 실제 체감하는 금리 대비 낮게 공시된 측면이 있다"고 설명했다. 인터넷 전문은행 관계자는 "신용점수가 낮아 금리가 높은 차주들에 자금을 공급하고 그 리스크는 온전히 은행이 지고 있다"라며 "단순 숫자만 나열하게 하면서 일부 은행들의 노력은 전혀 고려되지 않은 공시"라고 토로했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>가계 대출금리 가장 높은 은행은 전북, 예금금리 가장 낮은 은행은 토스</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003711332?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>예대금리차 최대 전북銀, 최소 부산銀은행연합회 홈페이지 공시 서울 시내에 은행 ATM 기계가 나란히 설치된 모습/뉴시스										19개 은행 중 가계 예금금리와 대출금리 차이를 뜻하는 예대금리차가 가장 큰 은행은 6.33%포인트에 달하는 전북은행으로 집계됐다.전북은행은 예금금리 평균(3.13%)이 은행권 4위였지만, 대출금리가 평균 9.46%로 압도적인 1위여서 예대금리차가 크게 벌어진 것으로 조사됐다. 전북은행 측은 “신용점수가 낮은 취약 계층에 대한 중금리 대출을 적극적으로 한 영향”이라고 했다.가계 예대금리차가 가장 적은 곳은 부산은행으로 0.82%포인트였다. 평균 예금 금리(3.05%)가 12위로 낮았지만, 평균 대출 금리가 3.87%로 최하위권이었다. 단순히 예대금리차가 크다고 예금 이자가 낮다고 하기는 어렵다는 뜻이다.22일 은행연합회 홈페이지의 ‘7월 예대금리 차 공시자료’에 따르면, 가계 예대금리차는 전북은행에 이어 2위 토스뱅크(5.60%포인트), 3위 케이뱅크(2.46%포인트), 4위 카카오뱅크(2.33%포인트) 등으로 인터넷전문은행들이 상위권을 차지했다. 전북은행과 마찬가지로 중금리 대출 비중이 높아 예대금리 차가 큰 것으로 보인다.예대금리 차는 평균 대출금리(해당 월에 신규 취급한 가계대출 및 기업대출의 가중평균 금리)에서 저축성 수신금리(해당 월에 신규 취급한 순수 저축성예금 및 시장형 금융상품의 가중평균금리)의 차이다.5대 은행(KB국민·신한·하나·우리·농협) 중에서는 신한은행이 1.62%포인트로 가장 컸다. 우리은행과 농협은행이 1.40%포인트로 2위, KB국민은행 1.38%포인트, 하나은행 1.04%포인트 순이었다.평균 가계 대출 금리 평균은 전북은행(9.46%), 토스뱅크(6.60%), 광주은행(6.24%), 케이뱅크(5.20%), 제주은행(4.86%) 등 순이었다. 5대 은행 중에선 신한은행(4.57%), KB국민(4.36%), 우리(4.22%), 하나(4.12), 농협(3.94%) 순으로 나타났다.평균 예금금리가 가장 높은 곳은 씨티은행(3.74%)이며 그 뒤로 제주은행(3.32%), 산업은행(3.23%), 수협(3.14%), 전북은행(3.13%) 등 순이었다. 토스뱅크의 평균 예금금리(1%)가 전체 중 가장 낮았다.가계대출에 기업대출까지 합친 전체 예대금리차의 경우는 토스뱅크가 5.65%포인트로 가장 높았다. 이어 전북은행(4.59%포인트), 광주은행(2.50%포인트), 케이뱅크(2.45%포인트), 카카오뱅크(2.33%포인트), 제주은행(1.75%포인트) 등 순이었다. 예대금리 차가 가장 낮은 곳은 산업은행(0.53%포인트)으로 집계됐다.이전까지 은행권은 예대금리 차를 5개 신용등급으로 나눠 공시했으나 지난 7월분부터 9개 구간으로 더 세분화해 매달 은행연합회 소비자포털에 공시한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>[일문일답]플랫폼 통해 금융상품 가입...피해 발생시 책임은 누구에게?</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011379160?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 김명원 기자 = 김주현 금융위원장이 23일 서울 종로구 정부서울청사에서 열린 금융규제혁신회의 제2차 회의에 참석해 발언하고 있다. 2022.08.23. kmx1105@newsis.com[서울=뉴시스] 정옥주 기자 = 금융위원회가 온라인 플랫폼을 통한 금융상품 가입시 발생한 소비자 피해의 배상 책임은 "플랫폼 업체에 있다"는 점을 분명히 했다.금융위는 23일 '금융규제혁신회의' 제2차 회의를 열고 이같은 내용을 담은 금융회사의 플랫폼 금융 활성화 및 온라인 플랫폼 금융상품 중개업 시범운영 방안 등에 대해 논의했다. 이에 따르면 은행들은 통합 금융플랫폼인 '디지털 유니버셜 뱅크'를 통해 헬스케어나 중고차 거래 등 계열사 비금융서비스까지 제공할 수 있게 된다. 또 하나의 핀테크 플랫폼에서 대출 뿐 아니라 예금, 보험, P2P 등 다양한 상품을 비교·추천받을 수 있는 서비스가 시범운영된다.이형주 금융위 금융산업국장은 이날 브리핑에서 소비자보호 책임과 관련해 "금융상품 중개 과정에서 플랫폼의 고의·과실로 소비자 피해 발생시 원칙적으로 중개업자인 플랫폼 업체가 배상책임을 지게 된다"며 "단 소비자는 금융소비자보호법에 따라 플랫폼 업체뿐만 아니라 금융회사에도 손해배상을 청구할 수 있다"고 말했다.이와 함께 온라인 플랫폼의 보험상품 취급으로 보험대리점 등 기존 모집채널과 설계사들이 피해를 본다는 우려에 대해서는 "플랫폼은 빅데이터 분석기술 등을 활용해 비교·추천만 할 수 있으며, 기존 모집채널은 설계사의 전문적인 설명 등을 통한 상품 판매역할을 지속 수행할 수 있다"고 설명했다.앞서 전국 법인보험대리점(GA)들로 구성된 한국보험대리점협회(IAA)는 대리점·설계사의 생존 위협과 고용감소 유발 등을 이유로 "네이버·카카오·토스 등 온라인 플랫폼의 보험대리점 진입 허용을 결사 반대한다"고 강력 반발했다. -플랫폼을 통해 금융상품에 가입하였는데, 소비자 피해가 발생한 경우 누가 어떻게 보상해 주나"금융상품 중개 과정에서 플랫폼의 고의·과실로 소비자 피해 발생시 원칙적으로 중개업자인 플랫폼 업체가 배상책임을 지게 된다. 다만, 소비자는 금융소비자보호법에 따라 플랫폼 업체뿐만 아니라 금융회사에도 손해배상을 청구할 수 있다. 금융소비자보호법은 소비자의 원활한 손해보상 청구를 위해 판매대리·중개업자뿐만 아니라 금융회사에도 손해배상을 청구할 수 있도록 규정돼 있다."-온라인 플랫폼을 통한 금융상품 중개가 확대되면, 금융회사가 플랫폼에 종속되는 문제가 발생하는 것 아닌지"플랫폼의 영향력이 과도하게 확대되거나 우월적 지위를 남용할 우려에 대한  다양한 보완장치를 마련했다. 온라인 플랫폼의 업무범위를 적절하게 제한하고, 불공정행위 방지를 위한 다양한 제도적 보완장치를 적용할 계획이다. 또 금융회사가 플랫폼에 금융상품 판매권유 업무를 위탁하게 되므로,  금융회사를 통해 플랫폼이 관련 리스크를 충실히 관리하도록 하고 이를 점검할 계획이다."-플랫폼의 알고리즘 분석 결과가 소비자의 금융상품 선택에 큰 영향을 미치게 되는데, 알고리즘의 공정성은 어떻게 확보할 것인지"모든 금융상품에 공통적으로 금소법상 이해상충 방지를 위한 알고리즘 요건을 적용하고, 신뢰할 수 있는 기관(코스콤)으로부터 공정성에 대한 검증을 받도록 할 계획이다. 상품내용이 복잡한 보험상품의 경우에는 추가적인 공정성 확보방안을 도입·운영할 예정이다."-온라인 플랫폼을 통한 금융상품 중개시 중개수수료가 발생해 소비자 부담이 오히려 늘어나는 것 아닌가"플랫폼은 오프라인 영업장 등이 필요 없는 온라인 비대면 영업의 특성상 기존 채널 대비 중개 비용이 낮아질 것으로 예상된다. 플랫폼이 우월적 지위를 바탕으로 과도한 수수료를 요구할 경우 소비자 부담이 늘어날 수 있다는 우려에 대해서는 상품별 특성을 고려해 수수료 상한을 제한하거나, 수수료 공시의무를 부과하는 등 보완방안을 마련했다."-온라인 플랫폼의 보험상품 취급은 보험대리점 등 기존 모집채널과 갈등을 유발하며 설계사들의 소득감소를 가져오는 것 아닌지"설계사뿐만 아니라 생명·손해보험업계, 보험대리점업계, 핀테크업계 모두 이해가 첨예하게 대립되는 사안이다. 이러한 상황에서는 금융소비자의 편익 증진을 우선적으로 고려해 판단할 필요가 있다. 소비자 편익 우선원칙에 입각하고 보험대리점 등 이해관계자들의 의견도 충분히 수렴해 플랫폼과 기존 모집채널이 조화롭게 경쟁해 나갈 수 있는 대안을 마련했다. 플랫폼은 빅데이터 분석기술 등을 활용해 비교·추천만 할 수 있으며, 기존 모집채널은 설계사의 전문적인 설명 등을 통한 상품 판매역할을 지속 수행할 수 있다. 또 플랫폼의 영향력과 시장에 미치는 영향 등을 고려해 혁신금융서비스를 통해 일정 기간 시범운영을 한 후, 제도화를 추진할 계획이다."-소규모 핀테크기업에 대해서도 빅테크기업과 동일하게 과도한 규제를 적용하는 것 아닌가"빅테크와 핀테크기업의 시장영향력 차이, 규제준수부담 등을 고려해 차등화된 규제를 적용할 예정이다. 보험상품 취급시 영업규모에 비례해 영업보증금을 예치하도록 하고, 시장영향력이 큰 대형플랫폼에 한해 소비자 보호와 공정경쟁 측면에서 강화된 내부통제기준, 특정사에 편중된 비교·추천 방지규제(방카슈랑스규제 등 고려)도 적용할 계획이다"-플랫폼 예금 중개로 상대적으로 건전성이 취약한 제2금융권으로 과도한 자금쏠림(머니무브)이 발생하는 것 아닌지"해당 이슈는 업권 의견수렴, 분과 회의 등에서 지속적으로 제기된 사항으로서 여러 논의를 거쳐 아래의 보완장치를 마련했다. 상대적으로 유동성이 높은 요구불예금은 중개 상품에서 제외한다. 저축성상품(정기예·적금) 우선 시행후 상품범위 확대 여부를 단계적으로 검토할 예정이다. 은행 대비 회사수가 많고 상대적으로 건전성 관리가 취약한 저축은행·신협의 경우 플랫폼을 통한 모집한도를 3%로 제한(은행 5%)한다. 적기시정조치 대상 금융회사의 예금상품은 중개할 수 없도록 했다. 실제 운영과정에서도 건전성이 취약한 금융회사가 플랫폼을 통해 과도한 자금유치를 하는 문제가 발생하지 않도록 관리·감독할 계획이다."</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>이화여대, 금융감독원과 국제컨퍼런스 개최</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011393446?sid=102</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]김수연 인턴 기자 = 이화여자대학교(총장 김은미)는 금융감독원(원장 이복현)과 31일 이화여대 삼성홀에서 산학 교류를 통한 지속 가능 녹색 금융 모델을 제시하기 위한 국제컨퍼런스를 개최한다고 밝혔다. 'Starting Out with Green Finance'를 주제로 마련되는 이번 컨퍼런스는 영국 영업행위감독청(FCA), 3대 글로벌 신용평가사인 S&amp;P, 무디스, 피치, 금융감독원, 이화여대, KB금융그룹의 핵심 인사들이 참여해 ESG 및 녹색금융 전망 및 대응 전략 등을 소개한다. 행사는 제1부 국제컨퍼런스와 제2부의 MZ 청년 채용설명회 및 A.I. Challenge 대회로 구성된다. 이복현 금융감독원장의 개회사와 김은미 이화여대 총장의 환영사로 시작되는 국제컨퍼런스는 한덕수 국무총리, 백혜련 국회 정무위원회 위원장, 반기문 전 UN 사무총장을 비롯, 요아나 도너바르트(Joanne Doornewaard) 주한 네덜란드 대사, 아이너 옌센(Einar Jensen) 주한 덴마크 대사, 더글러스 피터슨(Douglas L. Peterson) S&amp;P 글로벌 회장, 마이클 웨스트(Michael West) 무디스 인베스터 서비스 회장, 이안 린넬(Ian Linnell) 피치 레이팅 회장 등 글로벌 인사들이 축사를 전할 예정이다. 1부 국제컨퍼런스는 온·오프 하이브리드 방식으로 총 7개의 주제 발표가 진행된다. 버틀랑 자불리(Bertland Jabouley) S&amp;P 글로벌 지속가능금융 대표, 제프리 리(Jeffrey Lee) 무디스 지속가능금융 대표, 지안루카 스피네티(Gianluca Spinetti) 피치 지속가능금융 대표는 각 사의 ESG 및 녹색금융 미래전망 및 추진전략에 대해 발표한다. 이어 사카 수단(Sacha Sudan) 영국 영업행위감독청(FCA) ESG 국장, 황재학 금융감독원 선임조사역, 이상훈 이화여대 교수, 오순영 KB금융 AI센터장의 발표가 진행된다.  2부 'MZ 청년 채용설명회'는 KB, 신한, 하나, 우리, NH 등 기존 금융사뿐 아니라, 카카오뱅크, 토스, 뮤직카우 등 디지털기업도 참여해 채용 절차, 면접 준비 팁 등 입사 전략을 공유할 예정이다. 이어서 진행되는 'A.I. Challenge 대회'에는 예선을 통과한 10개 팀이 인공지능을 활용한 미래금융 아이디어를 발표하고 심사위원 평가와 온라인 투표를 종합해 최종 우승자를 가린다. 본선 수상자에 대한 소정의 상금과 함께 예선을 통과한 10개 팀에는 KB국민은행 신입행원 IT·데이터 부문 채용 시 서류·필기 전형을 면제하는 특전이 주어진다.이화여대 측은 본 행사에 대해 "ESG 및 녹색금융의 미래에 대해 진단하고 관련 감독 정책 마련을 위한 논의의 장을 제공할 것"이며 "청년층 구직 지원을 통해 혁신적인 미래 금융 아이디어를 촉진하고 청년층의 미래 금융 인식 제고에도 기여할 것으로 기대된다"고 밝혔다. 한편, 이번 행사는 이화여대 유튜브와 금융감독원 유튜브에서 라이브로 시청할 수 있다. 국제컨퍼런스 행사 일정 *재판매 및 DB 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>카드사, 신규 고객 유치 이벤트 부작용…수익성 하락 우려</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002633090?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>체리피커 이어 ‘카드테크 족’ 등장현금성 마케팅 용돈벌이 ‘쏠쏠’휴면카드 1400만장↑…비용 증가ⓒ연합뉴스[데일리안 = 이세미 기자] 카드사들의 현금성 마케팅 경쟁이 과열되고 있는 가운데 최근 ‘카드사+재테크’의 합성어인 ‘카드테크’라는 신조어가 탄생해 눈길을 끈다. 카드테크 족들은 기존 체리피커들과 마찬가지로 카드를 신규 발급받아 혜택만 받고 떠나는 방법으로 쏠쏠한 용돈 벌이를 하는 이들을 일컫는다.카드사들은 신규 고객을 유치를 위해 어쩔 수 없다는 입장이지만 수익성 악화에 직면한만큼, 충성고객 확보에도 힘을 쏟아야 한다는 지적이 나온다.24일 금융권에 따르면 전업카드사 8곳(신한·삼성·국민·현대·롯데·우리·하나·BC)은 최소 6개월에서 1년 간 카드 결제 내역이 없는 고객을 대상으로 캐시백과 현금성 마케팅 이벤트를 활발하게 진행하고 있다. 이벤트는 주로 해당 기간 동안 신용카드를 신규 발급해 일정 금액 이상을 결제하면 10~20만원에 달하는 포인트는 물론, 토스나 네이버 등 금융 플랫폼에서 발급 시에는 현금을 돌려주는 방식이다.카드테크 족들이 현금성 카드 마케팅에 더욱 열을 올리는 이유는 신규 발급한 카드를 해지해도 신용등급이 떨어지지 않기 때문이다. 보유한 신용카드 개수 역시 신용등급이나 신용 평점에 영향을 주지 않는다. 이들은 이를 활용해 카드 발급 및 해지 일자, 결제일을 따로 정리하고 필요할 때마다 카드를 발급받아 혜택을 챙기는 등 노하우도 공유한다.카드사들의 신규 고객 유치를 위한 퍼주기식 마케팅도 한 몫 하고 있다. 카드사들은 과거부터 ‘신용판매 점유율(MS)’을 바탕으로 업계 순위를 결정짓는 경우가 잦았기 때문에 큰 부담을 가져왔다. 최근 빅테크와의 경쟁까지 심화되면서 카드사들의 신규 고객 유치에 대한 집착은 갈수록 커지고 있다.또 내수 시장이 이미 포화 상태에 이르러 개신 신용 발급장수가 2013년(1억1600만장) 수준에 머물고 있는 점도 카드사들의 마케팅 경쟁을 부추기는 요인으로 작용한다. 이밖에 신규 고객을 카드론이나 현금서비스 등 대출 상품으로 유인해 수익성 악화를 방어하기 위한 목적도 있다.문제는 카드사들의 ‘풍성한’ 이벤트로 인해 카드테크 족은 물론 1년 이상 사용하지 않는 휴면카드 역시 꾸준히 증가한다는 점이다. 휴면카드는 지난 2분기 1428만4000장으로 전분기 1373만6000장 보다 약 3.9% 늘어났다. 지난 2015년 800만장과 비교하면, 7년 새 600만장이나 증가한 셈이다.전문가들은 미사용 카드의 경우 분실될 가능성이 높고 금융사고로 이어질 수 있다고 경고하고 있다. 그러나 카드사들은 휴면카드 회원이라도 확보해두고 재 사용을 유도하는 것이 비용면에서 더 효율적이라고 보고 있다.금융권 관계자는 “불필요하고 과도한 마케팅 경쟁이 치열해지면서 카드사들에게 비용적으로 부담이 될 가능성이 높고, 이는 곧 혜택 좋은 카드 단종으로 이어져 고객들이 피해를 볼 수 있다”고 말했다. 이어 “충성고객을 위한 영업전략을 세워야 할 때”라고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.08.19.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>조아제약 실적 회복세로 올해 흑자전환 기대감 높여</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003906558?sid=102</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>조아제약(대표이사 조성환, 조성배)이 실적 회복세를 보이며 올해 흑자전환의 기대감을 높이고 있다.조아제약은 연결기준 상반기 매출이 전년 동기 대비 18.9% 증가한 330억5800만원을 기록했다고 16일 공시했다. 같은 기간 영업손실은 52.1% 감소한 19억4700만원을 기록했다.2분기 매출액은 1분기 대비 11.4% 증가한 174억3400만원을 기록했으며, 영업손실은 29.7% 감소한 8억원을 기록했다. 점차 매출이 상승하고 적자 폭은 줄어들어 올해 700억원 매출과 흑자전환을 달성할 것으로 보인다.조아제약은 "지난 4월 사회적 거리두기 해제 이후 외부 활동이 증가한 데다 면역력 증진 등 건강에 대한 관심이 높아지면서 실적 회복의 전환점을 마련한 것으로 보인다"고 전했다.실제 조아제약 대표 품목들이 매출 상승세를 보이고 있다. 늘어난 회식 자리에 간장약을 찾는 사람이 많아지면서 조아제약 간장 활성화제 '헤파토스시럽'은 1분기 대비 40% 이상 매출이 늘었다. 자녀의 성장과 면역력 증진에 대한 관심도 높아져 조아제약 대표 어린이 제품 '잘크톤군'의 매출도 16% 상승했다.특히 특허받은 용기 '조아 Safeasy Ampoule(가칭)'이 올 하반기 본격적으로 생산될 예정이어서 실적 개선에 탄력을 받을 전망이다.폴리프로필렌(PP) 재질 용기 '조아 Safeasy Ampoule'은 4년여의 연구 기간을 들여 개발한 용기로 국내 특허를 취득하고, 해외 12개국(미국, 유럽, 일본, 중국, 베트남, 인도네시아, 말레이시아, 캄보디아, 페루, 쿠웨이트, 과테말라, 사우디아라비아)에 특허 출원을 마쳤다.간편하게 개봉할 수 있는 원터치 설계로 언제 어디서나 쉽게 복용할 수 있고, 충격에 강한 설계로 강한 내구성과 내열성뿐만 아니라 제품 파손 가능성을 최소화했다. 환경 호르몬을 배출하지 않아 안전하게 사용할 수 있고, 특이성이 높아 제품 매출과 함께 외부 OEM(위탁생산) 매출 증대도 기대할 수 있다는 게 회사 측의 설명이다.또한, 조아제약 건강기능식품이 국내 유수의 업체들과 전략적 제휴를 통해 홈쇼핑과 온라인 시장에 진출, 가시적인 성과를 거둔 만큼 사업을 다각화하는 방안도 적극적으로 추진 중이라고 전했다. 기존의 유통 채널 강화는 물론 새로운 성장시장 개척과 신규 고객의 창출이 중장기적으로 약국매출 증대로 연결될 수 있기 때문이다.조아제약은 올 하반기 3~4개 제품의 홈쇼핑 론칭 준비를 완료했으며, 이를 통해 약 50억원의 매출을 올릴 것으로 기대하고 있다.아울러 아이들에게 친숙한 캐릭터 '포켓몬스터'를 적용한 어린이 음료의 출시도 앞두고 있다.'잘크톤 시리즈' 등이 어린이 건강 관련 제품 시장에서 스테디셀러로 확고히 자리매김을 한 가운데 어린이 제품군을 강화해 실적 개선에 나선다는 계획이다.조아제약 관계자는 "실적 회복의 발판을 마련한 가운데 사업 다각화와 소비자 니즈에 부합하는 신제품 출시 등을 통해 상승세를 이어나가려고 한다"며 "신성장 동력 창출과 혁신을 통해 2022년 흑자 전환을 달성할 수 있도록 하겠다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>KB카드도 ‘보험상품 비교’ 플랫폼 검토</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002035108?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>플랫폼 금융활성화 방안 영향네이버 등 빅테크 기업에 맞서한국핀테크지원센터에 절차 문의다른 카드사도 경쟁에 뛰어들 전망1000만명 이상 회원 보유 시너지KB국민카드가 네이버, 카카오 등 빅테크 기업에 맞서 자체 플랫폼을 통한 ‘보험상품 비교 추천 서비스’ 신청을 검토 중인 것으로 확인됐다. 금융당국이 네이버, 카카오, 토스 등 플랫폼 사업자의 보험상품 비교·추천 서비스를 허용한 데 따라, 이들 빅테크가 해당 서비스 론칭을 검토하는 가운데 카드업계도 경쟁에 뛰어들 전망이다. 특히 회원수 1000만명 이상의 대형 카드사들은 이 같은 서비스로 플랫폼 시너지 효과도 기대하는 것으로 전해진다.31일 관련업계에 따르면 KB국민카드는 최근 한국핀테크지원센터에 ‘보험상품 비교서비스’ 제공을 위한 절차와 조건 등에 대해 문의했다. 사정을 잘 아는 관계자는 “KB국민카드측이 보험상품 비교 서비스를 구상중이라고 밝혔다”면서 “절차나 일정 등에 대해 물은 것으로 안다”고 말했다.카드사가 이처럼 혁신금융서비스에 관심을 보인 것은 금융당국이 지난 23일 플랫폼 금융 활성화 방안을 발표했기 때문이다. 이 과정에서 빅테크 기업의 보험상품 비교·추천 서비스를 허용하는 한편, 카드사의 생활밀착 금융플랫폼 전환도 돕기로 했다.KB카드는 이에 자사 플랫폼 내 보험상품 비교·추천서비스 확대에 관심을 갖고 혁신금융 신청을 받는 한국 핀테크지원센터에 문의를 한 것으로 풀이된다.업계는 KB카드 뿐 아니라 타 카드사들도 해당 서비스를 플랫폼에 선보일 것으로 보고 있다. 특히 회원수가 1000만명 이상인 대형 카드사들은 플랫폼 서비스 확대에 관심이 높은 것으로 알려져 있다. 여신금융업계에 따르면 7월 기준으로 KB카드의 회원수는 1123만명, 신한카드는 1408만명, 삼성카드는 1237만명, 현대카드는 1096만명이다. 4대 카드사의 회원수가 모두 1000만명이 넘는다. 카카오나 네이버 등 빅테크 기업의 회원수가 5000만명 수준인 것을 감안하면 카드사 입장에서도 붙어 볼 만한 싸움이라는 것이다. KB손해보험, 신한라이프 등 대형 보험사가 각 카드사와 계열사로 있는 것도 강점이 될 수 있다. 게다가 삼성카드를 제외한 모든 카드사가 마이데이터 사업자라는 점도 유리하다. 하나의 플랫폼에서 자신의 금융 생활을 모두 살펴볼 수 있는 마이데이터 서비스에 보험상품 비교·추천서비스가 더해지면 시너지를 낼 수 있다는 기대다.보험업계 관계자는 “카드사 입장에서는 보험 비교 중개를 통한 수수료 확보를 통한 신규 수입원 창출이 가능하고 보험가입고객 대상으로 보험료 할인 등 카드 마케팅 가능이 가능해진다”며 “특히 마이데이터 사업권을 통해 확보한 고객 데이터와 고객의 보험가입 정보를 결합한 새로운 사업 추진으로 사업범위가 확대될 수 있다”고 말했다.한편 금융위는 10월부터 보험 비교추천 서비스 서비스를 개시하겠다고 밝혔지만 일정이 늦어질 가능성이 커졌다. 당초 금융위는 8월까지 비교 추천서비스 사업자 신청을 받겠다고 밝혔는데, 신청기간이 9월 6일로 미뤄졌다. 빅테크·핀테크 업계로부터 준비 시간이 급박하다는 의견을 받아 연장한 것으로 알려졌다.핀테크지원센터는 우선 9월 6일과 20일을 기한으로 보험비교추천서비스 사업자 신청을 받아 금융위에 제출할 계획이다. 금융당국 관계자는 “상황에 따라 일정은 유동적”이라고 말했다. 박병국 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.08.17.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>[단독]'DSR 40%' 초과대출 해준 은행…무슨 일이</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005293739?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>타행서 “DSR 넘친다” 거절받은 차주비대면 앱 5분만에 수천만원 추가대출금융당국도 은행권도 “말 안되는 상황”[이데일리 김정현 기자] 대기업에 근무하는 30대 A씨는 최근 급전이 필요해 시중은행 여러 곳의 문을 두드렸지만 번번이 거절당했다. 기존에 받아 놓은 전세대출과 신용대출이 있어 총부채원리금상환비율(DSR)이 40%에 근접한 상태였기 때문이다. ‘혹시나’ 하는 심정으로, 토스뱅크 비대면 대출 서비스에 접속한 A씨는 깜짝 놀라고 말았다. 토스뱅크 앱에선 클릭 몇 번으로 수천만원의 추가 대출이 실행된 것이다. A씨는 “급전이 필요한 상황이어서 다행이었지만, DSR 40%를 넘어서는 대출이 실행돼 사실 많이 놀랐다”며 의문을 나타냈다. 금융당국이 DSR 규제를 대폭 강화하면서 각 은행들이 대출에 깐깐한 잣대를 들이대고 있는 가운데, 토스뱅크에서 설명되지 않는 대출이 실행돼 논란이 일고 있다. DSR 40%가 넘어서는 데도 추가 자금을 빌리는 상황이 벌어진 것이다. 지난 6월 28일 토스뱅크 대표가 미디어데이 행사에서 발언하고 있다. (사진=연합뉴스)16일 이데일리에 제보한 취재원에 따르면 토스뱅크에서 최근 DSR 40%가 넘는 대출이 실행됐다. 연소득이 7600만원인 A씨는 B시중은행 전세대출 4억원(금리 3.00%)과 C은행 신용대출 8000만원(금리 2.95%)을 보유해 이미 DSR이 40% 문턱까지 찬 상황이었는데도 수천만원의 추가 신용대출을 받았다. DSR에 산출되는 원리금을 합하면 3036만원으로 여기에 A씨 소득 7600만원을 나누면 DSR 39.9%라는 결과가 도출된다. 전세대출 연이자 1200만원에 신용대출 이자 236만원, 신용대출 원금(실제 원금 ÷ 5) 1600만원을 모두 합한 금액이 3036만원이다.A씨가 토스뱅크에 앞서 찾았던 4개 시중은행들은 이 때문에 추가 대출 실행이 어렵다고 못박았다. 시중은행 2곳의 창구 직원은 “DSR 때문에 대출이 안 된다”고 말했고, 나머지 2곳은 DSR을 계산해보기도 전에 대출잔금이 너무 많다고 상담도 거부했다. 카카오뱅크, 케이뱅크 등 2개 인터넷은행에서도 대출이 불가했다.그런데 A씨는 어쩐 일인지 토스뱅크에서 추가로 5000만원을 대출받을 수 있었다. 대출과정은 막힘 없이 진행돼 몇분만에 토스뱅크 계좌로 대출금액이 입금됐다. A씨는 4%대 후반 금리에 원리금 10년 균등상환 조건으로 신용대출을 대출받았다. A씨의 DSR은 이제 50%에 육박한다.(취재원 보호를 위해 숫자는 일부 조정).이상한 것은 DSR이 은행마다 다르게 해석될 여지가 없다는 점이다. 차주의 원리금 정보는 한국신용정보원에서 통합 관리한다. 차주가 한 은행을 찾아 대출을 신청하면 신용정보원이 원리금 정보를 은행으로 보내주고, 은행은 신용정보원으로부터 제공받은 금액에 연 소득만 나눠 DSR을 산출하는 구조다.금융당국도 은행권도 의문을 보낸다. 은행권 한 관계자는 “당국이 내놓은 지침이 명확해 DSR을 자의적으로 해석할 여지는 전혀 없다”면서 “전세대출은 이자만 계산, 신용대출은 이자에 더해 원금을 5년간 갚는다고 가정해 DSR을 산출한다”고 말했다. 금융감독원 관계자도 “대출이나 소득의 변화가 없는 상황에서 단지 은행만 바꿔서 대출을 추가로 받을 수는 없다”고 선을 그었다.다만 DSR 40%를 초과하는 대출이 이뤄진다고 해도 당국에서 곧바로 적발하는 것은 사실상 불가능하다. 당국이 모든 개별 대출 정보를 들여다볼 수 없어서다. DSR 규제를 위반해도 별다른 제재 조치도 없다. 법률이 아니라 행정규칙이어서다. 금융권 관계자는 “당국은 차주 개별 정보가 아니라 전체 숫자 정도만 들여다보다가 이상 징후가 있으면 세세히 들여다본다”면서 “DSR 규제를 어겨도 발견되기는 쉽지 않다”고 말했다. 금감원 역시 “모든 개별적인 대출 상황 정보가 은행으로부터 금감원으로 통보되는 것은 아니기 때문에, 실제 검사를 나가보기 전까지는 적발하기 힘들다”고 전했다.토스뱅크는 이에 대해 “제보자에 대한 정보를 알지 못하는 상황이어서 별다른 입장을 제시하기 힘들다”면서 “당행 DSR에는 문제가 없다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.08.21.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>증권관리 플랫폼 '쿼타북' 투자 유치 240억 돌파 [주간 VC 동향]</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004886151?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>바이오 실험 로봇 '에이블랩스'30억 규모 프리시리즈A 마무리  유니콘 기업 다수를 고객사로 확보한 증권 관리 플랫폼 '쿼타북'이 시리즈A2 투자를 유치했다. 국내 최초로 바이오 실험 자동화 로봇을 제품화한 '에이블랩스'는 프리 시리즈A 투자를 마무리했다.   21일 벤처캐피털(VC) 업계에 따르면 증권 관리 플랫폼 쿼타북이 시리즈A2 투자를 유치했다. 쿼타북의 누적 투자 유치 금액은 총 240억원을 넘어섰다. 국내에서는 하나증권과 비바리퍼블리카(토스), 해외에서는 액세스벤처스가 새로운 주주로 합류했다. 실리콘밸리의 벤처캐피털 엘레펀드, 드레이퍼 어소시에이츠 등 기존 투자사 다수도 신규 후속 투자에 참여했다.   쿼타북은 주주명부와 스톡옵션 등을 전자화함으로써 안전하고 효율적으로 증권을 관리할 하는 서비스를 제공한다. VC·액셀러레이터 등의 투자사는 펀드 및 포트폴리오 관리가 가능하다. 현재 쿼타북에서 관리되고 있는 비상장 증권의 가치는 총 40조원에 달한다. 토스, 당근마켓, 오늘의집, 직방 등 국내 유니콘 스타트업도 고객사다. 쿼타북 최동현 대표는 "더욱 공격적으로 인재를 영입해 실행력을 강화하고, 증권 관리를 시작으로 비상장 금융 인프라의 표준으로 자리매김할 것"이라고 밝혔다.   스타트업 서바이벌 오디션 유니콘하우스에서 1위를 차지하며 국내 스타트업 업계에 이름을 알린 에이블랩스도 30억원 규모의 프리시리즈A 투자를 마무리했다. 투자에는 미래에셋벤처투자와 퓨처플레이가 참여했다.   에이블랩스는 수작업 기반으로 이루어지는 바이오 실험에서 일어나는 문제를 자동화 로봇을 통해 혁신하는 스타트업이다. 에이블랩스가 개발한 액체 핸들링 로봇 '노터블'은 바이오 실험을 자동화하는 로봇으로 마이크로 리터 단위의 액체를 정밀하게 흡입하고 분주할 수 있다.   에이블랩스는 회사 설립 3개월만에 시제품을 만들었고, 지난해 하반기 삼성바이오로직스와 진행한 기술실증 사업을 통해 안정성과 성능을 인정받았다. 이후 삼성바이오로직스에 정식으로 납품해 단백질 정제 공정을 자동화했다.   에이블랩스 신상 대표는 "올 하반기까지 40명 규모의 핵심 인력을 확보하고 미국 현지 법인을 설립하는 등 본격적인 사업 확장에 집중할 계획"이라며 "높은 품질의 연구 결과 및 신약 개발에 기여하는 기업이 되겠다"고 포부를 밝혔다.   한편, 신 대표는 과학기술정보통신부 주관의 ICT멘토링 사업의 우수 멘티로 선발돼 과기부 장관상을 수상한 바 있으며, 올 상반기 신한스퀘어브릿지 글로벌 멤버십에 선정되며 해외 진출을 위한 다양한 지원 프로그램에 참여하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>[일문일답] 금융위 "핀테크 보험상품 비교·추천만 허용…설계사 피해 최소화"</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006293332?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>"플랫폼이 비교·추천하면 설계사는 판매 맡아""플랫폼 중개수수료 증가 막기 위해 상한 둘 것"김주현 금융위원장(가운데)를 비롯한 참석자들이 지난달 19일 서울 중구 은행회관에서 열린 금융규제혁신회의 출범식에 앞서 기념 촬영을 하고 있다. 2022.7.19/뉴스1 ⓒ News1 이성철 기자(서울=뉴스1) 한유주 기자 = 금융위원회가 네이버·카카오·토스 등 핀테크 플랫폼의 보험상품 비교·추천 서비스를 열어준 가운데 '보험 판매'는 일단 허용하지 않은 것을 두고 "보험대리점(GA) 보험설계사들의 피해를 최소화할 수 있게 했다"고 설명했다. 앞서 보험대리점 업계와 설계사들은 온라인플랫폼의 보험대리점 진입을 허용할 경우 대리점과 설계사들의 고용 불안을 유발할 수 있다며 강하게 반발한 바 있다. 민간위원 16명과 금융위원장, 금융감독원장, 금융업권 협회장들로 구성된 금융규제혁신회의는 23일 2차 회의를 열고 이같은 방안을 논의했다. 혁신회의 브리핑을 맡은 이형주 금융위 금융산업국장은 "플랫폼이 보험상품 비교추천만 하면 판매는 GA·보험사를 통해 하는 식으로 (설계사들의) 피해를 최소화하는 식으로 만들었다"며 "플랫폼에서 상품 판매를 취급하는 것은 검증할 것들이 많아 불안전판매와 금융시장 안정 등 여러 이슈가 있기 때문에 단계별로 점검한 뒤 개선하겠다는 취지"라고 설명했다.금융규제혁신회의는 보험상품뿐 아니라 다양한 예금, P2P 상품을 하나의 플랫폼에서 비교·추천받을 수 있는 서비스를 혁신금융서비스 제도를 통해 시범운영하기로 했다. 또 전통 금융회사가 고유의 강점을 살려 플랫폼으로 발전할 수 있도록 업권별로 지원책을 마련하기로 했다.다음은 금융위원회와의 일문일답.-온라인 플랫폼이 보험상품을 취급하면 보험대리점 등 기존 모집채널과 갈등을 유발하며 설계사들의 소득이 줄 가능성은 없나.▶이해가 첨예하게 대립하는 사안에서 소비자 편익을 우선적으로 고려해 판단했다. 플랫폼은 빅데이터 분석기술 등을 활용해 비교·추천만 할 수 있으며, 기존 모집채널은 설계사의 전문적인 설명 등을 통한 상품 판매역할을 계속 수행할 수 있다. 또 플랫폼의 영향력과 시장에 미치는 영향 등을 고려해 혁신금융서비스를 통해 일정 기간 시범운영을 한 후, 제도화를 추진할 계획이다.-온라인 플랫폼으로 금융상품을 중개할 경우 중개수수료가 발생해 소비자 부담이 오히려 늘진 않나.▶플랫폼은 오프라인 영업장 등이 필요 없어 기존 채널 보다 중개 비용이 낮아질 것으로 예상된다. 플랫폼이 우월적 지위로 과도한 수수료를 요구할 경우 소비자 부담이 늘 수 있다는 우려는 상품별로 수수료 상한을 두거나 수수료 공시 의무를 부과하는 식으로 보완방안을 마련했다.-플랫폼을 통해 금융상품에 가입했을 경우, 소비자 피해가 발생하면 누가 어떻게 보상해주나.▶금융상품 중개 과정에서 플랫폼의 고의·과실로 소비자 피해가 발생하면 원칙적으로 중개업자인 플랫폼 업체가 배상책임을 지게된다. 다만 소비자는 금융소비자보호법에 따라 플랫폼 업체뿐 아니라 금융회사에도 손해배상을 청구할 수 있다.-플랫폼의 알고리즘 분석 결과가 소비자의 금융상품 선택에 큰 영향을 미치게 되는데, 알고리즘의 공정성은 어떻게 확보할 건가.▶모든 금융상품에 공통적으로 금소법상 이해상충 방지를 위한 알고리즘 요건을 적용하고, 코스콤 같은 신뢰할 수 있는 기관에서 공정성 검증을 받도록 할 계획이다.-카드 발급 시 서면 대신 전자문서로 약관·거래조건을 발급하면 고령자는 내용을 확인하기 어렵지는 않을까. ▶고객이 거래조건 등을 서면으로 요청하는 경우 카드사는 즉시 서면으로 제공하도록 할 예정이다. -보험사의 헬스케어 금융플랫폼 구축을 위해 보험사가 계약자의 건강관리 노력에 비례해 지급하는 리워드 지급 한도를 3만원에서 20만원으로 확대했는데, 다른 계약자의 보험료에 전가되는 위험은 없을까.▶건강증진형 보험상품 가이드라인에 따라 소비자의 건강관리 노력과 연계해 경제적 리워드를 제공하는 건강증진형 보험상품은 다른 보험상품과 분리해 수익과 비용을 관리하기 때문에 다른 가입자의 보험료 부담으로 전가되지 않을 것으로 전망된다. -플랫폼 예금 중개로 상대적으로 건전성이 취약한 제2금융권으로 과도한 자금쏠림(머니무브)이 발생하지는 않을까.▶상대적으로 유동성이 높은 요구불예금은 중개 상품에서 제외하고, 은행 대비 회사수가 많고 상대적으로 건전성 관리가 취약한 저축은행·신협은 플랫폼을 통한 모집한도를 3%로 제한하는 등 보완장치를 마련했다. 또 적기시정조치 대상 금융회사의 예금상품은 중개할 수 없도록 했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.08.16~2022.08.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.08.16~2022.08.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>오늘부터 예대금리 차 공시…신한·토스가 가장 컸다</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001685121?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>【 앵커멘트 】  은행은 예금을 받고 대출을 해줄 때 발생하는 금리 차이로 돈을 법니다.   그동안 은행의 이자 장사가 심하다는 비판이 거셌고, 오늘부터 이 예대금리차를 공개하도록 했는데요.  가장 큰 금리차이가 난 은행 어디일까요?  윤지원 기자입니다.【 기자 】  은행연합회 소비자포털에 공개된 은행별 '예대금리차공시'입니다.  은행들의 금리차를 한눈에 비교할 수 있습니다.  시중 5대 은행 가운데 가계 예대금리차가 가장 큰 곳은 신한은행으로 1.62%p였습니다.  1.4%p인 우리은행과 NH농협은행 등이 뒤를 이었습니다.▶ 인터뷰(☎) : 신한은행 관계자- "저희는 1조 가깝게 서민금융을 지원했거든요. 그런데 서민금융이 (대출)금리가 높아요. 서민금융을 많이 취급할수록 가계대출에서는 예대금리 차가 더 벌어질 수밖에…."  상대적으로 중·저신용자 고객이 많은 인터넷은행은 2%p를 웃도는 예대금리차로 시중은행보다 크게 높았습니다.   특히 토스뱅크는 무려 5.6%p를 기록했습니다.   토스뱅크 측은 "중·저신용자 대출 비중이 38%로 은행 중 가장 높다"며 인터넷은행과 비교해도 1.5배 이상이라고 밝혔습니다.  예대금리차는 앞으로 매달 공시될 예정입니다.  예대금리차를 줄이는 압력으로 작용할 수 있지만, 반짝 효과에 그칠 수 있다는 우려도 나옵니다.▶ 인터뷰 : 강형구 / 금융소비자연맹 사무처장- "장기적으로는 효과가 좀 회의적이라는 생각이 들고요, 가산금리에 대한 세세한 정보를 제공함으로써 금리 협상력을 제공할 수 있는 제도 마련이 보완돼야…."  게다가, 은행들이 대출금리를 낮추는 대신 예·적금 금리를 높여 예대금리차를 줄인다면, 다시 대출금리 인상의 부작용으로 이어질 수 있습니다.   MBN뉴스 윤지원입니다.영상취재 : 전현준 VJ  영상편집 : 김경준#MBN #MBN뉴스7 #윤지원기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>NHN페이코 '실물카드' 전면에…오프라인 결제 시장 정조준</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003038846?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>인출 가능한 현금성 포인트로'포인트 카드' 이용자 확대 힘 줘비자 비접촉 결제 지원도 준비작년 보급 단말기에 기능 탑재새로운 결제 시스템 선점 노려NHN페이코가 '실물카드' 중심의 포인트 결제 인프라 확장에 나섰다. 인출도 가능한 현금성 포인트 등 풍부한 발급 혜택을 앞세우면서 '짠테크'족 사이에서 인기를 끌고 있다. 지난해 일명 '페이코표' 복합결제 단말기 보급을 시작한 것을 고려할 때 실물카드를 이용한 근거리무선통신(NFC) 결제 지원 등 새로운 결제 시스템 장악에 나섰다는 분석이 나온다.23일 업계에 따르면 NHN페이코는 최근 '페이코 포인트 카드'의 실물카드 이용자 확대에 강한 드라이브를 걸고 있다. 이달 기준 타깃링크를 통한 가입, 실물카드 신규 발급 등 몇 가지 간단한 조건을 충족할 경우 최대 2만포인트 이상 혜택을 지급했다. 기존 모바일 카드 보유 고객도 이벤트 참여를 허용하는 등 실물카드 발급 확대가 주된 목적이다.연회비나 최소 결제금액 등 제반 조건이 없는 포인트 카드인 점을 고려하면 타 카드의 2~4배에 달하는 파격 혜택이다. 유튜브나 재테크 커뮤니티 등에서는 '줍줍' 카드로 불리며 빠르게 입소문을 타며 '앱테크' 주요 상품으로 자리잡았다. 가입자 급증에 따라 혜택 규모를 지난 15일부터 절반 규모로 줄였으나 이벤트 자체는 이달 말까지 지속한다.페이코 포인트 카드는 충전계좌에서 포인트를 충전한 뒤 페이코와 신용카드 가맹점에서 결제에 활용할 수 있는 일종의 체크카드다. 페이코 가맹점에서 결제 시 2% 포인트 적립 혜택을 주고 일반 가맹점은 0.2% 적립을 지원한다.이 상품의 특이점은 '비자 모바일 콘택트리스 결제'를 지원 준비하고 있다는 점이다. 비자는 카드를 꽂거나 긁지 않고 갖다대기만 해도 결제가 진행되는 '텝 투 페이' 결제 인프라를 확장 중이다. 코로나19 사태 이후로 더욱 주목받기 시작한 이 기술은 근접 결제가 가능하도록 근거리 무선통신 안테나 칩을 카드에 박았다. 페이코 실물카드에도 적용된 후 별도 출시될 예정이다.지난해 보급을 시작한 페이코의 결제단말기(C2100)기 역시 IC, 마그네틱, NFC, QR·바코드와 함께 비자의 콘택트리스 결제를 지원한다. 향후 오프라인 결제 헤게모니를 콘택트리스 결제가 차지할 것으로 보고 저변 확대에 나섰다는 분석이 나오는 이유다.NHN페이코 외에도 결제 사업자들은 다양한 형태로 오프라인 시장에 진출하고 있다. 카카오페이의 경우 서울사랑상품권을 통해 오프라인 소비자 저변을 넓혔다. 신한카드, 티머니 등과 함께 서울사랑상품권 사업 컨소시엄에 참여하면서 기존 지역화폐 이용자와 결제 인프라를 활용할 기회를 얻었다.토스는 SPC와 손을 잡고 오프라인 결제 시장을 개척 중이다. 각각 자회사 토스플레이스와 섹타나인 협업을 통해 카드결제 단말기를 공급하고 가맹점 관리 솔루션을 제공한다. 오는 11월부터 본격적인 사업에 나설 것으로 전망되고 있다.정연훈 NHN페이코 대표는 “오프라인 결제 시장의 규모는 온라인보다 많게는 10배 이상 차이나는 규모인 만큼 온라인 대비 저희가 추구해야 할 지점은 오프라인 시장이라고 본다”면서 “상대적으로 여행, 스포츠, 문화 등 분야에서 코로나19 영향으로 거래액 타격을 받은 면이 있었는데 그 부분을 오프라인 확대 전략으로 많은 성장을 이뤄냈다”고 밝힌 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.08.18.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>키움증권, MTS 왕좌 지킬까…7년만에 업그레이드</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004089147?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>'영웅문S#' 19일부터 서비스국내외 주식거래 통합, UI·UX 개선차트 기능 보완까지···"HTS 수준"키움증권 여의도 본사 사옥[서울경제] 키움증권(039490)이 새 모바일트레이딩시스템(MTS) ‘영웅문S#’의 정식 서비스를 19일 시작한다. 국내와 해외 주식거래 애플리케이션인 영웅문S와 영웅문S글로벌을 하나로 통합했다. 계좌 개설, 금융 상품, 인공지능(AI) 자산 관리까지 한 앱에서 할 수 있게 된다. 키움증권의 새 MTS가 사용자 1위라는 왕좌를 지켜낼지 주목된다.18일 키움증권에 따르면 영웅문S#은 홈트레이딩시스템(HTS) 수준으로 강력해진 차트 기능을 제공한다. 신호 검색, 재무 차트, 나만의 수식 지표 등을 지원한다. 또 HTS에서 제공하는 실시간 조건 검색 기능을 탑재했고 간편한 ‘나만의 조건 검색식’ 작성이 가능하다. 국내외 주요 지수를 한눈에 파악할 수 있는 ‘글로벌 전광판’도 제공한다. 사용자환경·경험(UI·UX)을 대폭 개선해 가독성을 높이고 앱 내 화면 전환도 매끄럽게 구현했다. 모바일 인덱스에 따르면 영웅문S의 7월 월간활성화이용자(MAU)는 256만 4084명으로 추정된다. 국내 증권 앱 가운데 사용자 수 1위다. 하지만 미래에셋증권(006800)과 한국투자증권도 앱을 리뉴얼하며 사용자를 끌어모으고 있다. 또 KB증권은 대형 기업공개(IPO)를 발판으로 삼아 바짝 추격하고 있다. 토스증권과 카카오페이증권도 핀테크 기업으로서 편의성을 무기로 위협하고 있다. 키움증권의 대대적인 MTS 개편은 2015년 7월 이후 약 7년 만이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>[토스뱅크의 고민]①발목잡는 과거의 '파격'</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000009911?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>토스뱅크, 상반기 예대율 22% 추산…수익성 '빨간불'발목잡은 2% 수시입출금 상품…개선도 힘들다시간이 흐르면 흐를수록 시장금리가 상승하자 토스뱅크의 고민이 깊어지는 모습이다. 금융당국을 중심으로 대출금리는 인하하고 수신금리는 인상하라는 목소리가 높아지면서 수익성을 끌어올리기 어려울 것으로 분석되면서다. 이를 해결하기 위해서는 토스뱅크의 수신 대부분을 차지하는 수시입출금통장 2%의 금리를 올려야 하는데 이것이 좀처럼 쉽지 않다. 금리를 조금이라도 상향시키면 나가야 하는 비용이 수직상승해서다. 혹은 저원가성 예금을 대규모 유치해야 하는데 이 역시 좀처럼 해결하기 어려운 상황에 봉착했다. /사진=이명근 기자 qwe123@토스뱅크, 골치 아픈 예대율에 한숨나는 이자수익17일 은행권에 따르면 올해 상반기 기준 토스뱅크의 여신규모는 5조원, 수신 규모는 24조원 가량인 것으로 확인됐다. 가계와 소상공인에게 내어준 대출이 5조원, 예·적금 가입 규모가 24조원이라는 얘기다.이 수치가 토스뱅크에 마냥 좋은 것은 아니다. 은행은 통상 대출금을 예수금으로 나눠 산출하는 예대율을 경영 건전성 지표로 사용한다. 예대율이 90~100% 수준이면 은행이 자금을 잘 운용하고 있다는 것으로 풀이된다. 이 이하일 경우 자금을 제대로 운용하지 못하는 것을 의미하며 이 이상일 경우 지나치게 대출을 많이 내줬다는 의미로 건전성이 좋지 않다는 것을 의미한다. 단순 수신과 여신을 기본으로 토스뱅크의 예대율을 산출하면 약 22%가량이다. 주요 시중은행의 경우 예대율이 90~100% 수준이다. 예대율은 수신에 가용자본도 더해 산출하지만 토스뱅크의 총자본금 1조5000억원을 감안하면 이 수준을 크게 벗어나지는 못할 것으로 보인다. 쉽게 얘기해서 예·적금 가입 고객으로부터 받은 돈을 바탕으로 대출영업을 제대로 하지 못하고 있다는 의미다. 토스뱅크가 출범한지 약 10개월 가량이 흐른 현재 토스뱅크의 예대율이 현재와 같은 상황에 부딪힌 것은 출범 초기 고객확보와 최근 디지털 금융 플랫폼의 핵심인 월간활성화사용자수(MAU)를 위해 출혈을 감내한 영향이라는 분석이다. 토스뱅크는 출범 초기 수시입출금식 통장에 연 2% 금리를 주는 수신상품을 내걸었고 시장금리가 낮았던 당시에는 파격적인 상품이라는 평가에 수신고객이 몰려들었다. 이는 한국은행이 본격적으로 금리를 올리기 시작한 올해 1분기까지 이어졌다.실제 현재 토스뱅크의 수신 중 대부분은 출범 이후 6개월간 유입된 고객의 자금이 그대로 남아있기 때문으로 분석된다. 이와 관련 지난해 말 기준 토스뱅크의 수신잔액은 13조7907억원이었다. 출범 2개월만에 달성한 '대흥행'으로 분류된다. 이후 올해 1분기에는 21조45억원으로 확대됐다. 반면 대출 영업의 경우 상황이 녹록지 않았다. 지난해의 경우 정부의 가계부채총량관리로 인해 개점 이후 열흘도 되지 않아 대출 영업을 중단해야 했다. 올해의 경우 대출 영업을 재개하긴 했지만, 시장금리가 가파르게 상승하면서 예전만큼 은행에서 대출을 받는 고객이 많지도 않은 상황이다. 상황이 이렇다 보니 금리상승기라는 은행에게 최대의 호재가 찾아왔음에도 불구하고 토스뱅크는 이를 누리지 못하고 있는 것으로 분석된다. 토스뱅크의 대부분 수신이 연 2%금리의 수시입출금식 예금에 몰려있다는 점을 감안해 산출 시 토스뱅크는 매달 현재 잔액 기준 403억원 가량이 이자비용으로 나가는 셈이다.토스뱅크가 취급하고 있는 대출의 평균 금리는 절대적으로 많은 지분을 보유한 가계신용대출의 경우 연 6.90%다. 전체 대출중 약 8%가량을 차지하고 있는 것으로 분석되는 기업대출(소상공인 대출)의 평균 금리는 연 5.79%다. 이를 바탕으로 추산시 현재 잔액 기준 이자수익이 매월 99억원 가량이 들어오는 것으로 추산된다. 나가는 비용이 들어오는 비용보다 약 4배 이상 많은 셈이다.출범 초기 내건 2.0% 수시입출금식 상품, 발목 잡다이같은 상황을 해결하기 위해서는 수신은 최대한 비용이 적게 나가는 상품 위주로 늘리면서 대출은 적극 취급하면 된다. 하지만 상황이 쉽지 않다.대출의 경우 인터넷전문은행이라는 특성상 중·저신용자 대출을 일정 수준에서 유지해야 하는데다 최근 금융당국이 대출금리 인상폭을 최소화할 것을 압박하고 있다. 시장금리 상승으로 대출자들이 줄어들고 있는 것도 문제다.핵심은 토스뱅크의 수신중 대부분을 차지하는 수시입출금식 상품에 있다. 일단 연 2.0%금리의 수시입출금식 상품의 경쟁력이 떨어진 게 문제다. 최근 케이뱅크는 수시입출금식 상품의 금리를 2.1%까지 올렸으며 SC제일은행은 가입기간에 따라 최대 연 2.8%의 금리를 제공하는 파킹통장을 출시하기도 했다. 여기에 더해 저축은행들까지 수시입출금식 상품의 금리를 연이어 올리며 2.0% 금리의 수시입출금식 상품은 이미 대중화 됐다. 하지만 토스뱅크 입장에서는 이 상품의 경쟁력 유지를 위해 금리를 올리기도 만만치 않다. 다른 은행과 달리 이 상품이 수신 대부분을 차지하다 보니 금리를 0.1%라도 올렸다가는 매달 나가는 이자비용이 크게 늘어나기 때문이다. 게다가 토스뱅크 수신의 핵심이 수시입출금식 통장이라는 점도 문제다. 통상 나가는 이자 비용을 최소화 하기 위해 은행들은 저원가성 예금을 유치에 힘을 쏟는데 그 중심에는 수시입출금식 상품이 활용된다. 그런데 토스뱅크는 이미 수시입출금식 상품을 저원가성 예금으로 활용하지 않겠다는 점을 사실상 선언한 상황이다. 결국 남은 부분은 수시입출금식 상품에 몰려있는 금액을 다양한 상품으로 이동하도록 수신 포트폴리오를 넓히는 수밖에 없다. 토스뱅크가 지난 6월 내놓은 '키워봐요 적금' 역시 이같은 취지가 반영된 것으로 풀이된다. 이 상품은 매월 최대 100만원까지 납입이 가능하며 만기는 6개월, 금리는 연 최고 3%를 제공하는 상품이다. 언뜻 보면 수시입출금식 상품에 비해 금리가 높은 것처럼 보이지만 만기가 6개월이라는 점을 고려해야 한다. 이 상품을 통해 기대할 수 있는 최대 이자 금액은 5만2500원이다. 1년 만기 적금으로 환산해 비교하면 연 1.6%금리 상품과 같은 수준이다. 특히 이 상품은 매주 자동이체를 설정해야 최고 연 3.0%금리를 받을 수 있도록 한 점, 자동이체 설정시 자동이체 계좌를 변경할 수 없도록 설계한 점 등을 고려하면 수시입출금식 상품에 몰린 돈을 나가는 비용이 더 적은 계좌로 옮기려는 전략이 숨어져 있다는 게 은행권 관계자들의 설명이다.시중은행 관계자는 "금리상승기이기 때문에 만기가 짧으면서 금리가 높은 상품이 고객의 혜택을 줄인다고 단언할 수는 없다"라면서도 "다만 은행 계좌내 자동이체를 유인한 면이 있다면 나가는 이자비용을 줄이기 위한 전략이 없지는 않을 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 글로벌 핀테크 기업 FIS와 전략적 파트너십</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013407780?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 글로벌 핀테크 기업 FIS와 전략적 파트너십[토스페이먼츠 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오규진 기자 = 비바리퍼블리카(토스 운영사)의 페이테크 계열사 토스페이먼츠는 글로벌 핀테크 기업 피델리티 내셔널 인포메이션 서비스(FIS)와 전략적 파트너십을 체결했다고 30일 밝혔다.    미국 경제 전문 잡지 포천이 선정한 '포천 500' 기업 가운데 하나인 FIS는 금융 산업 전반에 걸쳐 정보기술(IT) 아웃소싱 서비스를 제공하고 있다.    토스페이먼츠는 월드페이 가맹점을 대상으로 결제 서비스를 제공할 예정이다.    가브리엘 데 몬테수스 FIS 국제 머천트 솔루션 총괄은 "이번 제휴로 성공적인 한국 시장에 안착하고, 더 나은 전자상거래 경험을 제공하겠다"고 말했다.     김민표 토스페이먼츠 대표는 "FIS와 제휴를 시작으로, 결제 영역에서 더 많은 글로벌 기업과 협업 기회를 모색하겠다"라고 강조했다.    acdc@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.08.28.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>[개미들 어디갔나②]"주식은 무서워"…채권으로 몰려간다</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011387244?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>기사내용 요약개인투자자, 증시 변동성 확대에 채권 '눈돌리기'개인 채권 투자 10조 넘겨…발행어음도 인기몰이[서울=뉴시스] 류병화 기자 = 증시 변동성이 커지자 채권으로 눈을 돌리는 개미들이 늘어나고 있다. 안정성이 높은 채권에 이어 대형 증권사들의 발행어음까지 인기를 끌고 있는 추세를 보이고 있다.28일 금융투자협회에 따르면 개인투자자는 올해 들어 지난 25일까지 장외 채권시장에서 채권을 10조6359억원어치 순매수했다. 개인 채권 순매수는 지난 19일 사상 처음으로 10조원을 돌파한 뒤 지속적으로 증가하는 추세를 보이고 있다.개인투자자들은 올해 들어 순매수 금액을 크게 늘리고 있다. 이미 지난해 한해 순매수 금액인 4조5675억원을 두 배 넘게 앞지른 상태다.기준금리가 오르고 코스피가 2400선 내외까지 떨어지는 등 국내 증시가 약세장을 지속하면서 안전자산으로 꼽히는 채권으로 개인 투자자들이 눈을 돌린 영향인 것으로 보인다.올해 초부터 미국 연방준비제도(Fed)를 비롯해 각국의 중앙은행이 고강도 긴축을 가시화함에 따라 시장금리가 가파르게 상승하며 채권투자 매력이 커진 것으로 풀이된다. 금리가 인상되면 시장에서 거래되는 채권 가격은 반대로 떨어지기 때문에 이미 발행돼 시장에서 거래되는 채권을 싼 가격에 사면 추후 금리가 낮아지는 시기에 매매차익을 기대할 수 있다.이에 발맞춰 증권가에서는 채권 상품 판매 마케팅을 늘리고 있다. 증권사들은 다양한 채권상품을 선보이는 분위기다.삼성증권은 올해 들어 지난달 말까지 3조6000억원의 채권을 판매했다. 특히 지난달 15일 9시30분부터 판매한 300억원 규모의 세전 연 4%대 특판 채권은 삼성증권 모바일 앱 ‘엠팝(mPOP)’에서 판매 개시 27분만에 매진됐을 정도로 인기가 많았다.한화투자증권은 세전 연 5.01%인 DGB캐피탈 채권 50억원 규모를 선착순으로 판매해 당일 완판됐다. 1인당 5000만원까지 구입 가능했으며 만기일은 내년 10월20일이다.한화투자증권 관계자는 "인당 5000만원씩 50억원을 선착순으로 판매해 당일 이른 시각에 모두 완판됐다"고 설명했다.대형 증권사들이 판매하는 발행어음도 인기를 끌고 있다. 금리 인상 시기에 적절한 투자처라는 판단 때문으로 풀이된다. 발행어음 사업자는 금융당국의 인가를 받은 미래에셋증권, 한국투자증권, NH투자증권, KB증권 등 4개 증권사다. 한국투자증권 발행어음은 토스뱅크에서 판매금액 2000억원을 넘겼다. 해당 특판 상품은 최대 연 4.5% 이자를 지급하며 출시 4일 만에 모두 판매됐다. 미래에셋증권은 연 4.10%, NH투자증권과 KB증권은 연 4.15%를 지급한다.김지만 삼성증권 연구원은 "기준금리가 중립금리 이상 충분히 인상돼 기준금리가 3.25%인 상황을 가정해도 국고채 3년물이 3.4%를 넘는 기간은 길지 않을 것"이라며 "기준금리에 대한 높아진 기대가 조정되면 금리는 다시 하락할 전망"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>이복현 "결제수수료 공시로 시장 왜곡 우려 해소하겠다"</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002284569?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>금감원장, 금융플랫폼의 공정하고 투명한 운영 당부간편결제 수수료 공시 방안에 대해선 "원가 공개 아니다" ◆…이복현 금융감독원장"다양한 이해관계자들이 상생할 수 있도록 금융플랫폼을 공정하고 투명하게 운영해 주시기 바랍니다."   이복현 금융감독원장은 30일 신원근 카카오페이 대표를 비롯한 빅테크·핀테크 대표 11명과 간담회를 갖고 "간편결제 수수료를 공시하는 것에 대해 업계가 우려하고 있는 점을 잘 알고 있다"며 이같이 말했다.   간편결제 수수료 공시 방안은 연내 최종 확정될 예정이다. 금융감독원은 빅테크 등의 결제수수료가 카드사보다 높아 소상공인에게 부담이 된다는 지적에 간편결제 수수료를 공시하기로 하고 TF를 구성해 지난 5월 첫 회의를 개최했다. 당시 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 빅테크를 포함한 업계 실무자들이 참석한 가운데 간편결제 수수료의 투명성을 높이기 위한 가이드라인이 논의됐다.   금감원에 따르면 가이드라인에는 △수수료 산정 원칙 △수수료 구분 관리 △수수료율 공시 등의 내용이 담겼다. 수수료를 산출하는 기본 원칙을 제시하는 한편, 가맹점 수수료를 결제 관련 수수료와 기타 수수료로 구분하도록 했다. 수수료율은 공시서식에 따라 작성하고 업체 홈페이지에 반기 단위로 공시한다는 방침이다.   이복현 금감원장은 이날 간담회 이후 기자들과 만난 자리에서 결제 수수료 공시는 사실상 원가 공개나 다름없다는 지적에 대해 "소비자가 본인이 지불하는 가격에 대해 정확히 모르고 물건이나 서비스를 구매하는 상황인데 어떻게 지불되는 건지를 알려달라는 것"이라고 말했다.   이복현 원장은 "수수료는 업계에서 자율적으로 결정하는 것이고 수수료 원가에 영향력을 행사할 의사는 없지만, 소비자와 빅테크가 정보 비대칭적인 관계에 있다 보니 시장 왜곡이 있는 게 아닌지 일부 우려가 있는 것도 현실"이라며 "이를 규제로 해결하기보다 자율적으로 정보를 공개해 시장의 투명성을 확보한다면 우려를 해소할 수 있다고 말씀드렸고 오늘 뵌 업계 관계자분들도 상당 부분 동의해주셨다"고 밝혔다.   한편 이복현 금감원장은 "현재 법상으로는 간편결제 수수료를 각각 결제 수수료와 기타 부문으로 나눠야 한다는 게 기본 정신"이라고 설명했다. 금감원에 따르면 결제 관련 수수료는 △신용카드 가맹점수수료를 비롯해 △결제대행(PG) 수수료 △계좌이체 수수료 △선불결제 수수료 등의 항목으로 구성된다. 호스팅 수수료와 입점 수수료 등은 기타 수수료로 잡힌다.   그는 간편결제 수수료 공시를 언제쯤으로 예상하는지에 대한 물음에 "여러 가지를 준비하고 있고 TF도 운영 중이기 때문에 합리적인 내용으로 빨리 진행하겠다"고 말했다.  ◆…결제관련 수수료와 기타 수수료. 사진=금융감독원 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>'신용카드 강국' 한국 카드사들도 뛰어드는 '디지털 외상' BNPL [긱스]</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004743819?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>신용카드 없이 후불·할부 결제 가능해외선 'MZ세대 소비 뉴노멀'로 부상'카드 강국' 한국서도 틈새 비집고 속속빅테크 이어 카드사들도 적극 나서롯데카드, 베트남 BNPL 진출 선언과소비·연체 부추기는 부작용 우려도이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.'지금 사고 돈은 나중에 내세요(Buy Now Pay Later·BNPL).' 아마존, 나이키, 애플, 월마트 등 내로라 하는 브랜드가 요즘 빠짐 없이 내걸고 있는 문구다. BNPL은 소비자가 상품을 우선 구매한 뒤 일정 기간 후에 대금을 갚는 결제 방식이다. 당장 수중에 돈이 없더라도 물건을 살 수 있게 하는 일종의 '디지털 외상'인 셈이다.  카드 없이 후불·할부 결제를 할 수 있는 BNPL은 씬 파일러(금융 이력이 거의 없는 사람)나 사회 초년생처럼 신용카드 발급은 어렵지만 소비 욕구는 큰 젊은 세대가 손쉽게 신용 거래를 할 수 있는 서비스로 각광받기 시작했다. 뒤집어 보면 신용카드 보급률이 90%에 달하고 카드를 이용한 간편결제도 보편화된 한국에선 BNPL이 파고들 틈이 상대적으로 좁았다는 뜻이기도 하다.  그런데 올 들어 국내에서도 다양한 형태의 BNPL 서비스가 속속 등장하기 시작했다. 특히 빅테크·핀테크와 전자상거래 플랫폼 등에 이어 최근에는 카드사들이 직접 BNPL 시장에 뛰어들고 있다. BNPL을 신용카드의 대체재가 아닌, 미래 카드 소비자를 선점할 보완적인 서비스로 바라보기 시작한 것이다.  해외 BNPL 시장 진출을 선언한 카드사도 등장했다. 롯데카드는 '베트남의 쿠팡'으로 불리는 이커머스 기업 티키와 손잡고 베트남에서 BNPL 서비스를 출시하기로 했다. 금융 접근성이 낮은 대신 젊은 층의 디지털 결제가 활발하고 소비 수요가 큰 베트남의 잠재력을 노렸다.  해외선 'MZ세대 소비 뉴노멀'로BNPL은 코로나 팬데믹에 따른 전자상거래 시장 급증과 맞물려 해외에선 'MZ세대 소비의 뉴노멀'로 자리 잡았다는 평가를 받는다. BNPL을 이용하면 신용카드와 달리 까다로운 신용 조회 절차가 없고, 할부 이자나 수수료도 없이 일정 기간에 걸쳐 물건 값을 나눠 낼 수 있다. 그러다 보니 금융 이력이 부족하고 소득은 적지만 소비 욕구는 큰 젊은 세대를 중심으로 큰 인기를 끌었다. 영국 컨설팅 기업 글로벌데이터에 따르면 2019년 330억달러(43조원)였던 전 세계 BNPL 거래액은 지난해 1200억달러(156조2400억원)로 급증했다. 뱅크오브아메리카는 3년 내 이 규모가 최대 1조달러로 성장할 것이란 전망을 내놓기도 했다.  BNPL은 소비자가 가맹점에서 상품을 구매하면 소비자 대신 결제업체가 가맹점에 물건값을 전액 지불하고, 소비자는 결제업체에 구매대금을 나눠 갚는 구조다. 연체 없이 제때 내면 할부 이자나 수수료도 없다. 페이팔·어펌 등은 소비자가 연체를 해도 연체 이자마저 안 물린다. 대신 BNPL 업체는 가맹점으로부터 5~6%의 수수료를 받는다. 비자·마스터카드 등 카드사 수수료보다 두 배가량 높지만, 카드가 없는 사람에게 물건을 더 많이 팔 수 있으니 가맹점으로서도 손해는 아니다. 미국 BNPL 업체 어펌에 따르면 어펌의 BNPL 서비스를 제공하는 가맹점은 그렇지 않은 가맹점보다 매출이 20% 늘었다. BNPL 시장의 무서운 성장세에 세계 최대 간편 결제기업인 페이팔과 비자·아메리칸익스프레스·씨티그룹 등 기존 금융사들도 앞다퉈 뛰어들었다. 애플 역시 온·오프라인 어디서나 애플페이 가맹점이면 2주마다 대금을 네 번에 나눠 낼 수 있는 '애플페이 레이터'를 연내 출시하기로 했다.  '신용카드 있는데 굳이…' 심드렁하던 국내서도 속속이제까지 한국은 얘기가 조금 달랐다. 신용카드 발급이 상대적으로 수월하고 무이자 할부도 어렵지 않게 할 수 있는 한국에선 신용카드와 기능이 비슷한 BNPL을 굳이 쓸 필요가 낮다는 게 전반적인 인식이었다.  하지만 지난해를 기점으로 분위기가 달라지는 모양새다. 신용카드는 없지만 소비 욕구가 큰 Z세대를 겨냥해 국내서도 BNPL 서비스가 속속 등장했다. 핀테크 스타트업 오프널이 국내 최초 BNPL 서비스 '소비의미학'을 선보였고 네이버파이낸셜·카카오페이·토스·쿠팡 등 빅테크들도 잇달아 뛰어들었다. 각자의 간편결제 서비스인 'OO페이'를 키우는 것은 물론 카드 이용을 못하는 소비자를 묶어두는 '락인(lock-in)' 효과를 노린 것이다.  Z세대 소비자를 빼앗길 위기에 처한 카드사들도 BNPL 진출에 시동을 걸었다. 현대카드는 지난 7월 운동화 리셀 플랫폼 솔드아웃에 BNPL 서비스인 '카드없이 분할결제'를 카드사 최초로 도입했다. 말 그대로 신용카드 없이도 세 번에 걸쳐 물건값을 나눠낼 수 있는 서비스다. 카드사로서의 장점을 살려 네·카·토는 못하는 분납 결제를 지원하는 게 특징이다.  국민카드도 결제대행사 다날과 함께 BNPL 서비스를 준비 중이다. 한 카드사 관계자는 "결제의 형태가 급격하게 바뀌고 또 다양해지는 상황에서 카드사들도 씬파일러를 포괄할 수 있는 BNPL 서비스에 마냥 손 놓고 있을 수만은 없다"며 "카드사들은 신용 평가, 연체 관리 등이 본업인 만큼 BNPL 업체들보다 더 정교한 서비스가 가능할 것"이라고 했다.  베트남 BNPL 시장 겨냥하는 롯데카드롯데카드는 국내 카드사 최초로 해외 BNPL 서비스 출시에 나섰다. 젊은 인구와 낮은 신용카드 이용률, 높은 스마트폰 보급률과 폭증하는 전자 결제 시장으로 BNPL 성장 잠재력이 큰 베트남이 대상이다. 김종극 롯데파이낸스 베트남 법인장(오른쪽)과 쩐 응옥 타이 썬 티키 대표이사가 지난 24일(현지시간) 베트남 호치민 티키 본사에서 BNPL 서비스 출시를 위한 전략적 제휴를 맺었다. 롯데카드 제공 롯데카드의 베트남 현지 법인인 '롯데파이낸스 베트남'은 지난 24일 '베트남 이커머스 기업 티키와 BNPL 서비스 출시를 위한 제휴를 맺었다. 티키는 2000만명 넘는 가입자를 보유한 베트남 대표 이커머스 업체다. 양사는 올해 안에 티키에서 쓸 수 있는 BNPL 서비스를 내놓을 계획이다.  롯데카드의 BNPL이 출시되면 티키 소비자는 앱이나 홈페이지를 통해 간단한 실시간 심사를 거쳐 신용 한도를 받아 바로 후불 결제로 물품을 구매할 수 있게 된다. 무이자 또는 저금리로 2~3개월 동안 대금을 나눠 내는 할부 결제도 지원한다. 소비자는 한 번만 신청하면 연회비 없이 최대 3년까지 서비스 이용이 가능할 전망이다. 롯데카드 관계자는 "베트남은 디지털 결제에 익숙한 MZ세대가 전체 인구의 47.2%에 달할 만큼 젊은 시장"이라며 "소비의 주류로 자리잡은 MZ세대 사이에 BNPL 서비스에 대한 수요가 높다고 판단했다"고 말했다. 글로벌 시장조사기관 리서치앤마켓에 따르면 베트남 BNPL 시장은 향후 5년간 매년 평균 45%씩 성장, 오는 2028년엔 거래 규모가 13조2000억원에 이를 것으로 전망된다. BNPL의 명과 암 전 세계적인 인플레이션으로 물가가 무섭게 오르는 와중에 BNPL은 소비자가 한 번에 내야 할 비용 부담을 줄이면서 원하는 소비를 간편하게 할 수 있는 수단이 됐다. 하지만 그만큼 젊은 층의 과소비를 부추기고 부채의 소용돌이를 심화시킬 수 있다는 비판도 나오고 있다.애플이 연내 출시를 예고한 BNPL 서비스 '애플페이 레이터'. 미국 시장조사업체 C+R리서치 조사에 따르면 BNPL 이용자의 59%는 "BNPL이 아니었으면 하지 못했을 불필요한 소비를 한 적이 있다"고 했고, 56%는 "결제 시기를 맞추지 못하고 연체한 적이 있다"고 했다. 소비자의 신용을 까다롭게 평가하지 않는다는 점은 BNPL 시장이 급성장한 비결인 동시에 가장 큰 취약점이다. 금리가 급등하고 경기 침체의 경고음이 커지는 상황에서 BNPL 소비자들의 연체는 빠르게 늘고 있다. 어펌의 경우 30일 이상 연체금액 비율이 올 1분기 3.7%로 1년 전(1.4%)보다 급등했다.  2020년부터 일부 소비자에게 BNPL 서비스 '나중결제'를 지원해온 쿠팡도 오는 10월부터 분납 후불 결제를 중단하기로 했다. 쿠팡은 그동안 직매입 상품에 한해 1~3개월까지 무이자로 분납 후불 결제를 제공했지만, 과소비와 연체를 유발하고 '현금깡'에 악용된다는 지적까지 나오자 결국 중단을 결정했다.  각국 감독당국은 BNPL에 대한 규제 마련에 나섰다. 미국 소비자금융보호국(CFPB)는 BNPL 업체들의 리스크 조사에 나섰고 영국 금융감독청(FCA)와 재무부는 업계와 규제방안을 논의하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>"온투업 기관투자 모집 규제 완화해야"</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002751383?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>온투법 시행 2년…온투협회·윤창현 의원실 주관 세미나온라인투자연계금융업(P2P대출업·온투업)이 기관투자자를 모집할 수 있도록 규제를 완화해야 한다는 지적이 나왔다.서병호 금융연구원 선임연구위원은 29일 온투협회와 윤창현 국민의힘 의원실이 주관한 '온투법 시행 2년, 온라인투자연계금융의 평가와 발전방향' 세미나에서 이같이 밝혔다.서 연구위원은 "온투업법에서는 온투업자의 기관투자자 모집을 허용하고 있으나, 관련 업권법, 세부 규정, 유권해석 등이 없어 실제로는 기관투자자를 모집하는 것이 극히 어렵다"면서 "온투업자의 성장성과 수익성이 악화하고 있다"고 지적했다. 국내 온투업 신규대출액은 지난해 말 2조4912억원으로 1년 전보다 16.4% 줄었다. 영업수익은 808억원으로 같은 기간 46.7% 줄었다.서 연구위원은 관련법 및 시행령 개정을 통해 여신금융기관과 사모펀드의 연계 투자 참여를 제한하는 규제를 완화해야 한다고 강조했다.작년 12월 금융소비자보호법 시행을 앞두고 금융당국이 카카오페이·토스 등 플랫폼을 통한 온투업 제휴 서비스를 광고가 아닌 중개 행위로 간주하면서 관련 서비스가 중단된 점도 개인투자자 모집에 어려움을 초래했다고 설명했다. 그는 "온투업이 국내 시장에 안정적으로 정착해 본격적 기술투자가 이뤄질 경우 해외 진출을 못할 이유가 없다"며 "글로벌 핀테크 업체로 성장할 수 있도록 영업환경을 개선해줘야 한다"고 말했다.이정민 김앤장 법률사무소 변호사도 "투자액 한도를 한 업체가 아닌 업계 전체에 걸쳐 3000만원으로 제한하는 것은 지나친 규제"라며 투자 한도 확대 필요성을 지적했다. 그는 "온투업은 최근 금리 인상으로 한계상황에 처한 금융 취약계층 금융소비자에게 제2금융권보다 낮은 금리의 대출을 안정적으로 제공할 수 있다"며 "온투업이 대안 금융으로서 은행 등 기존 금융기관이 수행하기 어려운 금융혁신을 선도할 수 있도록 제도 개선이 필요하다"고 말했다. 이날 토론에는 정유신 서강대 경영전문대학원 교수가 좌장을 맡은 가운데, 천창민 서울과학기술대 교수와 조윤미 미래소비자행동 상임대표, 김대윤 피플펀드컴퍼니 대표, 이효진 8퍼센트 대표, 금융위원회 금융혁신과 담당자 등이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>금리 따라잡기 ‘환승’ 재테크…5대 은행 예·적금 석달 새 갑절로</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002604570?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>기준금리 오르자 주식에서 돈빼 예·적금으로4∼7월 5대은행 예·적금 계좌 438만개 개설신규 납입, 4월 25조9천억→ 7월 48조5천억주요 시중은행들이 대출 금리를 낮추면서 정기 예·적금 상품의 금리는 연 3∼5%대까지 올리고 있다. 7월 3일 오후 서울 시내 한 은행에 부착된 정기예탁금 금리 안내문. 연합뉴스신한은행이 주거래은행인 직장인 김수진(30·가명)씨는 지난 26일 우리은행의 ‘The조은 정기적금’에 가입하고 80만원을 납입했다. 전날 한국은행이 금융통화위원회를 열어 기준 금리를 0.25%포인트 인상했다는 뉴스를 본 뒤 시중은행들이 수신 금리를 따라 올리길 기다렸다가 은행연합회 누리집에서 납입 상한액이 높은 상품 중 가장 높은 금리를 주는 상품을 택했다. 금리가 1% 수준이던 지난해 말까지만 해도 목돈 만들기용 적금은 주거래은행에 들고 나머지 자금은 해외주식이나 펀드에 직접 투자했지만, 올해 들어 미국의 기준금리 인상 기조가 본격화하며 상황이 달라졌다고 한다. 김씨는 지난 5월 록히드마틴에 투자했던 자금을 모두 회수한 뒤 연 2% 이자를 주는 토스뱅크 입출금계좌에 이 돈을 모두 ‘파킹’해뒀다. 한은 기준금리 인상과 함께 은행들이 너도나도 고금리 예·적금 상품판매에 나서자 언제든지 더 높은 금리를 주는 곳으로 돈을 옮기기 위해서였다. 김씨는 “10월 금통위 회의 이후 수신금리가 더 올라서 지금 가입한 상품보다 고금리인 상품이 나오면 언제든 갈아탈 것”이라고 했다.기준금리 인상 기조가 본격화하자 한푼이라도 더 많은 이자를 챙기려는 재테크족들의 움직임이 분주하다. 주거래은행의 예·적금 상품에 여윳돈을 묻어두는 대신 0.1%포인트라도 금리가 더 높은 상품을 적극적으로 찾아다니는 것이다. 미국 연방준비제도의 ‘매파적’ 금리 인상 기조에 주식시장이 직격탄을 맞으면서 해외 주식에 투자했던 자금을 보다 안정적인 예·적금 상품으로 돌리는 경우도 늘고 있다. 우리 기준금리가 연 3%까지 오를 걸로 전망되는 가운데 시중은행들의 수신금리도 4∼5% 대까지 오를 것으로 보인다. 이에 지난해까지만해도 금융 소비자들에게 외면받았던 예·적금 상품이 새로운 투자처로 각광받고 있는 것이다.5대 은행(케이비(KB)국민·신한·하나·우리·엔에이치(NH)농협)의 예금 잔액은 7월25일 기준 718조8970억원으로 전월 말보다 6조4479억원 증가했다. 적금 잔액도 같은 기간 38조1167억원에서 38조7838억원으로 6671억원 늘었다. 한달 사이에 예·적금 규모가 7조원가량 불어난 것이다. 고금리 상품을 쫓아 여러 은행에 예·적금 계좌를 개설하는 ‘문어발족’도 늘고 있다. 권다은(30·가명·변호사)씨는 지난 4월 애큐온저축은행에 예금계좌를 만들어 1500만원을 예치했다. 주거래은행은 하나은행이지만 연 2.6% 이자를 준다는 정보를 온라인 커뮤니티에서 보고 가입했다. 5월엔 신용협동조합에서 매달 100만원씩 넣을 수 있는 연 4%짜리 적금에 가입했고, 6월엔 신협의 연 3.6%짜리 정기예금 상품에 1000만원을 예치했다. 지난 달엔 산업은행에서 내놓은 연 금리 3.6%의 ‘KDB Hi 정기 예금’에 1000만원을 넣었다.은행 ‘환승족’과 ‘문어발족’이 늘며 예·적금 신규계좌 개설 건수도 최근 급증하고 있다. 지난 4월 한달간 5대 은행에서 새로 만들어진 계좌는 모두 110만 9898건이었다. 7월에는 121만664건까지 늘었다. 신규 납입금액도 4월 25조9192억원에서 7월 48조4828억원으로 급증했다. 4∼7월 5대 은행에 새로 개설된 예·적금 계좌는 438만7809개이고, 같은 기간에 새로 예치된 금액도 137조1065억원에 이른다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>가계대출 예대금리차 신한은행이 1.62%p로 가장 커</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002265945?sid=105</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>尹 정부 금융 공약…은행연합회 "1개월 마다 공시 예정"윤석열 정부가 금융소비자 보호를 위해 내세운 은행들의 예대금리 차 공개가 22일 처음으로 이뤄졌다.22일 은행연합회는 홈페이지 소비자포털에 예대금리차를 비교 공시했다고 밝혔다.예대금리차는 평균 대출금리에서 저축성 수신 금리를 뺀 값으로, 예대금리차가 플러스값으로 높을 수록 대출금리가 높고 수신 금리가 대출 금리에 비해 상대적으로 낮다는 점을 의미한다. 그렇지만 예·적금 기본금리는 낮더라도 만기 시 확정되는 우대금리가 높은 경우 예대금리 차가 크기 때문에 대출과 수신 상품의 금리를 각각 비교해보는 게 좋다.(사진=이미지투데이)공시는 해당 월에 신규 취급한 여·수신 상품을 대상으로 계산된다. ▲예대금리차 ▲가계대출 예대금리차로 나눠 확인할 수 있다. 예대금리차는 가계뿐만 아니라 기업 대출도 포함된다.이번 7월 공시를 살펴보면 5대 은행(KB국민·신한·하나·우리·NH농협은행)의 예대금리차는 1.21%p였으며 가계대출 예대금리차는 1.37%p로 집계됐다.5대 은행 중 신한은행의 가계대출 예대금리차가 가장 컸다. 신한은행의 가계대출 예대금리차는 1.62%p였으며 ▲우리·NH농협은행 1.40%p ▲KB국민은행 1.38%p ▲하나은행 1.04%p로 나타났다.3개 인터넷전문은행(케이뱅크·카카오뱅크·토스뱅크)의 경우  중저신용자를 대상으로 한 중금리 대출 비중이 5대 은행에 비해 높아 예대금리차가 더 컸다.인터넷전문은행 중 토스뱅크의 가계대출 예대금리차가 5.60%p로 가장 컸으며 ▲카카오뱅크 2.33%p ▲케이뱅크 2.46%p로 조사됐다.은행연합회 측은 "중·저 신용자 대출 비중이 높은 경우 예대금리차가 확대되는 가운데 7월 5대 시중은행 평균이 14.3%, 인터넷전문은행의 평균은 31.1%였다"며 "신용점수 구간별 예대금리차를 공시해 오해를 해소할 것"이라고 부연했다. 이를 위해 신용평가사 신용점수별로 대출 금리를 공시한다는 계획이다.한편, 은행연합회는 전체 은행의 예대금리차 공시를 1개월마다 알린다는 계획이다. 또 2023년 상반기 중에는 이번 공시체계로 은행 여·수신 금리 및 소비자 부담에 미치는 영향을 모니터링해 발표한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>토스뱅크 과다대출, 꼼수 빌미 줬나…구멍난 DSR 규제</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005299664?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>시행세칙엔 증빙소득 활용이 원칙은행권 자율규제엔 인정소득 허용건보료 3개월치는 보금자리론 업무[이데일리 서대웅 김정현 기자] 토스뱅크가 대출받는 고객 연봉을 실제 소득보다 40% 넘게 산정한 사실이 드러나면서 총부채원리금상환비율(DSR) 정책에 ‘구멍’이 발생했다는 지적이 제기된다.DSR은 연간 원리금 상환액을 연소득으로 나눈 값으로, ‘갚을 수 있는 만큼만 빌려야 한다’는 대원칙 아래 가계부채 안정을 위해 정부가 내놓은 핵심 대출 규제다. 은행들이 자체 건전성 관리를 위해 실제 내줄 수 있는 한도보다 낮은 한도로 대출을 취급할 순 있어도 고객이 받을 수 있는 최대한도는 모든 은행에서 동일해야 한다. 하지만 촘촘하지 못한 정책 탓에 은행마다 DSR 한도를 달리 적용할 수 있다는 허점이 드러났다. 토스뱅크는 이러한 제도 허점을 잘 파고든 것이란 분석이다. (사진=금융감독원)토스뱅크 연봉 산정 근거 살펴보니금융감독원이 정하는 ‘은행업 감독업무 시행세칙’(시행세칙)은 대출 고객(차주) 연소득을 ‘증빙소득’으로 산정하는 것을 원칙으로 규정하고 있다. 증빙소득이 없는 경우에만 예외적으로 ‘인정소득’을 활용하는 것을 허용한다. 연소득을 정확히 증빙할 수 있는 증빙소득은 원천징수영수증이 대표적이며, 건강보험료는 인정소득에 해당한다.토스뱅크가 금감원에 제출한 자료에는 대기업에 다니는 직장인 사례가 나온다. 이 차주는 증빙소득이 있지만 토스뱅크는 4~6월의 3개월치 건보료로 연봉을 산정했다. 1분기(1~3월) 건보료상 이 차주 연봉은 7300만원이지만, 건보료 정산 시기(4, 5월)가 포함된 2분기를 기반으로 산정한 결과 연봉은 1억100만원으로 40% 뛰었다.토스뱅크가 건보료를 활용한 것은 은행연합회가 정한 ‘여신심사 선진화를 위한 모범규준’(모범규준)에 따른 것이다. 모범규준 역시 시행세칙과 동일하게 증빙소득에 따른 연소득 산정을 원칙으로 규정하고 있지만, 비대면 대출에 대해선 인정소득 활용을 허용하고 있다. 동시에 연소득 산정은 시행세칙을 통해 주택금융공사의 ‘보금자리론 업무처리기준’을 준용하도록 규정했다. 보금자리론 업무처리기준은 인정소득으로 연소득을 추정할 땐 최근 3개월 평균 납부 건보료를 활용하도록 했다. 토스뱅크가 건보료 3개월치로 차주 연소득을 산정한 것은 이러한 규정을 활용한 결과다.형식상 토스뱅크가 규정을 어겨 차주 연소득을 산정한 것은 아니다. 하지만 은행권은 공통적으로 이해하기 어렵다는 반응을 내놨다. 가계부채 급등세가 한풀 꺾인 상황이지만 가계부채 관리가 여전히 필요한 상황인데다, 금리가 급등하고 있어 리스크 관리 차원에서라도 은행 자체적으로 대출 한도를 축소할 필요가 있다는 것이다. 한 시중은행 관계자는 “지금은 최대한 보수적으로 대출을 취급할 때”라고 했다.같은 인터넷전문은행인 카카오뱅크(323410)와 케이뱅크도 인정소득(건보료)을 활용하긴 하지만 토스뱅크처럼 3개월치로 연봉을 산정하진 않는다. 카카오뱅크는 재직 기간이 1년 이상이어야만 대출이 가능하고, 1년 미만인 경우엔 전직장 건보료를 제출해야 한다. 총 재직기간이 1년 미만이면 대출이 불가능하다. 케이뱅크는 6개월 이상 재직 시 대출을 취급하지만 건보료는 1년치를 활용하며, 6개월 이상 1년 미만 재직 시엔 한도가 줄어든다.비대면 대출 시 인정소득을 활용하더라도 보금자리론 업무처리기준을 준용하도록 한 것이 적정하냐는 지적도 나온다. 실수요 서민을 위한 정책 모기지 상품인 보금자리론은 소득증빙이 어려울 때, 즉 증빙소득이 없는 경우에 한해 인정소득으로 건보료 3개월치를 활용하도록 규정하고 있다. 그러나 시행세칙과 모범규준은 비대면 대출 땐 증빙소득이 있더라도 보금자리론의 이 규정으로 인정소득을 활용하도록 했다.(자료=금융감독원, 은행연합회, 주택금융공사)촘촘하지 못한 정책으로 DSR ‘허점’ 발생결과적으로 금융당국은 DSR 정책을 촘촘하게 펼치지 못했다는 지적을 피할 수 없게 됐다. 차주가 건보료 정산이 이뤄지는 4월과 5월을 악용해 대출받는다면 평월보다 더 많은 한도로 돈을 빌릴 수 있다는 점이 확인됐고, 이는 연소득이 대출 한도 기준으로 삼는다는 DSR 정책 취지와도 맞지 않기 때문이다. 이러한 허점을 악용하는 차주가 늘어날 경우 향후 금융회사 건전성 문제로까지 이어질 수 있다.모범규준이 법적 구속력을 가지는지도 쟁점이다. 현재 모범규준은 시행세칙 하위 규정 성격이 짙지만 엄연히 자율규제에 불과하다. 모범규준을 개정하는 주체도 은행연합회지만 금감원과 협의해 결과를 도출한다는 게 중론이다.금감원 관계자는 이에 대해 “대출 취급시 은행들의 연소득 산정 방식을 살펴보겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>'유니콘 등용문' 디캠프 디데이 100회차 맞아 양양서 개최</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004092126?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2013년부터 현재까지 100회 거치면서토스·두나무 등 성공 스타트업 대거 발굴지원 기업 106곳서 1669곳으로 급증100회 디데이 우승은 렌트리와 더라피스양양 데스커 워케이션 공간에서 펼쳐진 100회차 디캠프 디데이. 사진 제공=디캠프[서울경제] 은행권청년창업재단 디캠프가 100회차 디데이를 강원도 양양에서 개최했다고 26일 밝혔다. 디캠프는 지난 2013년 6월부터 매월 스타트업 데모데이인 디데이를 개최했다. 디데이는 국내서 가장 오래된 스타트업 데모데이 중 하나로 지금까지 536개팀이 무대에 오르면서 ‘유니콘 등용문’이라는 평가를 받고 있다. 특히 스타트업의 성공 사례를 만들어 내고 있는 토스(2014년 4월), 두나무(2014년 10월), 뱅크샐러드(2014년 10월), 8퍼센트(2015년 2월), 삼쩜삼(2015년 11월), 캐시노트(2016년 7월), 핀다(2016년 7월)와 같은 핀테크 기업을 비롯해 탈잉(2017년 4월), 프레시코드(2017년 8월), 자란다(2018년 4월), 핏펫(2018년 5월), 구루미(2018년 8월), 더트라이브(2019년 5월), 세줄일기(2020년 2월), 콥틱(2020년 7월), 오늘학교(2021년 6월), 닥터나우(2021년 8월) 등이 디데이에 출전했다. 고피자, 엔씽은 디데이에 2번 출전해 유명 벤처캐피털(VC) 심사위원들의 눈도장을 받았다. 한국 최초로 설립된 암호화폐 거래소 코빗(2013년 7월)은 2017년 넥슨에 인수된 바 있다.디캠프는 디데이에 지원하는 대표의 학력, 성별, 국적, 연령을 구분하지 않고 심사하기 때문에 지원하는 기업 수도 점차 늘고 있다. 2013년에는 지원 기업이 106개사에 불과했지만, 지난 해 1669개 기업이 지원해 15배 이상 성장함과 동시에 평균 경쟁률이 23대 1로 치솟았다. 디캠프는 지역, 은행권, 대학 등에서 개최되는 데모데이에 참여해 약 2000여개의 예비 지원사들을 만나는 중이다. 올해는 8월 기준으로 874개 기업이 디데이에 지원했다.경쟁률이 치열한 만큼 이들 출전 기업의 서비스 분야도 다양하다. 헬스케어가 54개사(10.2%)로 가장 많았고, 그 다음이 업무 생산성/비즈니스가 43개사(8.1%), 금융/보험 41개사(7.8%), 교육 31개사(5.9%), 콘텐츠 29개(5.5%) 순으로 나타났다. 특히, 디캠프는 최근 5년간(2018~2022) 디데이를 통해 기업 가치 40억 미만의 초기 스타트업 발굴에 집중해 왔는데 디데이 본선 진출 294개사 중 절반이 넘는 171개(58%) 기업이 연차 2년 미만인 것도 눈 여겨 볼만 하다.디캠프상을 받은 서동현(왼쪽) 렌트리와 김영덕 디캠프 상임이사. 사진 제공=디캠프한편 100회째 디데이 우승은 렌트리와 더라피스가 차지했다. 디캠프상을 차지한 렌트리(대표 서현동)는 실시간 유통 데이터를 통해 최적의 렌탈 조건을 가진 가전제품을 추천해주는 서비스를 운영한다. 사용자는 원하는 렌탈 조건을 입력하면 렌탈료부터 지원금까지 필요한 정보를 간편하게 파악할 수 있어 따로 견적을 비교하는 번거로움을 줄일 수 있다. 판매자별 평점도 확인할 수 있어 안전하게 거래할 수 있으며, 이후에는 의무사용기간을 낮추고 해지 위약금을 최소화한 제품을 제공할 예정이다.데스커상을 받은 배재호(왼쪽) 더라피스 대표와 강성문 일룸·데스커 대표. 사진 제공=디캠프데스커상을 받은 더라피스(대표 배재호)는 홈트에 특화된 프리미엄 웰니스 코칭 서비스 ‘웰리’를 운영한다. 웰리는 홈트 가이드 영상을 만들 수 있는 1,500여 개의 모듈 영상을 제공해 강사가 자세 시연 대신 코칭에만 집중할 수 있도록 돕는다. 이를 통해 상호작용이 부족하다고 평가받아 온 기존 홈트 서비스의 단점을 보완했다. 웰리는 향후 남성 요가와 명상으로 콘텐츠를 확장하고 AI 영상 분석 기반의 개인별 리포트 제공 기능을 개발할 계획이다.셰빌리티(대표 우용하)는 공유 마이크로 모빌리티 전용 충전 허브 ‘윙스테이션’을 운영한다. 기종별로 전력을 맞춤 공급할 수 있어 충전 규격에 상관없이 모든 모빌리티 충전이 가능하며, 사용자는 어플을 통해 충전 중인 모빌리티의 상태를 확인할 수 있다. 올해 7월 말 세븐일레븐과의 협약을 시작으로 편의점 허브형 충전 인프라를 구축했으며, 향후에는 지역 특성에 따른 새로운 인프라를 제공할 계획이다. 루플(대표 김용덕)은 자연광과 유사한 조명을 비추는 탁자용 라이트테라피 기기 ‘올리’를 개발했다. 불규칙한 생활 습관으로 수면 장애를 겪고 있는 현대인들이 올바른 생체 패턴을 찾을 수 있도록 빛을 이용한 테라피 제품 개발에 집중하고 있다. 루플은 올리를 통해 사용자의 수면 패턴을 데이터화하고, 식습관, 일일 운동량, 업무 집중 시간 등 전반적인 라이프 스타일 데이터를 추가해 개인 맞춤형 생체 리듬 관리 서비스 제공을 목표로 하고 있다.마보(대표 유정은)는 수면과 멘탈, 습관 케어를 위한 명상을 제공하는 국내 최초 디지털 명상 플랫폼이다. 시간대나 이용자의 기분, 상황에 맞는 명상 콘텐츠를 제공하고, 기초명상도 단계별로 쉽게 가르쳐 준다. 2021년까지 광고 없이 이용자의 자연 유입으로 성장한 마보는 올해 6월 기준 누적 다운로드 55만 명에 도달했다.원루프(대표 양승현)는 원격근무를 위한 시간제 업무 공간 예약 중계 서비스를 제공한다. 사용자는 어플을 통해 내 주변 업무공간을 검색하고 출입할 수 있으며, 이용한 시간만큼 결제할 수 있다. 이후에는 여행업으로 분야를 확장해 여행지에 머물며 업무와 휴식을 동시에 하는 근무제도인 ‘워케이션’을 위한 공간도 준비 중이다.이번 디데이 일룸/데스커 강성문 대표, 트랜스링크인베스트먼트 박희덕 대표, 비에이파트너스 이종승 대표, 소풍벤처스 한종호 파트너, 에이치지이니셔티브 남우진 상무, 어센도벤처스 남궁알렉스 이사, 한국성장금융투자운용 노해성 실장이 심사위원으로 함께 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>은행 '디지털 유니버설뱅크' 허용…네카토는 보험·예적금 중개 가능(종합)</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006293471?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>금융위 '금융규제 혁신방안' 공개…"금융회사 플랫폼 업무 활성화"은행앱에서 보험·증권 업무까지…빅테크는 보험·예적금 비교추천 허용김주현 금융위원장이 23일 서울 종로구 세종대로 정부서울청사에서 열린 금융규제혁신회의 제2차 회의에서 모두 발언을 하고 있다. 2022.8.23/뉴스1 ⓒ News1 김명섭 기자(서울=뉴스1) 국종환 기자 = 앞으로 은행 애플리케이션(앱) 하나로 보험·카드·증권 등 모든 금융서비스를 이용할 수 있는 '디지털 유니버설 뱅크' 시대가 열린다. 전자문서 확인이나 본인확인서비스 등 다양한 생활편의 서비스도 은행 통합앱에서 이용할 수 있게 된다.보험회사들은 자회사를 통한 '헬스케어' 업무가 허용되면서, 맞춤형 건강관리 서비스를 제공할 수 있게 되고, 카드사는 통신판매중개업이 허용돼 하나의 카드앱에서 다양한 카드상품을 추천할 수 있게 된다.또한 네이버·카카오·토스 등 빅테크 업체들은 그동안 규제에 막혔던 금융상품 중개업을 시범운영할 수 있게 돼, 플랫폼을 통해 예금·보험 등의 금융상품 추천 서비스를 제공할 수 있게 됐다. 금융위원회는 23일 오후 정부서울청사에서 '제2차 금융규제혁신회의'를 열어 이 같은 '플랫폼 금융서비스 활성화 방안'과 '규제 샌드박스 내실화 방안'을 심의했다고 밝혔다. 이날 회의에는 박병원 의장 등 민간위원 16명과 김주현 금융위원장, 이복현 금융감독원장, 금융권 협회장들이 참석했다.◇은행앱에서 보험·증권 업무까지…'디지털 유니버설 뱅크' 시대 개막금융위는 먼저 은행이 앱을 통해 보험·카드·증권 등 다양한 금융상품과 비금융서비스를 제공할 수 있도록 '디지털 유니버설 뱅크' 사업을 지원하기로 했다.그동안 은행은 엄격한 부수업무 규제 때문에 다양한 플랫폼 서비스를 제공하기 어려웠다. 금융회사가 은행·보험·카드 등의 계열사를 소유하고 있더라도 각 서비스별로 별도의 앱을 설치해 이용해야 하는 번거로움이 있었다.이에 금융위는 은행의 통합앱 운영을 부수업무로 허용해 보험·카드·증권 등 계열사 서비스를 하나의 통합앱에서 제공할 수 있도록 지원하기로 했다. 이를 위해 계열사의 비금융서비스 연결·제공도 허용하고, 금융소비자보호법상의 중개 해당여부 판단기준도 명확히 해 통합앱 운영에 대한 법적 불확실성을 제거하기로 했다.또한 은행이 다양한 금융·비금융 서비스를 제공할 수 있도록 부수업무 해당 여부도 유연하게 해석하기로 했다. 이에 따라 은행앱을 통한 국민연금 가입내역, 건강보험 납입내역, 세금 및 공과금 고지서 등 '전자문서중계업무'와 이용자의 주민번호가 아닌 대체수단을 활용해 이용자를 식별·인증하는 '본인확인서비스'도 가능해진다.금융위는 보험회사의 경우 '헬스케어 금융플랫폼'을 구축할 수 있도록 디지털 헬스케어서비스 범위를 확대하는 한편, 자회사의 다양한 헬스케어 업무를 허용하기로 했다. 이에 따라 보험사는 개인과 기업을 대상으로 맞춤형 건강관리 서비스와 헬스케어 관련 물품 도소매, 소프트웨어 개발·판매, 시설 운영 등의 신사업을 영위할 수 있게 된다.카드사는 '생활밀착 금융플랫폼'을 구축할 수 있도록 신고 없이 영위할 수 있는 부수업무 범위를 확대(예, 통신판매업→통신판매업+통신판매중개업 등)하고, 타업권과 마찬가지로 기업·법인정보는 정보주체 동의 없이 활용할 수 있는 방안을 추진한다. 또한 카드사가 마이데이터 사업자로서 고객 상황에 적합한 다양한 카드 상품을 고객에게 추천할 수 있도록 타사의 카드 판매 중개도 허용한다.김주현 금융위원장이 23일 서울 종로구 세종대로 정부서울청사에서 열린 금융규제혁신회의 제2차 회의에서 모두 발언을 하고 있다. 2022.8.23/뉴스1 ⓒ News1 김명섭 기자◇'네카토' 빅테크 보험 중개 10월부터 허용…예·적금 상품도 한눈에 비교금융위는 또한 네이버·카카오·토스 등 빅테크·핀테크 업체의 경우 예금·보험·온라인투자연계금융업(P2P) 등 다양한 금융상품을 비교·추천하는 서비스를 시범운영할 수 있도록 허용하기로 했다.금융위는 금융규제 샌드박스 제도인 '혁심금융서비스'를 통해 핀테크 플랫폼의 보험상품 비교·추천 서비스를 허용하기로 했다. 이달 중 신청을 받아 이르면 10월 사업자를 지정한다는 계획이다. 혁신금융서비스란 혁신적인 서비스에 대해선 금융법상 인허가나 영업행위 등의 규제를 최대 4년 동안 적용유예·면제해주는 제도다.현재 핀테크 업계의 보험상품 추천 서비스는 '휴업' 상태다. 금융소비자보호법에 따라 상품 중개를 하려면 금융위에 금융상품 판매대리·중개업자로 등록해야 하는데, 보험업법 시행령상 플랫폼 업체들은 보험상품의 중개업자 등록이 불가능하다.금융위는 규제 특례를 부여하되, 금융소비자 피해를 방지하기 위해 여러가지 부가 조건을 부여하기로 했다. 사이버마케팅(CM)·텔레마케팅(TM)·대면용 상품 취급을 허용하되 종신·변액·외화보험 등 상품구조가 복잡하거나 고액 계약 등 불완전판매 우려가 높은 상품은 플랫폼의 취급 범위에서 제외하기로 했다. 영업 채널도 '온라인'에 한정했다. 다만 소비자가 상담·설명을 요청할 경우 전화를 통한 응대는 허용된다. 이해 충돌 방지 방안도 담겼다. 금융위는 시장 영향력이 큰 대형플랫폼에 한해 방카슈랑스 25%룰을 적용할 예정이다. 보험 상품 연간 모집액 중 특정 1개사의 모집비중이 25%를 넘어가지 못하도록 하는 규제다. 금융위는 플랫폼의 연간 매출액 등을 기준으로 '대형 플랫폼'을 선정할 예정이다.이날 금융위는 핀테크 플랫폼의 업무 범위를 '비교·추천'으로만 제한한다는 점을 강조했다. 현재 빅테크 보험 중개 허용을 두고 보험대리점업계(GA)는 강력하게 반발하고 있는데, 이에 대한 해명을 낸 것이다. 금융위는 "플랫폼은 빅데이터 분석기술 등을 활용해 비교·추천만 할 수 있으며 기존 모집채널은 설계사의 전문적인 설명 등을 통한 상품 판매 역할을 지속해서 수행할 수 있다"고 말했다.또한 금융위는 핀테크 업계에 혁신금융서비스 방식으로 예·적금 비교·추천 서비스를 허용하기로 했다. 예금상품 판매중개업은 대출이나 보험 상품과 다르게 관련 법상 등록 근거가 마련돼 있지 않은 만큼, '규제 특례'를 우선적으로 부여한다는 계획이다. 금융소비자들은 앞으로 빅테크 플랫폼에서 본인에게 적합한 예·적금 상품을 추천 받을 수 있게 된다. 금융당국은 은행권 상품뿐 아니라 저축은행과 신협 등 상대적으로 금리대가 높은 금융회사의 상품도 추천할 수 있도록 할 계획이다. 금융당국은 서비스가 시행되면 금융회사들이 고객을 뺏기지 않기 위해 수신상품 금리 인상에 나서는 '금리 경쟁'에 나설 것으로 보고 있다.◇"판매주체 미리 고지"…금융플랫폼, 소비자 보호방안 확대금융위는 금융플랫폼 사업 규제를 대거 완화하는 대신, 부작용은 최소화하기 위해  알고리즘 공정성 확보, 불완전판매 방지, 손해배상 보증금 예치, 플랫폼의 우월적 지위 남용 방지 등의 리스크 보완방안도 함께 갖추기로 했다.앞으로 금융사나 빅테크, 핀테크 등은 소비자에게 금융상품을 판매하는 주체가 보험사, 카드사, 증권사 등 개별 계열사임을 쉽게 알 수 있도록 판매 시 미리 고지해야 한다. 판매주체를 고지하지 않거나 부당 표시·광고 등으로 피해 발생 시에는 금융플랫폼 운영사가 판매주체와 함께 배상책임을 부담한다.고객상담과 같은 민원·분쟁 해결 절차와 정보보호·보안 등 소비자보호를 위한 관리체계 구축도 해야 하며, 이러한 과정에서 과도한 정보수집 이용·제공이 이루어지지 않도록 정보이용 동의, 철회 등을 명확히 안내하고 보장해야 한다.금융플랫폼에 판매를 맡기는 금융회사는 위탁에 따른 리스크를 적정하게 통제·관리하도록 '업무위탁규정'등에 따라 관련 절차를 점검·권고받는다. 금융플랫폼과 예금·보험상품 판매 위탁계약 체결 시 금감원에 보고해야 하며, 혁신금융서비스 지정으로 서비스를 시범 운영하더라도 '업무위탁 보고를 완료한 금융사의 금융상품을 비교할 것'이 부가조건으로 의무된다.이미 금융플랫폼을 운영하는 회사들에 대해서도 금융소비자보호법 및 개별업법상 판매중개업자에 대한 영업행위 규제가 적용된다. 금소법상 불완전판매 방지 등을 위해 판매중개업자에 대해 내부통제기준 마련 의무, 6대 판매규제, 각종 금지행위 등을 지켜야 한다. 혁신금융서비스 지정 시에도 '금소법 및 개별업법상 판매중개업자에 대한 영업행위 규제를 준수할 것'이 부가조건으로 의무된다.김주현 금융위원장은 "이번 조치로 디지털 전환 부문에서 금융회사, 핀테크, 빅테크 간의 건전한 경쟁을 통해 자율적인 혁신이 일어나고 소비자 편익이 크게 증대될 것으로 기대한다"고 밝혔다. 이복현 금감원장도 "금융플랫폼 활성화와 규제샌드박스 내실화로 경쟁과 혁신이 제고되고 소비자 후생도 증진될 것으로 기대한다"며 "금융 혁신에 따른 금융산업 구조 변화에도 금융시장 안정과 금융소비자 보호가 잘 지켜지도록 금감원이 면밀히 살펴볼 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>김주현 금융위원장 규제완화 광폭 행보…금융권·빅테크 '반색'</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003039089?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>금융지주 '통합 앱 운영' 허용빅테크 '금융상품 중개' 물꼬서비스 활성화 정책에 호응일각선 소비자보호 부실 우려김주현 금융위원장이 23일 서울 종로구 정부서울청사에서 열린 금융규제혁신회의 제2차 회의에 참석해 발언하고 있다.김주현 금융위원장이 취임 초 규제완화 '광폭 행보'를 보이고 있어 금융플랫폼 육성에 사활을 걸고 있는 금융회사와 빅테크가 일제히 '반색'하고 있다.김 위원장은 취임 전부터 방탄소년단(BTS) 같은 세계적인 금융사가 탄생할 수 있게 규제완화에 적극 나서겠다고 천명했다. 해묵은 과제인 금산분리(금융자본과 산업자본 분리)도 개선하겠다고 했다.지난달 11일 취임 직후부터 금융혁신, 규제완화에 공을 들였다. 김 위원장은 취임사에서 “과거 전통적 틀에 구애받지 않고 과감히 개선하겠다”고 강조했다.지난 8일 대통령 업무보고에서도 김 위원장은 “BTS 같은 글로벌 민간 금융사 육성”을 다시 꺼내들면서 금융산업 발전을 제약하는 규제를 대폭 완화하겠다고 공언했다.규제완화 결정판은 지난 23일 금융규제혁신회의에서 발표한 플랫폼 금융서비스 활성화 방안이다. 김 위원장은 기존 금융사와 빅테크에 각각 선물을 안겨주면서 양쪽 모두를 품에 안았다.앞으로 은행은 하나의 애플리케이션(앱)을 통해 은행, 보험, 카드, 증권 등 다양한 금융서비스를 제공하는 '디지털 유니버설뱅크'를 구축할 수 있게 된다. 이로써 카카오페이, 토스 등 빅테크 플랫폼에 맞설 '슈퍼 앱' 탄생의 초석을 다질 수 있게 됐다.중장기적으로 법령 개정 등을 통해 지주사가 통합 앱을 직접 운영할 수 있도록 허용하는 방안도 검토하겠다며 금융권 숙원을 풀어주겠다고 했다.한 금융사 최고경영자(CEO)는 “김 위원장의 추진력으로 오랫동안 요구해온 규제완화가 일시에 풀리게 됐다”며 “이제야 말로 빅테크에 맞설 금융 플랫폼 육성이 가능해졌다”고 말했다.빅테크도 김 위원장에 박수를 보내고 있다. 빅테크가 보유한 온라인 플랫폼에서 예금, 보험 등 금융상품을 중개할 수 있는 물꼬를 터주면서 플랫폼이 한 단계 더 진화하는 계기가 될 것이라고 기대하고 있다. 금융권 관계자는 “김 위원장이 금융사와 빅테크 의견을 모두 들은 뒤 플랫폼 금융서비스 시장 규모를 키워나가면서 공정한 경쟁이 될 수 있도록 판을 깔아주려고 하는 모습이 보기 좋다”고 말했다.일각에선 너무 성급한 규제완화로 소비자보호 이슈가 불거질 수 있다고 문제를 제기한다. 플랫폼 경쟁이 치열해질수록 소비자보단 회사의 이익이 우선돼 자칫 금융사고가 발생할 수 있다는 지적이다. 또 빅테크가 금융권을 잠식해 들어오면서 기존 금융사가 종속될 수 있다는 우려도 나온다.지난 22일 서울 여의도 국회 본관에서 '국민의힘 정책위원회-보험업계 현안 간담회'에서 정지원 손해보험협회장은 “빅테크의 보험 진출이 논의되고 있는데 동일행위 동일규제 원칙에 부합하는 적절한 보완방안과 함께 논의돼 공정한 규제환경 조성이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.08.24.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>'네카토', 보험비교 서비스 할 수 있다…보험업계는 반발</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011379475?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>기사내용 요약보험업계 "보험료 인상으로 이어질 것"[서울=뉴시스] 김소영 금융위원회 부위원장이 26일 오전 서울 종로구 정부서울청사에서 개최된 금융리스크 대응 TF 회의에 참석해 발언하고 있다. (사진=금융위원회 제공) 2022.07.26. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 금융당국이 온라인플랫폼사(빅테크)에 보험비교 서비스를 허용하자, 보험업계에선 보험료 인상으로 이어질 수 있다는 우려의 목소리가 나왔다. 24일 금융위원회에 따르면 금융위는 전날 "마이데이터사업자, 전자금융업자 등이 여러 보험사의 보험상품을 비교·추천하는 온라인 서비스를 시범 운영할 수 있도록 허용한다"고 밝혔다.  금융위는 금융규제 샌드박스(혁신금융서비스)를 통해 시범운영 후 제도화하는 방향을 검토하고 있다. 보장범위는 소비자 피해 우려가 큰 상품은 제외했다. 예컨대 종신·변액·외화보험 등 상품구조가 복잡하거나 고액계약 등 불완전판매가 우려되는 상품은 빠졌다. 허용되는 보장범위 내에서 CM(Cyber Marketing·다이렉트상품·온라인전용상품)용 상품뿐만 아니라 TM(Tele-Marketing·텔레마케팅)용, 대면용 상품 모두 취급할 수 있도록 했다. 보험업계는 즉각 우려를 표했다. 금융당국의 이번 조치로 인해 궁극적으로 보험료가 인상될 수도 있다는 이유에서다.먼저 양 보험협회가 2015년부터 공동으로 운영하는 보험상품 가격비교 플랫폼인 '보험다모아'가 존재하기 때문에 '추가 수수료(광고비)'가 발생하는 중개플랫폼이 따로 필요하지 않다는 입장이다. 실제로 현재 보험다모아에선 CM상품을 비롯해 방카저축성 상품, 실손의료보험 상품에 대해 보험사별로 보험료와 보장내용 등을 비교해 안내하고 있다. 방카저축성 상품은 은행 등 금융기관보험대리점을 통해 가입이 가능한 저축성 보험상품이다.한 보험업계 관계자는 "카카오택시 때도 처음에는 무료로 운영을 하다, 이후 택시기사와 이용자들에게 수수료를 올려 받았다. 같은 상황이 반복될까 염려된다"고 말했다. 그러면서 "광고 수수료가 10~15% 수준으로 예상되는데, 결과적으로는 소비자에게 보험료 인상으로 전가될 수 있다. 표면적으론 소비자들의 편의성이 증대되는 것처럼 보이지만, 실제론 유통 과정이 늘어남으로써 부가세가 하나 더 붙는 구조"라고 꼬집었다.  또 CM상품뿐만 아니라 TM과 대면 상품을 포함한 것에 대해선 업계에 대한 이해가 떨어진 조치라고 비판했다. 일반적으로 CM상품은 카드사 제휴 같은 마케팅 비용 등은 포함돼 있지만 설계사 수수료가 빠져 있다. 그만큼 TM·대면용의 비슷한 구조를 가진 상품에 비해 저렴한 보험료로 가입할 수 있다.또 다른 보험업계 관계자는 "CM상품은 설계사들 수수료가 빠져 있어 TM이나 대면 상품에 비해 훨씬 저렴한 것"이라며 "그래서 온라인 비교 서비스를 하더라도, CM 상품에 한정해야 한다는 주장을 보험사들이 했던 것이다. TM·대면 상품의 온라인 판매는 이들 상품의 보험료 상승으로 이어질 것"이라고 예측했다.또 보험업계는 자사 플랫폼과 비교할 수 없는 MAU(Monthly Activity User, 월간활성이용자수)를 보유한 네이버파이낸셜·카카오페이·토스 등이 막강한 영향력을 행사, 이들에 보험업계가 종속될 것을 우려했다. 한 손보업계 관계자는 "차후에는 온라인플랫폼사에서 판매량을 근거로 전용 상품을 요구할 수도 있다. 전용 상품을 내놓지 않으면 관계를 끊겠다는 식으로 나오면 보험사 입장에선 난감한 상황에 처하게 될 것"이라고 말했다. 금융위는 이달 혁신금융서비스 신청서를 접수하고, 9월 혁신성 등 지정요건 심사를 거쳐 10월께 혁신금융서비스로 지정할 계획이다. 이형주 금융위 금융산업국장은 전날 "특히 보험대리점(GA) 업계와 설계사들이 영업 침해, 소득 감소에 대해 우려하고 있는 것으로 알고 있다"며 "이러한 우려와 소비자들의 편익 등을 종합적으로 고려해 보험상품의 경우 비교·추천만 우선 허용키로 한 것"이라고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.08.27.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>수천억대 스타트업 투자는 이제 옛말…"M&amp;A 트렌드 바뀌어"</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005138641?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>4~7월 스타트업 관련 M&amp;A 43건…60%↑ 스타트업 간 시너지 효과…알짜기업 인수 "IPO·스케일업 전략…주식교환 방식 선호"경기 고양시 킨텍스에서 열린 디지털 대전환 엑스포에서 관람객들이 3D 홀로그램 솔로션 하이퍼비전을 살펴보고 있다./고양=김현민 기자 kimhyun81@ # 대출 비교 플랫폼 서비스를 운영하는 ‘핀다’는 지난달 상권 분석 스타트업 ‘오픈업’을 인수했다. 오픈업 임직원 10여명도 핀다 소속이 됐다. 지역별 창업비용 계산기 서비스를 운영해온 오픈업은 8400만개의 매출 데이터를 보유하고 있으며, 매월 70만개의 데이터를 생성한다. 핀다는 오픈업의 빅데이터를 기반으로 인공지능(AI) 기술을 활용해 소상공인에게 도움을 주는 정보와 서비스를 제공할 계획이다. 핀다 관계자는 "두 회사가 만나 시너지를 낼 것으로 기대한다"고 밝혔다.최근 스타트업 간 인수합병(M&amp;A)이 활성화되는 동시에 M&amp;A 시장 트렌드가 변하고 있다. 기술과 자본력 둘 중 하나만을 갖춘 스타트업이 M&amp;A를 통해 사업 확장을 시도하는가 하면, 돈줄이 말라가는 상황에서 ‘알짜 기업’을 인수하는 기업들도 늘어나고 있다.27일 스타트업 데이터베이스 플랫폼 ‘혁신의숲’에 따르면 올해 4~7월 스타트업 관련 M&amp;A는 총 43건으로, 지난해 같은 기간과 비교하면 60% 가까이 늘었다. 지난해까지만 해도 투자시장에 돈이 대거 풀리면서 스타트업들이 기업가치를 높이기 위해 원하는 투자를 골라 받았던 분위였다면, 최근에는 금리 인상에 이어 경기 위축 우려 등으로 투자 심리가 내려 앉으며 M&amp;A 시장 움직임이 활발해지고 있다.눈에 띄는 점은 스타트업과 스타트업 간의 M&amp;A다. 안희철 법무법인 디라이트 스타트업 담당 변호사는 "올 상반기 100여개의 인수합병 딜이 이뤄졌고, 그중 40개 이상의 스타트업이 스타트업에 인수됐다"고 말했다. 그는 "스타트업이 스타트업을 인수하는 케이스의 경우 단순히 기술이나 인력을 흡수하기 위해서가 아니라, 더 장기적인 IPO(기업공개)와 M&amp;A 전략을 위한 선택"이라고 덧붙였다. 또한 "그동안 대규모 투자 유치로 기업을 성장시켜서 엑시트하는 전략을 썼다면, 최근에는 주식교환 방식으로 M&amp;A를 추진하는 기업이 늘고 있다"고 설명했다. 한 업계 관계자는 "스타트업들이 새로운 시장을 진출하는 방법으로 제로베이스에서 시작하기보단, 기존에 서비스를 잘 구현해온 스타트업들과 손을 잡고 스케일업을 하려는 움직임을 보이고 있다"고 전했다.글로벌 스타트업 페스티벌 '컴업 2021' /문호남 기자 munonam@핀다와 오픈업 사례뿐만 아니라, 비대면 세탁서비스 ‘런드리고’를 운영하는 의식주컴퍼니는 무인세탁소를 운영하는 펭귄하우스를 인수해 무인 스마트 세탁 시장에 본격 진출할 태세다. 토스를 운영하는 비바퍼블리카는 지난달 알뜰폰업체 ‘머천드코리아’를 인수하면서 알뜰폰 사업 진출 소식을 알렸다.해외에서도 M&amp;A를 통한 사업 확장이 줄을 잇고 있다. 프롭테크 ‘알스퀘어’ 관계자는 "미국에선 벌써 MA&amp; 큰 장이 벌어지는 분위기"라며 "돈줄이 마른 상황에서 신기술을 필요로 하는 기업에 인수되길 바라는 스타트업이 늘고 있다"고 밝혔다. 글로벌 부동산 컨설팅 업체 JLL은 건물 운영 플랫폼 ‘빌딩 엔진’을 3억달러, 상업용 부동산 플랫폼 VTS는 오피스 관리 플랫폼 ‘레인 테크놀로지스’를 2억달러에 인수했다. 샤라드 라스토기 JLL테크놀로지스 사장은 "신생 기업들은 제품 로드맵을 가속화하고 시장을 효율적으로 확장하는 데 도움이 되는 전략적 파트너와의 협력(피인수) 방안을 모색할 것"이라고 밝혔다.최근 국내에서도 대기업이 스타트업을 인수해 새 먹거리를 찾아 나서고 있다. GS리테일은 지난달 IMM프라이빗에쿼티와 공동으로 반려동물 전문몰 ‘펫프렌즈’를 인수한다고 밝혔고, 최근 넥슨은 미국 실리콘밸리에 본사를 둔 화상 인터뷰 플랫폼 운영사 ‘미띵스’를 인수했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>예금·대출 금리차 공개‥'이자 장사' 1등은?</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001217349?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>[뉴스투데이]◀ 앵커 ▶물가도 뛰고 금리도 뛰는데 은행들은 이자 장사로 사상 최고 실적을 내고 있습니다.◀ 앵커 ▶대출금리와 예금금리 차이인 예대금리차를 금융당국이 각 은행별로 모두 공개했는데, 어느 은행이 제일 이윤을 많이 남길까요? 임상재 기자입니다.◀ 리포트 ▶전국은행연합회 홈페이지.어제 오전 은행별 예대금리차가 공개됐습니다.예대금리차는 대출금리와 예금금리의 차이입니다.은행들은 이 차이를 이용해 돈을 버는데, 차이가 클수록 돈을 더 많이 벌게 됩니다. 7월 가계대출 예대금리차입니다.5대 시중은행 가운데 신한은행이 1.62%p로 가장 컸습니다.우리은행과 NH농협은행은 1.4%p, KB국민은행 1.38%p, 하나은행 1.04%p였습니다.신한은행이 이자 장사를 제일 잘한다는 뜻입니다.신한은행은 억울해 했습니다.대출금리가 높을 수밖에 없는 저신용자와 서민금융 대출을 많이 해줬기 때문에 그렇게 보이는 거라고 밝혔습니다.[신한은행 담당자]"금리가 높은 햇살론 등 서민금융 대출을 적극적으로 취급하고, 주택담보대출 전세대출들의 고정금리 신규 비중을 높였던 노력들이, 가계대출 예대차가 벌어지는 요인이 된 것 같습니다."실제로 서민금융을 제외하고 신용대출 예대금리차를 비교했더니, NH농협은행이 2.65%p로 제일 높고, 신한은행은 2.1%p로 두번째였습니다.같은 이유로 저신용자들이 많이 찾는 인터넷은행들은 예대금리차가 컸습니다.신용대출 예대금리차는 토스뱅크가 5%대로 가장 컸는데, 토스뱅크는 돈이 필요한 저신용자들에게 적극적으로 대출해줬기 때문이라고 밝혔습니다.MBC뉴스 임상재입니다.MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000▷ 이메일 mbcjebo@mbc.co.kr▷ 카카오톡 @mbc제보</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>[토스뱅크의 고민]②남들과는 다른 답, 성공할까</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000009935?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>대출자산 증대 중요하지만…"우린 천천히 가겠다"금융권 최대 MAU바탕 플랫폼 기업 진화 선언국내 은행들의 순익 핵심은 이자이익이다. 은행 순익중 80% 이상이 이자이익을 바탕으로 한다. 이 때문에 대출자산 증가는 은행의 핵심 성과지표중 하나다. 토스뱅크 역시 마찬가지다. 가장 당면과제는 대출자산을 빠르게 끌어올리는 것이 중요하다. 특히 토스뱅크는 예대율이 지나치게 낮기 때문에 다른 은행에 비해 더욱 급한 것이 대출자산을 끌어모으는 것이다. 문제는 토스뱅크가 인터넷전문은행이라는 점이다. 인터넷전문은행은 대출자산을 가장 빠르고 쉽게 늘릴 수 있는 가계신용대출 중 일정 수준 이상을 중·저신용자 대출로 채워야 한다. 아무리 수요가 많다고 해도 이를 모두 받아들이기 힘들 수 밖에 없다. 이에 토스뱅크는 대출자산 증대는 장기간 목표로 삼은 모습이다. 대신 토스뱅크가 가지고 있는 금융권 최고의 경쟁력인 월간활성화사용자수(MAU)를 바탕으로 하는 전략을 펼치기 시작한 모습이다. 한국투자증권과의 협력이 결과물이다. 토스뱅크는 이를 바탕으로 비이자이익의 성장세를 이끌어 수익 포트폴리오를 다양화 해 나간다는 계획이다.대출포트폴리오, 천천히 늘리자토스뱅크는 출범 이후 가계신용대출만 취급하다가 올해 2월에 들어서야 소상공인을 대상으로 하는 '사장님 대출'을 출시했다. 다시 말해 현재 대출 포트폴리오는 가계신용대출, 소상공인대출 단 두가지 뿐이다.이 두가지 시장이 적극적으로 대출자산을 늘릴 수 있다는 장점이 있지만 부실화 등 리스크가 크다는 점은 부담이다.가계신용대출의 경우 30%가량을 부실 가능성이 높은 중·저신용자에게 공급해야 한다. 부실화를 최소화하기 위해 좀 더 깐깐하게 대출을 심사할 수밖에 없다.이를 위해 신용평가모델을 고도화 했다고는 하지만 금리상승기라는 게 또 걸림돌이다. 한국은행이 연이어 기준금리를 인상하면서 대출수요자들이 급격하게 감소하기 시작했다. 이자부담이 커지면서 대출을 꺼리게 된 것이다.당장 주요 시중은행은 물론 경쟁사인 카카오뱅크의 가계신용대출이 감소세를 이어가고 있다는 것이 이를 방증한다.이를 대체하기 위해 소상공인을 대상으로 하는 사장님 대출을 출시했지만 고물가로 인해 소상공인들이 상황이 녹록지 않다. 나아가 정부에서는 소상공인 대출의 금리를 인하해주는 정책을 시행하겠다고 밝힌 상황이다. 결국 토스뱅크가 대출자산을 당장 빠르게 성장시키기 위해서는 부실 리스크가 적고 가계신용대출에도 포함되지 않으며 건당 규모가 커 빠른 대출자산 확보가 가능한 주택담보대출을 출시하는 수밖에 없다는게 은행권의 분석이다.하지만 토스뱅크는 장기적인 안목으로 대출 포트폴리오를 확대하겠다는 답을 내놨다. 카카오뱅크, 케이뱅크 등이 지난해 들어 주택담보대출 시장 공략에 힘을 보태는 것과는 반대의 양상이다.이와 관련 홍민택 토스뱅크 대표는 지난 6월 있었던 기자간담회에서 "대출의 경우 금리, 규제상황 등을 종합적으로 고려한 후 상품 라인업을 확대하는 전략을 펼치겠다"라고 말했다. 이에 대해 시중은행 여신관리부 관계자는 "토스뱅크의 경우 이제 출범한지 1년이 지나지 않았기 때문에 지나치게 대출자산을 끌어올려서는 안되는 부분이 있다"라며 "통상 여신은 취급한 이후 최소 1년동안은 그 리스크에 대한 검증에 나서야 한다"라고 설명했다.이어 "게다가 최근 주택담보대출의 경우 집값 하락 징조가 나타나고 있고 금리도 너무 오른 상황이라 예전처럼 안전하다고만 볼 수 없고, 특히 신생은행에게는 더욱 그렇다"라며 "조급함이 필요없다는 것을 토스뱅크 역시 잘 알고있기 때문에 속도를 내지 않고 있는 것"이라고 덧붙였다. 홍민택 토스뱅크 대표이사가 6월 28일 서울 명동에서 열린 기자간담회에서 발언하고 있다. /사진=토스뱅크 제공토스뱅크만의 무기로 '성장력 입증'아무리 대출 시장의 상황이 녹록지 않다고 해도 토스뱅크가 가만히 앉아 있을 수는 없다. 특히 토스뱅크와 토스뱅크의 대주주인 비바리퍼블리카의 경우 벤처캐피탈로부터 많은 자금을 수혈한 상황이다. 성장성을 꾸준히 보여줘야 한다. 이에 토스뱅크는 막강한 경쟁력을 본격적으로 활용하기 시작한 모습이다. 바로 꾸준히 토스뱅크를 찾는 월간활성화사용자수(MAU)다. 토스뱅크는 출범이후 별도의 애플리케이션을 출시하지 않고 대주주인 비바리퍼블리카가 만든 토스앱에 뱅킹서비스를 추가하는 방식으로 금융서비스를 제공했다. 토스앱에서 모든 금융서비스를 누릴 수 있게 하겠다는 '금융 수퍼앱' 전략이다.이를 바탕으로 토스는 현재 가장 대중적인 회사라는 평가를 받고 있다. 업계에 따르면 토스의 MAU는 1390만명으로 전 금융권 1위 자리를 지키고 있다.  높은 MAU가 수익성으로 이어질 수 있다는 것은 계열사 토스증권이 입증했다. 토스증권은 올 2분기 주식시장 불황에도 불구하고 매매 수수료 수익을 1분기보다 2배 이상 늘린 110억원 가량을 번 것으로 확인됐다. 다른 증권사들이 올해 2분기 실적이 악화된 것과 대비된다. 업계 관계자는 "토스를 통해 확보한 MAU가 토스증권 고객확보로 이어졌고 이는 호실적으로 이어졌다"며 "규모의 경제가 적용된 사례라고 보여진다"라고 말했다.최근 토스뱅크 역시 비슷한 전략을 펼치기로 했다. 토스뱅크만의 상품을 판매하는 것이 아니라 타사의 상품을 광고하면서 비이자이익을 창출한다는 계획이다. 높은 MAU를 갖춘 회사만이 가능한 전략이다. 이를 위해 토스뱅크는 '내게 맞는 금융상품 찾기' 서비스를 출시한 이후 첫 단추로 한국투자증권의 연 4.5% 발행어음을 광고하기 시작했다. 토스뱅크는 이 발행어음 판매 성과에 따라 광고료를 수취하기로 한 것으로 확인됐다. 이 역시 성공했다. 이번에 토스뱅크를 통해 판매한 한국투자증권의 발행어음은 총 2000억원 한도로 판매됐는데 출시 4일만에 완판을 달성한 것이다.토스뱅크 관계자는 "통상 어음의 경우 일반 금융소비자들이 잘 모르기 때문에 판매량을 달성하기 쉽지 않지만 4일만에 완판한 것은 큰 의미가 있다"라며 "금융상품 찾기 서비스를 통해 토스뱅크의 비이자이익도 성장세에 돌입할 것"이라고 설명했다.업계에서는 토스뱅크 역시 '금융 플랫폼'으로의 입지를 다져다나가는 초석을 마련했다고 보고 있다.시중은행 관계자는 "카카오뱅크 역시 실적발표 컨퍼런스 콜을 보면 타사의 금융상품을 소개하는 부분을 플랫폼 수익으로 따로 구분하며 플랫폼 기업임을 강조하고 있다"라며 "토스뱅크의 경우도 높은 MAU와 이번 상품판매의 성과를 바탕으로 금융플랫폼 정체성을 구축하고 비이자이익 확대에 힘을 쏟을 것으로 보인다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>[자막뉴스] '대출금리 인하' 이게 가능?...은행별 숨은 비밀 보니</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001783589?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>은행 대출자들은 승진하거나 연봉이 오르면 은행에 금리 인하를 요구할 수 있습니다.단 대출 상품이 신용 상태별로 금리에 차등을 두는 상품이어야 해 신용대출과 부동산담보대출, 전세자금대출 등 일부 상품만 가능합니다.은행은 재심사해 금리 인하를 해주기도 하는데 이런 방침이 잘 지켜지지 않자 정부가 금리 인하 요구 수용 실적 공개를 지시했습니다.올해 상반기 5대 시중은행의 경우 NH농협은행이 59.5%의 수용률을 보여 가장 높았고 우리은행, KB국민은행, 하나은행, 신한은행 순이었습니다.이에 대해 신한은행은 신청 건수가 월등히 많아 수용률은 낮았지만, 절대 수용 건수나 이자 감면액은 5대 은행 중 가장 많다고 해명했습니다.공시에 참여한 19개 은행 전체로 봤을 땐 KDB산업은행의 수용률이 92.6%로 가장 높고, 토스뱅크가 17.9%로 가장 낮았습니다.대체로 인터넷 은행들이 인색했습니다.금융당국은 이런 자료 공개가 대출을 받으려는 소비자들에게 참고가 될 것으로 기대하고 있지만, 은행들은 불만입니다.[시중은행 관계자 : 비대면 프로세스 등으로 금리 인하 요구 신청 건수가 많아지면 수용률이 하락해 고객의 금리 인하 요구에 소극적으로 대응한 것처럼 비칠 수가 있습니다.]은행권은 저축은행이나 카드사, 보험사에 비해 금리 인하 요구 수용률은 낮지만, 수용 건수와 이자 감면액은 가장 크다고 설명했습니다.금리인하요구권 실적은 반년 주기로 은행연합회 홈페이지 등을 통해 공시됩니다.경쟁을 통해 서비스 질을 높이려는 금융 당국과 기업 내부 정보 공개를 꺼리는 금융기관들 사이에 긴장감도 엿볼 수 있습니다.YTN 박병한입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[기자24시] 저신용자 쫓아내는 예대금리차 공시</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005009338?sid=110</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>예대금리차 공시 첫날인 지난 22일 이자 장사를 한다고 공격받은 은행들의 읍소가 이어졌다. 가계 예대금리차가 크게 나온 신한은행과 전북은행은 "금리가 높은 서민 지원 대출을 확대했기 때문"이라고 해명했다. 토스뱅크는 "담보대출보다 고금리인 신용대출 비중이 높아서"라고 답했다. 합리적인 설명이었지만 다 이해하는 소비자는 드물었고 대부분 이들을 욕했다. "시장의 힘으로 대출금리를 통제하겠다"는 선의에서 출범한 이 제도가 오히려 금융시장에 혼란을 초래하고 있다. 부정확한 정보를 부적절한 방식으로 전달해 없느니만 못한 상황이다. 전문가들은 특히 중저신용자가 배제되는 부작용을 우려한다.공시자료가 현실과 괴리된 점이 가장 문제다. 개인이 적용받는 이자율에 변동이 없어도 저신용자에게 대출할수록 은행의 예대금리차는 크게 나온다. 실제 실행된 대출의 금액과 금리를 기준으로 평균을 계산하기 때문이다. 이자를 많이 주는데도 저평가되는 곳들도 있다. 자유입출금 통장 금리가 연 0.1% 수준인 시중은행과 달리 인터넷은행은 2~3% '파킹 통장'을 제공하지만 예금 금리를 계산할 때 제외돼 손해를 본다. 그 결과 어려운 사람에게도 대출하고 통장 이율도 많이 쳐주는 '착한 은행'이 '탐욕스러운 자본가'로 몰린다. 경영진  입장에선 고신용자에게만 빌려주며 평균 금리를 낮추고 '수치 관리'하는 게 합리적이다.금융당국은 신용점수별 예대금리차, 평균 신용점수 등을 별도 기재하며 보완했다고 해명하지만 태부족하다. 정보가 부실하고 흩어져 있으며, 금리차 순 정렬도 안 되는 구성은 이해를 돕기는커녕 소비자들 오해만 키운다. 차주에게 실제로 유용한 대환대출 플랫폼 구축은 정작 지지부진하다. 창구 금리와 맞지도 않는 숫자 하나를 던져주는 것보다 실세 금리를 쉽게 비교하고 갈아탈 수 있도록 하는 게 경쟁 촉진에 더 효과적인데도 말이다.공시제 시행 사흘도 안 돼 은행들이 잇달아 대출 금리를 내렸지만 당국이 서슬 퍼럴 때 치레하는 데 불과하다. 결국 어려운 사람에게 돈을 내주지 않는 인센티브 구조에 종속되기 마련이다. 대출을 아예 안 해줘 명목 예대금리차를 낮춰봤자 그게 무슨 의미가 있나.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>오늘부터 은행 예대금리차 공개…가장 큰 곳은 어디?</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003907610?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>은행의 예금과 대출금리 차이를 나타내는 '예대금리차'가 22일부터 은행연합회 홈페이지를 통해 공개됐다.이날 공개된 예대금리차 비교 통계에 따르면 KB국민·신한·하나·우리·NH농협 등 5대 은행 중 지난달 가계 예대금리차가 가장 큰 곳은 신한은행으로 1.62%포인트(p)였다. 이어 우리은행(1.4%p), NH농협은행(1.4%p), KB국민은행(1.38%p), 하나은행(1.04%p) 순이었다.기업대출까지 포함한 5대 은행의 예대금리차는 1%p 초중반대로 비슷한 수준이었다. 이 중 NH농협은행이 1.36%p로 가장 컸다. 우리은행(1.29%p), KB국민은행(1.18%p), 신한은행(1.14%p), 하나은행(1.1%p)이 그 뒤를 이었다.한편 인터넷전문은행 중에는 토스뱅크의 가계 예대금리차가 5.6%p로 카카오뱅크(2.33%p)와 케이뱅크(2.46%p)의 두 배를 훌쩍 넘어섰다.이와 관련해 토스뱅크 관계자는 "대출 고객 중 중저신용자 비율은 약 38%로(7월말 기준) 모든 은행 중 가장 높다. 6월 말 공시 기준 타 인터넷전문은행과 비교해도 1.5배 이상 높다"면서 "2% 요구불예금(수시입출금 통장) 중심의 사업적 특성이 수신금리에 미반영된 점도 있다"고 말했다.이어 "앞으로 자체 시스템의 고도화, 자본 확충, 소비자의 요구 및 차별화된 상품 기획 등 다각도의 노력을 바탕으로 여신 포트폴리오를 강화해 나갈 예정"이라며 "중저신용자를 포용하고, 수요자의 관점에서 체감할 수 있는 변화와 혜택을 제공하기 위해 계속 정진할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.08.19.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>'미세전류 칫솔'로 82억원 끌어모은 이 회사[이번주 VC 투자]</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004738875?sid=105</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.한경 긱스(Geeks)가 벤처캐피털(VC) 및 스타트업 정보업체인 The VC와 함께 한 주간의 VC 투자 현황을 요약 정리해드립니다. 어떤 스타트업에 투자금이 몰렸을까요? 지금 출발합니다.'트로마츠 칫솔' 히트 친 프록시헬스케어, 시리즈A 유치미세전류 칫솔을 개발한 헬스케어 스타트업 프록시헬스케어가 82억원 규모 시리즈A 투자를 유치했다. 퓨처플레이를 비롯, 타임와이즈인베스트먼트, HB인베스트먼트, 기업은행, 메이플투자파트너스, BSK인베스트먼트, 인포뱅크가 투자에 참여했다. 누적 투자금은 132억원이 됐다.2019년 문을 연 이 회사는 미세 전류가 흐르는 '트로마츠 칫솔'을 내놨다. 칫솔에 흐르는 미세 전류를 통해 치아나 혀에 붙은 바이오필름(미생물 막)을 제거하는 기술을 갖고 있다. 치태나 치석도 바이오필름의 일종이다. 칫솔에 흐르는 전류가 생체 전류와 비슷해 전기로 인한 짜릿한 느낌이 들지 않는 게 장점으로 꼽힌다. 이 기술은 국제 학술지인 네이처 리서치에 게재되기도 했다. 구독자 26만 유튜버 '뉴욕주민'이 만든 스타트업, 46억원 시드 투자 유치미국주식 유튜버 ‘뉴욕주민’이 운영하는 미국 주식 서비스 스타트업 플루토프로젝트가 지난달 46억 원 규모의 시드 투자 유치를 성공적으로 마무리했다. 이번 투자에는 퓨처플레이, 미래에셋벤처투자 외에 네이버 스노우 김창욱 대표 등 다수의 엔젤투자자가 참여했다.플루토프로젝트는 미국 주식 투자자들을 위한 금융 콘텐츠, 투자 서비스를 제공하는 플랫폼 운영사로 지난 4월 미국 뉴욕에 설립됐다. 플루토프로젝트의 홍현 대표는 뉴욕 금융권 경험을 바탕으로 월가 현지의 정보를 제공하는 뉴욕주민 채널 크리에이터다. 뉴욕주민 채널은 2년 만에 약 100여 개의 영상으로 구독자 26만 명을 달성했다. 채널 초기에 서비스했던 밸류에이션 투자 콘텐츠는 월 4만명 이상의 유료 회원을 모집하기도 했다.플루토프로젝트는 미국 주식 투자 정보가 제공되는 포트폴리오 관리 서비스를 내년 출시 목표로 개발 중이다. '멘털 케어' 오웰헬스, 26억원 유치기업 간 거래(B2B) 기반 멘털 케어 솔루션 '인사이드' 운영사 오웰헬스가 26억원 규모 프리 시리즈A 투자를 유치했다. KB인베스트먼트와 위벤처스, 스프링캠프 등이 투자에 참여했다.이 회사가 내놓은 멘털 케어 플랫폼 인사이드는 정신건강 자가 검사, 디지털 멘털 케어 프로그램, 비대면 상담 등을 제공한다. 다이어트, 불면증, 업무 스트레스, 발표 공포증 등 직장인들이 흔히 겪는 문제들을 해결할 수 있는 게 특징이다.온라인 브랜드 전문 애그리게이터 넥스트챕터, 200억원 조달온라인 브랜드 애그리게이터인 넥스트챕터가 시리즈A 투자 유치를 마쳤다. 기존 투자사인 BRV캐피털매니지먼트가 리드하고 끌림벤처스가 후속 투자를 이어갔다.넥스트챕터는 잠재력이 있지만 유통이나 마케팅 역량, 자금력 문제로 성장 한계에 부딪힌 중소 규모 온라인 브랜드를 인수한 뒤 덩치를 키우는 '애그리게이터' 사업을 영위하는 스타트업이다. 운영에 어려움을 겪는 중소 브랜드 사업자에게 건전한 엑시트(매각) 기회를 제공한다는 설명이다.김건희 여사도 '찜'한 온라인보석상 어니스트서울, 프리A 유치주얼리 판매 플랫폼 '어니스트서울' 운영사 트리플랩스가 11억원 규모 프리 시리즈A 투자를 유치했다. 스트롱벤처스와 베이스인베스트먼트가 회사의 성장성에 베팅했다.어니스트서울은 다양한 주얼리 제품을 판매하고 있다. 안 쓰는 주얼리를 합리적인 가격으로 새롭게 탈바꿈시켜주는 리세팅 서비스나 집에서 받아보는 주얼리 수선 서비스 등을 내놓은 게 특징이다. 지난달엔 김건희 여사가 나토 순방길에 오르면서 어니스트서울의 제품을 착용해 화제가 되기도 했다.당근마켓, 토스도 쓰는 증권관리 플랫폼 쿼타북, 투자 유치증권 관리 플랫폼 쿼타북이 하나증권, 비바리퍼블리카(토스), 액세스벤처스, 엘레펀드, 드레이퍼어소시에이츠 등으로부터 시리즈A 후속 투자를 유치했다. 이 회사는 자체적으로 증권을 관리해야 하는 비상장사들을 위해 주주명부와 스톡옵션 등을 전자화했다. 또 VC나 액셀러레이터들은 이 플랫폼을 통해 펀드와 포트폴리오를 관리할 수 있다. 현재 쿼타북에서 관리되는 증권의 가치를 모두 합치면 총 40조원에 달한다는 설명이다. 토스나 당근마켓, 오늘의집, 직방 등 국내 유니콘 스타트업들을 포함해 총 3000여 개의 기업들이 쿼타북을 이용하고 있다.사무실로 음식 배달... '푸딩' 25억원 유치오피스 푸드 정기 배달 플랫폼 '푸딩' 운영사 열두달이 나우IB, 바로고 등으로부터 25억원 규모 프리 시리즈A 투자를 유치했다. 이 회사는 기업이나 병원 등 오피스 업무를 하는 곳에 정기적으로 사내식 서비스를 제공하고 있다. 코로나19 이후 사무실 내부에서 식사를 해결하려는 수요가 늘자 회사도 성장했다. 일간 식수는 3000건, 누적 식수는 100만 건이 넘는다는 설명이다.폐타이어를 친환경 소재로... 엘디카본, 185억원 유치폐기물 처리, 원료 재생 기업 엘디카본이 185억원 규모 시리즈A 투자 라운드를 마쳤다. 밸류시스템자산운용과 한국투자증권, 펜타스톤인베스트먼트, 엘로힘파트너스 등이 투자했다.엘디카본은 열분해 및 정제, 가공 과정을 거친 폐타이어를 활용해 만든 친환경카본블랙 소재인 GCB를 국내외 타이어 및 고무 제품 제조사에 공급하는 회사다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.08.20.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>“대퇴직 아닌 대탐험 시대…필요하면 인사팀도 다시 뽑아라”</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000835381?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>[이코노미조선][Interview] 김윤주 BCG 코리아 매니징 디렉터 파트너 겸 인사 조직 부문 리더 혁신 기술로 노동판을 바꾸는 HR테크 기업이 뜨고 있다. HR테크 기업은 채용에서부터 관리, 교육, 인재 유출 방지까지 다방면에서 기술을 활용한 혁신 기술로 채용은 물론, 업무, 인적 관리의 시간적, 물리적 제약을 무너뜨리고 있다. 특히 코로나19 팬데믹(pandemic·감염병 대유행)이 불러온 대퇴직(Great Resignation) 사태와 워라밸(일과 삶의 균형)을 중시하고 긱 워커(gig worker⋅조직과 정해진 출퇴근 시간 없이 수입을 올리는 근로자)의 증가, IT 기술 인력난 심화 등은 HR테크 산업 성장세에 불을 지폈다. 포천비즈니스인사이츠는 2020년 228억달러(약 30조원)에 달했던 HR테크 시장이 2028년 356억달러(약 47조원)까지 커질 것으로 내다봤다. ‘이코노미조선’이 HR테크의 현재와 미래를 들여다봤다. [편집자 주]김윤주 보스턴컨설팅그룹(BCG) 코리아매니징 디렉터 파트너 겸 인사 조직 부문 리더. 연세대 경영학, 하버드 비즈니스스쿨 MBA, 현 금융위원회 혁신금융심사위원회 위원, 전 UBS홍콩지사 어소시에이트 디렉터, 전 웅진홀딩스 최고재무책임자. /안소영 기자        코로나19 팬데믹(pandemic·전염병 대유행)이 시작된 후, 미국에서는 노동력 부족 문제가 연일 불거지고 있다. 미국 노동통계국 집계를 보면 지난해 자발적으로 일을 그만둔 근로자는 4740만 명으로, ‘대퇴직(Great Resignation) 시대’라는 신조어까지 생길 정도다. 코로나19 확산 직후 꺾였던 소비심리가 금세 되살아났지만, 일손이 부족한 탓이다. 미국 기업들은 영업시간을 줄이거나 임금을 올리거나 관행을 바꾸면서까지 구인해야 하는 상황이다.국내에서도 구직자 우위 시장이 펼쳐지고 있다. ‘능력 있는 인재는 합당한 대우를 받고 손쉽게 자리를 옮기는 이직 문화’가 완전히 자리 잡은 덕분이다. 2021년 국내 이직자 수는 1105만7000명으로, 10년 전 대비 두 배가량 증가했다.‘이코노미조선’이 7월 22일 만난 김윤주 보스턴컨설팅그룹(BCG) 매니징 디렉터 파트너 겸 인사 조직 부문 리더는 “지금은 대퇴직 시대가 아니라 대탐험(Great Exploration) 시대”라며 “과거와 달리 구직자 우위 시장이 된 만큼, 기업들이 변화해야 한다”고 조언했다. 그는 “구직 시장의 미스매치로 인재 전쟁은 계속될 것”이라며 “기업 문화를 혁신하지 않거나, 기존 채용법만 고수하는 기업은 퇴보할 것”이라고 말했다.‘대퇴직 시대’라는 말이 나온다. 이유는.”’하버드비즈니스리뷰’ 필자인 키이스 페라지는 대퇴직을 ‘대탐험’이라고 새롭게 정의했다. 직장을 그만두는 게 아니라 새로운 직업, 새로운 미래를 그리는 과정이라고 본 거다. 이 발언에 동의한다. 지금은 과거 어떤 시점보다 시장의 미스매치가 큰 상황이다. 구직자들이 원하는 바와 회사가 제공하는 가치가 다른 거다.”대퇴직이라는 단어가 미국에서 나온 단어다. 미국과 한국의 상황이 비슷한가. “아니다. 팬데믹 당시 미국 정부가 국민에게 워낙 많은 퇴직수당을 줘서 직업 없이 생계 유지가 가능했다. 점차 퇴직수당이 줄어 내년에는 많은 이가 다시 직장으로 향할 것으로 전망된다. 한국은 퇴직수당이 많지 않아 이러한 상황은 없었다. 하지만 기업 내부를 들여다보면 여느 때보다 퇴직자가 많고 인재에 대한 수요가 크다. 앞으로 직원들이 계속해서 나가는 현상이 가속화될 거다.”국내 기업들이 인재 부족을 호소하는 이유는 무엇인가. “기업들은 시대 변화에 따라 데이터과학자, 소프트웨어 엔지니어 등 새로운 유형의 전문 인력이 필요한데, 이러한 인재들의 수가 적다. 전문 인력들에게는 스톡옵션 주는 스타트업부터 대기업까지 선택지가 너무 많다. 자연스레 구직자 우위 시장이 되면서, 채용 시장 힘의 논리가 완전히 바뀌었다. 바이오, 반도체 등 기술을 가진 인력들의 몸값이 급등했다.”그렇다면 채용 방식이 달라졌나. “과거만큼 신입 공채를 활용하지 않는다. 소프트웨어 개발자 10여 명을 공채로 뽑는다고 생각해보라. 쉬운 일이 아니다. 공채로 시간 낭비, 돈 낭비하기보다 상시로 전문가를 채용하는 경우가 많아졌다. 앞서 말한 힘의 균형 변화와도 비슷한데, 과거에는 이름 있는 대기업이 채용한다고 하면 구직자들이 줄을 섰다. 요즘에는 구직자가 ‘내가 가고 싶은 회사인지’ ‘내가 원하는 일인지’ 판단해서 선택한다. 기업과 구직자의 원하는 바가 같아야 하는 거다. 기회가 있으면 이직하는 분위기가 생겨 공채로 많은 직원을 뽑아서 교육하고 투자하는 효용이 크지 않다. 자연스럽게 수시 채용을 선호하게 된 거다.”많은 기업이 채용에 어려움을 겪는다. 해결책은. “채용 방식만 바뀌는 게 아니라, 기업 자체가 바뀌어야 한다. 당장 최고경영자(CEO)가 전 세계를 돌아다니면서 인재를 찾고, 연봉 높게 주겠다며 인재를 데려온다고 해도, 입사 후 원하는 부분이 채워지지 않으면 퇴사한다. Z 세대(1997~2010년생)는 이 회사가 추구하는 가치와 목적이 내 삶의 목적과 맞는지, 업무 수행 방식이 투명한지, 나에게 더 많은 기회와 자율성을 제공하는지 확인한다. 회사 자체가 일하고 싶은 회사가 돼야 한다.”쉬운 일은 아닌 것 같다. “경영자 입장에서 인사 제도를 급격하게 바꾸기 어려운 게 사실이다. 기존에 일하던 사람과 새로 입사하는 사람 간 입장 차이도 크기 때문이다. 새로운 제도를 시행할 때 ‘이게 진짜 생산성을 높이는 방법일까’에 대한 고민도 있다. 필요한 인력은 부족한데, 필요하지 않은 인력도 너무 많이 쌓이는 것도 고민이다. 이들을 해고할 수는 없으니까 비용이 늘어나는 구조적 문제가 있다.”재교육 등 채용 외에 다른 방법을 이용할 수는 없나. “리스킬(reskill), 업스킬(upskill)이 주목받은 지 몇 년 됐다. 하지만 재교육으로 필요한 인력을 충원하는 데 어려움이 있다. 미국 아마존 같은 경우 프로젝트 단위로 인력을 단기 채용하는 방식을 활용한다. ‘1년에 몇 달은 일하고, 몇 달은 쉬겠다’라는 생각을 가진 인력도 많아져서 가능한 것으로, 유연한 고용 시장이 만들어져야 한다.”HR 제도를 잘 운영하고 있는 기업은. “올해 구글이 선보인 직원 평가 시스템 ‘구글 리뷰와 개발(GRAD)’을 보면, 승진할 기회를 일 년에 한 번에서 두 번으로 늘렸다. 직원들이 자신의 능력을 빨리 증명하고 싶어 하고, 지속해서 피드백을 받고 싶어 하는 부분을 반영한 거다. 네이버는 전면 재택근무제도를 실시하고, 토스는 직원을 뽑을 때 직무설명만큼 사내 복지와 혜택을 설명한다. 재직자들도 인터뷰를 통해 우리 회사가 어떤 회사인지 잘 알려준다.BCG도 이 부분에서 상당히 잘하고 있다. 직장에서도 자기가 평소 관심 있는 사회적 이슈를 다루거나 신념 등을 지킬 수 있게 하고, 직원들의 리프레시를 위해 유연 휴가(flexible leave) 제도를 운용한다. 사유를 적지 않아도 몇 달씩 쉴 수 있다. 무급이긴 하지만 이용하는 인력이 많다. 10명으로 할 수 있는 일도 12명 뽑아두고, 늘 2명은 휴가 가 있다고 생각하면 된다. 필요하다면 인사팀을 다시 뽑는 것도 인사 제도 혁신 방법의 하나다. 미국 금융사 캐피털원은 디지털 트랜스포메이션(DT·Digital Transformation)을 하면서 채용팀을 실리콘밸리 근무자로 모두 다시 뽑았다. 구직자 눈높이에 맞춰 인사 전략을 다시 짠 거다. 오래된 기업의 인사팀원이 ‘우리 회사 문화는 내가 가장 잘 알아’ 해버리면, 좋은 인재를 뽑기 어렵다.”변화에 발맞춰 인사담당자가 갖춰야 할 능력은.”인사담당자들도 변화를 받아들이고 인식을 바꿔야 한다. 사실 인사팀은 대체로 보수적인 편이다. 인사제도는 바꿀 때마다 잡음이 생겨 가능한 한 바꾸지 않길 원하기 때문이다. 하지만 변화하고 싶다면 많은 시도를 해야 한다. 여러 고용 방식을 시도해보고, 직원들이 특별한 보상을 원하면 보상도 줘보고, 다이내믹한 인사 전략을 써봐야 한다.CEO의 역할도 중요하다. 재택근무 도입 같은 전사적 의사결정은 감히 인사팀이 할 수 없다. 제도를 유연하게 만들어라. 좋은 인재가 안 뽑힌다면 스스로에게 물어라. ‘우리 회사는 직원들에게 어떤 가치를 제공하고 있냐’고 말이다. 젊은 직원들이 주류가 되지 않는 기업은 뒤처질 거다. 인재를 뽑고 유지하는 건 CEO의 가장 큰 과제가 됐다.”-더 많은 기사는 이코노미조선에서 볼 수 있습니다.&lt;관련 기사&gt;Part 1. 대퇴직 시대, 주목받는 HR테크① 노동 시장 판 바꾸는 대퇴직 시대 ‘귀한 몸’ 된 HR테크② [Infographic] 대퇴직과 HR테크의 부상Part 2. 다양화하는 채용·인력 관리 기업(서비스)③ [Interview] 슈오 왕 딜 공동창업자·찰스 퍼거슨 글로벌리제이션 파트너스 아·태지역 총괄④ [Interview] ‘지원자 평판 조회 플랫폼’ 선보인 스펙터 윤경욱 창업자 겸 최고경영자(CEO)⑤ [Interview] 코스닥 상장 HR테크 기업 원티드랩 엄영은 채용사업 총괄이사Part 3. 전문가 인터뷰⑥ [Interview] 앤서니 클로츠 UCL 경영대학원 경영학과 부교수·레이첼 라이트 오클랜드대 경영대학원 이사⑦ [Interview] 김윤주 BCG 코리아 매니징 디렉터 파트너 겸 인사 조직 부문 리더</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>카·케·토 뱅크 상반기중 중저신용자 대출 5~12%p↑</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005302313?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2분기말 중저신용자 대출 비중 발표토뱅이 36% 최대, 카뱅 22% 케뱅 24%[이데일리 김정현 기자] 카카오·케이·토스뱅크 등 3대 인터넷전문은행의 6월말 중저신용자 대출 비중이 작년말 대비 5~12%포인트 늘어났다. 연말 목표치를 달성하기 위해 중저신용자 중심으로 대출을 확대한 것으로 보인다.26일 은행연합회에 따르면 카뱅의 중저신용자 대출 비중(잔액 기준)은 지난 6월말 22.2%를 나타냈다. 전년말(17.0%) 대비 5.2%포인트 늘어난 수치다. 중저신용자 대상 신용대출 비중은 전체 가계 신용대출 가운데 중저신용자 대상 신용대출이 차지하고 있는 비중이다. 중저신용자는 KCB 기준 신용평점 하위 50%(820점 이하)인 경우를 뜻한다.같은 기간 여타 인터넷은행도 일제히 중저신용자 대출 비중이 높아졌다. 케이뱅크의 중저신용자 대출비중은 지난해 말 16.6%에서 올해 6월말 24.0%로 7.4%포인트 대폭 늘었다. 3월말(20.2%)과 비교하면 3.8%포인트 확대됐다.토스뱅크는 지난해 말 23.9%에서 올해 6월말 36.3%로 12.4%포인트 늘어났다. 3월말(31.4%)보다는 4.9%포인트 확대됐다.금융당국이 인터넷은행들의 출범 취지에 맞게 중저신용자 대출을 확대해야 한다고 지적하면서 인터넷은행 3사가 부지런히 중저신용자 신용대출을 확대하고 있는 양상이다. 올해 말 목표치 달성도 가능해 보인다. 카카오뱅크와 케이뱅크의 올해 말 목표치는 25.0%로, 카카오뱅크는 2.8%포인트, 케이뱅크는 1.0%포인트 격차만을 앞두고 있다. 토스뱅크의 연말 목표치는 42.0%로 6월말 대비 5.7%포인트 벌어져 있는 상태다.카카오뱅크는 “7월 말 기준으로 볼 때 중저신용자 대출 비중이 23.0%였다”며 “3분기에는 중·저신용 고객에 대한 변별력 강화를 위해 카카오 계열사 정보, 도서구입 정보, 자동이체 정보 등 다양한 대안정보를 활용한 신용평가모형을 선보일 예정”이라고 말했다. 케이뱅크는 “상반기에만 총 1조490억원의 중저신용대출을 공급하게 됐다”면서 “연말 중저신용대출 비중 목표(25%)를 달성하기 위해 대안정보를 활용한 CSS모형을 더욱 고도화하고, 심사전략을 세분화할 예정”이라고 말했다.(사진=은행연합회 웹페이지 갈무리)</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>[편집장 레터] 다들 ‘나만 잘 먹고 잘 살겠다’는데…</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000076891?sid=110</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>미국 ‘반도체법’ 통과로 반도체 산업 지도 통째 흔들릴 수도‘인플레이션 감축법’의 핵심은 ‘전기차도 미국우선주의’국제사회에서 자유무역주의가 쇠퇴하고 보호무역을 앞세운 자국우선주의가 급부상한 것은 어제오늘 일이 아닙니다. 자국우선주의 분위기가 전 세계를 들불처럼 휩쓸기 시작한 시기는 트럼프 전 대통령이 미국의 조타수가 된 이후입니다. 이전에는 아무리 자국우선주의를 통해 실속을 챙기고 싶어도 자유무역주의 가치를 지켜야 한다는 명분을 내려놓기 쉽지 않아 대놓고 하지 못한 반면, 트럼프 전 대통령이 노골적으로 자국우선주의를 앞세운 이후로는 다들 힘겹게 감추고 있던 민낯을 가감 없이 드러내고 있습니다. ‘트럼프가 쏘아 올린 작은 공’을 바이든 대통령이 토스받아 네트 너머로 넘겨버렸습니다. 마침 러시아의 우크라이나 침공으로 지정학적 긴장감이 높아지고 공급망이 교란되면서 인플레이션까지 심화되자 더 극성스럽게 나서는 양상입니다. 중국이 자국 산업을 노골적으로 지원해 자유시장경제를 교란하고 있다고 비판하던 미국이 어디로 사라졌는지 모르겠습니다. 유럽도 이런 분위기에 한발 걸치고 나선 것은 물론이고요.가장 치열한 전쟁터는 반도체 분야입니다. 지난 7월 28일 미국에서 ‘반도체법(The CHIPS and Science Act)’이 의회를 통과했습니다. 반도체법은 미국에 반도체 공장을 짓는 기업에 세제 혜택과 보조금을 지원하는 것이 골자입니다. 이를 위해 520억달러를 투입한다는 내용을 담고 있죠. 일본은 발 빠르게 이미 지난해 반도체 기업을 적극 지원한다며 추가경정예산을 통해 7740억엔의 대규모 보조금을 편성한 바 있습니다.8월 16일, 소위 ‘인플레이션 감축법’이라 이름 붙은 법안에서도 핵심은 ‘전기차 자국우선주의’입니다. ‘인플레이션 감축법’은 철저하게 미국산 전기차에 수혜가 집중되는 구조입니다. 이 법에 따르면 전기차를 구매한 소비자는 7500달러에 달하는 세액 공제를 받을 수 있는데, 미국 내에서 조립한 모델로 북미산 광물과 부품을 일정 비율 이상 사용한 배터리를 장착한 전기차여야 한다는 조건이 달렸죠. 미국 내에 전기차 공장이 없는 현대차는 당장 수출에 비상이 걸렸습니다. 최근 ‘우리가 몰랐던 현대차’ 기사를 통해 10년여 간의 어려운 시절을 통과해 비로소 비상에 나선 현대차를 조명했는데, 몇 주 만에 이런 반전이라니요. 반도체와 전기차뿐이겠습니까. 식량과 에너지 분야에서도 자국우선주의 분위기가 두드러집니다. 반도체와 전기차를 전 세계에 팔아먹고 살아야 하고, 식량과 에너지는 자급률이 현저히 낮아 수입에 전적으로 의존하는 한국에는 여러모로 힘든 환경입니다(지난해 한국 곡물 자급률은 역대 최저인 20%까지 떨어졌습니다.).작금의 기류는 당분간 바뀌지 않을 것 같습니다. 글로벌 리더십이 철저하게 붕괴된 시절에 한국은 어떤 길을 걷고 또 어떤 대응책을 마련해야 할까요. 아직 방향조차 못 잡고 허둥지둥 대기만 하는 것 같아 아쉬울 따름입니다. 이번 호 매경이코노미가 ‘미 인플레이션 감축법’ 이슈 진단을 작정하고 준비한 배경입니다.[본 기사는 매경이코노미 제2173호 (2022.08.24~2022.08.30일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.08.21.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>'카톡 송금' 중단 아니라지만…실명 확인 거칠 듯</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000556758?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[앵커] 계좌번호를 몰라도 상대방에게 쉽게 돈을 보낼 수 있는 모바일 간편송금 서비스 사용이 꾸준히 늘고 있습니다. 그런데 금융당국이 관련 법 개정을 추진하면서 간편송금 기능이 일부 제한될 가능성이 제기되고 있습니다. 이재동 기자가 그 내용을 살펴봤습니다.[기자] 공인인증서나 보안카드 없이도 카카오톡 같은 모바일 SNS를 통해 돈을 주고받을 수 있는 간편송금 서비스.이름이나 연락처만 알면 즉석에서 돈을 보낼 수 있는 편리함을 무기로 최근 몇 년간 우리 생활 속을 깊숙이 파고들었습니다.&lt;최하용 / 직장인&gt; "친구들이랑 밥을 먹거나 약속이 있을 때 그 자리에서 더치페이할 경우에, 곧장 쓸 수 있어서 편해서 많이 썼던 것 같습니다."하지만 이용자 실명 확인 의무가 없다 보니 보이스피싱이나 자금세탁 같은 범죄에 악용될 수 있단 우려가 나왔고, 금융위원회도 무기명 송금을 금지하는 법 개정을 추진해왔습니다.그런데 이 과정에서 간편송금 서비스가 아예 사라지는 것 아니냐는 관측이 제기됐습니다.대표 사업자 카카오페이의 주가가 한때 급락할 정도로 시장의 혼란이 커지자 금융위는 개정안이 통과돼도 서비스는 유지될 수 있다고 해명했습니다.기존 선불전자금융업자들이 자금이체업 허가를 새로 받으면 문제가 없다는 겁니다.그런데 이렇게 되면 이용자가 실명 확인을 거치고 은행계좌를 등록해야 이용할 수 있습니다. 업계가 우려하는 대목이 바로 이 부분입니다.업계 관계자는 "무기명 간편송금 1회 최대 한도는 50만원에 불과하다"며 "청소년이나 외국인, 개인 사정으로 계좌가 압류된 금융 취약계층의 피해나 불편이 생길 수 있다"고 말했습니다.금융위는 개정안 보완 필요성 등을 검토하고 있으며 업계와도 충분히 협의할 예정이라고 밝혔습니다.연합뉴스TV 이재동입니다.#간편송금 #토스 #카카오페이 #공인인증서 #보안카드연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>빅테크 만난 금감원장…'책임' 있는 금융혁신 강조</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005139918?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>이복현 금감원장, 빅테크·핀테크 업계 첫 간담회간편결제 수수료 공시시스템 도입 앞두고 의견 청취성장 위한 각종 지원 약속…금융 혁신 속 책임도 강조 취임 이후 전 금융업계 수장들을 만났던 이복현 금융감독원장이 처음으로 빅테크·핀테크 업계 대표들을 만났다. 이들에게 성장을 위한 지원을 약속하는 한편 '책임'있는 금융 혁신도 강조했다.30일 금융권에 따르면 이 원장은 이날 서울 마포구 마포 프론트원에서 빅테크·핀테크 업계 간담회를 개최했다. 핀테크 업계를 만나 간담회를 연 것은 이 원장 취임 후 처음이다. 이날 자리에는 박상진 네이버파이낸셜 대표, 신원근 카카오페이 대표, 이승건 비바리퍼블리카(토스) 대표, 이근주 한국핀테크산업협회장 등이 참석했다.이 원장은 모두발언을 통해 "빅테크와 핀테크가 금융산업 전체의 시장 크기를 키우며 금융시장의 성장과 경쟁 촉진을 견인해 기존 금융사가 포용하지 못한 계층들의 금융접근성을 제고한 점은 높이 평가한다"라며 규제 샌드박스, 핀테크 투자 유치 및 해외진출, 핀케트 현장자문단 등을 지원하겠다고 밝혔다.그는 이처럼 빅테크·핀테크의 금융 혁신을 인정하고 지원하면서도 '책임'을 강조했다. "금융상품 추천의 핵심인 알고리즘을 플랫폼의 이익이 아니라 소비자의 이익을 최우선시 할 수 있도록 지속 검증해달라"며 "다양한 이해관계자들이 상생할 수 있도록 금융플랫폼을 공정하고 투명하게 운영해주길 바란다"고 당부했다.윤석열 정부의 국정과제인 ‘간편결제수수료 공시시스템’에 대한 추진 의사를 내비친 것으로 풀이된다. 이 제도는 카드 업권과 간편결제 업권 간의 수수료 규제 차이를 '동일기능·동일규제' 원칙에 따라 개선하고 소상공인의 간편결제 수수료 부담을 덜겠다는 것이 골자다. 이미 금감원은 네이버파이낸셜, 카카오페이, 비바리퍼블리카 등이 참여한 ‘결제수수료 공시 작업반(TF)’도 구성한 바 있다.업계에서는 이를 두고 과도한 개입이라고 우려하고 있다. 금감원이 네이버페이·카카오페이·토스 등 '빅테크' 외에 핀테크 업체 뿐만 아니라 결제대행업(PG사), 온라인 종합쇼핑몰에게도 수수료 원가 구조 공시를 요구할 가능성이 크기 때문이다. 앞서 금감원이 지난 5월 개최한 관련 회의에 배달의민족과 SSG닷컴 등도 참석했다. 결국 핀테크사는 카드사와 환경이 다른데 기능만 보고 동일 규제를 적용하는 것은 불합리하다는 입장이다. 원가 구조가 다른데 일률적으로 단순 비교 공시를 하는 것도 맞지 않다고 보고 있다.카드업계도 '동일규제'를 우려하고 있다. 핀테크 수준으로 같은 규제 완화를 원하는 것이지 핀테크 간편 결제 수수료도 카드업계의 적격비용 재산정처럼 원가 등 세부사항을 공개하도록 규제하는 '하향평준화'는 업계 전체의 잠재력을 가로막는 꼴이라는 지적이다.이 원장은 "업계의 우려사항을 잘 알고 있고 수수료는 시장에서 자율적으로 결정될 사안이지 감독당국은 직접 개입할 의사가 없다"라며 "이해관계자들의 의견을 충분히 수렴해 합리적으로 마련하겠다"고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>[증권사 2022년 상반기 경영실적] ④ '빚투' 줄었는데 신용융자 이자수익↑...'폭리' 지적도</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002284076?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>10곳서 7436억원...삼성·키움·미래에셋 순금리상승에 신용융자 이자율 10% 돌파“증권사, 과도한 ‘돈 장사’...관리감독 필요”      올해 상반기 개인투자자의 ‘빚투(빚내서 투자)’는 줄었지만 증권사들의 이자수익은 증가한 것으로 나타났다. 삼성, 키움, 미래에셋, NH투자증권은 1000억원대 신용거래융자 이자수익을 올렸다.   25일 금융투자협회 전자공시시스템에 따르면 자기자본 기준 10대 증권사의 올해 상반기 신용거래융자 이자수익은 7436억원으로 지난해 상반기(7219억원)보다 8% 증가했다.   같은 기간 국내 증권사 28곳의 신용거래융자 이자수익은 8524억원에서 8619억원으로 1.1% 늘었다. 2019년(3904억원)과 2020년(3640억원) 상반기보다는 2배 이상 많다.   증권사별로는 삼성증권(1392억원), 키움증권(1225억원), 미래에셋증권(1157억원), NH투자증권(1049억원), 한국투자증권(859억원) 순으로 이자수익이 많았다.   개인 리테일 비중이 큰 키움증권은 이자수익이 1년새 33.9% 증가했다. 2분기 신용공여잔고는 3조4000억원 규모이며 시장점유율은 13% 수준이다. 키움증권 관계자는 "자기자본이 작년 1분기 2조7000억원에서 현재 3조9000억원으로 증가한 영향에 따라 신용거래 이자수익이 늘었다"고 설명했다.   반면 증시 부진과 기준금리 인상으로 빚투 잔고는 감소했다. 신용거래융자 잔고는 지난해 9월 13일(25조6540억원) 최고치를 기록한 뒤 이달 22일 기준 19조5313억원으로 낮아졌다.   증시 대기자금 성격인 투자자 예탁금도 54조8323억원으로 지난해 5월 3일(77조9018억원)보다 약 23조원 줄었다.   하반기 영업환경도 비슷할 것으로 전망된다. 윤유동 NH투자증권 연구원은 “시장 불확실성이 높아지면서 개인투자자들의 레버리지 수요가 축소돼 리테일 신용이자수익이 전년 대비 줄어들 것”이라며 “다만 시장 반등 시 추가적인 이자수익을 확보할 수 있다”고 봤다.         증시 부진에도 증권사의 이자수익이 늘어난 것은 금리상승에 따라 신용융자 이자율도 높아졌기 때문이다. 전체 증권사 중 신용융자 이자율이 가장 높은 곳은 유안타증권으로 10.3%(151~180일 기준)에 달했다.   이자수익 1위를 유지한 삼성증권의 신용거래융자 이자율은 4.9~9.8% 수준이다. 61~90일(9.4%)과 91일 이상(9.8%) 이자율이 10대 증권사 중 가장 높았다. 키움증권의 경우 7.5~9.5%의 금리를 적용하고 있다. 61~90일을 제외한 모든 기간에서 가장 높았다.   이밖에도 신한금융투자(9.5%), 한국투자증권(9%), KB증권(9%) 등이 최대 9%대 이자를 적용하고 있다.   반면 투자자들이 주식매매를 위해 증권사 계좌에 맡긴 예탁금에 대한 이자율은 0%대에 불과해 증권사들이 '돈 장사'를 하고 있다는 비판도 나온다. 예탁금 이용료율이 가장 높은 곳은 지난 5월 인상한 토스증권(1%)이다.   정의정 한국주식투자자연합회(한투연) 대표는 “예상되는 손실범위 내에서 금리를 정해야 하는데 신용융자거래 이자율은 지나치게 높게 설정돼 있다. 증권사들은 평균적인 은행 예대마진 범위를 벗어나 폭리를 취하는 것으로 보인다”며 “증권사들이 적정 수준의 마진을 취하도록 금융당국이 관리 감독할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.08.17.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>연 4.5% 금리 주는 발행어음…토뱅에서 4일 만에 2000억 한도 팔렸다</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004737699?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>토스뱅크가 ‘내게 맞는 금융상품 찾기’ 서비스를 통해 소개한 한국투자증권의 발행어음 판매금액이 2000억 원을 돌파했다고 17일 밝혔다. 한국투자증권의 발행어음은 토스뱅크가 ‘내게 맞는 금융상품 찾기’ 서비스를 출시하며 처음 소개한 투자상품이다. 토스뱅크를 통해서만 가입이 가능하다. 최대 연 4.5%의 이자를 제공하며 출시부터 큰 인기를 끌었다. 홍민택 토스뱅크 대표(오른쪽)와 김성환 한국투자증권 개인고객그룹장은 지난 8일 '자산관리 및 투자상품에 관한 광고업무 협약을 위한 업무제휴' 협약을 체결했다. / 토스뱅크 제공한투 발행어음은 지난 10일부터 2000억원 한도로 판매됐지만 출시 4일 만에 소진됐다. 출시 첫날 약 286억원이 한투 뱅키스 계좌를 통해 판매됐고, 3일차인 12일에는 판매액 1000억원을 넘어섰다. 일평균 판매액은 약 500억원에 달했다. 지금은 6개월 만기 연 4.0% 상품과 1년 만기 연 4.2% 발행어음이 토뱅을 통해 팔리고 있다. 투자한도는 1인당 100만~5000만원까지다. 발행어음 가입자의 연령대별 비중은 40대가 28%로 가장 높았으며, 50대 비중도 27%로 높은 편이었다. 가입자의 평균 연령은 44세로 집계됐다.토스뱅크 관계자는 "금리상승기 투자상품으로 적합한 확정금리형 상품에 대한 관심이 높아지고 있다"며 "토뱅의 편의성과 대형증권사의 전문성이 시너지를 내며 경쟁력 있는 상품을 소개하게 된 것이 인기의 비결"이라고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>토스뱅크, 예대금리차 5.65%...은행권 중 격차 가장 커</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005298400?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>은행연합회 예대금리차 첫 공시토뱅 수신금리 1%, 대출금리 6.65%중금리대출 판매로 대출 금리 높아시중은행선 농협은행이 1.36%로 1위[이데일리 전선형 기자] 은행들의 예대금리차가 드디어 공시됐다. 예대금리차가 가장 높은 은행은 ‘토스뱅크’로 무려 5.65% 금리의 이자수익을 남겼다. 인터넷은행들이 중금리대출을 판매해 대출금리가 전체적으로 높은 편이나, 토스뱅크는 저축성수신금리가 고작 1%밖에 되지 않아 격차가 유독 컸다. 시중은행 중에선 농협은행이 예대금리차이가 가장 컸고, 지방은행과 국책ㆍ외국계은행 등을 합치면 전북은행이 가장 높았다.22일 은행연합회는 이날부터 홈페이지 소비자포털에 예대금리차를 비교 공시했다. 예대금리차는 월별 변동 추이를 확인할 수 있도록 신규취급액 기준으로 산출되며, 평균 대출금리에서 저축성수신금리를 빼 산출한다. 지난 7월 기준으로 산출한 이번 예대금리차를 공시에서 가장 높은 격차를 보인 곳은 ‘토스뱅크’였다. 토스뱅크의 예대금리차는 무려 5.65%로 전체 19개 은행 중 가장 높았다. 토스뱅크의 대출금리는 6.65%였는데, 저축성수신금리가 고작 1%밖에 되지 않았다. 가계대출만 따져 예대금리차를 산출해도 5.6%로 타사 대비 높았다. 결국 토스뱅크는 6%대 금리로 대출을 받아, 1%대 수신금리만 주는 이자 장사를 했다는 소리다. 토스뱅크는 타 인터넷은행 대비 1.5배나 높은 중금리대출을 취급하고, 주요 수신상품인 요구불예금(수시입출시 통장) 금리는 반영되지 않아 예대금리차가 높게 나타났다고 설명하고 있다. 다만, 같은 중금리대출을 취급하는 인터넷은행인 카카오뱅크의 예대금리차는 2.33%, 케이뱅크는 2.45%다. 인터넷은행의 7월 예대금리차 평균은 3.48%다. 토스뱅크에 이어서는 전북은행이 4.59%로 높았다. 가계예대금리차는 무려 6.33%으로 은행 중 가장 높았다. 전북은행 역시 중금리 대출 비중이 높았다는 설명이다. 광주은행의 예대금리차도 2.5%로 높았다. 5대 시중은행(국민ㆍ신한ㆍ하나ㆍ우리ㆍ농협) 1%대 수준으로 대부분 낮았다. 그 중에서는 농협은행이 1.36%로 가장 컸다. 농협은행은 대출금리가 3.9%였고, 저축성 수신금리가 2.54%였다. 대출금리는 다른 시중은행 대비 가장 낮았지만, 수신금리 경쟁력이 떨어지면서 예대금리차가 컸다. 이어 우리은행(1.29%), KB국민은행(1.18%), 신한은행(1.14%), 하나은행(1.1%) 순이었다. 5대 시중은행 7월 평균 예대금리차는 1.21%다. 시중은행 중 가계대출금리가 높은 곳은 신한은행으로 7월 평균 4.57%다. 신한은행에서는 서민지원대출 등을 적극적으로 취급하고 있는데, 이번 산출에 이 수치가 포함되면서 다소 금리가 올랐다고 설명하고 있다. 신한은행에 이어 KB국민은행이 4.36%, 우리은행이 4.22%, 하나은행이 4.12%, 농협은행이 3.94%다. 이번 예대금리차 공시는 윤석열 대통령의 대선공약 중 하나다. 금리 관련 정보를 소비자에게 정확하고 충분하게 제공함으로써 금리상승기에 소비자의 부담을 완화한다는 취지다. 은행연합회는 예대금리차 공시를 매월 20일에 공시하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.08.16.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>[기고]혁신·성장은 생존 넘어야 도달</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004783111?sid=110</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>최정우 뷰티앤케이 대표최근 8년간 스타트업에 대한 인식이 급격히 변화했다. 2014년 쿠팡이 한국의 첫 유니콘이 됐을 당시만 해도 유니콘이라는 단어는 익숙하지 않았다. 당시 1조원으로 평가받은 기업은 대부분 상장사였고 높은 매출과 이익을 기록했다. 쿠팡이 유니콘이 된 이후 사람들의 생활에 영향을 미치는 다양한 유니콘이 나오게 됐다. 간편송금으로 시작된 토스와 중고거래라는 말을 대체하는 당근마켓이 대표적이다. 스타트업이 유니콘이 되는 과정에서 높은 가치로 평가받는 일은 더이상 놀라운 일이 아니다. 바로 올해 초까지는 말이다.  스타트업의 환경은 또다시 급변했다. 인플레이션을 잡기 위한 금리 상승으로 불확실성은 높아져만 가고 사람들은 불황을 이야기하기 시작했다. 몇 년간 이어진 주가상승의 기세가 꺾이면서 자본시장에도 변화의 바람이 불었다. 예정됐던 투자유치에 실패하는 기업이 늘면서 시장엔 흉흉한 소문이 돌기 시작했다.  자금은 얼어붙었고 자금을 구하지 못한 기업들은 구조조정을 시작했다. 사실 시장의 변화보다 더 무서운 것은 그동안 스타트업이 추구한 전략을 더이상 실행할 수 없다는 것이다.  지난해까지만 해도 볼륨 성장을 위해 비싼 인건비를 지불하고 대규모 마케팅비를 집행하라고 얘기한 투자자들은 이제 시장에서 자취를 감췄다. 적자를 생각하지 말고 빠른 선점을 위해 달리라고 독려한 사람들은 이제 아무 말도 하지 않는다. 요즘 스타트업 대표를 만나면 그동안의 생각을 완전히 바꿔야 한다고 말씀드린다. 살아남기 위해선 그동안 세운 계획을 모두 수정해야 한다. 다음 1.5년을 버티기 위해 투자를 유치하고 빠르게 자금을 사용한 뒤 다음 라운드의 자금을 모아 다시 성장하는 전략은 구시대의 유물이 될 가능성이 높다. 이제 어떻게 하면 최단기간에 손익분기점에 도달할 수 있을지를 고민해야 한다. 회사의 비용구조도 파악해야 한다. 손익분기점에 도달하기 위해 사업구조의 변경이 필요할 수 있어서다. 빠른 성장을 위해 필요 이상으로 키운 조직을 슬림화해야 한다. 최근 많은 스타트업이 구조조정을 하고 있다는 기사를 볼 때마다 안타깝다는 생각보다 오히려 '이 스타트업은 살아남겠다'는 생각을 하게 된다. 선제적으로 비용을 줄이기 위한 계획을 세우고 실행하는 기업들이 가장 생존 가능성이 높기 때문이다. 스타트업들은 자금조달 구조도 다각화해야 한다. 라운드를 높여가면서 밸류에이션을 높여간다는 생각은 이제 접어야 한다. 그동안 세운 전략을 포기하고 비용절감으로 손익분기점에 도달하는 구조를 만드는 게 쉬운 일은 아니다. 이러한 과정은 고통스러울 수밖에 없다. 비용을 줄이면 매출액도 같이 줄고, 조직의 규모도 줄어든다. 모두에게 힘든 과정이 될 것이다.  그래도 스타트업은 혁신과 성장을 위해 생존해야 한다. 살아남지 못한 기업에는 세상을 바꿀 혁신도 높은 수준의 성장도 없다. 많은 스타트업이 어려운 시기를 넘어 생존하길 바란다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>이복현 "간편결제수수료, 규제 아니라 시장 투명성 확보 차원"</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002034765?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>“소비자가 가격에 대해 모르고 물건 사는 셈”간편결제 수수료 공시, “신속하게 진행할 것”‘뮤직카우’ 간담회 참석에 대해서는 “접촉 필요해”이복현 금융감독원장이 30일 서울 마포프론트원에서 열린 ‘빅테크·핀테크 최고경영자(CEO) 간담회’에 참석해 모두 발언을 하고 있다.[금융감독원 제공][헤럴드경제=김광우 기자] 이복현 금융감독원장은 30일 간편결제 수수료 공시방안에 대해 “규제가 아닌 시장의 투명성을 확보하는 차원”이라고 밝혔다.이 원장은 이날 서울 마포프론트원에서 열린 ‘빅테크·핀테크 최고경영자(CEO) 간담회’에 참석한 뒤 기자들을 만나 “관련 정보를 공개해 우려를 해소했던 것이 과거 선진국의 사례”라며 이같이 말했다.이 원장은 간편결제 수수료 공시가 원가 공개를 의미하는 것 아니냐고 묻자 “다소 과한 해석”이라고 선을 그었다. 그는 “원가가 개별 산정 요소의 측면이라면 수수료는 ‘소비자가 지불하는 가격에 대해 알아야 한다는 측면’이다”며 “(현재는) 소비자가 가격에 대해 정확히 모르고 물건을 사는 셈”이라고 설명했다.이어 “간편결제 수수료는 업계에서 자율적으로 결정하는 것이며 원가는 기업의 고유 기밀이기 때문에 간섭할 생각이 없다”고 덧붙였다. 수수료 공시 일정을 묻는 질문에는 “합리적인 내용으로 신속하게 진행할 것”이라고 말했다.이 원장은 최근 공매도 거래가 집중된 모건스탠리, 메릴린치 등 외국계 금융사를 수시검사 대상으로 선정한 것에 대해서는 “시장에서 특정 업체가 너무 큰 비중을 차지한다면 시장이 효율적으로 작동하고 있는지에 대한 일반적인 의문이 들 것”이라며 “당국으로서는 우려가 있는 시장을 점검하는 것이 의무”라고 답했다.특정 혐의점이 있어 검사 대상을 선정한 것 아니냐는 질문에는 “정기검사 시스템에 따라 정해진 일정에 맞춰 금융기관들에 대한 검사를 나간다”며 확답을 피했다.최근 총부채원리상환금비율(DSR)이 40%를 초과했다는 이유로 대출 실행을 거절당한 차주가 토스뱅크에서 대출이 허용돼 ‘사각지대’가 발생한 것 아니냐는 지적에 대해서는 “인터넷 은행과 은행, 은행 연합회가 함께 우려를 해소하기 위한 구체적인 방안이 마련했고 곧 선보일 것”이라고 답했다.이 원장은 ‘뮤직카우’ 대표가 간담회에 참석한 데 따른 일각의 지적에 대해서는 반대 견해를 밝혔다. 그는 “뮤직카우의 경우 당시 17만명의 투자자가 있었고, 증권성 평가와 관련해 이론상 정리가 안 된 부분이 있었기에 제재 유예한 것”이라며 “다양한 사업 형태를 원활하게 안착시키는 데는 어느 정도 접촉이 필요하다”고 말했다.뮤직카우는 지난 4월 금융위원회 증권선물위원회의 제재 대상에 올랐다. 자본시장법상 ‘증권’ 상품에 해당하지만 신고 없이 영업을 해왔다는 판단에서다. 다만, 금융당국은 사업모델을 변경하라는 취지로 6개월의 제재 유예기간을 부여한 상태다.한편 이날 간담회에는 박상진 네이버파이낸셜 대표, 신원근 카카오페이 대표, 이승건 비바리퍼블리카 대표 등 빅테크·핀테크 CEO 11명과 유관기관 관계자들이 참석해 디지털 전환 가속화에 따라 변화하는 디지털금융 현안에 대해 논의했다.실제로 금융업 내 빅테크·핀테크 업체들의 입지는 점차 커지고 있다. 금융감독원에 따르면 네이버의 2019년 금융업 매출비중은 9.3%였지만 지난해에는 14.4%로 확대됐다. 카카오도 2019년 기준 4.6%에서 7.8%로 상승했다. 핀테크 기업 수는 2017년 기준 288개에서 2021년 553개로 두 배가량 늘었다. 핀테크 기업에 대한 투자금액 또한 2017년 기준 2709억원에서 2020년 1조9800억원 규모로 큰 폭 상승했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>걸을 때마다… 게임할 때마다… 돈 쌓이는 리워드가 대세</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002527395?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>■ ICT - 돈 버는 "금융·게임앱" 인기‘돈 쓰는 앱’ 아닌 ‘돈 버는 앱’. 자사가 개발한 앱을 사용할 경우 포인트 등 보상을 주는 ‘리워드앱’ 마케팅이 빠르게 확산하고 있다. 기존에는 신생 앱들이 서비스 초기 이름을 알리기 위해 보상을 제공하는 사례가 많았지만, 최근에는 금융·게임 등을 중심으로 기존 강자들도 기본적인 마케팅 수단으로 활용하고 있다.22일 정보통신기술(ICT)업계에 따르면 이른바 ‘엑스투언’(X to Earn·X2E) 비즈니스에서 가장 두각을 나타내는 것은 ‘무브투언’(M2E) 서비스 앱이다. NHN데이터가 올해 상반기 리워드앱으로 분류되는 18개 앱 설치 순위를 분석한 결과, 1~3위가 모두 걷기를 통해 보상받을 수 있는 ‘캐시워크’ ‘캐시슬라이드 스텝업’ ‘워크온’이었다. 캐시워크는 1만 보를 걸으면 100포인트를 쌓을 수 있고, 포인트로 기프티콘을 살 수 있다. 걷기 보상으로 가상화폐를 주는 ‘스테픈’은 세계적인 인기를 얻고 있다.최근 엑스투언 비즈니스에서 주목받고 있는 분야는 게임 앱들의 ‘플레인투언’(P2E) 서비스다. NHN데이터의 리워드앱 분석에서도 제휴 게임 플레이를 통해 포인트를 쌓을 수 있는 미스트플레이의 앱 사용자가 올해 59.1% 증가한 것으로 나타났다. 기존 게임 회사들도 지난해 출시한 위메이드의 ‘미르4’ 대유행 이후 ‘돈 버는 게임’ 시장에 잇따라 뛰어들었다. 근본적 수익성에 한계가 있다는 지적도 있지만, 관련 규제가 해소될 경우 게임 시장에 적지 않은 비중을 차지할 것이라는 게 업계의 분석이다.X2E 서비스가 대유행하면서 새로운 서비스도 잇따라 등장하고 있다. 스크린골프장을 운영하는 카카오VX는 스크린골프를 하면서 성과를 달성하면 보상을 받는 ‘샷투언’ 서비스를 준비하고 있다. 스타트업 슬립퓨처는 수면 품질이 좋을 경우 가상화폐로 보상을 하는 ‘슬립투언’ 서비스를 내놓을 예정이다. ‘드라이브투언’(안전운전 보상), ‘크리에이트투언’(콘텐츠 제작 시 보상), ‘리뷰투언’(리뷰 작성 후 추천받으면 보상) 등도 시장에 나오고 있다.금융회사들은 이미 나온 서비스를 자신들의 앱에 도입했다. 국민은행과 토스 등이 걷기를 통해 포인트를 받을 수 있는 앱 서비스를 하는 게 대표적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>대환대출 원스톱 플랫폼 재추진… 은행들 "고객 뺏길라" 난색</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004890801?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>정치권 "서민부담 완화" 압박에 금융당국, 이해관계자 의견 수렴핀테크 "시스템 구축, 적극 참여"주도권 쥔 은행권은 여전히 반대  대출이자 부담이 커지면서 고금리에서 저금리로 갈아타는 '대환대출' 서비스가 다시 급물살을 타고 있다. 여야 정치권의 공감대가 형성된 가운데 금융당국은 여러 금융업권의 의견을 수렴 중이다. 하지만 핀테크와 은행 등의 입장 차는 여전히 좁혀지지 않고 있다. 금융당국의 의견 수렴에도 업권별 이해 조정이 난항을 겪으면서 서비스 도입이 늦어지고 있다는 지적이다. 대환대출 인프라 구축을 담당하는 금융결제원은 타협안을 찾는대로 조속히 시행하겠다는 입장이다. 대환대출 서비스는 지난해 은행권 등의 반대로 무산된 바 있다.   ■금융당국, 핀테크-금융권 의견 수렴   30일 금융업계에 따르면 금융위원회는 각 금융업권의 관계자들을 만나 대환대출 서비스와 관련한 의견을 듣고 이해관계를 조율 중이다. 금융위 관계자는 "은행연합회, 저축은행중앙회, 여신협회, 핀테크 업체 등을 만나 이해관계를 수렴하는 중"이라며 "대환대출 서비스 도입에 강하게 우려를 표하는 일부 업권도 있어 이런 우려가 타당한지를 파악 중이다. 기술적인 현실화 가능성도 살펴보는 단계"라고 말했다.   금융위는 지난주 핀다, 핀크, 뱅크샐러드 등 3개 핀테크 업체의 입장을 청취했다. 업체 관계자는 "대환대출 서비스를 위해 선행돼야 하는 금융결제원의 대환대출 인프라 구축과 관련해 핀테크 업체의 입장을 당국에 전달했다"면서 "은행당국과 중도상환수수료, 대환 기간 등 서비스의 방법론적인 것들에 대해 의견을 나눴다"고 말했다.   대환대출은 신규 대출기관과 기존 대출기관 간의 상환이 필요할 때 소비자들이 은행 등 금융회사를 여러 번 방문하지 않고 온라인 원스톱 방식으로 대환대출에 필요한 절차를 처리하는 서비스다. 다수 금융회사의 대환대출 조건을 금융 소비자에게 제공, 저금리 상품으로 이동이 쉽다는 게 특징이다.   앞서 지난해 1월 금융결제원 주관으로 금융권(은행권, 제2금융권, 여전업권) 전담태스크포스(TF)가 신설됐다. 대환대출 서비스 시스템 구축에 착수했으나 은행권 반발로 무산된 바 있다. 약 1년여 만에 대환대출 서비스가 재추진되는 것이다.   정치권도 여야 모두 금리 인상기에 취약차주 보호를 위해 대환대출 플랫폼 구축을 압박하고 있다. 박홍근 민주당 원내대표는 지난달 초 금융위, 금결원 등과 가진 간담회에서 "낮은 금리의 대출로 갈아타는 대환 대출도 서민의 부담을 덜어주기 위해 고려할만한 선택지"라며 "당사자 간 이해 충돌로 현재는 추진이 중단된 사정이지만 급격한 고금리로 국민 금융부담이 가중되는 비상 상황인 만큼 원스톱 대출 이동제를 시급해 도입해야 한다"고 말했다. 권성동 국민의힘 원내대표도 지난 23일 "금융회사 간 상환정보 및 상환 처리를 실시간으로 공유해서 대출받은 국민이 은행에 방문할 필요없이 저금리 대출로 이동이 가능하도록 모든 국민에게 전체 금융기관 금리를 비교하는 서비스를 제공해야 한다"고 주장했다.   ■'핀테크 vs 빅테크' 주도권 싸움   그러나 업권별 타협점을 찾기는 여전히 어려운 상황이다. 가장 큰 걸림돌은 핀테크와 빅테크 간의 주도권 싸움이다. 핀테크 업체들은 규모가 큰 빅테크 업체들보다 각 금융사와 연계할 여력이 부족해 설령 대환대출 서비스가 구축된다고 해도 실질적인 경쟁이 어렵다는 입장이다.   핀테크 업체 관계자는 "대환대출 인프라 경쟁이 공정하게 진행되도록 금융결제원이 더 많이 개입해야 한다"면서 "빅테크가 워낙 소비자가 많다보니까 대환대출 인프라에서 '공공의 적'이 된 느낌이 강하다"고 말했다.   은행권은 대환대출 서비스 도입에 부정적이다. 성장속도가 무서운 빅테크 업체에 기존 고객들을 빼앗길 우려가 크기 때문이다.   빅테크 업체는 적극 찬성하고 있다. 한 빅테크 업계 관계자는 "대환대출 플랫폼 등을 당국에서 추진한다면 대출금리 비교서비스를 이끌고 있는 토스, 카카오 페이 등이 적극적으로 참여할 것"이라고 말했다.   금융결제원은 이해관계 조정이 마무리되는 대로 대환대출 서비스를 시행하겠다는 입장이다. 금융결제원 관계자는 "시스템을 어떻게 구현하느냐에 따라 실질적인 기대효과는 달라지겠지만 정책이 도입됐을 때 몇 명의 차주에게 어느정도 이득을 줄 수 있는지에 대한 효과는 검토한 단계"라며 "방향이 정해진다면 최대한 빨리 문제없이 진행될 수 있도록 하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>은행권청년창업재단 디캠프, 데스커와 함께 100회차 디데이 양양 해변에서 개최</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005009323?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>100회 디데이 우승 기업은 렌트리와 더라피스 8월 디데이가 100회를 맞아 강원도 양양 데스커 워케이션에서 개최됐다. 디데이는 은행권청년창업재단 디캠프(상임이사 김영덕)가2013년 6월부터 매월 진행해 온 스타트업 데모데이다. 라이프 스타일을 주제로 한 이번 디데이에는 데스커(대표 강성문)와 한국성장금융투자운용(대표 성기홍)이 공식 후원사로 함께 했다.디데이는 국내서 가장 오래된 스타트업 데모데이 중 하나로 지금까지 536개팀이 무대에 올랐다. 토스('14년 4월), 두나무('14년 10월), 뱅크샐러드('14년 10월), 8퍼센트('15년 2월), 삼쩜삼('15년 11월), 캐시노트('16년 7월), 핀다('16년 7월)와 같은 핀테크 기업을 비롯해 탈잉('17년 4월), 프레시코드('17년 8월), 자란다('18년 4월), 핏펫('18년 5월), 더트라이브('19년 5월), 콥틱('20년 7월) 등이 대표적인 디데이 출전 기업이며, 고피자, 엔씽은 디데이에 2번 출전해 유명 VC 심사위원들의 눈도장을 받았다. 한국 최초로 설립된 암호화폐 거래소 코빗('13년 7월)은 2017년 넥슨에 인수된 바 있다.이번 디데이 일룸/데스커 강성문 대표, 트랜스링크인베스트먼트 박희덕 대표, 비에이파트너스 이종승 대표, 소풍벤처스 한종호 파트너, 에이치지이니셔티브 남우진 상무, 어센도벤처스 남궁알렉스 이사, 한국성장금융투자운용 노해성 실장이 심사위원으로 함께 했다.디데이 누적 접수 기업 6,874개사. 다양한 분야의 초기 스타트업 지원디데이에 지원하는 기업 수도 점차 늘고 있다. 2013년에는 106개사가 지원한 것으로 시작해서 2014년 238개사, 2015년 438개사, 2017년 400개사, 2018년 514개사, 2019년 805개사, 2020년 1,197개사가 지원했으며 지난 해 1,669개 기업이 지원해 15배 이상 성장함과 동시에 평균 경쟁률이 23대 1로 치솟았다. 디캠프는 지역, 은행권, 대학 등에서 개최되는 데모데이에 참여해 약 2,000여개의 예비 지원사들을 만나는 중이다. 올해는 8월 기준으로 874개 기업이 디데이에 지원했다.출전 기업의 서비스 분야도 다양하다. 헬스케어가 54개사(10.2%)로 가장 많았고, 그 다음이 업무 생산성/비즈니스가 43개사(8.1%), 금융/보험 41개사(7.8%), 교육 31개사(5.9%), 콘텐츠 29개(5.5%) 순으로 나타났다. 특히, 디캠프는 최근 5년간(2018~2022) 디데이를 통해 기업 가치 40억 미만의 초기 스타트업 발굴에 집중해 왔는데 디데이 본선 진출 294개사 중 절반이 넘는 171개(58%) 기업이 연차 2년 미만인 것도 특징이다. 100회째 디데이의 우승 기업은 렌트리와 더라피스  디캠프상을 차지한 렌트리(대표 서현동)는 실시간 유통 데이터를 통해 최적의 렌탈 조건을 가진 가전제품을 추천해주는 서비스를 운영하고 있다. 제품 탐색 시간을 획기적으로 줄여주고 판매자 역경매를 통해 가장 저렴한 조건의 상품을 찾을 수 있는 게 장점이다. 사용자는 원하는 렌탈 조건을 입력하면 렌탈료부터 지원금까지 필요한 정보를 간편하게 파악할 수 있어 따로 견적을 비교하는 번거로움을 줄일 수 있다. 판매자별 평점도 확인할 수 있어 안전하게 거래할 수 있으며, 이후에는 의무사용기간을 낮추고 해지 위약금을 최소화한 제품을 제공할 예정이다.   데스커상을 받은 더라피스(대표 배재호)는 홈트에 특화된 프리미엄 웰니스 코칭 서비스 ‘웰리’를 운영하고 있다. 웰리는 홈트 가이드 영상을 만들 수 있는 1,800여 개의 모듈 영상을 제공해 강사가 자세 시연 대신 코칭에만 집중할 수 있도록 돕는다. 수업 전 후 개인별 데이터와 피드백을 통합 관리해 개인화된 코칭을 구현한다. 이를 통해 상호작용이 부족하다고 평가받아 온 기존 홈트 서비스의 단점을 보완했다. 핵심 타깃은 소비력 높은 3040 직장인 여성이. 웰리는 향후 남성 요가와 명상으로 콘텐츠를 확장하고 AI 영상 분석 기반의 개인별 리포트 제공 기능을 개발하고 커머스, 레저, 여행으로 사업을 확장할 계획이다.셰빌리티(대표 우용하)는 공유 마이크로 모빌리티 전용 충전 허브 ‘윙스테이션’을 운영하고 있다. 기종별로 전력을 맞춤 공급할 수 있어 충전 규격에 상관없이 모든 모빌리티 충전이 가능하며, 사용자는 어플을 통해 충전 중인 모빌리티의 상태를 확인할 수 있다. IoT를 통해 기기별 맞춤 전압 전류량을 매칭해주기 때문에 모든 기기에 호환된다.  올해 7월 말 세븐일레븐과의 협약을 시작으로 편의점 허브형 충전 인프라를 구축했으며, 향후에는 지역 특성에 따른 새로운 인프라를 제공할 계획이다. 루플(대표 김용덕)은 자연광과 유사한 조명을 비추는 탁자용 라이트테라피 기기 ‘닥터16’을 개발했다. 불규칙한 생활 습관으로 수면 장애를 겪고 있는 현대인들이 올바른 생체 패턴을 찾을 수 있도록 빛을 이용한 테라피 제품 개발에 집중하고 있다. 루플은 닥터16을 통해 사용자의 수면 패턴을 데이터화하고, 식습관, 일일 운동량, 업무 집중 시간 등 전반적인 라이프 스타일 데이터를 추가해 개인 맞춤형 생체 리듬 관리 서비스 제공을 목표로 하고 있다. 루플은 삼성전자 스핀오프 기업이다마보(대표 유정은)는 수면, 멘탈, 습관 케어를 위한 디지털 명상 플랫폼이다. 시간대나 이용자의 기분, 상황에 맞는 명상 콘텐츠를 제공하고, 기초명상도 단계별로 쉽게 가르쳐 준다. 2021년까지 광고 없이 이용자의 자연 유입으로 성장한 마보는 올해 6월 기준 누적 다운로드 55만 명에 도달했다. 습관 형성이 되면서 반복 사용자가 많다는 게 마보 측의 설명이다. 월구독 상품과 연구독 상품이 있으며 B2B 고객과 B2C 고객이 사용하고 있다.  원루프(대표 양승현)는 원격근무를 위한 시간제 업무 공간 예약 중계 서비스를 제공하고 있다. 사용자는 어플을 통해 내 주변 업무공간을 검색하고 출입할 수 있으며, 이용한 시간만큼 결제할 수 있다. 8월 현재 40여 곳의 업무 공간 업체와 파트너쉽을 맺고 있다. 기업 고객의 거점 오피스 수요를 타깃으로 하고 있으며 앞으로 여행업으로 분야를 확장해 여행지에 머물며 업무와 휴식을 동시에 하는 근무제도인 ‘워케이션’을 위한 공간도 준비 중이다. 100회차를 맞이한 디데이 행사에서 김영덕 대표는 “디캠프는 선한 창업자, 배우고 성장하는데 적극적인 기업, 성장 후 사회에 가치를 돌려주는 창업자를 선발하려고 노력하고 있다.”라고 말했다. 매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.08.19.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>"'위드 코로나'에도 비대면 혜택만 잔뜩?"…시즌제 체크카드 막 내리나</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005296473?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>금융당국, 선불·직불 지급 수단 규제 검토체크카드 제휴 서비스도 한 번 제공하면 3년 이상 유지될 듯‘동일 기능·동일 규제’ 차원이지만...“부작용 클 수 있어”“카드 혜택 변경 사실상 불가능해져 고객 편의 떨어져”금융위, 입법 예고 완료에도 업계 의견 청취하며 고심[이데일리 정두리 기자] 금융위원회가 선불·직불 지급 수단에 대한 규제 카드를 만지작거리면서 소비자 혜택이 사실상 줄어들 수 있다는 우려가 나오고 있다. 금융당국은 금융사들이 급격히 고객 혜택을 줄이는 것을 막기 위해 3년 이상 연계·제휴 서비스를 유지하도록 한다는 계획이지만, 이는 되레 고객들이 필요한 혜택을 제때 받지 못하게 할 수도 있기 때문이다. 특히 일정 기간마다 고객 맞춤형 프로모션으로 호응을 얻고 있는 ‘알짜배기’ 시즌제 체크카드는 사라질 처지에 놓였다.사진=연합뉴스19일 금융당국에 따르면 금융위원회는 지난달 ‘금융소비자 보호에 관한 법률’ 시행령과 감독 규정 일부개정안을 입법 예고했다. 핵심 내용은 체크카드와 각종 페이 등 선불·직불 지급 수단에 대해서도 신용카드와 같은 연계·제휴 서비스 규제를 적용하겠다는 것이 골자다.현재 신용카드는 각종 할인 등 제휴 서비스를 한 번 제공하면 3년 이상 고객들에 유지해야 하고, 정당한 이유 없이 소비자에게 불리하게 축소하거나 변경할 수 없다. 만약 서비스를 변경하고자 할 때는 6개월 전에 고객들에 이를 사전 고지해야한다.금융위의 이번 입법 취지는 ‘동일 기능·동일 규제’ 차원에서 신용카드뿐 아니라 체크카드와 페이 서비스들에도 관련 규제를 적용, 소비자들의 금융 편익을 보호하겠다는 것으로 풀이된다. 앞서 인터넷은행인 토스뱅크가 작년 12월에 캐시백 혜택 등을 내건 토스카드 서비스를 갑자기 중단한 사례 등을 검토한 것으로 전해진다.다만 이 같은 좋은 취지에도 불구하고 의도치 않은 부작용이 있을 수 있다는 지적도 제기되고 있다. 최근 은행들과 핀테크사들이 고객 수요에 맞춰 혜택을 발 빠르게 바꾸고 있는데, 이 같은 규제가 적용되면 혜택 변경이 사실상 어려워지기 때문이다.예를 들어 은행 및 핀테크사들은 과거 코로나19가 확산하던 시기에 배달앱 수요 증가를 반영해 체크카드에 배달 플랫폼 캐시백 서비스를 추가하거나, 코로나19가 회복세에 접어든 최근에는 학원 수요 증가를 반영해 학원 업종 캐시백 혜택을 추가하는 등 시장 상황에 따라 고객에게 필요한 혜택을 선별해 업종을 추가하거나 변경할 수 있었다. 하지만 앞으론 이런 탄력적인 운용이 불가능해지게 되는 셈이다.한 업계 관계자는 “3년 혹은 6개월 뒤 소비자들이 원하는 혜택이 무엇인지 예측하기란 사실상 불가능하다”며 “코로나19가 종식됐는데도 (혜택 설정 당시 이를 예측하지 못해) 비대면 혜택만 잔뜩 제공하면 사실상 고객 편의가 줄어드는 셈”이라고 말했다. 그러면서 “금융 소비자 보호를 위한 규제가 금융 소비자의 효용을 감소시키고 소상공인의 부담을 가중시키는 역효과를 낳을 수 있다”고 우려했다.이는 체크카드·페이 서비스사뿐 아니라 제휴 업체들에도 부담이 될 수 있다. 금융 플랫폼과의 협업을 통해 고객 접점을 넓혀 나가려는 이커머스, 엔터테인먼트 사업자들이 비용 부담과 계약 경직성 등을 이유로 제휴를 꺼릴 수 있다는 관측이 나온다. 한 업계 관계자는 “제휴 업체들도 1년 미만 계약을 선호하는 편”이라며 “장기 제휴와 비용에 대한 불확실성이 부담이 될 수 있기 때문”이라고 말했다.핀테크 업계는 신용카드와 선불·직불 지급 수단에 대해 ‘동일 기능·동일 규제’를 적용하는 것 자체가 부당하다는 입장도 내놓고 있다. 신용카드 고객들은 연간 수만 원에 달하는 연회비를 내고 있지만, 체크카드와 페이 서비스들은 연회비 없이 혜택 차원에서 고객들에 각종 제휴 서비스를 제공한다는 점이 다르다는 설명이다. 한 업계 관계자는 “인기 신용카드들이 우후죽순 늘었다 단종되는 사례처럼 체크카드와 각종 페이 서비스 시장 역시 불확실성이 높아질 수 있다”며 “금융 고객들의 편익을 높이기 위한 규제가 자칫 실질적인 혜택 축소로 이어질 수 있다”고 설명했다.이번 개정안은 지난 16일 입법 예고를 완료했으며 이후 법제처 심사 등을 거쳐 올해 12월 8일부터 시행될 전망이다. 금융위에 따르면 모바일 선불·직불 결제를 하는 핀테크(전자지급수단발행업) 업체는 88개사에 달한다.금융당국 관계자는 “입법 예고는 마쳤지만 업계 의견 들어온 부분은 계속 협의하고 검토하고 있다”면서 “연내 맞춰서 개정안이 시행될 수 있도록 준비 중”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.08.19.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>금융위 “‘카카오톡 송금’ 가능”에도 출렁인 카카오페이 주가</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003295683?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>카카오페이 로고카카오톡 이용자들이 간편하게 사용하고 있는 ‘송금하기’ 기능이 제한될 거란 보도에 금융위원회가 “사실과 다르다”는 입장을 발빠르게 내놨지만, 송금 기능이 일부는 축소될 수 있다는 우려가 제기되며 카카오페이의 주가에도 영향을 미치고 있다.19일 한국거래소에 따르면 전날 카카오톡 송금 기능이 사라질 거란 보도에 카카오페이의 주가는 전 거래일 대비 6.56%나 급락했다. 이튿날 오전 10시 30분 기준 카카오페이의 주가는 6만 8100원 정도로 전 거래일 대비 0.44% 하락한 상태에서 보합세를 보이다가 이날 오후 6만 8800원으로 전 거래일보다 0.58% 상승한 상태로 마감했다.카카오페이 주가 하락의 원인으로 꼽히는 건 현재 국회 계류중인 전자금융거래법(전금법) 개정안으로 카카오톡 간편송금 기능이 일부 제한될 수 있다는 우려가 나오면서다.지난 2020년 11월 당시 국회정무위원장이던 윤관석 더불어민주당 의원 등 12명이 발의한 안건에는 대금결제업자가 선불전자지급수단의 발행·양도, 환급 기능을 결합해 전자자금이체와 동일한 목적을 달성할 수 있게 하는 행위를 해서는 안된다는 내용이 담겨있다. 간편송금 거래 규모가 커지면서 보이스피싱이나 자금세탁 등에 노출될 위험성이 감지됐고, 이에 따라 리스크 관리 능력이 요구된다는 지적에 따른 것이다.해당 법안이 통과되면 현시점에 선불전자지급수단업자로 등록된 곳들은 간편송금을 하는 자금이체업으로 등록해야 기존의 송금 기능을 할 수 있게 된다. 카카오페이나 네이퍼파이낸셜, 토스(비바리퍼블리카) 등 주요 간편송금 사업자들의 타격이 예상되는 것도 그 때문이다.업계 내에선 송금기능이 유지되더라도 실명계좌로만 충전이 가능할 경우 미성년자 등 금융취약계층에게 불리할 것으로 보고 있다. 카카오페이의 경우 기존 계좌를 등록하면 페이에 일정 금원을 충전할 수 있는데, 자신의 계좌가 없거나 계좌 등록을 원하지 않을 경우 타인으로부터 송금하기 기능을 사용해 페이 잔액을 충전할 수 있다. 대표적으로는 미성년자 자녀의 경우 부모가 자녀에게 카카오톡 송금하기를 통해 페이머니를 충전해주는 식이다.최근 카카오페이가 카카오톡 오픈채팅에서 시범적으로 운영 중인 송금 기능 또한 제한될 여지가 있다는 우려가 나온다. 오픈채팅 송금은 일반 채팅에서처럼 카카오페이와 연동할 수 있는데 오픈채팅 자체가 익명성을 보장하고 있기 때문에 송금 시 수취인의 실명 정보가 노출되지 않는다. 카카오는 오픈채팅 송금 기능의 악용을 막고자 송금 시 1회 30만원, 수취 시 1일 200만원 등 별도 한도를 적용하고 있다.카카오페이 관계자는 “현재 서비스를 이용하고 있는 고객들이 불편을 겪는 상황이 발생하지 않게끔 준비해나갈 예정”이라고 밝혔다.금융위는 자금이체업 관련 내용을 포함해 국회 계류중인 해당 개정안의 보완 필요성 등에 대해 다각도로 검토중이라는 입장이다. 아울러 향후 국회 논의 과정에서 반영될 수 있도록 업계와 충분히 협의하겠다는 방침 또한 밝혔다.금융위 관계자는 “이 법 그대로 시행된다고 하더라도 유예기간이 있고 선불업을 통해 사실상 이체업을 하던 사업자는 자금이체업으로 등록하고 서비스를 제공하면 된다”면서 “외국에서는 선불업을 통한 이체업은 법에서 엄격히 금지되는데 (국내의) 기존 전금법에선 금지 규정이 없었던 것”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>대출 금리 낮춰준다더니…은행 금리인하신청 4건중 1건만 수용</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006306519?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>수용률, 농협은행 60.5% 최고…카드사 40.3%·저축은행 55.1%서울시내 한 은행 영업점을 찾은 고객들이 상담을 받고 있다.  2022.1.24/뉴스1 ⓒ News1 유승관 기자(서울=뉴스1) 신병남 손승환 기자 = 올 상반기 은행들의 금리인하요구권 수용률이 24.8%에 그친 것으로 나타났다. 수용률만 놓고 보면 농협은행이 60.5%로 가장 높았으며, 접수 건수는 신한은행이 다른 시중은행을 다 합친 수보다 많아 권리 홍보에 가장 적극적이었다.  전국은행연합회는 30일 이 같은 은행별 금리인하요구권 운영실적을 처음으로 비교 공시했다. 이번 공시는 금융위원회와 금융감독원, 은행연합회가 지난해 10월 공동 발표한 금리인하요구권 활성화 방안의 후속조치다. 상반기 은행권 금리인하요구 신청건수는 총 88만8619건이다. 그중 22만797건이 감면돼 은행권 전체 수용률은 24.8%를 기록했다. 총 728억2900만원의 이자가 감면됐다. 가계대출은 85만236건 신청에 20만910건이 수용됐다. 수용률은 23.6%로 감면된 이자는 187억8200만원이다. 기업대출은 3만8383건 신청에 1만9887건이 수용됐다. 수용률은 51.8%로 540억4700만원의 이자가 감면됐다.시중은행별 수용률을 보면 농협은행이 60.5%로 가장 높았다. 우리은행이 46.1%, KB국민은행 37.9%, 하나은행 32.3%, 신한은행 29.0%다. 다만 신한은행의 낮은 수용률은 신청건수(13만1935건)가 나머지 4개 은행을 합친 것(7만2992건) 보다 많았기 때문이다.인터넷전문은행 중에서는 케이뱅크가 24.6%로 가장 수용률이 높았으며, 카카오뱅크 19.0%, 토스뱅크 17.8%다.이번 공시는 은행별 동일한 통계기준에 따라 이뤄진 첫 공시다. 과거와 통계기준이 상이해 정확한 비교분석은 어려우나 올 들어 수용건수·이자감면액 모두 증가 추세를 보였다. 수용건수는 지난해 상반기 8만5720건에서 올해 상반기 22만797건으로 158% 늘었다. 이 기간 이자감면액은 588억500만원에서 728억2900만원으로 24% 늘었다.신청건수도 비대면 신청 허용, 금리인하요구권 홍보 강화, 통계기준 변경(중복건수 포함) 등으로 크게 증가했다. 지난해 상반기 34만1783건에서 올해 상반기 88만8619건으로 159% 증가했다. 은행연 관계자는 "은행별 수용률보다는 수용건수 및 이자감면액 등을 중심으로 비교하는 것이 금융소비자에게 실질적인 도움이 될 것"이라며 "금리상승기에 소비자에게 도움이 될 수 있도록 지속적으로 금리인하요구권 안내·홍보를 강화할 계획"이라고 말했다.한편 다른 금융권도 이날 상반기 금리인하요구권 운용 실적을 공개했다. 8개 전업카드사(신한·삼성·KB국민·현대·롯데·우리·하나·BC카드)의 금리인하요구 신청건수는 20만8995건으로 이중 8만4302건이 수용돼 수용률은 40.3%다. 총 30억5456만원의 이자가 감면됐다. 카드사 중에서는 신한카드의 수용률이 71.9%로 가장 높았다. SBI·OK·한국투자·페퍼·웰컴·애큐온·다올·OSB·모아·JT친애 등 저축은행 상위 5개사의 상반기 금리인하요구 신청건수는 1만9175건, 수용률은 55.1%다. 총 25억3700만원의 이자가 감면됐다.생보업계의 신청건수는 1만1503건으로 36.7%의 수용률을, 손보업계의 신청건수는 1737건으로 37.9%의 수용률을 기록했다. 각각 4억원, 2억2000억원의 이자가 감면됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.08.17.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>[출근길money] 인터넷은행 3사 '각축전'...어떤 앱이 인기 더 많나</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004884086?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>연령별 이용자 비율. TDI 제공  기기설치수 추이. TDI 제공 [파이낸셜뉴스] 인터넷은행 간 경쟁이 치열한 모양새다. 인터넷은행 3사의 앱 이용 현황을 분석해본 결과 제각기 장점을 가지고 다투고 있었다. 앱 설치수와 실행횟수 면에서는 토스가 가장 앞섰지만 활성사용자는 카카오뱅크가 가장 많았고 연령분포는 케이뱅크가 가장 고르게 나타났다.   16일 빅데이터 전문기업 티디아이(TDI)의 분석 보고서에 따르면 지난 7월 기준 기기 설치 수는 토스가 1953만2000대로 가장 많았다. 다만 이는 '원앱'이라는 특성상 토스뱅크가 아닌 토스를 기준으로 파악한 결과다.   카카오뱅크(1708만6000대)와 케이뱅크(982만2000대)가 그 뒤를 이었다. 또한 1월 대비 7월 증가량은 78만6000대로 토스가 제일 많았으며, 증가폭도 4.2%로 제일 높았다. 카카오뱅크와 케이뱅크는 각각 3.4%, 1.7% 올랐다. 기기 한 대당 일평균 실행횟수는 토스 3.6회 ,카카오뱅크 2.4회 케이뱅크 2.3회 순이었다.   연령별 이용자 비율은 케이뱅크가 가장 고르게 분포했다. 50대 이상 이용자가 26%로 제일 많고 20·30·40대도 각각 20%대 초반 점유율을 보였다. 카카오뱅크는 30대, 토스는 20대가 제일 많이 사용했다. 10대 이용자 비율은 토스가 9%로 가장 높았으며, 카카오뱅크가 1%로 가장 낮았다.   기기설치수 대비 활성사용자(MAU)는 카카오뱅크가 평균 63.4%로 가장 높게 나왔다. 케이뱅크는 평균 15.1%로 다소 저조했다. 1월 대비 7월 수치가 높아진 앱은 토스(3.8%)뿐이었다. 다른 두 앱은 감소했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.08.25.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>"데이터가 돈이다"…자산관리·간편결제 등 앱 통합, 생활금융 플랫폼으로 진화</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004741426?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>플랫폼 혁신 나서는 카드업계인터넷銀·빅테크와 무한경쟁인뱅, 카드업 직접 진출 움직임빅테크 업체, 간편결제 시장 잠식 소비자에게 더 편리함 제공기능별로 흩어진 앱 통합원스톱 '슈퍼 플랫폼' 박차라이프스타일 콘텐츠도 강화게티이미지뱅크올 상반기 카드업계는 뜻밖의 호실적을 올렸다. 사회적 거리두기 해제로 소비심리가 살아나면서 국내 8개 전업카드사는 1년 새 12% 늘어난 1조6684억원의 순이익을 냈다. 올해 또 한 차례 내린 가맹점 수수료와 대출 규제 강화, 금리 인상에 따른 조달비용 급증 등 악재가 산적한 상황에서도 역대 최대 이익을 낸 지난해 분위기를 이어간 것이다.그럼에도 업체마다 그 어느 때보다 혁신과 변화를 위한 분투가 한창이다. 결제 시장에서 네이버페이 카카오페이 토스 등 빅테크의 존재감이 커지고 있는 데다 스타벅스 쿠팡페이 SSG페이 등 식음료 유통업계에서도 자체 간편결제 수단을 장착하고 있다. 여기에 기존 카드사와 제휴를 맺고 신용카드 서비스를 운영해온 카카오뱅크 토스뱅크 등 인터넷은행도 직접 신용카드업 진출 계획을 밝힌 상태다.무한 경쟁에 맞서 기존 카드사들은 플랫폼 경쟁력을 확보하는 데 사활을 걸고 있다. 카드관리·간편결제·자산관리 등 기능별로 흩어져 있던 앱을 하나로 합치고, 각종 금융·비금융 서비스를 담아 라이프스타일 플랫폼을 만드는 게 핵심이다. 더 많은 소비자가 더 편하게, 더 오래 카드사 플랫폼을 찾도록 유도하는 것은 물론 생생한 고객 데이터를 더 효율적으로 축적하고 활용하기 위해서다. ○카드 앱도 ‘슈퍼 플랫폼’으로 진화신한카드는 2010년부터 운영해온 ‘신한카드’ 앱 운영을 다음달 27일 완전히 종료한다. 기존 신한카드 앱에서 제공하던 명세서 조회, 이용대금 결제 등 기본 서비스는 신한카드의 대표 플랫폼으로 자리 잡은 ‘신한플레이’ 앱에서 그대로 이용할 수 있다.신한플레이는 카드 결제와 간편결제, 오픈뱅킹을 통한 송금, 자산관리 등 금융 고유 서비스는 물론 제휴사 통합 멤버십과 신분증 학생증 등의 기능을 한 번에 이용할 수 있는 스마트 지갑, 고객 맞춤형 콘텐츠와 혜택을 모두 담아 생활금융 플랫폼으로 진화하고 있다. 신한카드에 따르면 신한플레이의 월간 활성 사용자 수(MAU)는 2019년 425만 명에서 올 상반기 710만 명으로 급증했다. 신한플레이를 통한 연간 취급액은 전체의 5분의 1 수준인 40조원이다.기본 앱인 ‘KB국민카드’와 자산관리 특화 앱 ‘리브메이트’, 간편결제 플랫폼 ‘KB페이’ 등 3개 앱을 운영해온 국민카드도 KB페이로 플랫폼을 통합하는 작업이 한창이다. 올 1월엔 국민카드 앱의 결제, 카드 발급 등 주요 기능을 KB페이로 통합했고 별도 계좌 개설 없이 모든 가맹점에서 온·오프라인 결제가 가능한 선불전자지급수단 ‘KB페이 머니’도 선보였다. 국민카드 관계자는 “카드사 간 상호 연동을 통해 타사 카드 결제도 KB페이에서 가능하도록 결제 수단을 계속 확장해나갈 계획”이라고 했다.우리카드는 지난 11일 우리은행과 손잡고 ‘우리WON카드’ 앱을 통합결제 플랫폼으로 진화시켰다. 우리카드나 우리은행 계좌가 없는 사람도 우리WON카드 앱에 은행 계좌나 신용카드를 등록해 간편결제 서비스를 이용할 수 있도록 했다. 우리카드 관계자는 “개방성에 방점을 찍은 통합결제 플랫폼으로 소비자의 편의성을 높여 간편결제 시장에서 경쟁력을 높일 것”이라고 했다.지난해부터 모바일 플랫폼 통합 작업을 진행해온 하나카드도 다음달부터 기존 ‘하나카드’ 앱을 없애고 간편결제 앱인 ‘원큐페이’로 플랫폼을 일원화한다. 원큐페이는 온·오프라인 간편결제, 이용내역 조회 등 기본 서비스는 물론 모바일 온누리상품권 구매, 상품권 QR결제 등의 기능도 넣었다. 하나금융그룹은 원큐페이를 그룹 대표 결제 플랫폼으로 성장시킨다는 계획이다. ○라이프스타일 콘텐츠도 서비스삼성카드는 지난 4월 삼성생명·화재·증권 등 삼성 금융계열사와 통합 앱 ‘모니모’를 선보였다. 삼성카드의 모든 서비스는 물론 간편송금, 환전, 부동산·자동차 시세조회 등 종합 금융 서비스와 각종 라이프스타일 콘텐츠도 한데 모아 제공한다. 비씨카드가 일찌감치 생활금융 플랫폼을 표방하며 2017년 출시한 ‘페이북’은 누적 고객 수 1000만 명을 넘어섰다. 월 평균 결제액은 1조원에 이른다. 페이북은 QR코드 결제와 카드·대출·보험 등 금융상품 추천, 금·해외 주식 투자 등 다양한 금융 서비스는 물론 공연 티켓 예매, 맛집 예약 등 비금융 서비스도 제공하고 있다.롯데카드는 지난해 기존 카드 앱을 전면 리뉴얼해 출시한 ‘디지로카’를 디지털 큐레이팅 플랫폼으로 고도화하고 있다. 자산관리, 금융상품 추천부터 미술품 공동 구매, 가전·가구 방문관리, 주요 브랜드 50% 할인쿠폰 제공 등 특색 있는 서비스를 잇달아 선보이고 있다. 현대카드는 최근 앱 내 디지털 서비스 실험공간 ‘현카연구소’를 개설하고 맞춤형 가계부 서비스인 ‘소비 캘린더’, 여러 쇼핑몰에 흩어진 장바구니 내역을 한데 모아 조회·결제할 수 있는 ‘위시리스트’ 등의 서비스를 내놨다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.08.29.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>라온시큐어, 10월4일 '시큐어 세미나' 개최…"디지털 인증 트렌드 소개"</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006302603?sid=105</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>한국디지털인증협회와 공동 개최…블록체인 인증 등 언급라온시큐어, 한국디지털인증협회와 10월 4일 '시큐어 세미나' 개최 (라온시큐어 제공)(서울=뉴스1) 오현주 기자 = 보안기업 라온시큐어는 한국디지털인증협회와 오는 10월 4일 서울 강남구 삼성동 코엑스에서 '시큐어 세미나 2022'를 개최한다고 29일 밝혔다. 주제는 '디지털 인증의 현재와 미래'다. 세미나는 △메타버스 △대체 불가능 토큰(NFT) 같은 새로운 플랫폼 서비스의 기반이 되는 디지털 인증 트렌드를 다룬다. 이와 함께 △신속한 온라인 인증(FIDO) 기반 생체인증 △블록체인 기반 분산신원인증(DID·기존 신원확인 방식과 달리 중앙시스템에 의해 통제되지 않고, 개개인이 자신의 정보에 완전한 통제권을 갖도록 하는 기술) △클라우드 인증 등 최신 기술 정보를 공유한다. 키노트 세션에서는 연사 3명이 강연에 나선다. 라메시 케사누팔리 ADI 어소시에이션 공동 설립자는 보안과 개인정보 사이의 신뢰와 책임을 어떻게 균형적으로 이룰 수 있는지를 발표한다. 이상민 행정안전부 과장은 최근 발급을 시작한 모바일 운전면허증을 시작으로 향후 디지털 신분증의 방향에 대해 소개할 예정이다. 김태진 라온화이트햇 전무는 '옴니원 통합인증 서비스'를 언급한다. 이 서비스는 △모바일 신분증 △디지털 증명서 △사설 인증서를 통합 제공하는 플랫폼이다.키노트 세션이 끝나면 크게 두 가지 주제로 트랙 행사가 진행된다. A트랙에서는 블록체인 기술로 위변조·정보유출을 방지하면서 신원인증할 수 있는 방안이 소개된다. △백상현 병무청 서기관 △김진호 라온화이트햇 이사 △김창수 라온시큐어 미국 법인 디지털 트러스트 네트웍스 전무 △장항배 중앙대학교 교수가 연사로 나선다. B트랙에서는 사용자의 편의성과 보안성을 모두 지켜줄 수 있는 사설 인증 서비스의 제공방안을 제공한다. △박정호 KISA 책임 △정재헌 NH 농협상호금융 부장 △방승익 토스 실장 △최욱동 네이버 리더가 연사로 참여한다. 라온시큐어는 행사 개최를 맞아 9월5일부터 같은달 28일까지 얼리버드 이벤트도 진행한다. 사전등록을 한 참가자 100명에게 선착 순으로 커피V쿠폰을 준다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>'금리인하요구권' 수용률 최저 신한은행, 이자감면액은 1위</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005305832?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>수용률 30.4%로 가장 낮지만, 이자는 가장 많이 깎아줘"수용건수 및 이자감면액 중심 비교가 실질적 도움"[이데일리 김정훈 기자][이데일리 정두리 기자] 5대 시중은행 가운데 금리인하요구권 수용률이 가장 낮은 곳은 신한은행으로 집계됐지만, 정작 고객에게 가장 많이 이자를 깎아준 은행도 신한은행인 것으로 나타났다. 은행연합회는 30일 홈페이지를 통해 올 상반기 금리인하요구권 운영 실적을 공시했다. 같은 날 카드사들과 저축은행, 생명·손해보험도 각각 협회를 통해 금리인하요구권 운영실적을 공개했다. 항목에는 △금리인하요구 신청건수 △수용건수 △신청건수 대비 수용건수를 나타내는 수용률 △이자 감면액 등이 포함됐다. 금리인하요구권은 대출자가 취업이나 승진, 재산 증가 등으로 신용 상태가 개선되면 금융사에 금리를 내려달라고 요구할 수 있는 권리다. 개인뿐 아니라 법인, 개인사업자도 금리인하요구권을 신청할 수 있다. 은행의 경우 금리인하요구 신청건수는 약 88만9000건으로 이 중 약 22만1000건이 수용됐다. 수용률은 24.86%로, 총 728억원의 이자를 깎아줬다. 지난해 상반기와 비교하면 수용건수는 8만5720건에서 올 상반기 22만797건으로 3배 가까이 증가했다. 같은 기간 이자감면액은 588억500만원에서 728억2900만원으로 24% 늘었다.시중은행의 금리인하요구권 수용률을 보면 신한은행이 30.4%로 가장 낮았다. 하나은행은 33.1%, KB국민은행은 37.9%, 우리은행은 46.5%, NH농협은행은 59.5%였다. 다만 신한은행은 금리인하요구권을 통해 가계대출과 기업대출 고객들의 이자를 총 47억원 감면해줘 규모로 따지면 시중은행 중 가장 크다.지방은행에서는 제주은행의 수용률이 6.7%에 불과했다. 이어 대구은행 37.4%, 경남은행 38.2%, 광주은행 38.7%, 전북은행 39%, 부산은행 42.8% 등이었다. 인터넷은행 중에서는 토스뱅크의 금리인하요구권 수용률이 17.9%로 가장 낮았다. 카카오뱅크는 19%, 케이뱅크는 24.6%로 나타났다. 금리가 높은 제2금융권의 경우 저축은행업계의 금리인하요구권 수용률이 34.8%였다. 애큐온저축은행의 수용률이 40.2%로 가장 낮았다. 이어 SBI저축은행 60.3%, 상상인저축은행 66.7%, 페퍼저축은행이 74.7%, 웰컴저축은행 75.8% 순으로 낮았다. 카드사의 경우 금리인하요구권 수용률은 40.3%로, 이 중 비씨카드가11.9%로 최저 수준이었다. 이어 하나카드 28.05%, KB국민카드39.65%, 롯데카드 40.15%, 삼성카드 40.35%, 우리카드 62.16%, 신한카드 71.9% 순이다. 보험사 차주 가운데 금리인하요구권을 사용해 수용된 비율은 37.9%로 나타났다. 금융사들은 금리인하요구권 활성화 취지에는 동의하면서도 각사별 ‘줄세우기’를 경계했다. 은행연합회는 “공시를 통해 소비자들이 거래은행을 선택하는데 도움이 될 것”이라면서도 “다만 수용률만을 기준으로 금융회사를 선택할 경우, 이미 낮은 금리를 적용 중인 금융회사는 추가 금리인하 여력이 적을 수 있다는 점을 고려해야 한다”고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.08.23.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>‘이자 장사’ 1위 신한은행?…인터넷은행이 예대금리차 더 커</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000832591?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>4개 은행보다 인터넷 은행이 예대금리차 커…“이자 장사는 인터넷 은행?”주담대는 농협·우리은행, 예대금리차 가장 컸고, 신용대출은 농협·신한은행이 1·2위22일 공개된 은행별 예대금리차 .“은행들이 예금 이자는 적게 주고 대출 이자는 비싸게 받으며 지나친 이자 장사를 한다?”흔히 시중에 떠도는 소문이다. 그 소문을 한 눈에 볼 수 있는 자료가 공개됐다. 지난달 예금과 대출 금리 차이가 컸던 은행은 어디일까?게시된 은행연합회 소비자 포털의 ‘예대금리차 비교’ 통계에 따르면, 7월 현재 신한은행의 가계 예대금리차(가계대출금리-저축성수신금리)는 1.62%포인트로 집계됐다.5대 시중은행 중에서는 신한은행의 가계 대출·예금 금리 격차가 가장 컸다. 더불어 전통은행보다 중·저신용자에 높은 금리로 많이 대출해준 인터넷 은행의 예대금리차는 최대 5%포인트로 나타났다.신한은행에 이어 우리은행(1.40%포인트), NH농협은행(1.40%포인트), KB국민은행(1.38%포인트), 하나은행(1.04%포인트) 순이었다.인터넷 은행의 가계 예대금리차는 2%포인트 이상으로, 전통은행을 웃돌았다. 케이뱅크가 2.46%포인트, 카카오뱅크가 2.33%포인트 수준이었고, 토스뱅크는 무려 5.60%포인트를 기록했다.기업 대출까지 포함한 전체 은행의 예대금리차(대출금리-저축성수신금리)를 보면, 5대 은행 가운데 NH농협은행이 1.36%포인트로 가장 컸다. 우리은행(1.29%포인트), KB국민은행(1.18%포인트), 신한은행(1.14%포인트), 하나은행(1.10%포인트) 순이었다.자료 은행연합회,  도표 연합뉴스대출 종류별로 보면, 주택담보대출에서는 농협과 우리은행의 예대금리차가 가장 컸고, 일반 신용대출은 농협과 신한은행이 1, 2위였다.일반적으로 신용점수로 대출을 받을 때 상위 20~30% 수준인 851~900점인 사람이 대출을 받는다고 가정해 보면, 주택담보대출 이자가 제일 싼 은행은 국민, 제일 비싼 곳은 우리로 0.5% 포인트 차이였다. 신용대출은 제일 싼 곳이 하나, 비싼 곳은 신한으로, 0.6% 포인트 정도 차이 났다.이제 이런 차이를 한 눈에 확인할 수 있다. 3달에 한 번 은행별로 공시하던 자료를 매달 은행연합회 홈페이지에 한꺼번에 올리는 것으로 제도가 바뀌었다.강석봉 기자 ksb@kyunghyang.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.08.31.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>네이버·카카오·토스 만난 이복현 "간편결제 수수료 공시, 원가 공개 아냐"</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000847751?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>이복현 금감원장이 30일 서울 마포구 프론트원에서 진행된 금융감독원, 빅테크·핀테크업계 CEO 간담회에 참석, 발언을 하고 있다./사진=임한별 기자 이복현 금융감독원장이 간편결제 수수료율 공개를 원가 공개로 보는 것은 과한 측면이 있다고 지적했다.이 원장은 지난 30일 서울 마포구 마포프론트원에서 열린 '빅테크·핀테크 최고경영자(CEO) 간담회'에 참석한 뒤 기자들과 만나 간편결제 수수료 공시 방안과 관련해 "수수료 원가 등은 기업의 고유비밀이라 손댈 의사가 없지만 시장의 투명성을 확보하는 차원"이라며 "소비자 입장에서 보면 (현재는) 본인이 지불하는 가격을 정확히 모르고 서비스를 사는 것으로 관련 정보를 공개해 우려를 해소했던 것이 과거 선진국의 사례"라고 설명했다.앞서 금감원은 지난해말부터 네이버파이낸셜과 카카오페이 등 전자금융업자의 간편결제 수수료율 공시 마련을 추진해왔다. 금감원에는 이미 네이버파이낸셜, 카카오페이, 비바리퍼블리카 등이 참여한 '결제수수료 공시 작업반(TF)'도 구성됐다.윤석열 정부는 '110대 국정과제'에 '금융소비자 보호 및 권익 향상'을 목표로 전금업자가 소상공인 등에게 부과하는 간편결제 수수료에 대한 공시 및 주기적인 점검을 추진한다는 구상을 내걸은 바 있다.이에 일각에선 전금업자의 수수료율 공시는 원가 공개와 다를 바 없어 '영업기밀을 억지로 공개하라는 것'이라는 비난이 일기도 했다.이에 이 원장은 "카드 수수료와 간편결제 수수료는 다른 측면이 있는데 수수료는 업계에서 자율적으로 결정하는만큼 개입할 의사가 없다"고 설명했다. 이어 "다만 빅테크 특성상 정보 비대칭 등에 대한 우려가 있어 이런 부분은 선진국과 같이 자율 정보 공개로 해결하는 것을 권유했다"고 설명했다.이날 이 원장은 핀테크 업계에 당근책도 꺼내들었다. 그는 "플랫폼이 소비자에게 예금, 보험, P2P 등 다양한 금융회사의 상품들을 비교·추천할 수 있도록 규제 샌드박스를 운영할 계획"이라며 "금융중심지지원센터를 통해 해외 IR을 개최해 국내 유망 핀테크사가 신규 시장을 개척하고 투자 유치도 원활히 할 수 있도록 지원할 예정"이라고 부연했다.마지막으로 그는 "금감원 핀테크 현장자문단은 핀테크지원센터와 공조를 통해 원스톱 인큐베이팅 서비스를 실시할 예정"이라고 설명했다.한편 이날 간담회에는 이승건 비바리퍼블리카(토스) 대표, 신원근 카카오페이 대표, 박상진 네이버파이낸셜 대표, 정현경 뮤직카우 대표, 김정은 스몰티켓 대표 등이 참석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.08.22.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>[단독] 네이버파이낸셜, 개인대출비교시장 진출 밑그림</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002031163?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>사업자 이어 개인도 이르면 내년 출시 검토개인 신용대출 판도 뒤바꿀지 관심박상진 네이버파이낸셜 대표[헤럴드경제=박자연 기자] 사업자대출을 확대해 대출비교시장 진출을 예고한 네이버파이낸셜이 개인신용 대출비교 서비스에도 본격 진출한다. 그간 집중했던 결제 기반 페이 서비스를 넘어 통합 금융플랫폼으로 나아가겠다는 의지로 해석된다.22일 관련업계에 따르면 네이버파이낸셜은 이르면 내년 개인 대상 대출비교 서비스를 선보인다. 이는 올 10월 출시를 예고한 사업자 대상 대출비교 서비스를 개인 대상으로 확대하는 것이다. 네이버파이낸셜 관계자는 “사업자 대출비교 서비스가 출시된 이후 개인 대상의 대출비교 서비스 출시도 긍정적으로 검토하고 있다”고 말했다.그간 네이버파이낸셜 측은 사업자 대상 대출비교 서비스를 내놓겠다고 밝혔지만 개인 대출비교시장에는 뚜렷한 계획을 세우지 않았다. 그러나 사업자 대출비교 서비스 출시가 임박하면서 개인 대상 서비스 역시 밑그림을 그리고 있는 셈이다.네이버파이낸셜이 조만간 출시할 사업자 대출비교 서비스는 네이버 생태계를 이용하는 사업자들에게 제공되고 있는 대출 서비스의 ‘확장판’으로 알려졌다. 박상진 네이버파이낸셜 대표는 간담회에서 “이번에 나올 사업자 대출비교 서비스는 전업권의 사업자 대출상품이 입점할 예정이며 금융사들과 함께 사업자 특성에 맞는 상품 개발도 진행할 것”이라고 설명했다.현재도 네이버파이낸셜은 우리은행, 전북은행, 미래에셋캐피탈 등과 특화상품을 내놓고 네이버 스마트스토어와 스마트플레이스에 입점 또는 등록된 사업자들이 대출을 신청할 때 상품을 비교해주고 있다. 사업자들이 각각의 금리와 한도를 보고 자신에게 유리한 상품을 선택할 수 있는 것이다. 스마트플레이스 대출의 경우 네이버 예약과 네이버 주문 등 네이버 서비스를 이용하는 소상공인에게 우대금리 등을 제공한다. 스마트스토어 사업자 전용대출도 온라인 사업자를 대상으로 해 호평을 받았다. 특히 스마트스토어 대출의 경우 2020년 말 출시 이후 올 6월 기준 대출 취급액이 1700억원에 달한다.특히 네이버파이낸셜은 네이버 생태계 안팎의 사업자를 모두 아우르는 금융플랫폼을 목표로 개인 대상 금융 서비스를 확장하고 있다. 6월 말 출시한 보험관리 서비스 ‘보험통합조회’는 한 달 만에 사용자 30만명을 돌파했다. 여기에 개인신용 대출비교 서비스까지 힘을 보탠다면 대출시장 전반에서 존재감을 발휘할 수 있을 것으로 보인다.핀테크업계 관계자는 “네이버가 개인 신용대출비교시장에 진출할 경우 공고했던 토스, 카카오페이, 핀다 3사 경쟁구도에 큰 영향을 미칠것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.08.28.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>토스·두나무 낳은 이곳…7000개 기업 몰렸다</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000076913?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>디캠프 ‘디데이’ 100회 차…누적 접수 6874개사 100회 차 수상 스타트업은 렌트리·더라피스강원도 양양 데스커에서 펼쳐진 100회차 디캠프 디데이. (디캠프 제공) 은행권청년창업재단 디캠프가 스타트업 데모데이 ‘디데이’ 개최 100회를 맞았다. 100회 차 디데이는 강원도 양양의 워케이션 공간 데스커에서 열렸다.디데이는 국내에서 가장 오래된 스타트업 데모데이 중 하나다. 지금까지 536개 팀이 무대에 올랐다. 토스, 두나무, 뱅크샐러드, 삼쩜삼 등의 핀테크 기업부터 탈잉, 자란다, 닥터나우 등 다양한 기업이 디데이의 무대를 거쳤다.디데이에 지원하는 기업 수는 지속적으로 늘고 있다. 2013년에는 지원 기업이 106개사에 불과했지만, 지난해 1669개 기업이 지원해 15배 이상 성장했다. 평균 경쟁률도 23 대 1로 치솟았다. 올해는 8월 기준으로 874개 기업이 디데이에 지원했다.경쟁률이 치열한 만큼 이들 출전 기업의 서비스 분야도 다양하다. 헬스케어가 54개사(10.2%)로 가장 많았고, 그다음이 업무 생산성/비즈니스가 43개사(8.1%), 금융/보험 41개사(7.8%), 교육 31개사(5.9%), 콘텐츠 29개(5.5%) 순으로 나타났다. 특히 디캠프는 최근 5년간 디데이를 통해 기업가치 40억원 미만의 초기 스타트업 발굴에 집중해왔다. 디데이 본선 진출 294개사 중 절반이 넘는 171개(58%) 기업이 연차 2년 미만의 초기 기업이었다.양양에서 열린 100회 차 디데이의 수상자는 렌트리와 더라피스였다. 디캠프상을 차지한 렌트리는 실시간 유통 데이터를 통해 최적의 렌털 조건을 가진 가전제품을 추천해주는 서비스를 운영한다. 사용자는 원하는 렌털 조건을 입력하면 렌털료부터 지원금까지 필요한 정보를 간편하게 파악할 수 있어 따로 견적을 비교하는 번거로움을 줄일 수 있다.데스커상을 받은 더라피스는 홈트(홈트레이닝)에 특화된 프리미엄 웰니스 코칭 서비스 ‘웰리’를 운영한다. 웰리는 홈트 가이드 영상을 만들 수 있는 1500여개의 모듈 영상을 제공해 강사가 자세 시연 대신 코칭에만 집중할 수 있도록 돕는다. 이를 통해 상호작용이 부족하다고 평가받아온 기존 홈트 서비스의 단점을 보완했다. 웰리는 향후 남성 요가와 명상으로 콘텐츠를 확장하고 AI 영상 분석 기반의 개인별 리포트 제공 기능을 개발할 계획이다.이 밖에 공유 마이크로 모빌리티 충전 허브 ‘윙스테이션’을 운영하는 셰빌리티, 탁자용 라이트테라피 기기 ‘올리’를 개발한 루플, 디지털 명상 플랫폼 마보, 시간제 업무 공간 예약 중개 서비스 원루프 등이 발표에 나섰다.이번 디데이에는 강성문 일룸 대표, 박희덕 트랜스링크인베스트먼트 대표, 이종승 비에이파트너스 대표, 한종호 소풍벤처스 파트너, 남우진 에이치지이니셔티브 상무, 남궁알렉스 어센도벤처스 이사, 노해성 한국성장금융투자운용 실장이 심사위원으로 함께 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[Business Inside] ‘이자장사’ 1위 불명예 전북은행, 예대마진 6.33%p</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005009451?sid=004</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>은행의 과도한 ‘이자 장사’를 막자는 취지로 지난 8월 22일부터 공개된 은행별 예대금리차(가계대출금리-저축성수신금리)를 살펴본 결과 19개 은행 가운데 전북은행이 6.33%p로 1위의 불명예를 차지했다. 이는 산술적으로 대출과 예금의 금리 격차에 따른 은행의 이윤이 크다는 뜻이다. 반대로 예대마진차가 가장 적은 곳은 BNK부산은행(0.82%p)이었다.   5대 대형은행 중에서는 신한은행의 가계대출·예금금리 격차가 가장 큰 것으로 나타났다. 지난 7월 기준 신한은행의 가계 예대금리차는 1.62%p로 나타났다. 뒤를 이어 우리은행(1.4%포인트), NH농협은행(1.4%포인트), KB국민은행(1.38%포인트), 하나은행(1.04%포인트) 순으로 가계 예대금리차가 컸다. 중·저신용자 고객 비율이 상대적으로 높아 중·고금리 대출 비중이 큰 인터넷은행의 예대금리차는 2%를 웃돌았다. 카카오뱅크가 2.33%에 비해 케이뱅크가 2.46%포인트로 높았고 토스뱅크는 무려 5.60%포인트를 기록한 점이 눈에 띈다. 은행업계 한 관계자는 “이번 공시가 은행별로 고객 유형이나 서민금융대출 비중이 달라 온전한 비교가 힘든 점은 있다”라며 “공시를 앞두고 은행들이 자체적으로 예대마진 차이를 줄인 측면도 있어 어느 정도 효과를 보고 있다”고 평가했다.[본 기사는 매경LUXMEN 제144호 (2022년 9월) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.08.26.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>2분기 인터넷은행 중·저신용자 대출 비중 증가</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003297282?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>카카오뱅크 판교 본사 내부  - 카카오뱅크 판교 본사 내부 모습. 카카오뱅크 제공케이뱅크·카카오뱅크·토스뱅크 등 인터넷 전문은행의 가계 신용대출 가운데 중·저신용자에 대한 대출 비중이 2분기 증가한 것으로 나타났다.26일 은행연합회 공시를 보면, 6월 말 기준 인터넷 전문은행의 중·저신용자 대상 신용대출 비중은 케이뱅크가 24.0%, 카카오뱅크 22.2%, 토스뱅크 36.3%로 집계됐다. 전체 가계 신용대출에서 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50% 대출자에 대한 대출이 차지하는 비중이다. 1분기 말과 비교하면 케이뱅크는 3.8% 포인트, 카카오뱅크는 2.3% 포인트, 토스뱅크는 4.9% 포인트 증가했다.인터넷 전문은행은 중·저신용층에 대한 대출 공급 확대가 설립 취지에 포함돼 있다. 금융당국은 지난해 5월 “이러한 설립 취지와 달리 고신용층 위주의 대출영업을 한다”고 지적하면서 중·저신용자 대출 비중 확대를 인터넷 전문은행에 주문한 바 있다. 케이뱅크와 카카오뱅크는 올 연말 목표치로 각각 25%를, 토스뱅크는 42%를 제시했다.인터넷 전문은행은 최근 신용대출 금리 인하 등으로 중·저신용자 고객 확보에 속도를 내고 있다. 케이뱅크는 지난 18일 신용대출 금리를 최대 0.5% 포인트 내렸고, 카카오뱅크도 지난 5일 중·저신용대출상품의 최저 금리를 최대 0.5% 포인트 인하했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.08.30.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>"VC 투자, 패션 플랫폼 이어 '중금리 대출' 혁신 나섰다" [긱스]</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004743553?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>김대윤 피플펀드 대표 인터뷰이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.대출 금리가 가파르게 오르는 시기입니다. 저축은행 등 제2금융권에서 대출을 했던 사람들은 조금이라도 금리를 낮추기 위해 P2P 대출 상품을 찾기도 합니다. 제1금융권(은행)과 저축은행 사이 중금리 시장에서 P2P 대출 사업을 하는 '온라인투자연계금융사'도 증가하는 추세입니다. 국내 등록된 온라인투자연계금융업(온투업) 회사만 49개 사에 이릅니다. 이들 업체 가운데 누적 대출액 1위(약 1조5100억원, 올해 6월 말 기준)인 피플펀드의 김대윤 대표를 한경 긱스(Geeks)가 최근 만났습니다. 고금리 시대에 업계 현황과 회사의 전략 등을 들어보기 위해서입니다. 김 대표는 베인앤드컴퍼니 컨설턴트 출신으로, 소프트뱅크벤처스 투자심사역을 거쳐 패션 플랫폼 '지그재그'(크로키닷컴)에서 일하기도 했습니다. 김대윤 피플펀드 대표가 한국경제신문과의 인터뷰에서 대출 시스템 등을 설명하고 있다. 피플펀드 제공김대윤 피플펀드 대표(41)는 고려대 경영학과를 졸업한 뒤 2007년 컨설팅업체 베인앤드컴퍼니에 입사했다. "처음에는 서울 오피스에 있다가 미국 보스턴에서 1년 정도 있었습니다. 사실 창업을 하고 싶다는 생각은 그 이전부터 있었는데 컨설팅 회사에 가면 경영 전반을 배울 수 있을 거 같아 선택했던 거죠."당시 2008~2009년은 금융 위기가 닥친 시기다. 이후 2010년부터 미국에서는 '제2의 창업 붐'이 일고 있었다. "리먼 사태가 끝나고 두 번째 닷컴 붐이 나타났죠. 1년 반 만에 엄청난 회사들이 막 나오고 그럴 때였어요. 보스턴은 미국 동부잖아요. 실리콘밸리도 아닌데 난리더라고요. 저희 팀 6명 중에서 4명이 주니어 1, 2년 차였는데 그중 3명이 제가 있던 1년 동안 다 퇴사하는 거예요. 창업하거나 다른 곳 제안받았다고 나간 거죠."김 대표는 글로벌 투자금이 스타트업에 몰리고 있던 시기라고 설명했다. "한 친구는 스톡옵션을 이미 꽤 받았다고 하길래 회사 직원이 몇 명이냐고 물어보니까 네 명이라는 거예요. 그래서 그런 곳이 돈이 있느냐고 했더니 이미 20억원 정도를 창업 전부터 투자받았다고 하더라고요. 도대체 이게 무슨 일인가 싶었죠. 그래서 좀 살펴봤는데 세상이 좀 달라진 것 같더라고요. 그래서 저도 이제 한국에 가서 무조건 창업해야겠다고 생각했죠."  VC 심사역에서 핀테크 회사 대표로김 대표는 귀국 후 당시 벤처캐피털(VC) 업계에서 이름을 날리던 임지훈 소프트뱅크벤처스 투자심사역(이후 카카오 대표가 된다)을 찾아갔다. "지미(임지훈 영어 이름)도 컨설팅업체 출신인데, 제가 찾아가서 이런저런 얘기를 하니까 소프트뱅크에서 일해보는 건 어떠냐고 역제안을 하시더군요. 이후 강동석 소프트뱅크벤처스 부사장님을 소개해 주셨고, 강 부사장님에게 다시 얘기를 하니까 무턱대고 창업하는 것보다는 일단 일 좀 배우라고 하시더라고요."김 대표는 이 같은 인연으로 2011년 소프트뱅크벤처스에 입사한다. "당시 펀드 운용 규모가 2000억원도 안될 때였어요. 입사와 동시에 투자 검토한 회사가 VCNC(비트윈)이었죠. 박재욱 대표(현 쏘카 대표 겸 코리아스타트업포럼 의장)를 처음 만났고요. 박 대표도 당시에 4명이서 뭘 만들지 고민할 때였고, '커플 앱'이 과연 좋을지 그런 생각을 할 때였거든요. 사실 커플 앱 비트윈에는 엄청난 기회들이 많았다고 생각해요. 첫 번째 투자를 했던 심사역이었기 때문에 얼마나 숫자가 좋았는지 다 기억하거든요. 그러다 저도 이제 몸이 좀 근질근질하고, 빨리 창업을 해야겠다고 생각했죠."김 대표는 이후 비트윈 앱을 개선하기 위해 서정훈 대표(현 카카오스타일 대표)를 만나러 간다. 서 대표는 과거 디지털아리아(현 HLB테라퓨틱스)에서 스마트폰과 3차원(3D) 앱 소프트웨어를 개발하며 유명해진 인물이다."제가 비트윈 앱을 보여줬죠. 서 대표가 앱에 대한 피드백은 안 주고 자꾸 저한테 왜 이 회사에 10억원을 투자했냐고 물어보는 거예요. 그래서 설명도 해주고 그랬죠. 나중에 서 대표랑 친해져서 얘기를 들어보니까 본인도 창업을 너무 하고 싶다는 거예요. 또 아주 훌륭한 윤상민 최고기술책임자(CTO)도 있었고요. 결국 두 분이 창업을 하셨죠. 그러다가 '비스킷'이라는 툴팁 사전을 만들었는데, 이용자가 6개월 만에 거의 100만 명이 나왔어요. 영어 교육 쪽으로 성장시킬 계획이었고, 그때 저도 합류하게 된 거죠."크로키닷컴은 2013년 에버노트 스타트업 경진대회에서 상을 받았다. 가운데가 서정훈 크로키닷컴 대표(현 카카오스타일 대표), 맨 왼쪽에 있는 사람이 김대윤 피플펀드 대표다.이 회사가 지그재그를 만든 크로키닷컴이다. "당시 서 대표 등과 함께 매주 3~4개씩 사업 아이템을 찾았어요. 아이디어가 한 50~60개까지 쌓였죠. 그러다 결국 세 가지로 줄였어요. 하나는 커머스 쪽으로 해보자는 아이디어였고, 두 번째는 규제가 많긴 한데 금융을 하면 뭔가 답이 나올 수도 있겠다 싶었고, 세 번째는 '카피 모델'로 미국에서 된 것 중 한국에서 안 된 걸 해보자는 것이었죠."김 대표는 당시 이승건 비바리퍼블리카(토스) 대표와도 대화를 나누곤 했다고 했다. "제가 당시 토스 알파 버전을 본 몇 안되는 사람 중의 하나였죠. 송금 아이디어가 너무 좋은 것 같다고 말씀도 드렸고요. 저는 사실 지그재그 여성 쇼핑몰 사업에 그리 열정이 많은 거 같지도 않았고, 평생 할 자신도 없고 해서 핀테크 쪽을 좀 주장하다가 결국 나오게 됐습니다. 당시 박근혜 정부에서 '천송이 코트' 논란이 일 때였거든요. 창조경제 핵심 중의 하나가 핀테크였고, 액티브엑스가 없어지면 큰 기회라고 봤죠. 저 말고도 이효진(8퍼센트 대표), 김성준(렌딧 대표) 이런 분들도 다 그런 시각에서 사업 시작하신 걸로 알고 있습니다."  국내 1위 온투업 회사로 '우뚝'김 대표는 2015년 핀테크 스타트업 피플펀드를 세웠다. 피플펀드는 지난 6월 말 기준 누적 대출액이 1조5095억원에 이른다. 온투업 회사 가운데 누적 대출액 1조5000억원을 가장 먼저 돌파했다. 대출 잔액도 3416억원(개인신용대출 1242억원, 부동산담보대출 2164억원, 기타 10억원)으로 업계 최대 규모다.김 대표는 "최근 대출 수요가 크게 늘고 있다"고 했다. "금리 상승기에는 우리가 흔히 얘기하는 '(슈퍼) 프라임 고객들', 즉 고신용자들은 대출을 줄여요. 그런데 중신용자들은 원리금 부담을 어떻게 해서든 줄이려고 대환을 많이 찾죠. 좀 더 금리가 낮은 상품이나 만기가 긴 상품으로 갈아탄다든지, 현금 서비스 같은 거 상환한다든지 하는 거죠. 요즘 대출 수요는 중신용자 위주로 크게 늘었어요."김 대표는 "올 상반기 기준으로 월평균 600억원 정도씩 대출이 이뤄졌다"며 "최근에는 월 300억원 정도 대출을 하고 있다"고 설명했다. 수요는 늘어나고 있지만 대출이 줄어든 이유는 크게 두 가지다. 글로벌 투자시장이 냉각되면서 연계투자금(대출을 위해 개인·기업 등으로부터 모집하는 투자금)이 줄어들었고, 대출자 신용평가도 좀 더 강화하고 있어서다. 현재 개인신용대출 평균 금리는 연 10.73%(수수료 포함 13.13%) 정도다.김대윤 피플펀드 대표가 지난해 말 시리즈C 투자 유치에 성공한 뒤 직원들에게 성과를 설명하고 있다. 피플펀드 제공피플펀드는 인공지능(AI) 기술을 활용해 대출 리스크를 최소화하고 있다. "마치 생산 라인에서 결함을 찾아내는 것과 비슷하죠. 예를 들면 삼성전자에서 20년 근무하신 분이고, 신용도 한 번도 떨어져 본 적이 없는데 갑자기 피플펀드에 와서 연 금리 11%짜리 대출을 신청하신 거예요. 그건 일반적이지 않은 패턴이잖아요. 그럼 저희 딥러닝(기계학습) 모델이 위험 신호를 보내는 거죠. 이 같은 이상 징후 점수를 높게 측정해 대출 여부를 판단하게 되죠."반대의 경우도 있다. 은행 등에서는 대출이 어려운데 피플펀드에서는 좋은 조건으로 대출이 이뤄지는 사례도 있다는 것이다. 자체 신용평가 모델을 구축했기 때문에 가능하다고 김 대표는 설명했다. 예컨대 보험판매원들은 높은 연봉을 받더라도 개인 사업자로 분류돼 은행에서 대출받기가 쉽지 않을 수 있다. 김 대표는 "단순한 신용등급보다는 실제 상환 능력을 정확히 검증하는 게 더 중요하다"며 "신용등급이 다소 떨어지더라도 안정적인 대출도 있다"고 말했다.김 대표는 창업 초창기 사업이 다소 더디게 진행됐다고 했다. "저희가 생각했던 것 가운데 하나가 '대부업 라이선스' 갖고는 절대 좋은 고객을 받을 수 없다는 거였어요. 은행들과 뭔가 협업 모델을 만들려고 했죠. 은행 뚫기 위해 정말 많은 노력을 했고, 결국 그것이 지금의 성과를 낳았다고 생각합니다. 부실률도 경쟁사보다 크게 낮고요."피플펀드는 제1금융권 협력 은행과 공동으로 구축한 통합 시스템을 통해 신뢰성을 높이며 이용자들을 늘릴 수 있었다. 대출 손실률(취급한 대출액 중 원금 손실 비율, 2019년 이후)은 1.13% 수준이다.   "100% 모바일 주택담보대출 내놓는다"피플펀드는 새롭게 추진하고 있는 사업들도 있다. 비은행권 최초 100% 비대면 주택담보대출 시스템을 오는 10월까지 완료할 계획이다. 제출해야 하는 서류를 모바일 시스템으로 100% 구현해 나가고 있다. 대출 계약이 이뤄지는 시간을 기존 2주에서 2~3시간 정도로 단축했다는 게 회사 측 설명이다. 앞으로 대출 조회 시 본인 인증 후 정보 추출, 자동화하는 기능까지 구현되면 10분 내로 계약이 이뤄질 수 있을 것으로 기대하고 있다.김 대표는 "스마트폰으로 은행에서 주택담보대출을 받으려고 하면 처음에는 잘 진행되다가 결국 상담사가 오프라인으로 진행하게 돼 있다"며 "피플펀드는 주택담보대출에 필요한 서류가 27개를 모두 모바일로 낼 수 있게 만들었다"고 강조했다. 최종 등기를 제외하고는 모두 스마트폰으로 해결할 수 있다는 설명이다.김 대표는 "앞으로는 고객이 주택을 담보로 손쉽게 대출받을 수 있는 새로운 상품도 나올 수 있다"며 "예컨대 한 1000만원어치만 설정해서 현금 서비스 같이 연 6% 금리로 대출을 받을 수도 있을 것"이라고 말했다.피플펀드는 앞으로 신용평가모델 고도화에 더욱 집중할 계획이다. 이를 위해 지난해 글로벌 금융사인 베인캐피탈, 골드만삭스, CLSA렌딩아크, 500글로벌 등으로부터 759억원 규모의 시리즈C 투자를 유치하기도 했다. 골드만삭스와 CLSA렌딩아크는 피플펀드의 기관투자 유치 자문도 맡았다. 피플펀드의 누적 투자 유치액은 1014억원 수준이다.[영상] 피플펀드가 고객에게 주는 가치는 무엇이라고 생각하십니까? 참 한가지 더피플펀드 대출 자금은 어디서 나올까피플펀드는 개인이나 기업들로부터 자금을 받아 대출을 해주는 구조다. 이런 개인이나 기업들의 투자 금액을 '연계투자금'이라고 부른다. 개인들은 지금까지 43만5000명가량이 피플펀드에 투자했다. 투자 수익률은 연평균 7% 정도다. 최근에는 기업들도 많이 투자한다. 김 대표는 "기업들은 아파트담보대출 상품에 관심이 높다"며 "많이 투자하는 회사들은 20억~30억원 정도 투자하기도 한다"고 설명했다.피플펀드 등 온투업계는 현재 금융기관의 투자를 받기는 어려운 실정이다. 온투업법에서는 금융기관의 연계투자를 허용하고 있다. 하지만 상호저축은행법 등 관련 업권법상 이런 연계투자는 대출로 규정돼 금융기관이 자체 심사를 해야 하는데, 온투업법은 특정 금융사에 대출 신청인의 개인 신용정보를 제공할 수 없도록 규정하고 있다.법이 상충하고 있는데 지금까지 명확한 법적 해석이 이뤄지지 않았다. 김 대표는 "이런 이유들로 금융기관의 투자를 받지 못하고 있다"며 "정부의 가이드라인 등을 통해 해결될 수 있는 문제"라고 했다.지난해 기준 국내 개인신용대출 시장 규모는 158조원 수준이다. 이 가운데 저축은행, 캐피털, 신용카드사, 보험사, 상호금융사 등 제2금융권이 취급하는 대출액은 90조원가량이다. 제1금융권 대출 취급액(63조원)의 약 1.5배다. 김 대표는 "피플펀드가 비은행권 시장에서 대출자들에게 금리를 낮춰줄 수 있는 역할을 할 수 있다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
